--- a/GILD.xlsx
+++ b/GILD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB10D08-DD39-4AE2-BEE0-6B5B4E2069DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E02A770-1CEC-4629-A078-449C64BDEAEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2565" yWindow="1380" windowWidth="19695" windowHeight="13635" activeTab="1" xr2:uid="{EE5219A3-BA1B-4D6E-A979-2CD5C8786A6D}"/>
+    <workbookView xWindow="915" yWindow="1710" windowWidth="19695" windowHeight="13635" activeTab="1" xr2:uid="{EE5219A3-BA1B-4D6E-A979-2CD5C8786A6D}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -905,7 +905,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -923,7 +923,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -943,7 +943,7 @@
       </c>
       <c r="D4" s="2">
         <f>D3*D2</f>
-        <v>120661.11300000001</v>
+        <v>129368.61600000001</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -975,7 +975,7 @@
       </c>
       <c r="D7" s="2">
         <f>D4+D6-D5</f>
-        <v>137746.11300000001</v>
+        <v>146453.61600000001</v>
       </c>
     </row>
   </sheetData>
@@ -989,10 +989,10 @@
   <dimension ref="A1:DR100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="P73" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q14" sqref="Q14"/>
+      <selection pane="bottomRight" activeCell="AA91" sqref="AA91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4518,7 +4518,7 @@
         <v>53</v>
       </c>
       <c r="AA90" s="9">
-        <v>-0.03</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="91" spans="1:27" x14ac:dyDescent="0.2">
@@ -4643,7 +4643,7 @@
       </c>
       <c r="AA92" s="4">
         <f>NPV(AA91,O100:DR100)</f>
-        <v>183315.88862586152</v>
+        <v>170238.23412689965</v>
       </c>
     </row>
     <row r="93" spans="1:27" x14ac:dyDescent="0.2">
@@ -4664,7 +4664,7 @@
       </c>
       <c r="AA93" s="2">
         <f>AA92/main!D3</f>
-        <v>147.36844998859382</v>
+        <v>136.85526595722075</v>
       </c>
     </row>
     <row r="94" spans="1:27" x14ac:dyDescent="0.2">
@@ -4685,7 +4685,7 @@
       </c>
       <c r="AA94" s="8">
         <f>AA93/main!D2-1</f>
-        <v>0.51926237101643125</v>
+        <v>0.31591601881943032</v>
       </c>
     </row>
     <row r="95" spans="1:27" x14ac:dyDescent="0.2">
@@ -4857,395 +4857,395 @@
       </c>
       <c r="Y100" s="4">
         <f>X100*(1+$AA$90)</f>
-        <v>23144.379464576406</v>
+        <v>22667.17576427586</v>
       </c>
       <c r="Z100" s="4">
         <f t="shared" ref="Z100:CK100" si="129">Y100*(1+$AA$90)</f>
-        <v>22450.048080639113</v>
+        <v>21533.816976062066</v>
       </c>
       <c r="AA100" s="4">
         <f t="shared" si="129"/>
-        <v>21776.546638219941</v>
+        <v>20457.126127258962</v>
       </c>
       <c r="AB100" s="4">
         <f t="shared" si="129"/>
-        <v>21123.250239073343</v>
+        <v>19434.269820896014</v>
       </c>
       <c r="AC100" s="4">
         <f t="shared" si="129"/>
-        <v>20489.552731901142</v>
+        <v>18462.556329851213</v>
       </c>
       <c r="AD100" s="4">
         <f t="shared" si="129"/>
-        <v>19874.866149944108</v>
+        <v>17539.428513358653</v>
       </c>
       <c r="AE100" s="4">
         <f t="shared" si="129"/>
-        <v>19278.620165445784</v>
+        <v>16662.45708769072</v>
       </c>
       <c r="AF100" s="4">
         <f t="shared" si="129"/>
-        <v>18700.26156048241</v>
+        <v>15829.334233306183</v>
       </c>
       <c r="AG100" s="4">
         <f t="shared" si="129"/>
-        <v>18139.253713667938</v>
+        <v>15037.867521640874</v>
       </c>
       <c r="AH100" s="4">
         <f t="shared" si="129"/>
-        <v>17595.076102257899</v>
+        <v>14285.97414555883</v>
       </c>
       <c r="AI100" s="4">
         <f t="shared" si="129"/>
-        <v>17067.223819190163</v>
+        <v>13571.675438280889</v>
       </c>
       <c r="AJ100" s="4">
         <f t="shared" si="129"/>
-        <v>16555.207104614459</v>
+        <v>12893.091666366843</v>
       </c>
       <c r="AK100" s="4">
         <f t="shared" si="129"/>
-        <v>16058.550891476025</v>
+        <v>12248.4370830485</v>
       </c>
       <c r="AL100" s="4">
         <f t="shared" si="129"/>
-        <v>15576.794364731744</v>
+        <v>11636.015228896074</v>
       </c>
       <c r="AM100" s="4">
         <f t="shared" si="129"/>
-        <v>15109.490533789791</v>
+        <v>11054.214467451271</v>
       </c>
       <c r="AN100" s="4">
         <f t="shared" si="129"/>
-        <v>14656.205817776097</v>
+        <v>10501.503744078707</v>
       </c>
       <c r="AO100" s="4">
         <f t="shared" si="129"/>
-        <v>14216.519643242815</v>
+        <v>9976.4285568747709</v>
       </c>
       <c r="AP100" s="4">
         <f t="shared" si="129"/>
-        <v>13790.02405394553</v>
+        <v>9477.6071290310319</v>
       </c>
       <c r="AQ100" s="4">
         <f t="shared" si="129"/>
-        <v>13376.323332327163</v>
+        <v>9003.7267725794791</v>
       </c>
       <c r="AR100" s="4">
         <f t="shared" si="129"/>
-        <v>12975.033632357348</v>
+        <v>8553.5404339505039</v>
       </c>
       <c r="AS100" s="4">
         <f t="shared" si="129"/>
-        <v>12585.782623386627</v>
+        <v>8125.8634122529784</v>
       </c>
       <c r="AT100" s="4">
         <f t="shared" si="129"/>
-        <v>12208.209144685028</v>
+        <v>7719.5702416403292</v>
       </c>
       <c r="AU100" s="4">
         <f t="shared" si="129"/>
-        <v>11841.962870344478</v>
+        <v>7333.5917295583122</v>
       </c>
       <c r="AV100" s="4">
         <f t="shared" si="129"/>
-        <v>11486.703984234144</v>
+        <v>6966.9121430803962</v>
       </c>
       <c r="AW100" s="4">
         <f t="shared" si="129"/>
-        <v>11142.10286470712</v>
+        <v>6618.5665359263758</v>
       </c>
       <c r="AX100" s="4">
         <f t="shared" si="129"/>
-        <v>10807.839778765905</v>
+        <v>6287.6382091300566</v>
       </c>
       <c r="AY100" s="4">
         <f t="shared" si="129"/>
-        <v>10483.604585402927</v>
+        <v>5973.2562986735538</v>
       </c>
       <c r="AZ100" s="4">
         <f t="shared" si="129"/>
-        <v>10169.096447840839</v>
+        <v>5674.5934837398763</v>
       </c>
       <c r="BA100" s="4">
         <f t="shared" si="129"/>
-        <v>9864.023554405614</v>
+        <v>5390.8638095528822</v>
       </c>
       <c r="BB100" s="4">
         <f t="shared" si="129"/>
-        <v>9568.1028477734453</v>
+        <v>5121.320619075238</v>
       </c>
       <c r="BC100" s="4">
         <f t="shared" si="129"/>
-        <v>9281.0597623402409</v>
+        <v>4865.2545881214755</v>
       </c>
       <c r="BD100" s="4">
         <f t="shared" si="129"/>
-        <v>9002.6279694700333</v>
+        <v>4621.9918587154016</v>
       </c>
       <c r="BE100" s="4">
         <f t="shared" si="129"/>
-        <v>8732.5491303859326</v>
+        <v>4390.8922657796311</v>
       </c>
       <c r="BF100" s="4">
         <f t="shared" si="129"/>
-        <v>8470.5726564743545</v>
+        <v>4171.3476524906491</v>
       </c>
       <c r="BG100" s="4">
         <f t="shared" si="129"/>
-        <v>8216.4554767801237</v>
+        <v>3962.7802698661167</v>
       </c>
       <c r="BH100" s="4">
         <f t="shared" si="129"/>
-        <v>7969.9618124767194</v>
+        <v>3764.6412563728109</v>
       </c>
       <c r="BI100" s="4">
         <f t="shared" si="129"/>
-        <v>7730.8629581024179</v>
+        <v>3576.4091935541701</v>
       </c>
       <c r="BJ100" s="4">
         <f t="shared" si="129"/>
-        <v>7498.9370693593455</v>
+        <v>3397.5887338764614</v>
       </c>
       <c r="BK100" s="4">
         <f t="shared" si="129"/>
-        <v>7273.9689572785646</v>
+        <v>3227.7092971826382</v>
       </c>
       <c r="BL100" s="4">
         <f t="shared" si="129"/>
-        <v>7055.7498885602072</v>
+        <v>3066.3238323235064</v>
       </c>
       <c r="BM100" s="4">
         <f t="shared" si="129"/>
-        <v>6844.0773919034009</v>
+        <v>2913.0076407073311</v>
       </c>
       <c r="BN100" s="4">
         <f t="shared" si="129"/>
-        <v>6638.7550701462987</v>
+        <v>2767.3572586719642</v>
       </c>
       <c r="BO100" s="4">
         <f t="shared" si="129"/>
-        <v>6439.5924180419097</v>
+        <v>2628.9893957383661</v>
       </c>
       <c r="BP100" s="4">
         <f t="shared" si="129"/>
-        <v>6246.4046455006519</v>
+        <v>2497.5399259514475</v>
       </c>
       <c r="BQ100" s="4">
         <f t="shared" si="129"/>
-        <v>6059.0125061356321</v>
+        <v>2372.6629296538749</v>
       </c>
       <c r="BR100" s="4">
         <f t="shared" si="129"/>
-        <v>5877.242130951563</v>
+        <v>2254.029783171181</v>
       </c>
       <c r="BS100" s="4">
         <f t="shared" si="129"/>
-        <v>5700.9248670230163</v>
+        <v>2141.3282940126219</v>
       </c>
       <c r="BT100" s="4">
         <f t="shared" si="129"/>
-        <v>5529.8971210123254</v>
+        <v>2034.2618793119907</v>
       </c>
       <c r="BU100" s="4">
         <f t="shared" si="129"/>
-        <v>5364.0002073819551</v>
+        <v>1932.548785346391</v>
       </c>
       <c r="BV100" s="4">
         <f t="shared" si="129"/>
-        <v>5203.0802011604965</v>
+        <v>1835.9213460790713</v>
       </c>
       <c r="BW100" s="4">
         <f t="shared" si="129"/>
-        <v>5046.9877951256813</v>
+        <v>1744.1252787751177</v>
       </c>
       <c r="BX100" s="4">
         <f t="shared" si="129"/>
-        <v>4895.5781612719111</v>
+        <v>1656.9190148363618</v>
       </c>
       <c r="BY100" s="4">
         <f t="shared" si="129"/>
-        <v>4748.7108164337533</v>
+        <v>1574.0730640945437</v>
       </c>
       <c r="BZ100" s="4">
         <f t="shared" si="129"/>
-        <v>4606.2494919407409</v>
+        <v>1495.3694108898164</v>
       </c>
       <c r="CA100" s="4">
         <f t="shared" si="129"/>
-        <v>4468.0620071825188</v>
+        <v>1420.6009403453256</v>
       </c>
       <c r="CB100" s="4">
         <f t="shared" si="129"/>
-        <v>4334.0201469670428</v>
+        <v>1349.5708933280594</v>
       </c>
       <c r="CC100" s="4">
         <f t="shared" si="129"/>
-        <v>4203.9995425580319</v>
+        <v>1282.0923486616564</v>
       </c>
       <c r="CD100" s="4">
         <f t="shared" si="129"/>
-        <v>4077.8795562812907</v>
+        <v>1217.9877312285735</v>
       </c>
       <c r="CE100" s="4">
         <f t="shared" si="129"/>
-        <v>3955.5431695928519</v>
+        <v>1157.0883446671448</v>
       </c>
       <c r="CF100" s="4">
         <f t="shared" si="129"/>
-        <v>3836.8768745050661</v>
+        <v>1099.2339274337876</v>
       </c>
       <c r="CG100" s="4">
         <f t="shared" si="129"/>
-        <v>3721.7705682699138</v>
+        <v>1044.2722310620982</v>
       </c>
       <c r="CH100" s="4">
         <f t="shared" si="129"/>
-        <v>3610.1174512218163</v>
+        <v>992.05861950899316</v>
       </c>
       <c r="CI100" s="4">
         <f t="shared" si="129"/>
-        <v>3501.8139276851616</v>
+        <v>942.45568853354348</v>
       </c>
       <c r="CJ100" s="4">
         <f t="shared" si="129"/>
-        <v>3396.7595098546067</v>
+        <v>895.33290410686629</v>
       </c>
       <c r="CK100" s="4">
         <f t="shared" si="129"/>
-        <v>3294.8567245589684</v>
+        <v>850.56625890152293</v>
       </c>
       <c r="CL100" s="4">
         <f t="shared" ref="CL100:DR100" si="130">CK100*(1+$AA$90)</f>
-        <v>3196.0110228221993</v>
+        <v>808.03794595644672</v>
       </c>
       <c r="CM100" s="4">
         <f t="shared" si="130"/>
-        <v>3100.1306921375331</v>
+        <v>767.6360486586243</v>
       </c>
       <c r="CN100" s="4">
         <f t="shared" si="130"/>
-        <v>3007.1267713734069</v>
+        <v>729.25424622569301</v>
       </c>
       <c r="CO100" s="4">
         <f t="shared" si="130"/>
-        <v>2916.9129682322045</v>
+        <v>692.79153391440832</v>
       </c>
       <c r="CP100" s="4">
         <f t="shared" si="130"/>
-        <v>2829.4055791852384</v>
+        <v>658.15195721868793</v>
       </c>
       <c r="CQ100" s="4">
         <f t="shared" si="130"/>
-        <v>2744.523411809681</v>
+        <v>625.24435935775352</v>
       </c>
       <c r="CR100" s="4">
         <f t="shared" si="130"/>
-        <v>2662.1877094553906</v>
+        <v>593.98214138986577</v>
       </c>
       <c r="CS100" s="4">
         <f t="shared" si="130"/>
-        <v>2582.3220781717287</v>
+        <v>564.28303432037251</v>
       </c>
       <c r="CT100" s="4">
         <f t="shared" si="130"/>
-        <v>2504.8524158265768</v>
+        <v>536.0688826043538</v>
       </c>
       <c r="CU100" s="4">
         <f t="shared" si="130"/>
-        <v>2429.7068433517793</v>
+        <v>509.26543847413609</v>
       </c>
       <c r="CV100" s="4">
         <f t="shared" si="130"/>
-        <v>2356.815638051226</v>
+        <v>483.80216655042926</v>
       </c>
       <c r="CW100" s="4">
         <f t="shared" si="130"/>
-        <v>2286.1111689096892</v>
+        <v>459.61205822290776</v>
       </c>
       <c r="CX100" s="4">
         <f t="shared" si="130"/>
-        <v>2217.5278338423986</v>
+        <v>436.63145531176235</v>
       </c>
       <c r="CY100" s="4">
         <f t="shared" si="130"/>
-        <v>2151.0019988271265</v>
+        <v>414.79988254617422</v>
       </c>
       <c r="CZ100" s="4">
         <f t="shared" si="130"/>
-        <v>2086.4719388623125</v>
+        <v>394.05988841886551</v>
       </c>
       <c r="DA100" s="4">
         <f t="shared" si="130"/>
-        <v>2023.8777806964431</v>
+        <v>374.35689399792221</v>
       </c>
       <c r="DB100" s="4">
         <f t="shared" si="130"/>
-        <v>1963.1614472755498</v>
+        <v>355.63904929802607</v>
       </c>
       <c r="DC100" s="4">
         <f t="shared" si="130"/>
-        <v>1904.2666038572831</v>
+        <v>337.85709683312473</v>
       </c>
       <c r="DD100" s="4">
         <f t="shared" si="130"/>
-        <v>1847.1386057415646</v>
+        <v>320.9642419914685</v>
       </c>
       <c r="DE100" s="4">
         <f t="shared" si="130"/>
-        <v>1791.7244475693176</v>
+        <v>304.91602989189505</v>
       </c>
       <c r="DF100" s="4">
         <f t="shared" si="130"/>
-        <v>1737.9727141422379</v>
+        <v>289.67022839730026</v>
       </c>
       <c r="DG100" s="4">
         <f t="shared" si="130"/>
-        <v>1685.8335327179707</v>
+        <v>275.18671697743525</v>
       </c>
       <c r="DH100" s="4">
         <f t="shared" si="130"/>
-        <v>1635.2585267364316</v>
+        <v>261.42738112856347</v>
       </c>
       <c r="DI100" s="4">
         <f t="shared" si="130"/>
-        <v>1586.2007709343386</v>
+        <v>248.35601207213529</v>
       </c>
       <c r="DJ100" s="4">
         <f t="shared" si="130"/>
-        <v>1538.6147478063085</v>
+        <v>235.93821146852852</v>
       </c>
       <c r="DK100" s="4">
         <f t="shared" si="130"/>
-        <v>1492.4563053721192</v>
+        <v>224.14130089510209</v>
       </c>
       <c r="DL100" s="4">
         <f t="shared" si="130"/>
-        <v>1447.6826162109555</v>
+        <v>212.93423585034697</v>
       </c>
       <c r="DM100" s="4">
         <f t="shared" si="130"/>
-        <v>1404.2521377246269</v>
+        <v>202.28752405782961</v>
       </c>
       <c r="DN100" s="4">
         <f t="shared" si="130"/>
-        <v>1362.1245735928881</v>
+        <v>192.17314785493812</v>
       </c>
       <c r="DO100" s="4">
         <f t="shared" si="130"/>
-        <v>1321.2608363851014</v>
+        <v>182.5644904621912</v>
       </c>
       <c r="DP100" s="4">
         <f t="shared" si="130"/>
-        <v>1281.6230112935482</v>
+        <v>173.43626593908164</v>
       </c>
       <c r="DQ100" s="4">
         <f t="shared" si="130"/>
-        <v>1243.1743209547417</v>
+        <v>164.76445264212754</v>
       </c>
       <c r="DR100" s="4">
         <f t="shared" si="130"/>
-        <v>1205.8790913260993</v>
+        <v>156.52623001002115</v>
       </c>
     </row>
   </sheetData>

--- a/GILD.xlsx
+++ b/GILD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E02A770-1CEC-4629-A078-449C64BDEAEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C152A8-1F21-47C7-B0B8-8CB01F2A5F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="1710" windowWidth="19695" windowHeight="13635" activeTab="1" xr2:uid="{EE5219A3-BA1B-4D6E-A979-2CD5C8786A6D}"/>
+    <workbookView xWindow="5175" yWindow="480" windowWidth="17745" windowHeight="14640" activeTab="1" xr2:uid="{EE5219A3-BA1B-4D6E-A979-2CD5C8786A6D}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -989,10 +989,10 @@
   <dimension ref="A1:DR100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="P73" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="Q73" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA91" sqref="AA91"/>
+      <selection pane="bottomRight" activeCell="Z90" sqref="Z90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4518,7 +4518,7 @@
         <v>53</v>
       </c>
       <c r="AA90" s="9">
-        <v>-0.05</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="91" spans="1:27" x14ac:dyDescent="0.2">
@@ -4643,7 +4643,7 @@
       </c>
       <c r="AA92" s="4">
         <f>NPV(AA91,O100:DR100)</f>
-        <v>170238.23412689965</v>
+        <v>183315.88862586152</v>
       </c>
     </row>
     <row r="93" spans="1:27" x14ac:dyDescent="0.2">
@@ -4664,7 +4664,7 @@
       </c>
       <c r="AA93" s="2">
         <f>AA92/main!D3</f>
-        <v>136.85526595722075</v>
+        <v>147.36844998859382</v>
       </c>
     </row>
     <row r="94" spans="1:27" x14ac:dyDescent="0.2">
@@ -4685,7 +4685,7 @@
       </c>
       <c r="AA94" s="8">
         <f>AA93/main!D2-1</f>
-        <v>0.31591601881943032</v>
+        <v>0.41700432681340205</v>
       </c>
     </row>
     <row r="95" spans="1:27" x14ac:dyDescent="0.2">
@@ -4857,395 +4857,395 @@
       </c>
       <c r="Y100" s="4">
         <f>X100*(1+$AA$90)</f>
-        <v>22667.17576427586</v>
+        <v>23144.379464576406</v>
       </c>
       <c r="Z100" s="4">
         <f t="shared" ref="Z100:CK100" si="129">Y100*(1+$AA$90)</f>
-        <v>21533.816976062066</v>
+        <v>22450.048080639113</v>
       </c>
       <c r="AA100" s="4">
         <f t="shared" si="129"/>
-        <v>20457.126127258962</v>
+        <v>21776.546638219941</v>
       </c>
       <c r="AB100" s="4">
         <f t="shared" si="129"/>
-        <v>19434.269820896014</v>
+        <v>21123.250239073343</v>
       </c>
       <c r="AC100" s="4">
         <f t="shared" si="129"/>
-        <v>18462.556329851213</v>
+        <v>20489.552731901142</v>
       </c>
       <c r="AD100" s="4">
         <f t="shared" si="129"/>
-        <v>17539.428513358653</v>
+        <v>19874.866149944108</v>
       </c>
       <c r="AE100" s="4">
         <f t="shared" si="129"/>
-        <v>16662.45708769072</v>
+        <v>19278.620165445784</v>
       </c>
       <c r="AF100" s="4">
         <f t="shared" si="129"/>
-        <v>15829.334233306183</v>
+        <v>18700.26156048241</v>
       </c>
       <c r="AG100" s="4">
         <f t="shared" si="129"/>
-        <v>15037.867521640874</v>
+        <v>18139.253713667938</v>
       </c>
       <c r="AH100" s="4">
         <f t="shared" si="129"/>
-        <v>14285.97414555883</v>
+        <v>17595.076102257899</v>
       </c>
       <c r="AI100" s="4">
         <f t="shared" si="129"/>
-        <v>13571.675438280889</v>
+        <v>17067.223819190163</v>
       </c>
       <c r="AJ100" s="4">
         <f t="shared" si="129"/>
-        <v>12893.091666366843</v>
+        <v>16555.207104614459</v>
       </c>
       <c r="AK100" s="4">
         <f t="shared" si="129"/>
-        <v>12248.4370830485</v>
+        <v>16058.550891476025</v>
       </c>
       <c r="AL100" s="4">
         <f t="shared" si="129"/>
-        <v>11636.015228896074</v>
+        <v>15576.794364731744</v>
       </c>
       <c r="AM100" s="4">
         <f t="shared" si="129"/>
-        <v>11054.214467451271</v>
+        <v>15109.490533789791</v>
       </c>
       <c r="AN100" s="4">
         <f t="shared" si="129"/>
-        <v>10501.503744078707</v>
+        <v>14656.205817776097</v>
       </c>
       <c r="AO100" s="4">
         <f t="shared" si="129"/>
-        <v>9976.4285568747709</v>
+        <v>14216.519643242815</v>
       </c>
       <c r="AP100" s="4">
         <f t="shared" si="129"/>
-        <v>9477.6071290310319</v>
+        <v>13790.02405394553</v>
       </c>
       <c r="AQ100" s="4">
         <f t="shared" si="129"/>
-        <v>9003.7267725794791</v>
+        <v>13376.323332327163</v>
       </c>
       <c r="AR100" s="4">
         <f t="shared" si="129"/>
-        <v>8553.5404339505039</v>
+        <v>12975.033632357348</v>
       </c>
       <c r="AS100" s="4">
         <f t="shared" si="129"/>
-        <v>8125.8634122529784</v>
+        <v>12585.782623386627</v>
       </c>
       <c r="AT100" s="4">
         <f t="shared" si="129"/>
-        <v>7719.5702416403292</v>
+        <v>12208.209144685028</v>
       </c>
       <c r="AU100" s="4">
         <f t="shared" si="129"/>
-        <v>7333.5917295583122</v>
+        <v>11841.962870344478</v>
       </c>
       <c r="AV100" s="4">
         <f t="shared" si="129"/>
-        <v>6966.9121430803962</v>
+        <v>11486.703984234144</v>
       </c>
       <c r="AW100" s="4">
         <f t="shared" si="129"/>
-        <v>6618.5665359263758</v>
+        <v>11142.10286470712</v>
       </c>
       <c r="AX100" s="4">
         <f t="shared" si="129"/>
-        <v>6287.6382091300566</v>
+        <v>10807.839778765905</v>
       </c>
       <c r="AY100" s="4">
         <f t="shared" si="129"/>
-        <v>5973.2562986735538</v>
+        <v>10483.604585402927</v>
       </c>
       <c r="AZ100" s="4">
         <f t="shared" si="129"/>
-        <v>5674.5934837398763</v>
+        <v>10169.096447840839</v>
       </c>
       <c r="BA100" s="4">
         <f t="shared" si="129"/>
-        <v>5390.8638095528822</v>
+        <v>9864.023554405614</v>
       </c>
       <c r="BB100" s="4">
         <f t="shared" si="129"/>
-        <v>5121.320619075238</v>
+        <v>9568.1028477734453</v>
       </c>
       <c r="BC100" s="4">
         <f t="shared" si="129"/>
-        <v>4865.2545881214755</v>
+        <v>9281.0597623402409</v>
       </c>
       <c r="BD100" s="4">
         <f t="shared" si="129"/>
-        <v>4621.9918587154016</v>
+        <v>9002.6279694700333</v>
       </c>
       <c r="BE100" s="4">
         <f t="shared" si="129"/>
-        <v>4390.8922657796311</v>
+        <v>8732.5491303859326</v>
       </c>
       <c r="BF100" s="4">
         <f t="shared" si="129"/>
-        <v>4171.3476524906491</v>
+        <v>8470.5726564743545</v>
       </c>
       <c r="BG100" s="4">
         <f t="shared" si="129"/>
-        <v>3962.7802698661167</v>
+        <v>8216.4554767801237</v>
       </c>
       <c r="BH100" s="4">
         <f t="shared" si="129"/>
-        <v>3764.6412563728109</v>
+        <v>7969.9618124767194</v>
       </c>
       <c r="BI100" s="4">
         <f t="shared" si="129"/>
-        <v>3576.4091935541701</v>
+        <v>7730.8629581024179</v>
       </c>
       <c r="BJ100" s="4">
         <f t="shared" si="129"/>
-        <v>3397.5887338764614</v>
+        <v>7498.9370693593455</v>
       </c>
       <c r="BK100" s="4">
         <f t="shared" si="129"/>
-        <v>3227.7092971826382</v>
+        <v>7273.9689572785646</v>
       </c>
       <c r="BL100" s="4">
         <f t="shared" si="129"/>
-        <v>3066.3238323235064</v>
+        <v>7055.7498885602072</v>
       </c>
       <c r="BM100" s="4">
         <f t="shared" si="129"/>
-        <v>2913.0076407073311</v>
+        <v>6844.0773919034009</v>
       </c>
       <c r="BN100" s="4">
         <f t="shared" si="129"/>
-        <v>2767.3572586719642</v>
+        <v>6638.7550701462987</v>
       </c>
       <c r="BO100" s="4">
         <f t="shared" si="129"/>
-        <v>2628.9893957383661</v>
+        <v>6439.5924180419097</v>
       </c>
       <c r="BP100" s="4">
         <f t="shared" si="129"/>
-        <v>2497.5399259514475</v>
+        <v>6246.4046455006519</v>
       </c>
       <c r="BQ100" s="4">
         <f t="shared" si="129"/>
-        <v>2372.6629296538749</v>
+        <v>6059.0125061356321</v>
       </c>
       <c r="BR100" s="4">
         <f t="shared" si="129"/>
-        <v>2254.029783171181</v>
+        <v>5877.242130951563</v>
       </c>
       <c r="BS100" s="4">
         <f t="shared" si="129"/>
-        <v>2141.3282940126219</v>
+        <v>5700.9248670230163</v>
       </c>
       <c r="BT100" s="4">
         <f t="shared" si="129"/>
-        <v>2034.2618793119907</v>
+        <v>5529.8971210123254</v>
       </c>
       <c r="BU100" s="4">
         <f t="shared" si="129"/>
-        <v>1932.548785346391</v>
+        <v>5364.0002073819551</v>
       </c>
       <c r="BV100" s="4">
         <f t="shared" si="129"/>
-        <v>1835.9213460790713</v>
+        <v>5203.0802011604965</v>
       </c>
       <c r="BW100" s="4">
         <f t="shared" si="129"/>
-        <v>1744.1252787751177</v>
+        <v>5046.9877951256813</v>
       </c>
       <c r="BX100" s="4">
         <f t="shared" si="129"/>
-        <v>1656.9190148363618</v>
+        <v>4895.5781612719111</v>
       </c>
       <c r="BY100" s="4">
         <f t="shared" si="129"/>
-        <v>1574.0730640945437</v>
+        <v>4748.7108164337533</v>
       </c>
       <c r="BZ100" s="4">
         <f t="shared" si="129"/>
-        <v>1495.3694108898164</v>
+        <v>4606.2494919407409</v>
       </c>
       <c r="CA100" s="4">
         <f t="shared" si="129"/>
-        <v>1420.6009403453256</v>
+        <v>4468.0620071825188</v>
       </c>
       <c r="CB100" s="4">
         <f t="shared" si="129"/>
-        <v>1349.5708933280594</v>
+        <v>4334.0201469670428</v>
       </c>
       <c r="CC100" s="4">
         <f t="shared" si="129"/>
-        <v>1282.0923486616564</v>
+        <v>4203.9995425580319</v>
       </c>
       <c r="CD100" s="4">
         <f t="shared" si="129"/>
-        <v>1217.9877312285735</v>
+        <v>4077.8795562812907</v>
       </c>
       <c r="CE100" s="4">
         <f t="shared" si="129"/>
-        <v>1157.0883446671448</v>
+        <v>3955.5431695928519</v>
       </c>
       <c r="CF100" s="4">
         <f t="shared" si="129"/>
-        <v>1099.2339274337876</v>
+        <v>3836.8768745050661</v>
       </c>
       <c r="CG100" s="4">
         <f t="shared" si="129"/>
-        <v>1044.2722310620982</v>
+        <v>3721.7705682699138</v>
       </c>
       <c r="CH100" s="4">
         <f t="shared" si="129"/>
-        <v>992.05861950899316</v>
+        <v>3610.1174512218163</v>
       </c>
       <c r="CI100" s="4">
         <f t="shared" si="129"/>
-        <v>942.45568853354348</v>
+        <v>3501.8139276851616</v>
       </c>
       <c r="CJ100" s="4">
         <f t="shared" si="129"/>
-        <v>895.33290410686629</v>
+        <v>3396.7595098546067</v>
       </c>
       <c r="CK100" s="4">
         <f t="shared" si="129"/>
-        <v>850.56625890152293</v>
+        <v>3294.8567245589684</v>
       </c>
       <c r="CL100" s="4">
         <f t="shared" ref="CL100:DR100" si="130">CK100*(1+$AA$90)</f>
-        <v>808.03794595644672</v>
+        <v>3196.0110228221993</v>
       </c>
       <c r="CM100" s="4">
         <f t="shared" si="130"/>
-        <v>767.6360486586243</v>
+        <v>3100.1306921375331</v>
       </c>
       <c r="CN100" s="4">
         <f t="shared" si="130"/>
-        <v>729.25424622569301</v>
+        <v>3007.1267713734069</v>
       </c>
       <c r="CO100" s="4">
         <f t="shared" si="130"/>
-        <v>692.79153391440832</v>
+        <v>2916.9129682322045</v>
       </c>
       <c r="CP100" s="4">
         <f t="shared" si="130"/>
-        <v>658.15195721868793</v>
+        <v>2829.4055791852384</v>
       </c>
       <c r="CQ100" s="4">
         <f t="shared" si="130"/>
-        <v>625.24435935775352</v>
+        <v>2744.523411809681</v>
       </c>
       <c r="CR100" s="4">
         <f t="shared" si="130"/>
-        <v>593.98214138986577</v>
+        <v>2662.1877094553906</v>
       </c>
       <c r="CS100" s="4">
         <f t="shared" si="130"/>
-        <v>564.28303432037251</v>
+        <v>2582.3220781717287</v>
       </c>
       <c r="CT100" s="4">
         <f t="shared" si="130"/>
-        <v>536.0688826043538</v>
+        <v>2504.8524158265768</v>
       </c>
       <c r="CU100" s="4">
         <f t="shared" si="130"/>
-        <v>509.26543847413609</v>
+        <v>2429.7068433517793</v>
       </c>
       <c r="CV100" s="4">
         <f t="shared" si="130"/>
-        <v>483.80216655042926</v>
+        <v>2356.815638051226</v>
       </c>
       <c r="CW100" s="4">
         <f t="shared" si="130"/>
-        <v>459.61205822290776</v>
+        <v>2286.1111689096892</v>
       </c>
       <c r="CX100" s="4">
         <f t="shared" si="130"/>
-        <v>436.63145531176235</v>
+        <v>2217.5278338423986</v>
       </c>
       <c r="CY100" s="4">
         <f t="shared" si="130"/>
-        <v>414.79988254617422</v>
+        <v>2151.0019988271265</v>
       </c>
       <c r="CZ100" s="4">
         <f t="shared" si="130"/>
-        <v>394.05988841886551</v>
+        <v>2086.4719388623125</v>
       </c>
       <c r="DA100" s="4">
         <f t="shared" si="130"/>
-        <v>374.35689399792221</v>
+        <v>2023.8777806964431</v>
       </c>
       <c r="DB100" s="4">
         <f t="shared" si="130"/>
-        <v>355.63904929802607</v>
+        <v>1963.1614472755498</v>
       </c>
       <c r="DC100" s="4">
         <f t="shared" si="130"/>
-        <v>337.85709683312473</v>
+        <v>1904.2666038572831</v>
       </c>
       <c r="DD100" s="4">
         <f t="shared" si="130"/>
-        <v>320.9642419914685</v>
+        <v>1847.1386057415646</v>
       </c>
       <c r="DE100" s="4">
         <f t="shared" si="130"/>
-        <v>304.91602989189505</v>
+        <v>1791.7244475693176</v>
       </c>
       <c r="DF100" s="4">
         <f t="shared" si="130"/>
-        <v>289.67022839730026</v>
+        <v>1737.9727141422379</v>
       </c>
       <c r="DG100" s="4">
         <f t="shared" si="130"/>
-        <v>275.18671697743525</v>
+        <v>1685.8335327179707</v>
       </c>
       <c r="DH100" s="4">
         <f t="shared" si="130"/>
-        <v>261.42738112856347</v>
+        <v>1635.2585267364316</v>
       </c>
       <c r="DI100" s="4">
         <f t="shared" si="130"/>
-        <v>248.35601207213529</v>
+        <v>1586.2007709343386</v>
       </c>
       <c r="DJ100" s="4">
         <f t="shared" si="130"/>
-        <v>235.93821146852852</v>
+        <v>1538.6147478063085</v>
       </c>
       <c r="DK100" s="4">
         <f t="shared" si="130"/>
-        <v>224.14130089510209</v>
+        <v>1492.4563053721192</v>
       </c>
       <c r="DL100" s="4">
         <f t="shared" si="130"/>
-        <v>212.93423585034697</v>
+        <v>1447.6826162109555</v>
       </c>
       <c r="DM100" s="4">
         <f t="shared" si="130"/>
-        <v>202.28752405782961</v>
+        <v>1404.2521377246269</v>
       </c>
       <c r="DN100" s="4">
         <f t="shared" si="130"/>
-        <v>192.17314785493812</v>
+        <v>1362.1245735928881</v>
       </c>
       <c r="DO100" s="4">
         <f t="shared" si="130"/>
-        <v>182.5644904621912</v>
+        <v>1321.2608363851014</v>
       </c>
       <c r="DP100" s="4">
         <f t="shared" si="130"/>
-        <v>173.43626593908164</v>
+        <v>1281.6230112935482</v>
       </c>
       <c r="DQ100" s="4">
         <f t="shared" si="130"/>
-        <v>164.76445264212754</v>
+        <v>1243.1743209547417</v>
       </c>
       <c r="DR100" s="4">
         <f t="shared" si="130"/>
-        <v>156.52623001002115</v>
+        <v>1205.8790913260993</v>
       </c>
     </row>
   </sheetData>

--- a/GILD.xlsx
+++ b/GILD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C152A8-1F21-47C7-B0B8-8CB01F2A5F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1337A837-9E96-4395-8DAD-F2C270109AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5175" yWindow="480" windowWidth="17745" windowHeight="14640" activeTab="1" xr2:uid="{EE5219A3-BA1B-4D6E-A979-2CD5C8786A6D}"/>
+    <workbookView xWindow="6045" yWindow="780" windowWidth="17745" windowHeight="14640" activeTab="1" xr2:uid="{EE5219A3-BA1B-4D6E-A979-2CD5C8786A6D}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -905,7 +905,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -922,7 +922,7 @@
       <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="6">
         <v>104</v>
       </c>
     </row>
@@ -989,10 +989,10 @@
   <dimension ref="A1:DR100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="Q73" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="S70" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z90" sqref="Z90"/>
+      <selection pane="bottomRight" activeCell="AA89" sqref="AA89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1118,39 +1118,39 @@
       </c>
       <c r="P2" s="7">
         <f t="shared" si="1"/>
-        <v>4.0000000000000036E-2</v>
+        <v>2.8710766250810149E-3</v>
       </c>
       <c r="Q2" s="7">
         <f t="shared" si="1"/>
-        <v>4.0000000000000036E-2</v>
+        <v>0</v>
       </c>
       <c r="R2" s="7">
         <f t="shared" si="1"/>
-        <v>4.0000000000000036E-2</v>
+        <v>0</v>
       </c>
       <c r="S2" s="7">
         <f t="shared" si="1"/>
-        <v>4.0000000000000036E-2</v>
+        <v>0</v>
       </c>
       <c r="T2" s="7">
         <f t="shared" si="1"/>
-        <v>4.0000000000000036E-2</v>
+        <v>0</v>
       </c>
       <c r="U2" s="7">
         <f t="shared" si="1"/>
-        <v>4.0000000000000036E-2</v>
+        <v>0</v>
       </c>
       <c r="V2" s="7">
         <f t="shared" si="1"/>
-        <v>4.0000000000000036E-2</v>
+        <v>0</v>
       </c>
       <c r="W2" s="7">
         <f t="shared" si="1"/>
-        <v>4.0000000000000036E-2</v>
+        <v>0</v>
       </c>
       <c r="X2" s="7">
         <f t="shared" si="1"/>
-        <v>4.0000000000000036E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
@@ -1189,39 +1189,39 @@
       </c>
       <c r="P3" s="8">
         <f t="shared" si="2"/>
-        <v>4.0000000000000036E-2</v>
+        <v>1.4587928897535463E-2</v>
       </c>
       <c r="Q3" s="8">
         <f t="shared" si="2"/>
-        <v>3.9999999999999813E-2</v>
+        <v>1.2939045431786145E-2</v>
       </c>
       <c r="R3" s="8">
         <f t="shared" si="2"/>
-        <v>4.0000000000000258E-2</v>
+        <v>1.3284715708951067E-2</v>
       </c>
       <c r="S3" s="8">
         <f t="shared" si="2"/>
-        <v>4.0000000000000036E-2</v>
+        <v>1.3634967668137321E-2</v>
       </c>
       <c r="T3" s="8">
         <f t="shared" si="2"/>
-        <v>4.0000000000000036E-2</v>
+        <v>1.3989618380554125E-2</v>
       </c>
       <c r="U3" s="8">
         <f t="shared" si="2"/>
-        <v>4.0000000000000036E-2</v>
+        <v>1.4348473447896914E-2</v>
       </c>
       <c r="V3" s="8">
         <f t="shared" si="2"/>
-        <v>4.0000000000000036E-2</v>
+        <v>1.471132729671254E-2</v>
       </c>
       <c r="W3" s="8">
         <f t="shared" si="2"/>
-        <v>4.0000000000000036E-2</v>
+        <v>1.5077963532092564E-2</v>
       </c>
       <c r="X3" s="8">
         <f t="shared" si="2"/>
-        <v>3.9999999999999813E-2</v>
+        <v>1.5448155350365367E-2</v>
       </c>
     </row>
     <row r="4" spans="1:24" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1244,43 +1244,43 @@
       </c>
       <c r="O4" s="8">
         <f t="shared" ref="O4:X4" si="3">O17/N17-1</f>
-        <v>5.0000000000000044E-2</v>
+        <v>3.0000000000000027E-2</v>
       </c>
       <c r="P4" s="8">
         <f t="shared" si="3"/>
-        <v>5.0000000000000044E-2</v>
+        <v>3.0000000000000027E-2</v>
       </c>
       <c r="Q4" s="8">
         <f t="shared" si="3"/>
-        <v>5.0000000000000044E-2</v>
+        <v>3.0000000000000027E-2</v>
       </c>
       <c r="R4" s="8">
         <f t="shared" si="3"/>
-        <v>5.0000000000000044E-2</v>
+        <v>3.0000000000000027E-2</v>
       </c>
       <c r="S4" s="8">
         <f t="shared" si="3"/>
-        <v>5.0000000000000044E-2</v>
+        <v>3.0000000000000027E-2</v>
       </c>
       <c r="T4" s="8">
         <f t="shared" si="3"/>
-        <v>5.0000000000000044E-2</v>
+        <v>3.0000000000000027E-2</v>
       </c>
       <c r="U4" s="8">
         <f t="shared" si="3"/>
-        <v>5.0000000000000044E-2</v>
+        <v>3.0000000000000027E-2</v>
       </c>
       <c r="V4" s="8">
         <f t="shared" si="3"/>
-        <v>5.0000000000000044E-2</v>
+        <v>3.0000000000000027E-2</v>
       </c>
       <c r="W4" s="8">
         <f t="shared" si="3"/>
-        <v>5.0000000000000044E-2</v>
+        <v>3.0000000000000027E-2</v>
       </c>
       <c r="X4" s="8">
         <f t="shared" si="3"/>
-        <v>5.0000000000000044E-2</v>
+        <v>3.0000000000000027E-2</v>
       </c>
     </row>
     <row r="5" spans="1:24" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1362,43 +1362,43 @@
       </c>
       <c r="O6" s="8">
         <f t="shared" si="5"/>
-        <v>9.000000000000008E-2</v>
+        <v>7.7998783454987786E-2</v>
       </c>
       <c r="P6" s="8">
         <f t="shared" si="5"/>
-        <v>9.000000000000008E-2</v>
+        <v>7.8087832843366956E-2</v>
       </c>
       <c r="Q6" s="8">
         <f t="shared" si="5"/>
-        <v>9.000000000000008E-2</v>
+        <v>7.8177198119395275E-2</v>
       </c>
       <c r="R6" s="8">
         <f t="shared" si="5"/>
-        <v>8.9999999999999858E-2</v>
+        <v>7.8266865563181964E-2</v>
       </c>
       <c r="S6" s="8">
         <f t="shared" si="5"/>
-        <v>9.000000000000008E-2</v>
+        <v>7.8356821257937748E-2</v>
       </c>
       <c r="T6" s="8">
         <f t="shared" si="5"/>
-        <v>9.000000000000008E-2</v>
+        <v>7.8447051098101239E-2</v>
       </c>
       <c r="U6" s="8">
         <f t="shared" si="5"/>
-        <v>9.0000000000000302E-2</v>
+        <v>7.8537540797719796E-2</v>
       </c>
       <c r="V6" s="8">
         <f t="shared" si="5"/>
-        <v>9.000000000000008E-2</v>
+        <v>7.8628275899076616E-2</v>
       </c>
       <c r="W6" s="8">
         <f t="shared" si="5"/>
-        <v>9.000000000000008E-2</v>
+        <v>7.871924178156231E-2</v>
       </c>
       <c r="X6" s="8">
         <f t="shared" si="5"/>
-        <v>9.000000000000008E-2</v>
+        <v>7.881042367076585E-2</v>
       </c>
     </row>
     <row r="7" spans="1:24" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1551,40 +1551,31 @@
         <v>13959.92</v>
       </c>
       <c r="P15" s="4">
-        <f t="shared" ref="P15:X15" si="8">O15*1.04</f>
-        <v>14518.316800000001</v>
+        <v>14000</v>
       </c>
       <c r="Q15" s="4">
-        <f t="shared" si="8"/>
-        <v>15099.049472000001</v>
+        <v>14000</v>
       </c>
       <c r="R15" s="4">
-        <f t="shared" si="8"/>
-        <v>15703.011450880002</v>
+        <v>14000</v>
       </c>
       <c r="S15" s="4">
-        <f t="shared" si="8"/>
-        <v>16331.131908915202</v>
+        <v>14000</v>
       </c>
       <c r="T15" s="4">
-        <f t="shared" si="8"/>
-        <v>16984.377185271809</v>
+        <v>14000</v>
       </c>
       <c r="U15" s="4">
-        <f t="shared" si="8"/>
-        <v>17663.752272682683</v>
+        <v>14000</v>
       </c>
       <c r="V15" s="4">
-        <f t="shared" si="8"/>
-        <v>18370.302363589992</v>
+        <v>14000</v>
       </c>
       <c r="W15" s="4">
-        <f t="shared" si="8"/>
-        <v>19105.11445813359</v>
+        <v>14000</v>
       </c>
       <c r="X15" s="4">
-        <f t="shared" si="8"/>
-        <v>19869.319036458935</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
@@ -1617,39 +1608,39 @@
         <v>6436.56</v>
       </c>
       <c r="P16" s="2">
-        <f t="shared" ref="P16:X16" si="9">O16*1.04</f>
+        <f t="shared" ref="P16:X16" si="8">O16*1.04</f>
         <v>6694.0224000000007</v>
       </c>
       <c r="Q16" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>6961.7832960000014</v>
       </c>
       <c r="R16" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>7240.2546278400014</v>
       </c>
       <c r="S16" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>7529.8648129536014</v>
       </c>
       <c r="T16" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>7831.0594054717458</v>
       </c>
       <c r="U16" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>8144.3017816906158</v>
       </c>
       <c r="V16" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>8470.0738529582413</v>
       </c>
       <c r="W16" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>8808.8768070765709</v>
       </c>
       <c r="X16" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>9161.2318793596332</v>
       </c>
     </row>
@@ -1674,44 +1665,44 @@
         <v>3021</v>
       </c>
       <c r="O17" s="2">
-        <f>N17*1.05</f>
-        <v>3172.05</v>
+        <f>N17*1.03</f>
+        <v>3111.63</v>
       </c>
       <c r="P17" s="2">
-        <f t="shared" ref="P17:X17" si="10">O17*1.05</f>
-        <v>3330.6525000000001</v>
+        <f t="shared" ref="P17:X17" si="9">O17*1.03</f>
+        <v>3204.9789000000001</v>
       </c>
       <c r="Q17" s="2">
-        <f t="shared" si="10"/>
-        <v>3497.1851250000004</v>
+        <f t="shared" si="9"/>
+        <v>3301.1282670000001</v>
       </c>
       <c r="R17" s="2">
-        <f t="shared" si="10"/>
-        <v>3672.0443812500007</v>
+        <f t="shared" si="9"/>
+        <v>3400.16211501</v>
       </c>
       <c r="S17" s="2">
-        <f t="shared" si="10"/>
-        <v>3855.6466003125011</v>
+        <f t="shared" si="9"/>
+        <v>3502.1669784603</v>
       </c>
       <c r="T17" s="2">
-        <f t="shared" si="10"/>
-        <v>4048.4289303281262</v>
+        <f t="shared" si="9"/>
+        <v>3607.2319878141093</v>
       </c>
       <c r="U17" s="2">
-        <f t="shared" si="10"/>
-        <v>4250.8503768445325</v>
+        <f t="shared" si="9"/>
+        <v>3715.4489474485326</v>
       </c>
       <c r="V17" s="2">
-        <f t="shared" si="10"/>
-        <v>4463.3928956867594</v>
+        <f t="shared" si="9"/>
+        <v>3826.9124158719887</v>
       </c>
       <c r="W17" s="2">
-        <f t="shared" si="10"/>
-        <v>4686.5625404710972</v>
+        <f t="shared" si="9"/>
+        <v>3941.7197883481485</v>
       </c>
       <c r="X17" s="2">
-        <f t="shared" si="10"/>
-        <v>4920.890667494652</v>
+        <f t="shared" si="9"/>
+        <v>4059.9713819985932</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
@@ -1790,44 +1781,44 @@
         <v>1973</v>
       </c>
       <c r="O19" s="2">
-        <f>N19*1.09</f>
-        <v>2150.5700000000002</v>
+        <f>N19*1.07</f>
+        <v>2111.11</v>
       </c>
       <c r="P19" s="2">
-        <f t="shared" ref="P19:X19" si="11">O19*1.09</f>
-        <v>2344.1213000000002</v>
+        <f t="shared" ref="P19:X19" si="10">O19*1.07</f>
+        <v>2258.8877000000002</v>
       </c>
       <c r="Q19" s="2">
-        <f t="shared" si="11"/>
-        <v>2555.0922170000003</v>
+        <f t="shared" si="10"/>
+        <v>2417.0098390000003</v>
       </c>
       <c r="R19" s="2">
-        <f t="shared" si="11"/>
-        <v>2785.0505165300006</v>
+        <f t="shared" si="10"/>
+        <v>2586.2005277300004</v>
       </c>
       <c r="S19" s="2">
-        <f t="shared" si="11"/>
-        <v>3035.7050630177009</v>
+        <f t="shared" si="10"/>
+        <v>2767.2345646711005</v>
       </c>
       <c r="T19" s="2">
-        <f t="shared" si="11"/>
-        <v>3308.9185186892942</v>
+        <f t="shared" si="10"/>
+        <v>2960.9409841980778</v>
       </c>
       <c r="U19" s="2">
-        <f t="shared" si="11"/>
-        <v>3606.7211853713311</v>
+        <f t="shared" si="10"/>
+        <v>3168.2068530919432</v>
       </c>
       <c r="V19" s="2">
-        <f t="shared" si="11"/>
-        <v>3931.3260920547514</v>
+        <f t="shared" si="10"/>
+        <v>3389.9813328083796</v>
       </c>
       <c r="W19" s="2">
-        <f t="shared" si="11"/>
-        <v>4285.1454403396792</v>
+        <f t="shared" si="10"/>
+        <v>3627.2800261049665</v>
       </c>
       <c r="X19" s="2">
-        <f t="shared" si="11"/>
-        <v>4670.8085299702507</v>
+        <f t="shared" si="10"/>
+        <v>3881.1896279323146</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
@@ -1855,39 +1846,39 @@
         <v>1433.3500000000001</v>
       </c>
       <c r="P20" s="2">
-        <f t="shared" ref="P20:X20" si="12">O20*1.09</f>
+        <f t="shared" ref="P20:X20" si="11">O20*1.09</f>
         <v>1562.3515000000002</v>
       </c>
       <c r="Q20" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1702.9631350000004</v>
       </c>
       <c r="R20" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1856.2298171500006</v>
       </c>
       <c r="S20" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>2023.2905006935007</v>
       </c>
       <c r="T20" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>2205.3866457559161</v>
       </c>
       <c r="U20" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>2403.8714438739489</v>
       </c>
       <c r="V20" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>2620.2198738226043</v>
       </c>
       <c r="W20" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>2856.0396624666391</v>
       </c>
       <c r="X20" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>3113.083232088637</v>
       </c>
     </row>
@@ -1912,44 +1903,34 @@
         <v>889</v>
       </c>
       <c r="O21" s="2">
-        <f>N21*1.02</f>
-        <v>906.78</v>
+        <v>900</v>
       </c>
       <c r="P21" s="2">
-        <f t="shared" ref="P21:X21" si="13">O21*1.02</f>
-        <v>924.91560000000004</v>
+        <v>900</v>
       </c>
       <c r="Q21" s="2">
-        <f t="shared" si="13"/>
-        <v>943.4139120000001</v>
+        <v>900</v>
       </c>
       <c r="R21" s="2">
-        <f t="shared" si="13"/>
-        <v>962.28219024000009</v>
+        <v>900</v>
       </c>
       <c r="S21" s="2">
-        <f t="shared" si="13"/>
-        <v>981.5278340448001</v>
+        <v>900</v>
       </c>
       <c r="T21" s="2">
-        <f t="shared" si="13"/>
-        <v>1001.1583907256961</v>
+        <v>900</v>
       </c>
       <c r="U21" s="2">
-        <f t="shared" si="13"/>
-        <v>1021.1815585402101</v>
+        <v>900</v>
       </c>
       <c r="V21" s="2">
-        <f t="shared" si="13"/>
-        <v>1041.6051897110142</v>
+        <v>900</v>
       </c>
       <c r="W21" s="2">
-        <f t="shared" si="13"/>
-        <v>1062.4372935052345</v>
+        <v>900</v>
       </c>
       <c r="X21" s="2">
-        <f t="shared" si="13"/>
-        <v>1083.6860393753393</v>
+        <v>900</v>
       </c>
     </row>
     <row r="22" spans="1:24" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1981,40 +1962,40 @@
         <v>28400</v>
       </c>
       <c r="P22" s="4">
-        <f t="shared" ref="P22:X22" si="14">SUM(P15:P21)</f>
-        <v>30073.880100000002</v>
+        <f t="shared" ref="P22:X22" si="12">SUM(P15:P21)</f>
+        <v>29319.740500000004</v>
       </c>
       <c r="Q22" s="4">
-        <f t="shared" si="14"/>
-        <v>31109.237157000003</v>
+        <f t="shared" si="12"/>
+        <v>29632.634537000002</v>
       </c>
       <c r="R22" s="4">
-        <f t="shared" si="14"/>
-        <v>32218.872983890007</v>
+        <f t="shared" si="12"/>
+        <v>29982.847087730002</v>
       </c>
       <c r="S22" s="4">
-        <f t="shared" si="14"/>
-        <v>33757.166719937304</v>
+        <f t="shared" si="12"/>
+        <v>30722.556856778501</v>
       </c>
       <c r="T22" s="4">
-        <f t="shared" si="14"/>
-        <v>35379.329076242582</v>
+        <f t="shared" si="12"/>
+        <v>31504.619023239848</v>
       </c>
       <c r="U22" s="4">
-        <f t="shared" si="14"/>
-        <v>37090.678619003324</v>
+        <f t="shared" si="12"/>
+        <v>32331.829026105035</v>
       </c>
       <c r="V22" s="4">
-        <f t="shared" si="14"/>
-        <v>38896.920267823371</v>
+        <f t="shared" si="12"/>
+        <v>33207.187475461214</v>
       </c>
       <c r="W22" s="4">
-        <f t="shared" si="14"/>
-        <v>40804.176201992814</v>
+        <f t="shared" si="12"/>
+        <v>34133.916283996325</v>
       </c>
       <c r="X22" s="4">
-        <f t="shared" si="14"/>
-        <v>42819.019384747451</v>
+        <f t="shared" si="12"/>
+        <v>35115.476121379179</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
@@ -2041,39 +2022,39 @@
         <v>154.08000000000001</v>
       </c>
       <c r="P23" s="2">
-        <f t="shared" ref="P23:S23" si="15">O23*1.07</f>
+        <f t="shared" ref="P23:S23" si="13">O23*1.07</f>
         <v>164.86560000000003</v>
       </c>
       <c r="Q23" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>176.40619200000003</v>
       </c>
       <c r="R23" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>188.75462544000004</v>
       </c>
       <c r="S23" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>201.96744922080006</v>
       </c>
       <c r="T23" s="2">
-        <f t="shared" ref="T23:X23" si="16">S23*1.07</f>
+        <f t="shared" ref="T23:X23" si="14">S23*1.07</f>
         <v>216.10517066625607</v>
       </c>
       <c r="U23" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>231.232532612894</v>
       </c>
       <c r="V23" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>247.41880989579661</v>
       </c>
       <c r="W23" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>264.73812658850238</v>
       </c>
       <c r="X23" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>283.26979544969754</v>
       </c>
     </row>
@@ -2086,84 +2067,84 @@
         <v>6686</v>
       </c>
       <c r="D24" s="4">
-        <f t="shared" ref="D24:L24" si="17">SUM(D22:D23)</f>
+        <f t="shared" ref="D24:L24" si="15">SUM(D22:D23)</f>
         <v>0</v>
       </c>
       <c r="E24" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F24" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G24" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>6667</v>
       </c>
       <c r="H24" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I24" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J24" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L24" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>27281</v>
       </c>
       <c r="M24" s="4">
-        <f t="shared" ref="M24" si="18">SUM(M22:M23)</f>
+        <f t="shared" ref="M24" si="16">SUM(M22:M23)</f>
         <v>27116</v>
       </c>
       <c r="N24" s="4">
-        <f t="shared" ref="N24" si="19">SUM(N22:N23)</f>
+        <f t="shared" ref="N24" si="17">SUM(N22:N23)</f>
         <v>28753</v>
       </c>
       <c r="O24" s="4">
-        <f t="shared" ref="O24" si="20">SUM(O22:O23)</f>
+        <f t="shared" ref="O24" si="18">SUM(O22:O23)</f>
         <v>28554.080000000002</v>
       </c>
       <c r="P24" s="4">
-        <f t="shared" ref="P24" si="21">SUM(P22:P23)</f>
-        <v>30238.745700000003</v>
+        <f t="shared" ref="P24" si="19">SUM(P22:P23)</f>
+        <v>29484.606100000005</v>
       </c>
       <c r="Q24" s="4">
-        <f t="shared" ref="Q24" si="22">SUM(Q22:Q23)</f>
-        <v>31285.643349000002</v>
+        <f t="shared" ref="Q24" si="20">SUM(Q22:Q23)</f>
+        <v>29809.040729</v>
       </c>
       <c r="R24" s="4">
-        <f t="shared" ref="R24" si="23">SUM(R22:R23)</f>
-        <v>32407.627609330008</v>
+        <f t="shared" ref="R24" si="21">SUM(R22:R23)</f>
+        <v>30171.601713170003</v>
       </c>
       <c r="S24" s="4">
-        <f t="shared" ref="S24" si="24">SUM(S22:S23)</f>
-        <v>33959.134169158104</v>
+        <f t="shared" ref="S24" si="22">SUM(S22:S23)</f>
+        <v>30924.524305999301</v>
       </c>
       <c r="T24" s="4">
-        <f t="shared" ref="T24" si="25">SUM(T22:T23)</f>
-        <v>35595.434246908837</v>
+        <f t="shared" ref="T24" si="23">SUM(T22:T23)</f>
+        <v>31720.724193906102</v>
       </c>
       <c r="U24" s="4">
-        <f t="shared" ref="U24" si="26">SUM(U22:U23)</f>
-        <v>37321.911151616216</v>
+        <f t="shared" ref="U24" si="24">SUM(U22:U23)</f>
+        <v>32563.061558717931</v>
       </c>
       <c r="V24" s="4">
-        <f t="shared" ref="V24" si="27">SUM(V22:V23)</f>
-        <v>39144.339077719167</v>
+        <f t="shared" ref="V24" si="25">SUM(V22:V23)</f>
+        <v>33454.606285357011</v>
       </c>
       <c r="W24" s="4">
-        <f t="shared" ref="W24" si="28">SUM(W22:W23)</f>
-        <v>41068.914328581319</v>
+        <f t="shared" ref="W24" si="26">SUM(W22:W23)</f>
+        <v>34398.65441058483</v>
       </c>
       <c r="X24" s="4">
-        <f t="shared" ref="X24" si="29">SUM(X22:X23)</f>
-        <v>43102.289180197149</v>
+        <f t="shared" ref="X24" si="27">SUM(X22:X23)</f>
+        <v>35398.745916828877</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
@@ -2186,44 +2167,44 @@
         <v>6251</v>
       </c>
       <c r="O25" s="2">
-        <f t="shared" ref="O25:X25" si="30">O24*(1-O43)</f>
+        <f t="shared" ref="O25:X25" si="28">O24*(1-O43)</f>
         <v>6281.8975999999993</v>
       </c>
       <c r="P25" s="2">
-        <f t="shared" si="30"/>
-        <v>6652.5240539999995</v>
+        <f t="shared" si="28"/>
+        <v>6486.6133420000006</v>
       </c>
       <c r="Q25" s="2">
-        <f t="shared" si="30"/>
-        <v>6882.8415367799998</v>
+        <f t="shared" si="28"/>
+        <v>6557.9889603799993</v>
       </c>
       <c r="R25" s="2">
-        <f t="shared" si="30"/>
-        <v>7129.678074052601</v>
+        <f t="shared" si="28"/>
+        <v>6637.7523768973997</v>
       </c>
       <c r="S25" s="2">
-        <f t="shared" si="30"/>
-        <v>7471.0095172147821</v>
+        <f t="shared" si="28"/>
+        <v>6803.3953473198453</v>
       </c>
       <c r="T25" s="2">
-        <f t="shared" si="30"/>
-        <v>7830.9955343199435</v>
+        <f t="shared" si="28"/>
+        <v>6978.5593226593419</v>
       </c>
       <c r="U25" s="2">
-        <f t="shared" si="30"/>
-        <v>8210.8204533555672</v>
+        <f t="shared" si="28"/>
+        <v>7163.8735429179442</v>
       </c>
       <c r="V25" s="2">
-        <f t="shared" si="30"/>
-        <v>8611.7545970982155</v>
+        <f t="shared" si="28"/>
+        <v>7360.0133827785412</v>
       </c>
       <c r="W25" s="2">
-        <f t="shared" si="30"/>
-        <v>9035.1611522878884</v>
+        <f t="shared" si="28"/>
+        <v>7567.7039703286619</v>
       </c>
       <c r="X25" s="2">
-        <f t="shared" si="30"/>
-        <v>9482.5036196433721</v>
+        <f t="shared" si="28"/>
+        <v>7787.7241017023516</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
@@ -2235,84 +2216,84 @@
         <v>5134</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" ref="D26:L26" si="31">D24-D25</f>
+        <f t="shared" ref="D26:L26" si="29">D24-D25</f>
         <v>0</v>
       </c>
       <c r="E26" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="F26" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="G26" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>5127</v>
       </c>
       <c r="H26" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="I26" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="J26" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L26" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>21624</v>
       </c>
       <c r="M26" s="2">
-        <f t="shared" ref="M26" si="32">M24-M25</f>
+        <f t="shared" ref="M26" si="30">M24-M25</f>
         <v>20618</v>
       </c>
       <c r="N26" s="2">
-        <f t="shared" ref="N26" si="33">N24-N25</f>
+        <f t="shared" ref="N26" si="31">N24-N25</f>
         <v>22502</v>
       </c>
       <c r="O26" s="2">
-        <f t="shared" ref="O26:X26" si="34">O24-O25</f>
+        <f t="shared" ref="O26:X26" si="32">O24-O25</f>
         <v>22272.182400000002</v>
       </c>
       <c r="P26" s="2">
-        <f t="shared" si="34"/>
-        <v>23586.221646000005</v>
+        <f t="shared" si="32"/>
+        <v>22997.992758000004</v>
       </c>
       <c r="Q26" s="2">
-        <f t="shared" si="34"/>
-        <v>24402.801812220001</v>
+        <f t="shared" si="32"/>
+        <v>23251.05176862</v>
       </c>
       <c r="R26" s="2">
-        <f t="shared" si="34"/>
-        <v>25277.949535277407</v>
+        <f t="shared" si="32"/>
+        <v>23533.849336272604</v>
       </c>
       <c r="S26" s="2">
-        <f t="shared" si="34"/>
-        <v>26488.124651943323</v>
+        <f t="shared" si="32"/>
+        <v>24121.128958679456</v>
       </c>
       <c r="T26" s="2">
-        <f t="shared" si="34"/>
-        <v>27764.438712588893</v>
+        <f t="shared" si="32"/>
+        <v>24742.164871246761</v>
       </c>
       <c r="U26" s="2">
-        <f t="shared" si="34"/>
-        <v>29111.090698260647</v>
+        <f t="shared" si="32"/>
+        <v>25399.188015799988</v>
       </c>
       <c r="V26" s="2">
-        <f t="shared" si="34"/>
-        <v>30532.58448062095</v>
+        <f t="shared" si="32"/>
+        <v>26094.592902578472</v>
       </c>
       <c r="W26" s="2">
-        <f t="shared" si="34"/>
-        <v>32033.75317629343</v>
+        <f t="shared" si="32"/>
+        <v>26830.950440256169</v>
       </c>
       <c r="X26" s="2">
-        <f t="shared" si="34"/>
-        <v>33619.785560553777</v>
+        <f t="shared" si="32"/>
+        <v>27611.021815126525</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.2">
@@ -2384,84 +2365,84 @@
         <v>7936</v>
       </c>
       <c r="D30" s="2">
-        <f t="shared" ref="D30:L30" si="35">SUM(D27:D29)</f>
+        <f t="shared" ref="D30:L30" si="33">SUM(D27:D29)</f>
         <v>0</v>
       </c>
       <c r="E30" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="G30" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>2890</v>
       </c>
       <c r="H30" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="I30" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="J30" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="L30" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>11594</v>
       </c>
       <c r="M30" s="2">
-        <f t="shared" ref="M30" si="36">SUM(M27:M29)</f>
+        <f t="shared" ref="M30" si="34">SUM(M27:M29)</f>
         <v>12963</v>
       </c>
       <c r="N30" s="2">
-        <f t="shared" ref="N30" si="37">SUM(N27:N29)</f>
+        <f t="shared" ref="N30" si="35">SUM(N27:N29)</f>
         <v>16661</v>
       </c>
       <c r="O30" s="2">
-        <f t="shared" ref="O30:X30" si="38">O24*O45</f>
+        <f t="shared" ref="O30:X30" si="36">O24*O45</f>
         <v>15552.991175432127</v>
       </c>
       <c r="P30" s="2">
-        <f t="shared" si="38"/>
-        <v>15482.367785148113</v>
+        <f t="shared" si="36"/>
+        <v>15096.245068141883</v>
       </c>
       <c r="Q30" s="2">
-        <f t="shared" si="38"/>
-        <v>15057.280848813098</v>
+        <f t="shared" si="36"/>
+        <v>14346.615573261271</v>
       </c>
       <c r="R30" s="2">
-        <f t="shared" si="38"/>
-        <v>14661.437529257229</v>
+        <f t="shared" si="36"/>
+        <v>13649.843765420188</v>
       </c>
       <c r="S30" s="2">
-        <f t="shared" si="38"/>
-        <v>15281.610376121147</v>
+        <f t="shared" si="36"/>
+        <v>13916.035937699686</v>
       </c>
       <c r="T30" s="2">
-        <f t="shared" si="38"/>
-        <v>16017.945411108976</v>
+        <f t="shared" si="36"/>
+        <v>14274.325887257746</v>
       </c>
       <c r="U30" s="2">
-        <f t="shared" si="38"/>
-        <v>16794.860018227297</v>
+        <f t="shared" si="36"/>
+        <v>14653.377701423069</v>
       </c>
       <c r="V30" s="2">
-        <f t="shared" si="38"/>
-        <v>17614.952584973627</v>
+        <f t="shared" si="36"/>
+        <v>15054.572828410655</v>
       </c>
       <c r="W30" s="2">
-        <f t="shared" si="38"/>
-        <v>18481.011447861594</v>
+        <f t="shared" si="36"/>
+        <v>15479.394484763174</v>
       </c>
       <c r="X30" s="2">
-        <f t="shared" si="38"/>
-        <v>19396.030131088719</v>
+        <f t="shared" si="36"/>
+        <v>15929.435662572994</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.2">
@@ -2473,84 +2454,84 @@
         <v>-2802</v>
       </c>
       <c r="D31" s="2">
-        <f t="shared" ref="D31:L31" si="39">D26-D30</f>
+        <f t="shared" ref="D31:L31" si="37">D26-D30</f>
         <v>0</v>
       </c>
       <c r="E31" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="F31" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="G31" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>2237</v>
       </c>
       <c r="H31" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="I31" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="J31" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="L31" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>10030</v>
       </c>
       <c r="M31" s="2">
-        <f t="shared" ref="M31" si="40">M26-M30</f>
+        <f t="shared" ref="M31" si="38">M26-M30</f>
         <v>7655</v>
       </c>
       <c r="N31" s="2">
-        <f t="shared" ref="N31" si="41">N26-N30</f>
+        <f t="shared" ref="N31" si="39">N26-N30</f>
         <v>5841</v>
       </c>
       <c r="O31" s="2">
-        <f t="shared" ref="O31" si="42">O26-O30</f>
+        <f t="shared" ref="O31" si="40">O26-O30</f>
         <v>6719.1912245678741</v>
       </c>
       <c r="P31" s="2">
-        <f t="shared" ref="P31" si="43">P26-P30</f>
-        <v>8103.853860851892</v>
+        <f t="shared" ref="P31" si="41">P26-P30</f>
+        <v>7901.7476898581208</v>
       </c>
       <c r="Q31" s="2">
-        <f t="shared" ref="Q31" si="44">Q26-Q30</f>
-        <v>9345.5209634069033</v>
+        <f t="shared" ref="Q31" si="42">Q26-Q30</f>
+        <v>8904.4361953587286</v>
       </c>
       <c r="R31" s="2">
-        <f t="shared" ref="R31" si="45">R26-R30</f>
-        <v>10616.512006020177</v>
+        <f t="shared" ref="R31" si="43">R26-R30</f>
+        <v>9884.005570852416</v>
       </c>
       <c r="S31" s="2">
-        <f t="shared" ref="S31" si="46">S26-S30</f>
-        <v>11206.514275822175</v>
+        <f t="shared" ref="S31" si="44">S26-S30</f>
+        <v>10205.09302097977</v>
       </c>
       <c r="T31" s="2">
-        <f t="shared" ref="T31" si="47">T26-T30</f>
-        <v>11746.493301479917</v>
+        <f t="shared" ref="T31" si="45">T26-T30</f>
+        <v>10467.838983989015</v>
       </c>
       <c r="U31" s="2">
-        <f t="shared" ref="U31" si="48">U26-U30</f>
-        <v>12316.23068003335</v>
+        <f t="shared" ref="U31" si="46">U26-U30</f>
+        <v>10745.810314376919</v>
       </c>
       <c r="V31" s="2">
-        <f t="shared" ref="V31" si="49">V26-V30</f>
-        <v>12917.631895647322</v>
+        <f t="shared" ref="V31" si="47">V26-V30</f>
+        <v>11040.020074167816</v>
       </c>
       <c r="W31" s="2">
-        <f t="shared" ref="W31" si="50">W26-W30</f>
-        <v>13552.741728431836</v>
+        <f t="shared" ref="W31" si="48">W26-W30</f>
+        <v>11351.555955492995</v>
       </c>
       <c r="X31" s="2">
-        <f t="shared" ref="X31" si="51">X26-X30</f>
-        <v>14223.755429465058</v>
+        <f t="shared" ref="X31" si="49">X26-X30</f>
+        <v>11681.586152553531</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.2">
@@ -2573,44 +2554,44 @@
         <v>-977</v>
       </c>
       <c r="O32" s="2">
-        <f t="shared" ref="O32:X32" si="52">N47*$AA$89</f>
-        <v>-1065.24</v>
+        <f t="shared" ref="O32:X32" si="50">N47*$AA$89</f>
+        <v>-710.16</v>
       </c>
       <c r="P32" s="2">
-        <f t="shared" si="52"/>
-        <v>-739.57240946489037</v>
+        <f t="shared" si="50"/>
+        <v>-479.41320097659366</v>
       </c>
       <c r="Q32" s="2">
-        <f t="shared" si="52"/>
-        <v>-359.57548657332109</v>
+        <f t="shared" si="50"/>
+        <v>-224.08489455906911</v>
       </c>
       <c r="R32" s="2">
-        <f t="shared" si="52"/>
-        <v>104.09930003129169</v>
+        <f t="shared" si="50"/>
+        <v>74.51919018843914</v>
       </c>
       <c r="S32" s="2">
-        <f t="shared" si="52"/>
-        <v>625.12100950539298</v>
+        <f t="shared" si="50"/>
+        <v>397.1753924461629</v>
       </c>
       <c r="T32" s="2">
-        <f t="shared" si="52"/>
-        <v>1200.1384843723126</v>
+        <f t="shared" si="50"/>
+        <v>740.68888904116307</v>
       </c>
       <c r="U32" s="2">
-        <f t="shared" si="52"/>
-        <v>1813.8088310217083</v>
+        <f t="shared" si="50"/>
+        <v>1094.8783698289167</v>
       </c>
       <c r="V32" s="2">
-        <f t="shared" si="52"/>
-        <v>2483.572703845718</v>
+        <f t="shared" si="50"/>
+        <v>1469.0441322498209</v>
       </c>
       <c r="W32" s="2">
-        <f t="shared" si="52"/>
-        <v>3213.5898018616881</v>
+        <f t="shared" si="50"/>
+        <v>1864.3305611726182</v>
       </c>
       <c r="X32" s="2">
-        <f t="shared" si="52"/>
-        <v>4008.3139163976002</v>
+        <f t="shared" si="50"/>
+        <v>2281.9525750992516</v>
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.2">
@@ -2622,84 +2603,84 @@
         <v>-3056</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" ref="D33:L33" si="53">D31+D32</f>
+        <f t="shared" ref="D33:L33" si="51">D31+D32</f>
         <v>0</v>
       </c>
       <c r="E33" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="F33" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="G33" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v>1977</v>
       </c>
       <c r="H33" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="I33" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="J33" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="L33" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v>9095</v>
       </c>
       <c r="M33" s="2">
-        <f t="shared" ref="M33" si="54">M31+M32</f>
+        <f t="shared" ref="M33" si="52">M31+M32</f>
         <v>6711</v>
       </c>
       <c r="N33" s="2">
-        <f t="shared" ref="N33" si="55">N31+N32</f>
+        <f t="shared" ref="N33" si="53">N31+N32</f>
         <v>4864</v>
       </c>
       <c r="O33" s="2">
-        <f t="shared" ref="O33" si="56">O31+O32</f>
-        <v>5653.9512245678743</v>
+        <f t="shared" ref="O33" si="54">O31+O32</f>
+        <v>6009.0312245678742</v>
       </c>
       <c r="P33" s="2">
-        <f t="shared" ref="P33" si="57">P31+P32</f>
-        <v>7364.2814513870017</v>
+        <f t="shared" ref="P33" si="55">P31+P32</f>
+        <v>7422.3344888815272</v>
       </c>
       <c r="Q33" s="2">
-        <f t="shared" ref="Q33" si="58">Q31+Q32</f>
-        <v>8985.9454768335818</v>
+        <f t="shared" ref="Q33" si="56">Q31+Q32</f>
+        <v>8680.3513007996589</v>
       </c>
       <c r="R33" s="2">
-        <f t="shared" ref="R33" si="59">R31+R32</f>
-        <v>10720.611306051469</v>
+        <f t="shared" ref="R33" si="57">R31+R32</f>
+        <v>9958.5247610408551</v>
       </c>
       <c r="S33" s="2">
-        <f t="shared" ref="S33" si="60">S31+S32</f>
-        <v>11831.635285327568</v>
+        <f t="shared" ref="S33" si="58">S31+S32</f>
+        <v>10602.268413425933</v>
       </c>
       <c r="T33" s="2">
-        <f t="shared" ref="T33" si="61">T31+T32</f>
-        <v>12946.631785852231</v>
+        <f t="shared" ref="T33" si="59">T31+T32</f>
+        <v>11208.527873030178</v>
       </c>
       <c r="U33" s="2">
-        <f t="shared" ref="U33" si="62">U31+U32</f>
-        <v>14130.039511055058</v>
+        <f t="shared" ref="U33" si="60">U31+U32</f>
+        <v>11840.688684205836</v>
       </c>
       <c r="V33" s="2">
-        <f t="shared" ref="V33" si="63">V31+V32</f>
-        <v>15401.204599493041</v>
+        <f t="shared" ref="V33" si="61">V31+V32</f>
+        <v>12509.064206417637</v>
       </c>
       <c r="W33" s="2">
-        <f t="shared" ref="W33" si="64">W31+W32</f>
-        <v>16766.331530293523</v>
+        <f t="shared" ref="W33" si="62">W31+W32</f>
+        <v>13215.886516665614</v>
       </c>
       <c r="X33" s="2">
-        <f t="shared" ref="X33" si="65">X31+X32</f>
-        <v>18232.069345862659</v>
+        <f t="shared" ref="X33" si="63">X31+X32</f>
+        <v>13963.538727652784</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.2">
@@ -2723,43 +2704,43 @@
       </c>
       <c r="O34" s="2">
         <f>O33*O41</f>
-        <v>226.15804898271497</v>
+        <v>240.36124898271498</v>
       </c>
       <c r="P34" s="2">
-        <f t="shared" ref="P34:S34" si="66">P33*P41</f>
-        <v>1030.9994031941803</v>
+        <f t="shared" ref="P34:S34" si="64">P33*P41</f>
+        <v>1039.1268284434138</v>
       </c>
       <c r="Q34" s="2">
-        <f t="shared" si="66"/>
-        <v>1258.0323667567015</v>
+        <f t="shared" si="64"/>
+        <v>1215.2491821119525</v>
       </c>
       <c r="R34" s="2">
-        <f t="shared" si="66"/>
-        <v>2036.9161481497792</v>
+        <f t="shared" si="64"/>
+        <v>1892.1197045977624</v>
       </c>
       <c r="S34" s="2">
-        <f t="shared" si="66"/>
-        <v>2248.0107042122377</v>
+        <f t="shared" si="64"/>
+        <v>2014.4309985509271</v>
       </c>
       <c r="T34" s="2">
-        <f t="shared" ref="T34" si="67">T33*T41</f>
-        <v>2718.7926750289685</v>
+        <f t="shared" ref="T34" si="65">T33*T41</f>
+        <v>2353.7908533363375</v>
       </c>
       <c r="U34" s="2">
-        <f t="shared" ref="U34" si="68">U33*U41</f>
-        <v>2967.3082973215619</v>
+        <f t="shared" ref="U34" si="66">U33*U41</f>
+        <v>2486.5446236832254</v>
       </c>
       <c r="V34" s="2">
-        <f t="shared" ref="V34" si="69">V33*V41</f>
-        <v>3234.2529658935387</v>
+        <f t="shared" ref="V34" si="67">V33*V41</f>
+        <v>2626.9034833477035</v>
       </c>
       <c r="W34" s="2">
-        <f t="shared" ref="W34" si="70">W33*W41</f>
-        <v>3520.9296213616394</v>
+        <f t="shared" ref="W34" si="68">W33*W41</f>
+        <v>2775.336168499779</v>
       </c>
       <c r="X34" s="2">
-        <f t="shared" ref="X34" si="71">X33*X41</f>
-        <v>3828.7345626311585</v>
+        <f t="shared" ref="X34" si="69">X33*X41</f>
+        <v>2932.3431328070847</v>
       </c>
     </row>
     <row r="35" spans="1:24" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2772,84 +2753,84 @@
         <v>-2741</v>
       </c>
       <c r="D35" s="4">
-        <f t="shared" ref="D35:L35" si="72">D33-D34</f>
+        <f t="shared" ref="D35:L35" si="70">D33-D34</f>
         <v>0</v>
       </c>
       <c r="E35" s="4">
-        <f t="shared" si="72"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="F35" s="4">
-        <f t="shared" si="72"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="G35" s="4">
-        <f t="shared" si="72"/>
+        <f t="shared" si="70"/>
         <v>1643</v>
       </c>
       <c r="H35" s="4">
-        <f t="shared" si="72"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="I35" s="4">
-        <f t="shared" si="72"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="J35" s="4">
-        <f t="shared" si="72"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="L35" s="4">
-        <f t="shared" si="72"/>
+        <f t="shared" si="70"/>
         <v>7847</v>
       </c>
       <c r="M35" s="4">
-        <f t="shared" ref="M35" si="73">M33-M34</f>
+        <f t="shared" ref="M35" si="71">M33-M34</f>
         <v>5464</v>
       </c>
       <c r="N35" s="4">
-        <f t="shared" ref="N35" si="74">N33-N34</f>
+        <f t="shared" ref="N35" si="72">N33-N34</f>
         <v>4653</v>
       </c>
       <c r="O35" s="4">
-        <f t="shared" ref="O35" si="75">O33-O34</f>
-        <v>5427.7931755851596</v>
+        <f t="shared" ref="O35" si="73">O33-O34</f>
+        <v>5768.6699755851596</v>
       </c>
       <c r="P35" s="4">
-        <f t="shared" ref="P35" si="76">P33-P34</f>
-        <v>6333.2820481928211</v>
+        <f t="shared" ref="P35" si="74">P33-P34</f>
+        <v>6383.2076604381136</v>
       </c>
       <c r="Q35" s="4">
-        <f t="shared" ref="Q35" si="77">Q33-Q34</f>
-        <v>7727.91311007688</v>
+        <f t="shared" ref="Q35" si="75">Q33-Q34</f>
+        <v>7465.102118687706</v>
       </c>
       <c r="R35" s="4">
-        <f t="shared" ref="R35" si="78">R33-R34</f>
-        <v>8683.6951579016895</v>
+        <f t="shared" ref="R35" si="76">R33-R34</f>
+        <v>8066.4050564430927</v>
       </c>
       <c r="S35" s="4">
-        <f t="shared" ref="S35" si="79">S33-S34</f>
-        <v>9583.6245811153294</v>
+        <f t="shared" ref="S35" si="77">S33-S34</f>
+        <v>8587.8374148750045</v>
       </c>
       <c r="T35" s="4">
-        <f t="shared" ref="T35" si="80">T33-T34</f>
-        <v>10227.839110823263</v>
+        <f t="shared" ref="T35" si="78">T33-T34</f>
+        <v>8854.7370196938409</v>
       </c>
       <c r="U35" s="4">
-        <f t="shared" ref="U35" si="81">U33-U34</f>
-        <v>11162.731213733496</v>
+        <f t="shared" ref="U35" si="79">U33-U34</f>
+        <v>9354.1440605226107</v>
       </c>
       <c r="V35" s="4">
-        <f t="shared" ref="V35" si="82">V33-V34</f>
-        <v>12166.951633599503</v>
+        <f t="shared" ref="V35" si="80">V33-V34</f>
+        <v>9882.1607230699337</v>
       </c>
       <c r="W35" s="4">
-        <f t="shared" ref="W35" si="83">W33-W34</f>
-        <v>13245.401908931883</v>
+        <f t="shared" ref="W35" si="81">W33-W34</f>
+        <v>10440.550348165834</v>
       </c>
       <c r="X35" s="4">
-        <f t="shared" ref="X35" si="84">X33-X34</f>
-        <v>14403.334783231501</v>
+        <f t="shared" ref="X35" si="82">X33-X34</f>
+        <v>11031.1955948457</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.2">
@@ -2861,84 +2842,84 @@
         <v>-2.1980753809141942</v>
       </c>
       <c r="D36" s="6" t="e">
-        <f t="shared" ref="D36:L36" si="85">D35/D37</f>
+        <f t="shared" ref="D36:L36" si="83">D35/D37</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E36" s="6" t="e">
-        <f t="shared" si="85"/>
+        <f t="shared" si="83"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F36" s="6" t="e">
-        <f t="shared" si="85"/>
+        <f t="shared" si="83"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G36" s="6">
-        <f t="shared" si="85"/>
+        <f t="shared" si="83"/>
         <v>1.3050039714058776</v>
       </c>
       <c r="H36" s="6" t="e">
-        <f t="shared" si="85"/>
+        <f t="shared" si="83"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I36" s="6" t="e">
-        <f t="shared" si="85"/>
+        <f t="shared" si="83"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J36" s="6" t="e">
-        <f t="shared" si="85"/>
+        <f t="shared" si="83"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L36" s="6">
-        <f t="shared" si="85"/>
+        <f t="shared" si="83"/>
         <v>6.2179080824088748</v>
       </c>
       <c r="M36" s="6">
-        <f t="shared" ref="M36" si="86">M35/M37</f>
+        <f t="shared" ref="M36" si="84">M35/M37</f>
         <v>4.3434022257551668</v>
       </c>
       <c r="N36" s="6">
-        <f t="shared" ref="N36" si="87">N35/N37</f>
+        <f t="shared" ref="N36" si="85">N35/N37</f>
         <v>3.7075697211155378</v>
       </c>
       <c r="O36" s="6">
-        <f t="shared" ref="O36" si="88">O35/O37</f>
-        <v>4.3249348012630753</v>
+        <f t="shared" ref="O36" si="86">O35/O37</f>
+        <v>4.5965497813427563</v>
       </c>
       <c r="P36" s="6">
-        <f t="shared" ref="P36" si="89">P35/P37</f>
-        <v>5.0464398790381049</v>
+        <f t="shared" ref="P36" si="87">P35/P37</f>
+        <v>5.0862212433769827</v>
       </c>
       <c r="Q36" s="6">
-        <f t="shared" ref="Q36" si="90">Q35/Q37</f>
-        <v>6.1576996893042866</v>
+        <f t="shared" ref="Q36" si="88">Q35/Q37</f>
+        <v>5.9482885407870167</v>
       </c>
       <c r="R36" s="6">
-        <f t="shared" ref="R36" si="91">R35/R37</f>
-        <v>6.9192790102802304</v>
+        <f t="shared" ref="R36" si="89">R35/R37</f>
+        <v>6.4274143876040579</v>
       </c>
       <c r="S36" s="6">
-        <f t="shared" ref="S36" si="92">S35/S37</f>
-        <v>7.6363542479006608</v>
+        <f t="shared" ref="S36" si="90">S35/S37</f>
+        <v>6.8428983385458206</v>
       </c>
       <c r="T36" s="6">
-        <f t="shared" ref="T36" si="93">T35/T37</f>
-        <v>8.149672598265548</v>
+        <f t="shared" ref="T36" si="91">T35/T37</f>
+        <v>7.0555673463695943</v>
       </c>
       <c r="U36" s="6">
-        <f t="shared" ref="U36" si="94">U35/U37</f>
-        <v>8.8946065448075657</v>
+        <f t="shared" ref="U36" si="92">U35/U37</f>
+        <v>7.4535012434443111</v>
       </c>
       <c r="V36" s="6">
-        <f t="shared" ref="V36" si="95">V35/V37</f>
-        <v>9.6947821781669354</v>
+        <f t="shared" ref="V36" si="93">V35/V37</f>
+        <v>7.8742316518485529</v>
       </c>
       <c r="W36" s="6">
-        <f t="shared" ref="W36" si="96">W35/W37</f>
-        <v>10.554105106718632</v>
+        <f t="shared" ref="W36" si="94">W35/W37</f>
+        <v>8.3191636240365217</v>
       </c>
       <c r="X36" s="6">
-        <f t="shared" ref="X36" si="97">X35/X37</f>
-        <v>11.476760783451395</v>
+        <f t="shared" ref="X36" si="95">X35/X37</f>
+        <v>8.789797286729641</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.2">
@@ -3001,68 +2982,68 @@
         <v>-5.1150895140664732E-3</v>
       </c>
       <c r="H39" s="7" t="e">
-        <f t="shared" ref="H39:J39" si="98">H22/D22-1</f>
+        <f t="shared" ref="H39:J39" si="96">H22/D22-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I39" s="7" t="e">
-        <f t="shared" si="98"/>
+        <f t="shared" si="96"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J39" s="7" t="e">
-        <f t="shared" si="98"/>
+        <f t="shared" si="96"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L39" s="7" t="e">
-        <f t="shared" ref="L39:X39" si="99">L24/K24-1</f>
+        <f t="shared" ref="L39:X39" si="97">L24/K24-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M39" s="7">
-        <f t="shared" si="99"/>
+        <f t="shared" si="97"/>
         <v>-6.0481653898317722E-3</v>
       </c>
       <c r="N39" s="7">
-        <f t="shared" si="99"/>
+        <f t="shared" si="97"/>
         <v>6.037026110045729E-2</v>
       </c>
       <c r="O39" s="7">
-        <f t="shared" si="99"/>
+        <f t="shared" si="97"/>
         <v>-6.9182346189962107E-3</v>
       </c>
       <c r="P39" s="7">
-        <f t="shared" si="99"/>
-        <v>5.8999123767951911E-2</v>
+        <f t="shared" si="97"/>
+        <v>3.2588201055681054E-2</v>
       </c>
       <c r="Q39" s="7">
-        <f t="shared" si="99"/>
-        <v>3.4621067268673089E-2</v>
+        <f t="shared" si="97"/>
+        <v>1.100352597215104E-2</v>
       </c>
       <c r="R39" s="7">
-        <f t="shared" si="99"/>
-        <v>3.5862591918406794E-2</v>
+        <f t="shared" si="97"/>
+        <v>1.2162786030792461E-2</v>
       </c>
       <c r="S39" s="7">
-        <f t="shared" si="99"/>
-        <v>4.7874734261061036E-2</v>
+        <f t="shared" si="97"/>
+        <v>2.4954677580164564E-2</v>
       </c>
       <c r="T39" s="7">
-        <f t="shared" si="99"/>
-        <v>4.8184387434613507E-2</v>
+        <f t="shared" si="97"/>
+        <v>2.5746552478168372E-2</v>
       </c>
       <c r="U39" s="7">
-        <f t="shared" si="99"/>
-        <v>4.8502762818726008E-2</v>
+        <f t="shared" si="97"/>
+        <v>2.6554796153539506E-2</v>
       </c>
       <c r="V39" s="7">
-        <f t="shared" si="99"/>
-        <v>4.882997332852379E-2</v>
+        <f t="shared" si="97"/>
+        <v>2.7379020398049514E-2</v>
       </c>
       <c r="W39" s="7">
-        <f t="shared" si="99"/>
-        <v>4.9166119449379542E-2</v>
+        <f t="shared" si="97"/>
+        <v>2.8218778519627286E-2</v>
       </c>
       <c r="X39" s="7">
-        <f t="shared" si="99"/>
-        <v>4.9511288156958377E-2</v>
+        <f t="shared" si="97"/>
+        <v>2.9073564747820635E-2</v>
       </c>
     </row>
     <row r="40" spans="1:24" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -3075,27 +3056,27 @@
         <v>-1</v>
       </c>
       <c r="E40" s="7" t="e">
-        <f t="shared" ref="E40:J40" si="100">E24/D24-1</f>
+        <f t="shared" ref="E40:J40" si="98">E24/D24-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F40" s="7" t="e">
-        <f t="shared" si="100"/>
+        <f t="shared" si="98"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G40" s="7" t="e">
-        <f t="shared" si="100"/>
+        <f t="shared" si="98"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H40" s="7">
-        <f t="shared" si="100"/>
+        <f t="shared" si="98"/>
         <v>-1</v>
       </c>
       <c r="I40" s="7" t="e">
-        <f t="shared" si="100"/>
+        <f t="shared" si="98"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J40" s="7" t="e">
-        <f t="shared" si="100"/>
+        <f t="shared" si="98"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L40" s="7"/>
@@ -3120,43 +3101,43 @@
         <v>0.10307591623036649</v>
       </c>
       <c r="D41" s="8" t="e">
-        <f t="shared" ref="D41:J41" si="101">D34/D33</f>
+        <f t="shared" ref="D41:J41" si="99">D34/D33</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E41" s="8" t="e">
-        <f t="shared" si="101"/>
+        <f t="shared" si="99"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F41" s="8" t="e">
-        <f t="shared" si="101"/>
+        <f t="shared" si="99"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G41" s="8">
-        <f t="shared" si="101"/>
+        <f t="shared" si="99"/>
         <v>0.16894284269094587</v>
       </c>
       <c r="H41" s="8" t="e">
-        <f t="shared" si="101"/>
+        <f t="shared" si="99"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I41" s="8" t="e">
-        <f t="shared" si="101"/>
+        <f t="shared" si="99"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J41" s="8" t="e">
-        <f t="shared" si="101"/>
+        <f t="shared" si="99"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L41" s="8">
-        <f t="shared" ref="L41:N41" si="102">L34/L33</f>
+        <f t="shared" ref="L41:N41" si="100">L34/L33</f>
         <v>0.137218251786696</v>
       </c>
       <c r="M41" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="100"/>
         <v>0.18581433467441513</v>
       </c>
       <c r="N41" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="100"/>
         <v>4.3379934210526314E-2</v>
       </c>
       <c r="O41" s="8">
@@ -3199,43 +3180,43 @@
         <v>0.76787316781334136</v>
       </c>
       <c r="D43" s="8" t="e">
-        <f t="shared" ref="D43:J43" si="103">D26/D24</f>
+        <f t="shared" ref="D43:J43" si="101">D26/D24</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E43" s="8" t="e">
-        <f t="shared" si="103"/>
+        <f t="shared" si="101"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F43" s="8" t="e">
-        <f t="shared" si="103"/>
+        <f t="shared" si="101"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G43" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="101"/>
         <v>0.76901154942252892</v>
       </c>
       <c r="H43" s="8" t="e">
-        <f t="shared" si="103"/>
+        <f t="shared" si="101"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I43" s="8" t="e">
-        <f t="shared" si="103"/>
+        <f t="shared" si="101"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J43" s="8" t="e">
-        <f t="shared" si="103"/>
+        <f t="shared" si="101"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L43" s="8">
-        <f t="shared" ref="L43:N43" si="104">L26/L24</f>
+        <f t="shared" ref="L43:N43" si="102">L26/L24</f>
         <v>0.79263956599831387</v>
       </c>
       <c r="M43" s="8">
-        <f t="shared" si="104"/>
+        <f t="shared" si="102"/>
         <v>0.76036288538132468</v>
       </c>
       <c r="N43" s="8">
-        <f t="shared" si="104"/>
+        <f t="shared" si="102"/>
         <v>0.78259659861579656</v>
       </c>
       <c r="O43" s="8">
@@ -3278,84 +3259,84 @@
         <v>-0.41908465450194438</v>
       </c>
       <c r="D44" s="8" t="e">
-        <f t="shared" ref="D44:J44" si="105">D31/D24</f>
+        <f t="shared" ref="D44:J44" si="103">D31/D24</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E44" s="8" t="e">
+        <f t="shared" si="103"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F44" s="8" t="e">
+        <f t="shared" si="103"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G44" s="8">
+        <f t="shared" si="103"/>
+        <v>0.33553322333883306</v>
+      </c>
+      <c r="H44" s="8" t="e">
+        <f t="shared" si="103"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I44" s="8" t="e">
+        <f t="shared" si="103"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J44" s="8" t="e">
+        <f t="shared" si="103"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L44" s="8">
+        <f t="shared" ref="L44:N44" si="104">L31/L24</f>
+        <v>0.36765514460613613</v>
+      </c>
+      <c r="M44" s="8">
+        <f t="shared" si="104"/>
+        <v>0.2823056498008556</v>
+      </c>
+      <c r="N44" s="8">
+        <f t="shared" si="104"/>
+        <v>0.20314401975446039</v>
+      </c>
+      <c r="O44" s="8">
+        <f t="shared" ref="O44:X44" si="105">O31/O24</f>
+        <v>0.23531457587034404</v>
+      </c>
+      <c r="P44" s="8">
         <f t="shared" si="105"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F44" s="8" t="e">
+        <v>0.26799570131812339</v>
+      </c>
+      <c r="Q44" s="8">
         <f t="shared" si="105"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G44" s="8">
+        <v>0.29871595923903604</v>
+      </c>
+      <c r="R44" s="8">
         <f t="shared" si="105"/>
-        <v>0.33553322333883306</v>
-      </c>
-      <c r="H44" s="8" t="e">
+        <v>0.32759300168469396</v>
+      </c>
+      <c r="S44" s="8">
         <f t="shared" si="105"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I44" s="8" t="e">
+        <v>0.33</v>
+      </c>
+      <c r="T44" s="8">
         <f t="shared" si="105"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J44" s="8" t="e">
+        <v>0.33</v>
+      </c>
+      <c r="U44" s="8">
         <f t="shared" si="105"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L44" s="8">
-        <f t="shared" ref="L44:N44" si="106">L31/L24</f>
-        <v>0.36765514460613613</v>
-      </c>
-      <c r="M44" s="8">
-        <f t="shared" si="106"/>
-        <v>0.2823056498008556</v>
-      </c>
-      <c r="N44" s="8">
-        <f t="shared" si="106"/>
-        <v>0.20314401975446039</v>
-      </c>
-      <c r="O44" s="8">
-        <f t="shared" ref="O44:X44" si="107">O31/O24</f>
-        <v>0.23531457587034404</v>
-      </c>
-      <c r="P44" s="8">
-        <f t="shared" si="107"/>
-        <v>0.2679957013181235</v>
-      </c>
-      <c r="Q44" s="8">
-        <f t="shared" si="107"/>
-        <v>0.29871595923903604</v>
-      </c>
-      <c r="R44" s="8">
-        <f t="shared" si="107"/>
-        <v>0.32759300168469391</v>
-      </c>
-      <c r="S44" s="8">
-        <f t="shared" si="107"/>
         <v>0.33</v>
       </c>
-      <c r="T44" s="8">
-        <f t="shared" si="107"/>
+      <c r="V44" s="8">
+        <f t="shared" si="105"/>
+        <v>0.33000000000000007</v>
+      </c>
+      <c r="W44" s="8">
+        <f t="shared" si="105"/>
         <v>0.33</v>
       </c>
-      <c r="U44" s="8">
-        <f t="shared" si="107"/>
-        <v>0.32999999999999996</v>
-      </c>
-      <c r="V44" s="8">
-        <f t="shared" si="107"/>
-        <v>0.3299999999999999</v>
-      </c>
-      <c r="W44" s="8">
-        <f t="shared" si="107"/>
-        <v>0.33</v>
-      </c>
       <c r="X44" s="8">
-        <f t="shared" si="107"/>
-        <v>0.32999999999999996</v>
+        <f t="shared" si="105"/>
+        <v>0.33000000000000007</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.2">
@@ -3375,11 +3356,11 @@
         <v>0.42498442139217768</v>
       </c>
       <c r="M45" s="8">
-        <f t="shared" ref="M45:N45" si="108">M30/M24</f>
+        <f t="shared" ref="M45:N45" si="106">M30/M24</f>
         <v>0.47805723558046909</v>
       </c>
       <c r="N45" s="8">
-        <f t="shared" si="108"/>
+        <f t="shared" si="106"/>
         <v>0.57945257886133616</v>
       </c>
       <c r="O45" s="8">
@@ -3387,15 +3368,15 @@
         <v>0.54468542412965593</v>
       </c>
       <c r="P45" s="8">
-        <f t="shared" ref="P45:R45" si="109">O45*0.94</f>
+        <f t="shared" ref="P45:R45" si="107">O45*0.94</f>
         <v>0.51200429868187658</v>
       </c>
       <c r="Q45" s="8">
-        <f t="shared" si="109"/>
+        <f t="shared" si="107"/>
         <v>0.48128404076096398</v>
       </c>
       <c r="R45" s="8">
-        <f t="shared" si="109"/>
+        <f t="shared" si="107"/>
         <v>0.45240699831530612</v>
       </c>
       <c r="S45" s="8">
@@ -3453,44 +3434,44 @@
         <v>-17754</v>
       </c>
       <c r="O47" s="2">
-        <f t="shared" ref="O47:X47" si="110">N47+O35</f>
-        <v>-12326.20682441484</v>
+        <f t="shared" ref="O47:X47" si="108">N47+O35</f>
+        <v>-11985.330024414841</v>
       </c>
       <c r="P47" s="2">
-        <f t="shared" si="110"/>
-        <v>-5992.9247762220184</v>
+        <f t="shared" si="108"/>
+        <v>-5602.1223639767277</v>
       </c>
       <c r="Q47" s="2">
-        <f t="shared" si="110"/>
-        <v>1734.9883338548616</v>
+        <f t="shared" si="108"/>
+        <v>1862.9797547109783</v>
       </c>
       <c r="R47" s="2">
-        <f t="shared" si="110"/>
-        <v>10418.68349175655</v>
+        <f t="shared" si="108"/>
+        <v>9929.3848111540719</v>
       </c>
       <c r="S47" s="2">
-        <f t="shared" si="110"/>
-        <v>20002.308072871878</v>
+        <f t="shared" si="108"/>
+        <v>18517.222226029076</v>
       </c>
       <c r="T47" s="2">
-        <f t="shared" si="110"/>
-        <v>30230.147183695139</v>
+        <f t="shared" si="108"/>
+        <v>27371.959245722916</v>
       </c>
       <c r="U47" s="2">
-        <f t="shared" si="110"/>
-        <v>41392.878397428634</v>
+        <f t="shared" si="108"/>
+        <v>36726.103306245524</v>
       </c>
       <c r="V47" s="2">
-        <f t="shared" si="110"/>
-        <v>53559.830031028134</v>
+        <f t="shared" si="108"/>
+        <v>46608.264029315455</v>
       </c>
       <c r="W47" s="2">
-        <f t="shared" si="110"/>
-        <v>66805.231939960009</v>
+        <f t="shared" si="108"/>
+        <v>57048.814377481292</v>
       </c>
       <c r="X47" s="2">
-        <f t="shared" si="110"/>
-        <v>81208.566723191514</v>
+        <f t="shared" si="108"/>
+        <v>68080.009972326996</v>
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.2">
@@ -3807,43 +3788,43 @@
       </c>
       <c r="O77" s="2">
         <f>O35</f>
-        <v>5427.7931755851596</v>
+        <v>5768.6699755851596</v>
       </c>
       <c r="P77" s="2">
-        <f t="shared" ref="P77:X77" si="111">P35</f>
-        <v>6333.2820481928211</v>
+        <f t="shared" ref="P77:X77" si="109">P35</f>
+        <v>6383.2076604381136</v>
       </c>
       <c r="Q77" s="2">
-        <f t="shared" si="111"/>
-        <v>7727.91311007688</v>
+        <f t="shared" si="109"/>
+        <v>7465.102118687706</v>
       </c>
       <c r="R77" s="2">
-        <f t="shared" si="111"/>
-        <v>8683.6951579016895</v>
+        <f t="shared" si="109"/>
+        <v>8066.4050564430927</v>
       </c>
       <c r="S77" s="2">
-        <f t="shared" si="111"/>
-        <v>9583.6245811153294</v>
+        <f t="shared" si="109"/>
+        <v>8587.8374148750045</v>
       </c>
       <c r="T77" s="2">
-        <f t="shared" si="111"/>
-        <v>10227.839110823263</v>
+        <f t="shared" si="109"/>
+        <v>8854.7370196938409</v>
       </c>
       <c r="U77" s="2">
-        <f t="shared" si="111"/>
-        <v>11162.731213733496</v>
+        <f t="shared" si="109"/>
+        <v>9354.1440605226107</v>
       </c>
       <c r="V77" s="2">
-        <f t="shared" si="111"/>
-        <v>12166.951633599503</v>
+        <f t="shared" si="109"/>
+        <v>9882.1607230699337</v>
       </c>
       <c r="W77" s="2">
-        <f t="shared" si="111"/>
-        <v>13245.401908931883</v>
+        <f t="shared" si="109"/>
+        <v>10440.550348165834</v>
       </c>
       <c r="X77" s="2">
-        <f t="shared" si="111"/>
-        <v>14403.334783231501</v>
+        <f t="shared" si="109"/>
+        <v>11031.1955948457</v>
       </c>
     </row>
     <row r="78" spans="2:24" x14ac:dyDescent="0.2">
@@ -3881,40 +3862,40 @@
         <v>2747.8572448092373</v>
       </c>
       <c r="P79" s="2">
-        <f t="shared" ref="P79:X79" si="112">O79*(1+P39)</f>
-        <v>2909.9784144924006</v>
+        <f t="shared" ref="P79:X79" si="110">O79*(1+P39)</f>
+        <v>2837.4049691753903</v>
       </c>
       <c r="Q79" s="2">
-        <f t="shared" si="112"/>
-        <v>3010.7249729309287</v>
+        <f t="shared" si="110"/>
+        <v>2868.6264284472222</v>
       </c>
       <c r="R79" s="2">
-        <f t="shared" si="112"/>
-        <v>3118.6973740137068</v>
+        <f t="shared" si="110"/>
+        <v>2903.5169178987021</v>
       </c>
       <c r="S79" s="2">
-        <f t="shared" si="112"/>
-        <v>3268.0041820352822</v>
+        <f t="shared" si="110"/>
+        <v>2975.9732464334174</v>
       </c>
       <c r="T79" s="2">
-        <f t="shared" si="112"/>
-        <v>3425.4709616804075</v>
+        <f t="shared" si="110"/>
+        <v>3052.5942977963405</v>
       </c>
       <c r="U79" s="2">
-        <f t="shared" si="112"/>
-        <v>3591.6157672772256</v>
+        <f t="shared" si="110"/>
+        <v>3133.6553171137793</v>
       </c>
       <c r="V79" s="2">
-        <f t="shared" si="112"/>
-        <v>3766.9942693996782</v>
+        <f t="shared" si="110"/>
+        <v>3219.451729961494</v>
       </c>
       <c r="W79" s="2">
-        <f t="shared" si="112"/>
-        <v>3952.2027596141111</v>
+        <f t="shared" si="110"/>
+        <v>3310.3007252839084</v>
       </c>
       <c r="X79" s="2">
-        <f t="shared" si="112"/>
-        <v>4147.881409300091</v>
+        <f t="shared" si="110"/>
+        <v>3406.5429677552079</v>
       </c>
     </row>
     <row r="80" spans="2:24" x14ac:dyDescent="0.2">
@@ -3935,39 +3916,39 @@
         <v>901.80000000000007</v>
       </c>
       <c r="P80" s="2">
-        <f t="shared" ref="P80:X80" si="113">O80*1.08</f>
+        <f t="shared" ref="P80:X80" si="111">O80*1.08</f>
         <v>973.94400000000019</v>
       </c>
       <c r="Q80" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="111"/>
         <v>1051.8595200000002</v>
       </c>
       <c r="R80" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="111"/>
         <v>1136.0082816000004</v>
       </c>
       <c r="S80" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="111"/>
         <v>1226.8889441280005</v>
       </c>
       <c r="T80" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="111"/>
         <v>1325.0400596582406</v>
       </c>
       <c r="U80" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="111"/>
         <v>1431.0432644308999</v>
       </c>
       <c r="V80" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="111"/>
         <v>1545.5267255853719</v>
       </c>
       <c r="W80" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="111"/>
         <v>1669.1688636322017</v>
       </c>
       <c r="X80" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="111"/>
         <v>1802.7023727227779</v>
       </c>
     </row>
@@ -3989,39 +3970,39 @@
         <v>-1659.6000000000001</v>
       </c>
       <c r="P81" s="2">
-        <f t="shared" ref="P81:X81" si="114">O81*0.9</f>
+        <f t="shared" ref="P81:X81" si="112">O81*0.9</f>
         <v>-1493.64</v>
       </c>
       <c r="Q81" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="112"/>
         <v>-1344.2760000000001</v>
       </c>
       <c r="R81" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="112"/>
         <v>-1209.8484000000001</v>
       </c>
       <c r="S81" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="112"/>
         <v>-1088.86356</v>
       </c>
       <c r="T81" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="112"/>
         <v>-979.97720400000003</v>
       </c>
       <c r="U81" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="112"/>
         <v>-881.97948360000009</v>
       </c>
       <c r="V81" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="112"/>
         <v>-793.78153524000015</v>
       </c>
       <c r="W81" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="112"/>
         <v>-714.40338171600013</v>
       </c>
       <c r="X81" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="112"/>
         <v>-642.96304354440008</v>
       </c>
     </row>
@@ -4043,40 +4024,40 @@
         <v>272.10440371439506</v>
       </c>
       <c r="P82" s="2">
-        <f t="shared" ref="P82:X82" si="115">O82*(1+P39)</f>
-        <v>288.15832510694543</v>
+        <f t="shared" ref="P82:X82" si="113">O82*(1+P39)</f>
+        <v>280.97179673077596</v>
       </c>
       <c r="Q82" s="2">
-        <f t="shared" si="115"/>
-        <v>298.13467386450117</v>
+        <f t="shared" si="113"/>
+        <v>284.063477193545</v>
       </c>
       <c r="R82" s="2">
-        <f t="shared" si="115"/>
-        <v>308.82655601003108</v>
+        <f t="shared" si="113"/>
+        <v>287.51848048581297</v>
       </c>
       <c r="S82" s="2">
-        <f t="shared" si="115"/>
-        <v>323.61154531176999</v>
+        <f t="shared" si="113"/>
+        <v>294.69341146467525</v>
       </c>
       <c r="T82" s="2">
-        <f t="shared" si="115"/>
-        <v>339.20456938938628</v>
+        <f t="shared" si="113"/>
+        <v>302.28075084792096</v>
       </c>
       <c r="U82" s="2">
-        <f t="shared" si="115"/>
-        <v>355.65692816550779</v>
+        <f t="shared" si="113"/>
+        <v>310.30775456782635</v>
       </c>
       <c r="V82" s="2">
-        <f t="shared" si="115"/>
-        <v>373.02364648193424</v>
+        <f t="shared" si="113"/>
+        <v>318.80367690981183</v>
       </c>
       <c r="W82" s="2">
-        <f t="shared" si="115"/>
-        <v>391.36377164230817</v>
+        <f t="shared" si="113"/>
+        <v>327.79992725977263</v>
       </c>
       <c r="X82" s="2">
-        <f t="shared" si="115"/>
-        <v>410.74069611428456</v>
+        <f t="shared" si="113"/>
+        <v>337.33023966929051</v>
       </c>
     </row>
     <row r="83" spans="1:27" x14ac:dyDescent="0.2">
@@ -4097,39 +4078,39 @@
       </c>
       <c r="P83" s="2">
         <f>O83*(1+P39)</f>
-        <v>2647.4978094198796</v>
+        <v>2581.4705026392026</v>
       </c>
       <c r="Q83" s="2">
-        <f t="shared" ref="Q83:X83" si="116">P83*(1+Q39)</f>
-        <v>2739.1570091734698</v>
+        <f t="shared" ref="Q83:X83" si="114">P83*(1+Q39)</f>
+        <v>2609.8757803613348</v>
       </c>
       <c r="R83" s="2">
-        <f t="shared" si="116"/>
-        <v>2837.3902791939017</v>
+        <f t="shared" si="114"/>
+        <v>2641.6191410448173</v>
       </c>
       <c r="S83" s="2">
-        <f t="shared" si="116"/>
-        <v>2973.2295848052277</v>
+        <f t="shared" si="114"/>
+        <v>2707.5398949991818</v>
       </c>
       <c r="T83" s="2">
-        <f t="shared" si="116"/>
-        <v>3116.4928310515379</v>
+        <f t="shared" si="114"/>
+        <v>2777.2497129925127</v>
       </c>
       <c r="U83" s="2">
-        <f t="shared" si="116"/>
-        <v>3267.6513436622904</v>
+        <f t="shared" si="114"/>
+        <v>2850.999012988505</v>
       </c>
       <c r="V83" s="2">
-        <f t="shared" si="116"/>
-        <v>3427.2106716202352</v>
+        <f t="shared" si="114"/>
+        <v>2929.0565731199363</v>
       </c>
       <c r="W83" s="2">
-        <f t="shared" si="116"/>
-        <v>3595.7133208793039</v>
+        <f t="shared" si="114"/>
+        <v>3011.7109718282663</v>
       </c>
       <c r="X83" s="2">
-        <f t="shared" si="116"/>
-        <v>3773.7417192391727</v>
+        <f t="shared" si="114"/>
+        <v>3099.2721457694374</v>
       </c>
     </row>
     <row r="84" spans="1:27" x14ac:dyDescent="0.2">
@@ -4150,39 +4131,39 @@
       </c>
       <c r="P84" s="2">
         <f>O84*(1+P39)</f>
-        <v>1270.7989485215423</v>
+        <v>1239.1058412668172</v>
       </c>
       <c r="Q84" s="2">
-        <f t="shared" ref="Q84:X84" si="117">P84*(1+Q39)</f>
-        <v>1314.7953644032657</v>
+        <f t="shared" ref="Q84:X84" si="115">P84*(1+Q39)</f>
+        <v>1252.7403745734407</v>
       </c>
       <c r="R84" s="2">
-        <f t="shared" si="117"/>
-        <v>1361.947334013073</v>
+        <f t="shared" si="115"/>
+        <v>1267.9771877015123</v>
       </c>
       <c r="S84" s="2">
-        <f t="shared" si="117"/>
-        <v>1427.1502007065094</v>
+        <f t="shared" si="115"/>
+        <v>1299.6191495996075</v>
       </c>
       <c r="T84" s="2">
-        <f t="shared" si="117"/>
-        <v>1495.9165589047382</v>
+        <f t="shared" si="115"/>
+        <v>1333.0798622364064</v>
       </c>
       <c r="U84" s="2">
-        <f t="shared" si="117"/>
-        <v>1568.4726449578995</v>
+        <f t="shared" si="115"/>
+        <v>1368.4795262344826</v>
       </c>
       <c r="V84" s="2">
-        <f t="shared" si="117"/>
-        <v>1645.061122377713</v>
+        <f t="shared" si="115"/>
+        <v>1405.9471550975695</v>
       </c>
       <c r="W84" s="2">
-        <f t="shared" si="117"/>
-        <v>1725.9423940220661</v>
+        <f t="shared" si="115"/>
+        <v>1445.6212664775678</v>
       </c>
       <c r="X84" s="2">
-        <f t="shared" si="117"/>
-        <v>1811.3960252348031</v>
+        <f t="shared" si="115"/>
+        <v>1487.6506299693299</v>
       </c>
     </row>
     <row r="85" spans="1:27" x14ac:dyDescent="0.2">
@@ -4203,40 +4184,40 @@
         <v>350.55786317949435</v>
       </c>
       <c r="P85" s="2">
-        <f t="shared" ref="P85:X85" si="118">O85*(1+P39)</f>
-        <v>371.24046993705008</v>
+        <f t="shared" ref="P85:X85" si="116">O85*(1+P39)</f>
+        <v>361.98191330643766</v>
       </c>
       <c r="Q85" s="2">
-        <f t="shared" si="118"/>
-        <v>384.09321121959448</v>
+        <f t="shared" si="116"/>
+        <v>365.96499069095398</v>
       </c>
       <c r="R85" s="2">
-        <f t="shared" si="118"/>
-        <v>397.86778931219322</v>
+        <f t="shared" si="116"/>
+        <v>370.41614456748903</v>
       </c>
       <c r="S85" s="2">
-        <f t="shared" si="118"/>
-        <v>416.91560399655032</v>
+        <f t="shared" si="116"/>
+        <v>379.65976002565833</v>
       </c>
       <c r="T85" s="2">
-        <f t="shared" si="118"/>
-        <v>437.00442698705598</v>
+        <f t="shared" si="116"/>
+        <v>389.43468996100773</v>
       </c>
       <c r="U85" s="2">
-        <f t="shared" si="118"/>
-        <v>458.20034905994243</v>
+        <f t="shared" si="116"/>
+        <v>399.77604876803917</v>
       </c>
       <c r="V85" s="2">
-        <f t="shared" si="118"/>
-        <v>480.57425988365969</v>
+        <f t="shared" si="116"/>
+        <v>410.72152536191095</v>
       </c>
       <c r="W85" s="2">
-        <f t="shared" si="118"/>
-        <v>504.20223134939687</v>
+        <f t="shared" si="116"/>
+        <v>422.31158511934217</v>
       </c>
       <c r="X85" s="2">
-        <f t="shared" si="118"/>
-        <v>529.1659333151182</v>
+        <f t="shared" si="116"/>
+        <v>434.58968833306415</v>
       </c>
     </row>
     <row r="86" spans="1:27" x14ac:dyDescent="0.2">
@@ -4257,40 +4238,40 @@
         <v>138.03836538795952</v>
       </c>
       <c r="P86" s="2">
-        <f t="shared" ref="P86:X86" si="119">O86*(1+P39)</f>
-        <v>146.18250799220951</v>
+        <f t="shared" ref="P86:X86" si="117">O86*(1+P39)</f>
+        <v>142.53678739261991</v>
       </c>
       <c r="Q86" s="2">
-        <f t="shared" si="119"/>
-        <v>151.24350243491114</v>
+        <f t="shared" si="117"/>
+        <v>144.10519463468157</v>
       </c>
       <c r="R86" s="2">
-        <f t="shared" si="119"/>
-        <v>156.66748644304491</v>
+        <f t="shared" si="117"/>
+        <v>145.85791528294891</v>
       </c>
       <c r="S86" s="2">
-        <f t="shared" si="119"/>
-        <v>164.16790072385407</v>
+        <f t="shared" si="117"/>
+        <v>149.49775253134985</v>
       </c>
       <c r="T86" s="2">
-        <f t="shared" si="119"/>
-        <v>172.07823045665944</v>
+        <f t="shared" si="117"/>
+        <v>153.34680426226646</v>
       </c>
       <c r="U86" s="2">
-        <f t="shared" si="119"/>
-        <v>180.42450005476488</v>
+        <f t="shared" si="117"/>
+        <v>157.41889739024768</v>
       </c>
       <c r="V86" s="2">
-        <f t="shared" si="119"/>
-        <v>189.23462358025128</v>
+        <f t="shared" si="117"/>
+        <v>161.72887259293373</v>
       </c>
       <c r="W86" s="2">
-        <f t="shared" si="119"/>
-        <v>198.5385556871563</v>
+        <f t="shared" si="117"/>
+        <v>166.29266382886274</v>
       </c>
       <c r="X86" s="2">
-        <f t="shared" si="119"/>
-        <v>208.36845532804944</v>
+        <f t="shared" si="117"/>
+        <v>171.12738435777877</v>
       </c>
     </row>
     <row r="87" spans="1:27" x14ac:dyDescent="0.2">
@@ -4311,40 +4292,40 @@
         <v>-423.05283205230762</v>
       </c>
       <c r="P87" s="2">
-        <f t="shared" ref="P87:X87" si="120">O87*(1+P39)</f>
-        <v>-448.01257845094432</v>
+        <f t="shared" ref="P87:X87" si="118">O87*(1+P39)</f>
+        <v>-436.83936280040348</v>
       </c>
       <c r="Q87" s="2">
-        <f t="shared" si="120"/>
-        <v>-463.52325206670616</v>
+        <f t="shared" si="118"/>
+        <v>-441.64613607463565</v>
       </c>
       <c r="R87" s="2">
-        <f t="shared" si="120"/>
-        <v>-480.14639730026727</v>
+        <f t="shared" si="118"/>
+        <v>-447.01778352903767</v>
       </c>
       <c r="S87" s="2">
-        <f t="shared" si="120"/>
-        <v>-503.1332784774234</v>
+        <f t="shared" si="118"/>
+        <v>-458.1729681896046</v>
       </c>
       <c r="T87" s="2">
-        <f t="shared" si="120"/>
-        <v>-527.37644729882686</v>
+        <f t="shared" si="118"/>
+        <v>-469.96934255917643</v>
       </c>
       <c r="U87" s="2">
-        <f t="shared" si="120"/>
-        <v>-552.95566203834426</v>
+        <f t="shared" si="118"/>
+        <v>-482.44928264924835</v>
       </c>
       <c r="V87" s="2">
-        <f t="shared" si="120"/>
-        <v>-579.95647226753283</v>
+        <f t="shared" si="118"/>
+        <v>-495.65827139992649</v>
       </c>
       <c r="W87" s="2">
-        <f t="shared" si="120"/>
-        <v>-608.47068145847913</v>
+        <f t="shared" si="118"/>
+        <v>-509.64514238198234</v>
       </c>
       <c r="X87" s="2">
-        <f t="shared" si="120"/>
-        <v>-638.59684870323076</v>
+        <f t="shared" si="118"/>
+        <v>-524.46234342743719</v>
       </c>
     </row>
     <row r="88" spans="1:27" x14ac:dyDescent="0.2">
@@ -4365,40 +4346,40 @@
         <v>-257.20817723367998</v>
       </c>
       <c r="P88" s="2">
-        <f t="shared" ref="P88:X88" si="121">O88*(1+P39)</f>
-        <v>-272.38323431641919</v>
+        <f t="shared" ref="P88:X88" si="119">O88*(1+P39)</f>
+        <v>-265.59012902653637</v>
       </c>
       <c r="Q88" s="2">
-        <f t="shared" si="121"/>
-        <v>-281.81343259454667</v>
+        <f t="shared" si="119"/>
+        <v>-268.51255690922682</v>
       </c>
       <c r="R88" s="2">
-        <f t="shared" si="121"/>
-        <v>-291.91999272481036</v>
+        <f t="shared" si="119"/>
+        <v>-271.77841768549473</v>
       </c>
       <c r="S88" s="2">
-        <f t="shared" si="121"/>
-        <v>-305.89558480200151</v>
+        <f t="shared" si="119"/>
+        <v>-278.56056047208352</v>
       </c>
       <c r="T88" s="2">
-        <f t="shared" si="121"/>
-        <v>-320.63497617463884</v>
+        <f t="shared" si="119"/>
+        <v>-285.73253456062599</v>
       </c>
       <c r="U88" s="2">
-        <f t="shared" si="121"/>
-        <v>-336.18665837542522</v>
+        <f t="shared" si="119"/>
+        <v>-293.32010377031759</v>
       </c>
       <c r="V88" s="2">
-        <f t="shared" si="121"/>
-        <v>-352.60264393730279</v>
+        <f t="shared" si="119"/>
+        <v>-301.3509208746031</v>
       </c>
       <c r="W88" s="2">
-        <f t="shared" si="121"/>
-        <v>-369.93874764729128</v>
+        <f t="shared" si="119"/>
+        <v>-309.85467576744924</v>
       </c>
       <c r="X88" s="2">
-        <f t="shared" si="121"/>
-        <v>-388.25489158248064</v>
+        <f t="shared" si="119"/>
+        <v>-318.86325574578916</v>
       </c>
     </row>
     <row r="89" spans="1:27" x14ac:dyDescent="0.2">
@@ -4419,46 +4400,46 @@
         <v>287.99371196049111</v>
       </c>
       <c r="P89" s="2">
-        <f t="shared" ref="P89:X89" si="122">O89*(1+P39)</f>
-        <v>304.98508861684002</v>
+        <f t="shared" ref="P89:X89" si="120">O89*(1+P39)</f>
+        <v>297.37890894863148</v>
       </c>
       <c r="Q89" s="2">
-        <f t="shared" si="122"/>
-        <v>315.54399788578587</v>
+        <f t="shared" si="120"/>
+        <v>300.65112549681766</v>
       </c>
       <c r="R89" s="2">
-        <f t="shared" si="122"/>
-        <v>326.86022351426641</v>
+        <f t="shared" si="120"/>
+        <v>304.30788080615235</v>
       </c>
       <c r="S89" s="2">
-        <f t="shared" si="122"/>
-        <v>342.50856985552292</v>
+        <f t="shared" si="120"/>
+        <v>311.90178585677302</v>
       </c>
       <c r="T89" s="2">
-        <f t="shared" si="122"/>
-        <v>359.0121354851168</v>
+        <f t="shared" si="120"/>
+        <v>319.93218155436887</v>
       </c>
       <c r="U89" s="2">
-        <f t="shared" si="122"/>
-        <v>376.42521594159575</v>
+        <f t="shared" si="120"/>
+        <v>328.42791541850232</v>
       </c>
       <c r="V89" s="2">
-        <f t="shared" si="122"/>
-        <v>394.80604919620771</v>
+        <f t="shared" si="120"/>
+        <v>337.41995001403438</v>
       </c>
       <c r="W89" s="2">
-        <f t="shared" si="122"/>
-        <v>414.21713057032605</v>
+        <f t="shared" si="120"/>
+        <v>346.94152885158411</v>
       </c>
       <c r="X89" s="2">
-        <f t="shared" si="122"/>
-        <v>434.72555428154192</v>
+        <f t="shared" si="120"/>
+        <v>357.02835585435849</v>
       </c>
       <c r="Z89" s="2" t="s">
         <v>52</v>
       </c>
       <c r="AA89" s="9">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="90" spans="1:27" x14ac:dyDescent="0.2">
@@ -4479,46 +4460,46 @@
         <v>-726.93585225889478</v>
       </c>
       <c r="P90" s="2">
-        <f t="shared" ref="P90:X90" si="123">O90*(1+P39)</f>
-        <v>-769.82443057767887</v>
+        <f t="shared" ref="P90:X90" si="121">O90*(1+P39)</f>
+        <v>-750.62538396689047</v>
       </c>
       <c r="Q90" s="2">
-        <f t="shared" si="123"/>
-        <v>-796.47657397377668</v>
+        <f t="shared" si="121"/>
+        <v>-758.88490987472596</v>
       </c>
       <c r="R90" s="2">
-        <f t="shared" si="123"/>
-        <v>-825.04028831876894</v>
+        <f t="shared" si="121"/>
+        <v>-768.11506465552952</v>
       </c>
       <c r="S90" s="2">
-        <f t="shared" si="123"/>
-        <v>-864.5388728766992</v>
+        <f t="shared" si="121"/>
+        <v>-787.2831284384755</v>
       </c>
       <c r="T90" s="2">
-        <f t="shared" si="123"/>
-        <v>-906.19614887967418</v>
+        <f t="shared" si="121"/>
+        <v>-807.55295481999326</v>
       </c>
       <c r="U90" s="2">
-        <f t="shared" si="123"/>
-        <v>-950.14916575602797</v>
+        <f t="shared" si="121"/>
+        <v>-828.9973589184267</v>
       </c>
       <c r="V90" s="2">
-        <f t="shared" si="123"/>
-        <v>-996.54492417801396</v>
+        <f t="shared" si="121"/>
+        <v>-851.69449451818343</v>
       </c>
       <c r="W90" s="2">
-        <f t="shared" si="123"/>
-        <v>-1045.5411709568232</v>
+        <f t="shared" si="121"/>
+        <v>-875.72827282537799</v>
       </c>
       <c r="X90" s="2">
-        <f t="shared" si="123"/>
-        <v>-1097.3072611520302</v>
+        <f t="shared" si="121"/>
+        <v>-901.18881546686373</v>
       </c>
       <c r="Z90" s="2" t="s">
         <v>53</v>
       </c>
       <c r="AA90" s="9">
-        <v>-0.03</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="91" spans="1:27" x14ac:dyDescent="0.2">
@@ -4539,46 +4520,46 @@
         <v>107.25283066114841</v>
       </c>
       <c r="P91" s="2">
-        <f t="shared" ref="P91:X91" si="124">O91*(1+P39)</f>
-        <v>113.5806536917887</v>
+        <f t="shared" ref="P91:X91" si="122">O91*(1+P39)</f>
+        <v>110.74800747052483</v>
       </c>
       <c r="Q91" s="2">
-        <f t="shared" si="124"/>
-        <v>117.51293714367198</v>
+        <f t="shared" si="122"/>
+        <v>111.96662604709073</v>
       </c>
       <c r="R91" s="2">
-        <f t="shared" si="124"/>
-        <v>121.72725565358887</v>
+        <f t="shared" si="122"/>
+        <v>113.32845216229124</v>
       </c>
       <c r="S91" s="2">
-        <f t="shared" si="124"/>
-        <v>127.55491567033268</v>
+        <f t="shared" si="122"/>
+        <v>116.15652714666032</v>
       </c>
       <c r="T91" s="2">
-        <f t="shared" si="124"/>
-        <v>133.70107114618145</v>
+        <f t="shared" si="122"/>
+        <v>119.1471572685236</v>
       </c>
       <c r="U91" s="2">
-        <f t="shared" si="124"/>
-        <v>140.18594248859429</v>
+        <f t="shared" si="122"/>
+        <v>122.31108574206296</v>
       </c>
       <c r="V91" s="2">
-        <f t="shared" si="124"/>
-        <v>147.03121832134633</v>
+        <f t="shared" si="122"/>
+        <v>125.65984345350248</v>
       </c>
       <c r="W91" s="2">
-        <f t="shared" si="124"/>
-        <v>154.26017276412145</v>
+        <f t="shared" si="122"/>
+        <v>129.2058107447279</v>
       </c>
       <c r="X91" s="2">
-        <f t="shared" si="124"/>
-        <v>161.89779262898804</v>
+        <f t="shared" si="122"/>
+        <v>132.9622842492094</v>
       </c>
       <c r="Z91" s="2" t="s">
         <v>54</v>
       </c>
       <c r="AA91" s="9">
-        <v>0.09</v>
+        <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="92" spans="1:27" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -4591,59 +4572,59 @@
         <v>9072</v>
       </c>
       <c r="M92" s="4">
-        <f t="shared" ref="M92:N92" si="125">SUM(M78:M91)</f>
+        <f t="shared" ref="M92:N92" si="123">SUM(M78:M91)</f>
         <v>8005</v>
       </c>
       <c r="N92" s="4">
-        <f t="shared" si="125"/>
+        <f t="shared" si="123"/>
         <v>10828</v>
       </c>
       <c r="O92" s="4">
         <f>SUM(O77:O91)</f>
-        <v>10866.600733752999</v>
+        <v>11207.477533752999</v>
       </c>
       <c r="P92" s="4">
-        <f t="shared" ref="P92:X92" si="126">SUM(P77:P91)</f>
-        <v>12375.788022626437</v>
+        <f t="shared" ref="P92:X92" si="124">SUM(P77:P91)</f>
+        <v>12262.055511574685</v>
       </c>
       <c r="Q92" s="4">
-        <f t="shared" si="126"/>
-        <v>14224.889040497981</v>
+        <f t="shared" si="124"/>
+        <v>13641.636033274204</v>
       </c>
       <c r="R92" s="4">
-        <f t="shared" si="126"/>
-        <v>15642.73265931165</v>
+        <f t="shared" si="124"/>
+        <v>14540.195792122759</v>
       </c>
       <c r="S92" s="4">
-        <f t="shared" si="126"/>
-        <v>17091.224732192251</v>
+        <f t="shared" si="124"/>
+        <v>15436.887669960166</v>
       </c>
       <c r="T92" s="4">
-        <f t="shared" si="126"/>
-        <v>18297.57517922945</v>
+        <f t="shared" si="124"/>
+        <v>16083.610500331633</v>
       </c>
       <c r="U92" s="4">
-        <f t="shared" si="126"/>
-        <v>19811.13620000242</v>
+        <f t="shared" si="124"/>
+        <v>16969.816654238963</v>
       </c>
       <c r="V92" s="4">
-        <f t="shared" si="126"/>
-        <v>21413.528644423051</v>
+        <f t="shared" si="124"/>
+        <v>17893.991553133783</v>
       </c>
       <c r="W92" s="4">
-        <f t="shared" si="126"/>
-        <v>23112.657127314284</v>
+        <f t="shared" si="124"/>
+        <v>18860.272218501261</v>
       </c>
       <c r="X92" s="4">
-        <f t="shared" si="126"/>
-        <v>24916.832696414192</v>
+        <f t="shared" si="124"/>
+        <v>19872.924205341667</v>
       </c>
       <c r="Z92" s="2" t="s">
         <v>55</v>
       </c>
       <c r="AA92" s="4">
         <f>NPV(AA91,O100:DR100)</f>
-        <v>183315.88862586152</v>
+        <v>181358.66190130977</v>
       </c>
     </row>
     <row r="93" spans="1:27" x14ac:dyDescent="0.2">
@@ -4662,9 +4643,9 @@
       <c r="Z93" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AA93" s="2">
+      <c r="AA93" s="6">
         <f>AA92/main!D3</f>
-        <v>147.36844998859382</v>
+        <v>145.79502680724522</v>
       </c>
     </row>
     <row r="94" spans="1:27" x14ac:dyDescent="0.2">
@@ -4685,7 +4666,7 @@
       </c>
       <c r="AA94" s="8">
         <f>AA93/main!D2-1</f>
-        <v>0.41700432681340205</v>
+        <v>0.4018752577619733</v>
       </c>
     </row>
     <row r="95" spans="1:27" x14ac:dyDescent="0.2">
@@ -4749,39 +4730,39 @@
       </c>
       <c r="P98" s="4">
         <f>O98*(1+P39)</f>
-        <v>-741.29938663756639</v>
+        <v>-722.81174073897671</v>
       </c>
       <c r="Q98" s="4">
-        <f t="shared" ref="Q98:X98" si="127">P98*(1+Q39)</f>
-        <v>-766.96396256857167</v>
+        <f t="shared" ref="Q98:X98" si="125">P98*(1+Q39)</f>
+        <v>-730.76521850117376</v>
       </c>
       <c r="R98" s="4">
-        <f t="shared" si="127"/>
-        <v>-794.46927817429264</v>
+        <f t="shared" si="125"/>
+        <v>-739.65335949254882</v>
       </c>
       <c r="S98" s="4">
-        <f t="shared" si="127"/>
-        <v>-832.50428374546391</v>
+        <f t="shared" si="125"/>
+        <v>-758.11117059977096</v>
       </c>
       <c r="T98" s="4">
-        <f t="shared" si="127"/>
-        <v>-872.61799269443077</v>
+        <f t="shared" si="125"/>
+        <v>-777.62991963790364</v>
       </c>
       <c r="U98" s="4">
-        <f t="shared" si="127"/>
-        <v>-914.94237622544154</v>
+        <f t="shared" si="125"/>
+        <v>-798.27972363678145</v>
       </c>
       <c r="V98" s="4">
-        <f t="shared" si="127"/>
-        <v>-959.61898805366604</v>
+        <f t="shared" si="125"/>
+        <v>-820.13584047358222</v>
       </c>
       <c r="W98" s="4">
-        <f t="shared" si="127"/>
-        <v>-1006.7997298462053</v>
+        <f t="shared" si="125"/>
+        <v>-843.27907211191462</v>
       </c>
       <c r="X98" s="4">
-        <f t="shared" si="127"/>
-        <v>-1056.6476813869685</v>
+        <f t="shared" si="125"/>
+        <v>-867.79620081544249</v>
       </c>
     </row>
     <row r="99" spans="1:122" x14ac:dyDescent="0.2">
@@ -4808,444 +4789,444 @@
         <v>8344</v>
       </c>
       <c r="M100" s="4">
-        <f t="shared" ref="M100:X100" si="128">M92+M98</f>
+        <f t="shared" ref="M100:X100" si="126">M92+M98</f>
         <v>7420</v>
       </c>
       <c r="N100" s="4">
-        <f t="shared" si="128"/>
+        <f t="shared" si="126"/>
         <v>10305</v>
       </c>
       <c r="O100" s="4">
-        <f t="shared" si="128"/>
-        <v>10166.600733752999</v>
+        <f t="shared" si="126"/>
+        <v>10507.477533752999</v>
       </c>
       <c r="P100" s="4">
-        <f t="shared" si="128"/>
-        <v>11634.48863598887</v>
+        <f t="shared" si="126"/>
+        <v>11539.243770835708</v>
       </c>
       <c r="Q100" s="4">
-        <f t="shared" si="128"/>
-        <v>13457.925077929409</v>
+        <f t="shared" si="126"/>
+        <v>12910.87081477303</v>
       </c>
       <c r="R100" s="4">
-        <f t="shared" si="128"/>
-        <v>14848.263381137358</v>
+        <f t="shared" si="126"/>
+        <v>13800.542432630209</v>
       </c>
       <c r="S100" s="4">
-        <f t="shared" si="128"/>
-        <v>16258.720448446787</v>
+        <f t="shared" si="126"/>
+        <v>14678.776499360396</v>
       </c>
       <c r="T100" s="4">
-        <f t="shared" si="128"/>
-        <v>17424.957186535019</v>
+        <f t="shared" si="126"/>
+        <v>15305.980580693729</v>
       </c>
       <c r="U100" s="4">
-        <f t="shared" si="128"/>
-        <v>18896.193823776979</v>
+        <f t="shared" si="126"/>
+        <v>16171.536930602182</v>
       </c>
       <c r="V100" s="4">
-        <f t="shared" si="128"/>
-        <v>20453.909656369386</v>
+        <f t="shared" si="126"/>
+        <v>17073.855712660199</v>
       </c>
       <c r="W100" s="4">
-        <f t="shared" si="128"/>
-        <v>22105.857397468077</v>
+        <f t="shared" si="126"/>
+        <v>18016.993146389344</v>
       </c>
       <c r="X100" s="4">
-        <f t="shared" si="128"/>
-        <v>23860.185015027222</v>
+        <f t="shared" si="126"/>
+        <v>19005.128004526225</v>
       </c>
       <c r="Y100" s="4">
         <f>X100*(1+$AA$90)</f>
-        <v>23144.379464576406</v>
+        <v>18815.076724480961</v>
       </c>
       <c r="Z100" s="4">
-        <f t="shared" ref="Z100:CK100" si="129">Y100*(1+$AA$90)</f>
-        <v>22450.048080639113</v>
+        <f t="shared" ref="Z100:CK100" si="127">Y100*(1+$AA$90)</f>
+        <v>18626.925957236152</v>
       </c>
       <c r="AA100" s="4">
-        <f t="shared" si="129"/>
-        <v>21776.546638219941</v>
+        <f t="shared" si="127"/>
+        <v>18440.656697663791</v>
       </c>
       <c r="AB100" s="4">
-        <f t="shared" si="129"/>
-        <v>21123.250239073343</v>
+        <f t="shared" si="127"/>
+        <v>18256.250130687153</v>
       </c>
       <c r="AC100" s="4">
-        <f t="shared" si="129"/>
-        <v>20489.552731901142</v>
+        <f t="shared" si="127"/>
+        <v>18073.687629380282</v>
       </c>
       <c r="AD100" s="4">
-        <f t="shared" si="129"/>
-        <v>19874.866149944108</v>
+        <f t="shared" si="127"/>
+        <v>17892.950753086479</v>
       </c>
       <c r="AE100" s="4">
-        <f t="shared" si="129"/>
-        <v>19278.620165445784</v>
+        <f t="shared" si="127"/>
+        <v>17714.021245555614</v>
       </c>
       <c r="AF100" s="4">
-        <f t="shared" si="129"/>
-        <v>18700.26156048241</v>
+        <f t="shared" si="127"/>
+        <v>17536.881033100057</v>
       </c>
       <c r="AG100" s="4">
-        <f t="shared" si="129"/>
-        <v>18139.253713667938</v>
+        <f t="shared" si="127"/>
+        <v>17361.512222769055</v>
       </c>
       <c r="AH100" s="4">
-        <f t="shared" si="129"/>
-        <v>17595.076102257899</v>
+        <f t="shared" si="127"/>
+        <v>17187.897100541366</v>
       </c>
       <c r="AI100" s="4">
-        <f t="shared" si="129"/>
-        <v>17067.223819190163</v>
+        <f t="shared" si="127"/>
+        <v>17016.018129535951</v>
       </c>
       <c r="AJ100" s="4">
-        <f t="shared" si="129"/>
-        <v>16555.207104614459</v>
+        <f t="shared" si="127"/>
+        <v>16845.857948240591</v>
       </c>
       <c r="AK100" s="4">
-        <f t="shared" si="129"/>
-        <v>16058.550891476025</v>
+        <f t="shared" si="127"/>
+        <v>16677.399368758186</v>
       </c>
       <c r="AL100" s="4">
-        <f t="shared" si="129"/>
-        <v>15576.794364731744</v>
+        <f t="shared" si="127"/>
+        <v>16510.625375070606</v>
       </c>
       <c r="AM100" s="4">
-        <f t="shared" si="129"/>
-        <v>15109.490533789791</v>
+        <f t="shared" si="127"/>
+        <v>16345.5191213199</v>
       </c>
       <c r="AN100" s="4">
-        <f t="shared" si="129"/>
-        <v>14656.205817776097</v>
+        <f t="shared" si="127"/>
+        <v>16182.0639301067</v>
       </c>
       <c r="AO100" s="4">
-        <f t="shared" si="129"/>
-        <v>14216.519643242815</v>
+        <f t="shared" si="127"/>
+        <v>16020.243290805633</v>
       </c>
       <c r="AP100" s="4">
-        <f t="shared" si="129"/>
-        <v>13790.02405394553</v>
+        <f t="shared" si="127"/>
+        <v>15860.040857897577</v>
       </c>
       <c r="AQ100" s="4">
-        <f t="shared" si="129"/>
-        <v>13376.323332327163</v>
+        <f t="shared" si="127"/>
+        <v>15701.440449318601</v>
       </c>
       <c r="AR100" s="4">
-        <f t="shared" si="129"/>
-        <v>12975.033632357348</v>
+        <f t="shared" si="127"/>
+        <v>15544.426044825415</v>
       </c>
       <c r="AS100" s="4">
-        <f t="shared" si="129"/>
-        <v>12585.782623386627</v>
+        <f t="shared" si="127"/>
+        <v>15388.981784377162</v>
       </c>
       <c r="AT100" s="4">
-        <f t="shared" si="129"/>
-        <v>12208.209144685028</v>
+        <f t="shared" si="127"/>
+        <v>15235.091966533389</v>
       </c>
       <c r="AU100" s="4">
-        <f t="shared" si="129"/>
-        <v>11841.962870344478</v>
+        <f t="shared" si="127"/>
+        <v>15082.741046868055</v>
       </c>
       <c r="AV100" s="4">
-        <f t="shared" si="129"/>
-        <v>11486.703984234144</v>
+        <f t="shared" si="127"/>
+        <v>14931.913636399375</v>
       </c>
       <c r="AW100" s="4">
-        <f t="shared" si="129"/>
-        <v>11142.10286470712</v>
+        <f t="shared" si="127"/>
+        <v>14782.59450003538</v>
       </c>
       <c r="AX100" s="4">
-        <f t="shared" si="129"/>
-        <v>10807.839778765905</v>
+        <f t="shared" si="127"/>
+        <v>14634.768555035027</v>
       </c>
       <c r="AY100" s="4">
-        <f t="shared" si="129"/>
-        <v>10483.604585402927</v>
+        <f t="shared" si="127"/>
+        <v>14488.420869484677</v>
       </c>
       <c r="AZ100" s="4">
-        <f t="shared" si="129"/>
-        <v>10169.096447840839</v>
+        <f t="shared" si="127"/>
+        <v>14343.53666078983</v>
       </c>
       <c r="BA100" s="4">
-        <f t="shared" si="129"/>
-        <v>9864.023554405614</v>
+        <f t="shared" si="127"/>
+        <v>14200.101294181932</v>
       </c>
       <c r="BB100" s="4">
-        <f t="shared" si="129"/>
-        <v>9568.1028477734453</v>
+        <f t="shared" si="127"/>
+        <v>14058.100281240113</v>
       </c>
       <c r="BC100" s="4">
-        <f t="shared" si="129"/>
-        <v>9281.0597623402409</v>
+        <f t="shared" si="127"/>
+        <v>13917.519278427711</v>
       </c>
       <c r="BD100" s="4">
-        <f t="shared" si="129"/>
-        <v>9002.6279694700333</v>
+        <f t="shared" si="127"/>
+        <v>13778.344085643434</v>
       </c>
       <c r="BE100" s="4">
-        <f t="shared" si="129"/>
-        <v>8732.5491303859326</v>
+        <f t="shared" si="127"/>
+        <v>13640.560644787</v>
       </c>
       <c r="BF100" s="4">
-        <f t="shared" si="129"/>
-        <v>8470.5726564743545</v>
+        <f t="shared" si="127"/>
+        <v>13504.15503833913</v>
       </c>
       <c r="BG100" s="4">
-        <f t="shared" si="129"/>
-        <v>8216.4554767801237</v>
+        <f t="shared" si="127"/>
+        <v>13369.113487955738</v>
       </c>
       <c r="BH100" s="4">
-        <f t="shared" si="129"/>
-        <v>7969.9618124767194</v>
+        <f t="shared" si="127"/>
+        <v>13235.422353076179</v>
       </c>
       <c r="BI100" s="4">
-        <f t="shared" si="129"/>
-        <v>7730.8629581024179</v>
+        <f t="shared" si="127"/>
+        <v>13103.068129545418</v>
       </c>
       <c r="BJ100" s="4">
-        <f t="shared" si="129"/>
-        <v>7498.9370693593455</v>
+        <f t="shared" si="127"/>
+        <v>12972.037448249963</v>
       </c>
       <c r="BK100" s="4">
-        <f t="shared" si="129"/>
-        <v>7273.9689572785646</v>
+        <f t="shared" si="127"/>
+        <v>12842.317073767463</v>
       </c>
       <c r="BL100" s="4">
-        <f t="shared" si="129"/>
-        <v>7055.7498885602072</v>
+        <f t="shared" si="127"/>
+        <v>12713.893903029788</v>
       </c>
       <c r="BM100" s="4">
-        <f t="shared" si="129"/>
-        <v>6844.0773919034009</v>
+        <f t="shared" si="127"/>
+        <v>12586.75496399949</v>
       </c>
       <c r="BN100" s="4">
-        <f t="shared" si="129"/>
-        <v>6638.7550701462987</v>
+        <f t="shared" si="127"/>
+        <v>12460.887414359495</v>
       </c>
       <c r="BO100" s="4">
-        <f t="shared" si="129"/>
-        <v>6439.5924180419097</v>
+        <f t="shared" si="127"/>
+        <v>12336.278540215901</v>
       </c>
       <c r="BP100" s="4">
-        <f t="shared" si="129"/>
-        <v>6246.4046455006519</v>
+        <f t="shared" si="127"/>
+        <v>12212.915754813741</v>
       </c>
       <c r="BQ100" s="4">
-        <f t="shared" si="129"/>
-        <v>6059.0125061356321</v>
+        <f t="shared" si="127"/>
+        <v>12090.786597265604</v>
       </c>
       <c r="BR100" s="4">
-        <f t="shared" si="129"/>
-        <v>5877.242130951563</v>
+        <f t="shared" si="127"/>
+        <v>11969.878731292947</v>
       </c>
       <c r="BS100" s="4">
-        <f t="shared" si="129"/>
-        <v>5700.9248670230163</v>
+        <f t="shared" si="127"/>
+        <v>11850.179943980018</v>
       </c>
       <c r="BT100" s="4">
-        <f t="shared" si="129"/>
-        <v>5529.8971210123254</v>
+        <f t="shared" si="127"/>
+        <v>11731.678144540218</v>
       </c>
       <c r="BU100" s="4">
-        <f t="shared" si="129"/>
-        <v>5364.0002073819551</v>
+        <f t="shared" si="127"/>
+        <v>11614.361363094815</v>
       </c>
       <c r="BV100" s="4">
-        <f t="shared" si="129"/>
-        <v>5203.0802011604965</v>
+        <f t="shared" si="127"/>
+        <v>11498.217749463867</v>
       </c>
       <c r="BW100" s="4">
-        <f t="shared" si="129"/>
-        <v>5046.9877951256813</v>
+        <f t="shared" si="127"/>
+        <v>11383.235571969228</v>
       </c>
       <c r="BX100" s="4">
-        <f t="shared" si="129"/>
-        <v>4895.5781612719111</v>
+        <f t="shared" si="127"/>
+        <v>11269.403216249535</v>
       </c>
       <c r="BY100" s="4">
-        <f t="shared" si="129"/>
-        <v>4748.7108164337533</v>
+        <f t="shared" si="127"/>
+        <v>11156.70918408704</v>
       </c>
       <c r="BZ100" s="4">
-        <f t="shared" si="129"/>
-        <v>4606.2494919407409</v>
+        <f t="shared" si="127"/>
+        <v>11045.142092246169</v>
       </c>
       <c r="CA100" s="4">
-        <f t="shared" si="129"/>
-        <v>4468.0620071825188</v>
+        <f t="shared" si="127"/>
+        <v>10934.690671323708</v>
       </c>
       <c r="CB100" s="4">
-        <f t="shared" si="129"/>
-        <v>4334.0201469670428</v>
+        <f t="shared" si="127"/>
+        <v>10825.34376461047</v>
       </c>
       <c r="CC100" s="4">
-        <f t="shared" si="129"/>
-        <v>4203.9995425580319</v>
+        <f t="shared" si="127"/>
+        <v>10717.090326964366</v>
       </c>
       <c r="CD100" s="4">
-        <f t="shared" si="129"/>
-        <v>4077.8795562812907</v>
+        <f t="shared" si="127"/>
+        <v>10609.919423694722</v>
       </c>
       <c r="CE100" s="4">
-        <f t="shared" si="129"/>
-        <v>3955.5431695928519</v>
+        <f t="shared" si="127"/>
+        <v>10503.820229457775</v>
       </c>
       <c r="CF100" s="4">
-        <f t="shared" si="129"/>
-        <v>3836.8768745050661</v>
+        <f t="shared" si="127"/>
+        <v>10398.782027163197</v>
       </c>
       <c r="CG100" s="4">
-        <f t="shared" si="129"/>
-        <v>3721.7705682699138</v>
+        <f t="shared" si="127"/>
+        <v>10294.794206891565</v>
       </c>
       <c r="CH100" s="4">
-        <f t="shared" si="129"/>
-        <v>3610.1174512218163</v>
+        <f t="shared" si="127"/>
+        <v>10191.84626482265</v>
       </c>
       <c r="CI100" s="4">
-        <f t="shared" si="129"/>
-        <v>3501.8139276851616</v>
+        <f t="shared" si="127"/>
+        <v>10089.927802174423</v>
       </c>
       <c r="CJ100" s="4">
-        <f t="shared" si="129"/>
-        <v>3396.7595098546067</v>
+        <f t="shared" si="127"/>
+        <v>9989.0285241526781</v>
       </c>
       <c r="CK100" s="4">
-        <f t="shared" si="129"/>
-        <v>3294.8567245589684</v>
+        <f t="shared" si="127"/>
+        <v>9889.1382389111513</v>
       </c>
       <c r="CL100" s="4">
-        <f t="shared" ref="CL100:DR100" si="130">CK100*(1+$AA$90)</f>
-        <v>3196.0110228221993</v>
+        <f t="shared" ref="CL100:DR100" si="128">CK100*(1+$AA$90)</f>
+        <v>9790.2468565220406</v>
       </c>
       <c r="CM100" s="4">
-        <f t="shared" si="130"/>
-        <v>3100.1306921375331</v>
+        <f t="shared" si="128"/>
+        <v>9692.3443879568204</v>
       </c>
       <c r="CN100" s="4">
-        <f t="shared" si="130"/>
-        <v>3007.1267713734069</v>
+        <f t="shared" si="128"/>
+        <v>9595.420944077252</v>
       </c>
       <c r="CO100" s="4">
-        <f t="shared" si="130"/>
-        <v>2916.9129682322045</v>
+        <f t="shared" si="128"/>
+        <v>9499.4667346364786</v>
       </c>
       <c r="CP100" s="4">
-        <f t="shared" si="130"/>
-        <v>2829.4055791852384</v>
+        <f t="shared" si="128"/>
+        <v>9404.472067290113</v>
       </c>
       <c r="CQ100" s="4">
-        <f t="shared" si="130"/>
-        <v>2744.523411809681</v>
+        <f t="shared" si="128"/>
+        <v>9310.4273466172126</v>
       </c>
       <c r="CR100" s="4">
-        <f t="shared" si="130"/>
-        <v>2662.1877094553906</v>
+        <f t="shared" si="128"/>
+        <v>9217.3230731510412</v>
       </c>
       <c r="CS100" s="4">
-        <f t="shared" si="130"/>
-        <v>2582.3220781717287</v>
+        <f t="shared" si="128"/>
+        <v>9125.1498424195306</v>
       </c>
       <c r="CT100" s="4">
-        <f t="shared" si="130"/>
-        <v>2504.8524158265768</v>
+        <f t="shared" si="128"/>
+        <v>9033.8983439953354</v>
       </c>
       <c r="CU100" s="4">
-        <f t="shared" si="130"/>
-        <v>2429.7068433517793</v>
+        <f t="shared" si="128"/>
+        <v>8943.5593605553822</v>
       </c>
       <c r="CV100" s="4">
-        <f t="shared" si="130"/>
-        <v>2356.815638051226</v>
+        <f t="shared" si="128"/>
+        <v>8854.1237669498278</v>
       </c>
       <c r="CW100" s="4">
-        <f t="shared" si="130"/>
-        <v>2286.1111689096892</v>
+        <f t="shared" si="128"/>
+        <v>8765.5825292803293</v>
       </c>
       <c r="CX100" s="4">
-        <f t="shared" si="130"/>
-        <v>2217.5278338423986</v>
+        <f t="shared" si="128"/>
+        <v>8677.9267039875267</v>
       </c>
       <c r="CY100" s="4">
-        <f t="shared" si="130"/>
-        <v>2151.0019988271265</v>
+        <f t="shared" si="128"/>
+        <v>8591.1474369476509</v>
       </c>
       <c r="CZ100" s="4">
-        <f t="shared" si="130"/>
-        <v>2086.4719388623125</v>
+        <f t="shared" si="128"/>
+        <v>8505.2359625781737</v>
       </c>
       <c r="DA100" s="4">
-        <f t="shared" si="130"/>
-        <v>2023.8777806964431</v>
+        <f t="shared" si="128"/>
+        <v>8420.1836029523911</v>
       </c>
       <c r="DB100" s="4">
-        <f t="shared" si="130"/>
-        <v>1963.1614472755498</v>
+        <f t="shared" si="128"/>
+        <v>8335.9817669228669</v>
       </c>
       <c r="DC100" s="4">
-        <f t="shared" si="130"/>
-        <v>1904.2666038572831</v>
+        <f t="shared" si="128"/>
+        <v>8252.6219492536384</v>
       </c>
       <c r="DD100" s="4">
-        <f t="shared" si="130"/>
-        <v>1847.1386057415646</v>
+        <f t="shared" si="128"/>
+        <v>8170.0957297611021</v>
       </c>
       <c r="DE100" s="4">
-        <f t="shared" si="130"/>
-        <v>1791.7244475693176</v>
+        <f t="shared" si="128"/>
+        <v>8088.3947724634909</v>
       </c>
       <c r="DF100" s="4">
-        <f t="shared" si="130"/>
-        <v>1737.9727141422379</v>
+        <f t="shared" si="128"/>
+        <v>8007.5108247388562</v>
       </c>
       <c r="DG100" s="4">
-        <f t="shared" si="130"/>
-        <v>1685.8335327179707</v>
+        <f t="shared" si="128"/>
+        <v>7927.4357164914672</v>
       </c>
       <c r="DH100" s="4">
-        <f t="shared" si="130"/>
-        <v>1635.2585267364316</v>
+        <f t="shared" si="128"/>
+        <v>7848.1613593265529</v>
       </c>
       <c r="DI100" s="4">
-        <f t="shared" si="130"/>
-        <v>1586.2007709343386</v>
+        <f t="shared" si="128"/>
+        <v>7769.6797457332868</v>
       </c>
       <c r="DJ100" s="4">
-        <f t="shared" si="130"/>
-        <v>1538.6147478063085</v>
+        <f t="shared" si="128"/>
+        <v>7691.9829482759542</v>
       </c>
       <c r="DK100" s="4">
-        <f t="shared" si="130"/>
-        <v>1492.4563053721192</v>
+        <f t="shared" si="128"/>
+        <v>7615.0631187931949</v>
       </c>
       <c r="DL100" s="4">
-        <f t="shared" si="130"/>
-        <v>1447.6826162109555</v>
+        <f t="shared" si="128"/>
+        <v>7538.9124876052629</v>
       </c>
       <c r="DM100" s="4">
-        <f t="shared" si="130"/>
-        <v>1404.2521377246269</v>
+        <f t="shared" si="128"/>
+        <v>7463.52336272921</v>
       </c>
       <c r="DN100" s="4">
-        <f t="shared" si="130"/>
-        <v>1362.1245735928881</v>
+        <f t="shared" si="128"/>
+        <v>7388.8881291019179</v>
       </c>
       <c r="DO100" s="4">
-        <f t="shared" si="130"/>
-        <v>1321.2608363851014</v>
+        <f t="shared" si="128"/>
+        <v>7314.9992478108989</v>
       </c>
       <c r="DP100" s="4">
-        <f t="shared" si="130"/>
-        <v>1281.6230112935482</v>
+        <f t="shared" si="128"/>
+        <v>7241.8492553327897</v>
       </c>
       <c r="DQ100" s="4">
-        <f t="shared" si="130"/>
-        <v>1243.1743209547417</v>
+        <f t="shared" si="128"/>
+        <v>7169.4307627794615</v>
       </c>
       <c r="DR100" s="4">
-        <f t="shared" si="130"/>
-        <v>1205.8790913260993</v>
+        <f t="shared" si="128"/>
+        <v>7097.7364551516666</v>
       </c>
     </row>
   </sheetData>

--- a/GILD.xlsx
+++ b/GILD.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1337A837-9E96-4395-8DAD-F2C270109AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81300FED-E1E3-4F58-9A27-DC86B2782960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6045" yWindow="780" windowWidth="17745" windowHeight="14640" activeTab="1" xr2:uid="{EE5219A3-BA1B-4D6E-A979-2CD5C8786A6D}"/>
+    <workbookView xWindow="1695" yWindow="375" windowWidth="22125" windowHeight="14250" activeTab="1" xr2:uid="{EE5219A3-BA1B-4D6E-A979-2CD5C8786A6D}"/>
   </bookViews>
   <sheets>
-    <sheet name="main" sheetId="1" r:id="rId1"/>
-    <sheet name="model" sheetId="2" r:id="rId2"/>
-    <sheet name="drugs" sheetId="3" r:id="rId3"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="Model" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -75,10 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="102">
-  <si>
-    <t>GILD</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="101">
   <si>
     <t>Price</t>
   </si>
@@ -387,9 +383,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -404,6 +406,20 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -428,19 +444,22 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -902,80 +921,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EC03042-0724-4188-A047-AF171A2F2E1F}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C3" t="s">
+      <c r="M3" s="2">
+        <v>1243.9290000000001</v>
+      </c>
+      <c r="N3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2">
-        <v>1243.9290000000001</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C4" t="s">
+      <c r="M4" s="2">
+        <f>M3*M2</f>
+        <v>135588.261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L5" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="2">
-        <f>D3*D2</f>
-        <v>129368.61600000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
+      <c r="M5" s="2">
+        <v>7926</v>
+      </c>
+      <c r="N5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L6" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="2">
-        <v>7926</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="M6" s="2">
         <f>22146+819+709+1337</f>
         <v>25011</v>
       </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
+      <c r="N6" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="2">
-        <f>D4+D6-D5</f>
-        <v>146453.61600000001</v>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7" s="2">
+        <f>M4+M6-M5</f>
+        <v>152673.261</v>
       </c>
     </row>
   </sheetData>
@@ -988,4245 +1008,4245 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0195CDA4-2070-45E2-99A5-CB7B98D2FA3E}">
   <dimension ref="A1:DR100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="S70" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="S82" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA89" sqref="AA89"/>
+      <selection pane="bottomRight" activeCell="AA93" sqref="AA93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.25" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="4.375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="20.25" style="5" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="5">
+      <c r="L1" s="6">
         <v>2022</v>
       </c>
-      <c r="M1" s="5">
+      <c r="M1" s="6">
         <f>L1+1</f>
         <v>2023</v>
       </c>
-      <c r="N1" s="5">
+      <c r="N1" s="6">
         <f t="shared" ref="N1:X1" si="0">M1+1</f>
         <v>2024</v>
       </c>
-      <c r="O1" s="5">
+      <c r="O1" s="6">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="P1" s="5">
+      <c r="P1" s="6">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="Q1" s="5">
+      <c r="Q1" s="6">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="R1" s="5">
+      <c r="R1" s="6">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="S1" s="5">
+      <c r="S1" s="6">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="T1" s="5">
+      <c r="T1" s="6">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="U1" s="5">
+      <c r="U1" s="6">
         <f t="shared" si="0"/>
         <v>2031</v>
       </c>
-      <c r="V1" s="5">
+      <c r="V1" s="6">
         <f t="shared" si="0"/>
         <v>2032</v>
       </c>
-      <c r="W1" s="5">
+      <c r="W1" s="6">
         <f t="shared" si="0"/>
         <v>2033</v>
       </c>
-      <c r="X1" s="5">
+      <c r="X1" s="6">
         <f t="shared" si="0"/>
         <v>2034</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="7">
+    <row r="2" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="8">
         <f>G15/C15-1</f>
         <v>6.9246435845213838E-2</v>
       </c>
-      <c r="H2" s="7" t="e">
+      <c r="H2" s="8" t="e">
         <f>H15/D15-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I2" s="7" t="e">
+      <c r="I2" s="8" t="e">
         <f>I15/E15-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J2" s="7" t="e">
+      <c r="J2" s="8" t="e">
         <f>J15/F15-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7">
+      <c r="L2" s="8"/>
+      <c r="M2" s="8">
         <f>M15/L15-1</f>
         <v>0.1405197305101058</v>
       </c>
-      <c r="N2" s="7">
+      <c r="N2" s="8">
         <f t="shared" ref="N2:X2" si="1">N15/M15-1</f>
         <v>0.13274261603375526</v>
       </c>
-      <c r="O2" s="7">
+      <c r="O2" s="8">
         <f t="shared" si="1"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="P2" s="7">
+      <c r="P2" s="8">
         <f t="shared" si="1"/>
         <v>2.8710766250810149E-3</v>
       </c>
-      <c r="Q2" s="7">
+      <c r="Q2" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R2" s="7">
+      <c r="R2" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S2" s="7">
+      <c r="S2" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T2" s="7">
+      <c r="T2" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U2" s="7">
+      <c r="U2" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V2" s="7">
+      <c r="V2" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W2" s="7">
+      <c r="W2" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X2" s="7">
+      <c r="X2" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="8">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="9">
         <f>SUM(G15:G16)/SUM(C15:C16)-1</f>
         <v>5.6425610317825781E-2</v>
       </c>
-      <c r="H3" s="8" t="e">
+      <c r="H3" s="9" t="e">
         <f>SUM(H15:H16)/SUM(D15:D16)-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I3" s="8" t="e">
+      <c r="I3" s="9" t="e">
         <f>SUM(I15:I16)/SUM(E15:E16)-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J3" s="8" t="e">
+      <c r="J3" s="9" t="e">
         <f>SUM(J15:J16)/SUM(F15:F16)-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8">
+      <c r="L3" s="9"/>
+      <c r="M3" s="9">
         <f>SUM(M15:M16)/SUM(L15:L16)-1</f>
         <v>5.7054786553448977E-2</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N3" s="9">
         <f>SUM(N15:N16)/SUM(M15:M16)-1</f>
         <v>7.9064649243466345E-2</v>
       </c>
-      <c r="O3" s="8">
+      <c r="O3" s="9">
         <f t="shared" ref="O3:X3" si="2">SUM(O15:O16)/SUM(N15:N16)-1</f>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="P3" s="8">
+      <c r="P3" s="9">
         <f t="shared" si="2"/>
         <v>1.4587928897535463E-2</v>
       </c>
-      <c r="Q3" s="8">
+      <c r="Q3" s="9">
         <f t="shared" si="2"/>
         <v>1.2939045431786145E-2</v>
       </c>
-      <c r="R3" s="8">
+      <c r="R3" s="9">
         <f t="shared" si="2"/>
         <v>1.3284715708951067E-2</v>
       </c>
-      <c r="S3" s="8">
+      <c r="S3" s="9">
         <f t="shared" si="2"/>
         <v>1.3634967668137321E-2</v>
       </c>
-      <c r="T3" s="8">
+      <c r="T3" s="9">
         <f t="shared" si="2"/>
         <v>1.3989618380554125E-2</v>
       </c>
-      <c r="U3" s="8">
+      <c r="U3" s="9">
         <f t="shared" si="2"/>
         <v>1.4348473447896914E-2</v>
       </c>
-      <c r="V3" s="8">
+      <c r="V3" s="9">
         <f t="shared" si="2"/>
         <v>1.471132729671254E-2</v>
       </c>
-      <c r="W3" s="8">
+      <c r="W3" s="9">
         <f t="shared" si="2"/>
         <v>1.5077963532092564E-2</v>
       </c>
-      <c r="X3" s="8">
+      <c r="X3" s="9">
         <f t="shared" si="2"/>
         <v>1.5448155350365367E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:24" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="8">
+    <row r="4" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="9">
         <f>M17/L17-1</f>
         <v>-5.0035739814152658E-3</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="9">
         <f>N17/M17-1</f>
         <v>8.5129310344827624E-2</v>
       </c>
-      <c r="O4" s="8">
+      <c r="O4" s="9">
         <f t="shared" ref="O4:X4" si="3">O17/N17-1</f>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="P4" s="8">
+      <c r="P4" s="9">
         <f t="shared" si="3"/>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="Q4" s="8">
+      <c r="Q4" s="9">
         <f t="shared" si="3"/>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="R4" s="8">
+      <c r="R4" s="9">
         <f t="shared" si="3"/>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="S4" s="8">
+      <c r="S4" s="9">
         <f t="shared" si="3"/>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="T4" s="8">
+      <c r="T4" s="9">
         <f t="shared" si="3"/>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="U4" s="8">
+      <c r="U4" s="9">
         <f t="shared" si="3"/>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="V4" s="8">
+      <c r="V4" s="9">
         <f t="shared" si="3"/>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="W4" s="8">
+      <c r="W4" s="9">
         <f t="shared" si="3"/>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="X4" s="8">
+      <c r="X4" s="9">
         <f t="shared" si="3"/>
         <v>3.0000000000000027E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="8">
+    <row r="5" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="9">
         <f>M18/L18-1</f>
         <v>-0.44071702944942381</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="9">
         <f t="shared" ref="N5:X5" si="4">N18/M18-1</f>
         <v>-0.17628205128205132</v>
       </c>
-      <c r="O5" s="8">
+      <c r="O5" s="9">
         <f t="shared" si="4"/>
         <v>-0.22234574763757642</v>
       </c>
-      <c r="P5" s="8">
+      <c r="P5" s="9">
         <f t="shared" si="4"/>
         <v>-0.5</v>
       </c>
-      <c r="Q5" s="8">
+      <c r="Q5" s="9">
         <f t="shared" si="4"/>
         <v>-0.5</v>
       </c>
-      <c r="R5" s="8">
+      <c r="R5" s="9">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="S5" s="8" t="e">
+      <c r="S5" s="9" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T5" s="8" t="e">
+      <c r="T5" s="9" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U5" s="8" t="e">
+      <c r="U5" s="9" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V5" s="8" t="e">
+      <c r="V5" s="9" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W5" s="8" t="e">
+      <c r="W5" s="9" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X5" s="8" t="e">
+      <c r="X5" s="9" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="8">
+    <row r="6" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="9">
         <f>SUM(M19:M20)/SUM(L19:L20)-1</f>
         <v>0.37073398784478728</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6" s="9">
         <f t="shared" ref="N6:X6" si="5">SUM(N19:N20)/SUM(M19:M20)-1</f>
         <v>0.12141882673942694</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O6" s="9">
         <f t="shared" si="5"/>
         <v>7.7998783454987786E-2</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="9">
         <f t="shared" si="5"/>
         <v>7.8087832843366956E-2</v>
       </c>
-      <c r="Q6" s="8">
+      <c r="Q6" s="9">
         <f t="shared" si="5"/>
         <v>7.8177198119395275E-2</v>
       </c>
-      <c r="R6" s="8">
+      <c r="R6" s="9">
         <f t="shared" si="5"/>
         <v>7.8266865563181964E-2</v>
       </c>
-      <c r="S6" s="8">
+      <c r="S6" s="9">
         <f t="shared" si="5"/>
         <v>7.8356821257937748E-2</v>
       </c>
-      <c r="T6" s="8">
+      <c r="T6" s="9">
         <f t="shared" si="5"/>
         <v>7.8447051098101239E-2</v>
       </c>
-      <c r="U6" s="8">
+      <c r="U6" s="9">
         <f t="shared" si="5"/>
         <v>7.8537540797719796E-2</v>
       </c>
-      <c r="V6" s="8">
+      <c r="V6" s="9">
         <f t="shared" si="5"/>
         <v>7.8628275899076616E-2</v>
       </c>
-      <c r="W6" s="8">
+      <c r="W6" s="9">
         <f t="shared" si="5"/>
         <v>7.871924178156231E-2</v>
       </c>
-      <c r="X6" s="8">
+      <c r="X6" s="9">
         <f t="shared" si="5"/>
         <v>7.881042367076585E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:24" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="2"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
+    <row r="7" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="5">
+        <v>4633</v>
+      </c>
+      <c r="G8" s="5">
+        <v>4668</v>
+      </c>
+      <c r="L8" s="5">
+        <v>18716</v>
+      </c>
+      <c r="M8" s="5">
+        <v>19377</v>
+      </c>
+      <c r="N8" s="5">
+        <v>20508</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="2">
-        <v>4633</v>
-      </c>
-      <c r="G8" s="2">
-        <v>4668</v>
-      </c>
-      <c r="L8" s="2">
-        <v>18716</v>
-      </c>
-      <c r="M8" s="2">
-        <v>19377</v>
-      </c>
-      <c r="N8" s="2">
-        <v>20508</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="C9" s="5">
         <f>1159+894</f>
         <v>2053</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="5">
         <f>1084+915</f>
         <v>1999</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="5">
         <f>L22-L8</f>
         <v>8266</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="5">
         <f t="shared" ref="M9:N9" si="6">M22-M8</f>
         <v>7557</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N9" s="5">
         <f t="shared" si="6"/>
         <v>8101</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="L10" s="8">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="L10" s="9">
         <f>L8/L22</f>
         <v>0.69364761692980503</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="9">
         <f>M8/M22</f>
         <v>0.71942526175094679</v>
       </c>
-      <c r="N10" s="8">
+      <c r="N10" s="9">
         <f>N8/N22</f>
         <v>0.71683735887308186</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L11" s="8">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L11" s="9">
         <f>L9/L22</f>
         <v>0.30635238307019497</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="9">
         <f t="shared" ref="M11:N11" si="7">M9/M22</f>
         <v>0.28057473824905327</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N11" s="9">
         <f t="shared" si="7"/>
         <v>0.28316264112691808</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
+      <c r="A12" s="4"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" t="s">
-        <v>101</v>
+      <c r="A13" s="4"/>
+      <c r="B13" s="10" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="P14" s="8"/>
-    </row>
-    <row r="15" spans="1:24" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="4">
+      <c r="A14" s="4"/>
+      <c r="B14" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="P14" s="9"/>
+    </row>
+    <row r="15" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4"/>
+      <c r="B15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="7">
         <v>2946</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="7">
         <v>3150</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="7">
         <v>10390</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M15" s="7">
         <v>11850</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="7">
         <v>13423</v>
       </c>
-      <c r="O15" s="4">
+      <c r="O15" s="7">
         <f>N15*1.04</f>
         <v>13959.92</v>
       </c>
-      <c r="P15" s="4">
+      <c r="P15" s="7">
         <v>14000</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="Q15" s="7">
         <v>14000</v>
       </c>
-      <c r="R15" s="4">
+      <c r="R15" s="7">
         <v>14000</v>
       </c>
-      <c r="S15" s="4">
+      <c r="S15" s="7">
         <v>14000</v>
       </c>
-      <c r="T15" s="4">
+      <c r="T15" s="7">
         <v>14000</v>
       </c>
-      <c r="U15" s="4">
+      <c r="U15" s="7">
         <v>14000</v>
       </c>
-      <c r="V15" s="4">
+      <c r="V15" s="7">
         <v>14000</v>
       </c>
-      <c r="W15" s="4">
+      <c r="W15" s="7">
         <v>14000</v>
       </c>
-      <c r="X15" s="4">
+      <c r="X15" s="7">
         <v>14000</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="2">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="5">
         <f>4342-C15</f>
         <v>1396</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="5">
         <f>4587-G15</f>
         <v>1437</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L16" s="5">
         <f>17194-L15</f>
         <v>6804</v>
       </c>
-      <c r="M16" s="2">
+      <c r="M16" s="5">
         <f>18175-M15</f>
         <v>6325</v>
       </c>
-      <c r="N16" s="2">
+      <c r="N16" s="5">
         <f>19612-N15</f>
         <v>6189</v>
       </c>
-      <c r="O16" s="2">
+      <c r="O16" s="5">
         <f>N16*1.04</f>
         <v>6436.56</v>
       </c>
-      <c r="P16" s="2">
+      <c r="P16" s="5">
         <f t="shared" ref="P16:X16" si="8">O16*1.04</f>
         <v>6694.0224000000007</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="Q16" s="5">
         <f t="shared" si="8"/>
         <v>6961.7832960000014</v>
       </c>
-      <c r="R16" s="2">
+      <c r="R16" s="5">
         <f t="shared" si="8"/>
         <v>7240.2546278400014</v>
       </c>
-      <c r="S16" s="2">
+      <c r="S16" s="5">
         <f t="shared" si="8"/>
         <v>7529.8648129536014</v>
       </c>
-      <c r="T16" s="2">
+      <c r="T16" s="5">
         <f t="shared" si="8"/>
         <v>7831.0594054717458</v>
       </c>
-      <c r="U16" s="2">
+      <c r="U16" s="5">
         <f t="shared" si="8"/>
         <v>8144.3017816906158</v>
       </c>
-      <c r="V16" s="2">
+      <c r="V16" s="5">
         <f t="shared" si="8"/>
         <v>8470.0738529582413</v>
       </c>
-      <c r="W16" s="2">
+      <c r="W16" s="5">
         <f t="shared" si="8"/>
         <v>8808.8768070765709</v>
       </c>
-      <c r="X16" s="2">
+      <c r="X16" s="5">
         <f t="shared" si="8"/>
         <v>9161.2318793596332</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="2">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="5">
         <v>737</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="5">
         <v>758</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L17" s="5">
         <v>2798</v>
       </c>
-      <c r="M17" s="2">
+      <c r="M17" s="5">
         <v>2784</v>
       </c>
-      <c r="N17" s="2">
+      <c r="N17" s="5">
         <v>3021</v>
       </c>
-      <c r="O17" s="2">
+      <c r="O17" s="5">
         <f>N17*1.03</f>
         <v>3111.63</v>
       </c>
-      <c r="P17" s="2">
+      <c r="P17" s="5">
         <f t="shared" ref="P17:X17" si="9">O17*1.03</f>
         <v>3204.9789000000001</v>
       </c>
-      <c r="Q17" s="2">
+      <c r="Q17" s="5">
         <f t="shared" si="9"/>
         <v>3301.1282670000001</v>
       </c>
-      <c r="R17" s="2">
+      <c r="R17" s="5">
         <f t="shared" si="9"/>
         <v>3400.16211501</v>
       </c>
-      <c r="S17" s="2">
+      <c r="S17" s="5">
         <f t="shared" si="9"/>
         <v>3502.1669784603</v>
       </c>
-      <c r="T17" s="2">
+      <c r="T17" s="5">
         <f t="shared" si="9"/>
         <v>3607.2319878141093</v>
       </c>
-      <c r="U17" s="2">
+      <c r="U17" s="5">
         <f t="shared" si="9"/>
         <v>3715.4489474485326</v>
       </c>
-      <c r="V17" s="2">
+      <c r="V17" s="5">
         <f t="shared" si="9"/>
         <v>3826.9124158719887</v>
       </c>
-      <c r="W17" s="2">
+      <c r="W17" s="5">
         <f t="shared" si="9"/>
         <v>3941.7197883481485</v>
       </c>
-      <c r="X17" s="2">
+      <c r="X17" s="5">
         <f t="shared" si="9"/>
         <v>4059.9713819985932</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="5">
         <v>555</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="G18" s="2">
+      <c r="D18" s="11"/>
+      <c r="G18" s="5">
         <v>302</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L18" s="5">
         <v>3905</v>
       </c>
-      <c r="M18" s="2">
+      <c r="M18" s="5">
         <v>2184</v>
       </c>
-      <c r="N18" s="2">
+      <c r="N18" s="5">
         <v>1799</v>
       </c>
-      <c r="O18" s="2">
+      <c r="O18" s="5">
         <f>N18-400</f>
         <v>1399</v>
       </c>
-      <c r="P18" s="2">
+      <c r="P18" s="5">
         <f>O18*0.5</f>
         <v>699.5</v>
       </c>
-      <c r="Q18" s="2">
+      <c r="Q18" s="5">
         <f>P18*0.5</f>
         <v>349.75</v>
       </c>
-      <c r="R18" s="2">
-        <v>0</v>
-      </c>
-      <c r="S18" s="2">
-        <v>0</v>
-      </c>
-      <c r="T18" s="2">
-        <v>0</v>
-      </c>
-      <c r="U18" s="2">
-        <v>0</v>
-      </c>
-      <c r="V18" s="2">
-        <v>0</v>
-      </c>
-      <c r="W18" s="2">
-        <v>0</v>
-      </c>
-      <c r="X18" s="2">
+      <c r="R18" s="5">
+        <v>0</v>
+      </c>
+      <c r="S18" s="5">
+        <v>0</v>
+      </c>
+      <c r="T18" s="5">
+        <v>0</v>
+      </c>
+      <c r="U18" s="5">
+        <v>0</v>
+      </c>
+      <c r="V18" s="5">
+        <v>0</v>
+      </c>
+      <c r="W18" s="5">
+        <v>0</v>
+      </c>
+      <c r="X18" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="2">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="5">
         <v>480</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="5">
         <v>464</v>
       </c>
-      <c r="L19" s="2">
+      <c r="L19" s="5">
         <v>1459</v>
       </c>
-      <c r="M19" s="2">
+      <c r="M19" s="5">
         <v>1869</v>
       </c>
-      <c r="N19" s="2">
+      <c r="N19" s="5">
         <v>1973</v>
       </c>
-      <c r="O19" s="2">
+      <c r="O19" s="5">
         <f>N19*1.07</f>
         <v>2111.11</v>
       </c>
-      <c r="P19" s="2">
+      <c r="P19" s="5">
         <f t="shared" ref="P19:X19" si="10">O19*1.07</f>
         <v>2258.8877000000002</v>
       </c>
-      <c r="Q19" s="2">
+      <c r="Q19" s="5">
         <f t="shared" si="10"/>
         <v>2417.0098390000003</v>
       </c>
-      <c r="R19" s="2">
+      <c r="R19" s="5">
         <f t="shared" si="10"/>
         <v>2586.2005277300004</v>
       </c>
-      <c r="S19" s="2">
+      <c r="S19" s="5">
         <f t="shared" si="10"/>
         <v>2767.2345646711005</v>
       </c>
-      <c r="T19" s="2">
+      <c r="T19" s="5">
         <f t="shared" si="10"/>
         <v>2960.9409841980778</v>
       </c>
-      <c r="U19" s="2">
+      <c r="U19" s="5">
         <f t="shared" si="10"/>
         <v>3168.2068530919432</v>
       </c>
-      <c r="V19" s="2">
+      <c r="V19" s="5">
         <f t="shared" si="10"/>
         <v>3389.9813328083796</v>
       </c>
-      <c r="W19" s="2">
+      <c r="W19" s="5">
         <f t="shared" si="10"/>
         <v>3627.2800261049665</v>
       </c>
-      <c r="X19" s="2">
+      <c r="X19" s="5">
         <f t="shared" si="10"/>
         <v>3881.1896279323146</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="2">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="5">
         <v>309</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="5">
         <v>293</v>
       </c>
-      <c r="L20" s="2">
+      <c r="L20" s="5">
         <v>680</v>
       </c>
-      <c r="M20" s="2">
+      <c r="M20" s="5">
         <v>1063</v>
       </c>
-      <c r="N20" s="2">
+      <c r="N20" s="5">
         <v>1315</v>
       </c>
-      <c r="O20" s="2">
+      <c r="O20" s="5">
         <f>N20*1.09</f>
         <v>1433.3500000000001</v>
       </c>
-      <c r="P20" s="2">
+      <c r="P20" s="5">
         <f t="shared" ref="P20:X20" si="11">O20*1.09</f>
         <v>1562.3515000000002</v>
       </c>
-      <c r="Q20" s="2">
+      <c r="Q20" s="5">
         <f t="shared" si="11"/>
         <v>1702.9631350000004</v>
       </c>
-      <c r="R20" s="2">
+      <c r="R20" s="5">
         <f t="shared" si="11"/>
         <v>1856.2298171500006</v>
       </c>
-      <c r="S20" s="2">
+      <c r="S20" s="5">
         <f t="shared" si="11"/>
         <v>2023.2905006935007</v>
       </c>
-      <c r="T20" s="2">
+      <c r="T20" s="5">
         <f t="shared" si="11"/>
         <v>2205.3866457559161</v>
       </c>
-      <c r="U20" s="2">
+      <c r="U20" s="5">
         <f t="shared" si="11"/>
         <v>2403.8714438739489</v>
       </c>
-      <c r="V20" s="2">
+      <c r="V20" s="5">
         <f t="shared" si="11"/>
         <v>2620.2198738226043</v>
       </c>
-      <c r="W20" s="2">
+      <c r="W20" s="5">
         <f t="shared" si="11"/>
         <v>2856.0396624666391</v>
       </c>
-      <c r="X20" s="2">
+      <c r="X20" s="5">
         <f t="shared" si="11"/>
         <v>3113.083232088637</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="2">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="5">
         <v>224</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="5">
         <v>209</v>
       </c>
-      <c r="L21" s="2">
+      <c r="L21" s="5">
         <v>946</v>
       </c>
-      <c r="M21" s="2">
+      <c r="M21" s="5">
         <v>859</v>
       </c>
-      <c r="N21" s="2">
+      <c r="N21" s="5">
         <v>889</v>
       </c>
-      <c r="O21" s="2">
+      <c r="O21" s="5">
         <v>900</v>
       </c>
-      <c r="P21" s="2">
+      <c r="P21" s="5">
         <v>900</v>
       </c>
-      <c r="Q21" s="2">
+      <c r="Q21" s="5">
         <v>900</v>
       </c>
-      <c r="R21" s="2">
+      <c r="R21" s="5">
         <v>900</v>
       </c>
-      <c r="S21" s="2">
+      <c r="S21" s="5">
         <v>900</v>
       </c>
-      <c r="T21" s="2">
+      <c r="T21" s="5">
         <v>900</v>
       </c>
-      <c r="U21" s="2">
+      <c r="U21" s="5">
         <v>900</v>
       </c>
-      <c r="V21" s="2">
+      <c r="V21" s="5">
         <v>900</v>
       </c>
-      <c r="W21" s="2">
+      <c r="W21" s="5">
         <v>900</v>
       </c>
-      <c r="X21" s="2">
+      <c r="X21" s="5">
         <v>900</v>
       </c>
     </row>
-    <row r="22" spans="1:24" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="4">
+    <row r="22" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="7">
         <f>SUM(C15:C21)</f>
         <v>6647</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="7">
         <f>SUM(G15:G21)</f>
         <v>6613</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L22" s="7">
         <f>SUM(L15:L21)</f>
         <v>26982</v>
       </c>
-      <c r="M22" s="4">
+      <c r="M22" s="7">
         <f>SUM(M15:M21)</f>
         <v>26934</v>
       </c>
-      <c r="N22" s="4">
+      <c r="N22" s="7">
         <f>SUM(N15:N21)</f>
         <v>28609</v>
       </c>
-      <c r="O22" s="4">
+      <c r="O22" s="7">
         <v>28400</v>
       </c>
-      <c r="P22" s="4">
+      <c r="P22" s="7">
         <f t="shared" ref="P22:X22" si="12">SUM(P15:P21)</f>
         <v>29319.740500000004</v>
       </c>
-      <c r="Q22" s="4">
+      <c r="Q22" s="7">
         <f t="shared" si="12"/>
         <v>29632.634537000002</v>
       </c>
-      <c r="R22" s="4">
+      <c r="R22" s="7">
         <f t="shared" si="12"/>
         <v>29982.847087730002</v>
       </c>
-      <c r="S22" s="4">
+      <c r="S22" s="7">
         <f t="shared" si="12"/>
         <v>30722.556856778501</v>
       </c>
-      <c r="T22" s="4">
+      <c r="T22" s="7">
         <f t="shared" si="12"/>
         <v>31504.619023239848</v>
       </c>
-      <c r="U22" s="4">
+      <c r="U22" s="7">
         <f t="shared" si="12"/>
         <v>32331.829026105035</v>
       </c>
-      <c r="V22" s="4">
+      <c r="V22" s="7">
         <f t="shared" si="12"/>
         <v>33207.187475461214</v>
       </c>
-      <c r="W22" s="4">
+      <c r="W22" s="7">
         <f t="shared" si="12"/>
         <v>34133.916283996325</v>
       </c>
-      <c r="X22" s="4">
+      <c r="X22" s="7">
         <f t="shared" si="12"/>
         <v>35115.476121379179</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="2">
+      <c r="B23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="5">
         <v>39</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="5">
         <v>54</v>
       </c>
-      <c r="L23" s="2">
+      <c r="L23" s="5">
         <v>299</v>
       </c>
-      <c r="M23" s="2">
+      <c r="M23" s="5">
         <v>182</v>
       </c>
-      <c r="N23" s="2">
+      <c r="N23" s="5">
         <v>144</v>
       </c>
-      <c r="O23" s="2">
+      <c r="O23" s="5">
         <f>N23*1.07</f>
         <v>154.08000000000001</v>
       </c>
-      <c r="P23" s="2">
+      <c r="P23" s="5">
         <f t="shared" ref="P23:S23" si="13">O23*1.07</f>
         <v>164.86560000000003</v>
       </c>
-      <c r="Q23" s="2">
+      <c r="Q23" s="5">
         <f t="shared" si="13"/>
         <v>176.40619200000003</v>
       </c>
-      <c r="R23" s="2">
+      <c r="R23" s="5">
         <f t="shared" si="13"/>
         <v>188.75462544000004</v>
       </c>
-      <c r="S23" s="2">
+      <c r="S23" s="5">
         <f t="shared" si="13"/>
         <v>201.96744922080006</v>
       </c>
-      <c r="T23" s="2">
+      <c r="T23" s="5">
         <f t="shared" ref="T23:X23" si="14">S23*1.07</f>
         <v>216.10517066625607</v>
       </c>
-      <c r="U23" s="2">
+      <c r="U23" s="5">
         <f t="shared" si="14"/>
         <v>231.232532612894</v>
       </c>
-      <c r="V23" s="2">
+      <c r="V23" s="5">
         <f t="shared" si="14"/>
         <v>247.41880989579661</v>
       </c>
-      <c r="W23" s="2">
+      <c r="W23" s="5">
         <f t="shared" si="14"/>
         <v>264.73812658850238</v>
       </c>
-      <c r="X23" s="2">
+      <c r="X23" s="5">
         <f t="shared" si="14"/>
         <v>283.26979544969754</v>
       </c>
     </row>
-    <row r="24" spans="1:24" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="4">
+    <row r="24" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="7">
         <f>SUM(C22:C23)</f>
         <v>6686</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="7">
         <f t="shared" ref="D24:L24" si="15">SUM(D22:D23)</f>
         <v>0</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="7">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="7">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="7">
         <f t="shared" si="15"/>
         <v>6667</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="7">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="7">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="7">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L24" s="4">
+      <c r="L24" s="7">
         <f t="shared" si="15"/>
         <v>27281</v>
       </c>
-      <c r="M24" s="4">
+      <c r="M24" s="7">
         <f t="shared" ref="M24" si="16">SUM(M22:M23)</f>
         <v>27116</v>
       </c>
-      <c r="N24" s="4">
+      <c r="N24" s="7">
         <f t="shared" ref="N24" si="17">SUM(N22:N23)</f>
         <v>28753</v>
       </c>
-      <c r="O24" s="4">
+      <c r="O24" s="7">
         <f t="shared" ref="O24" si="18">SUM(O22:O23)</f>
         <v>28554.080000000002</v>
       </c>
-      <c r="P24" s="4">
+      <c r="P24" s="7">
         <f t="shared" ref="P24" si="19">SUM(P22:P23)</f>
         <v>29484.606100000005</v>
       </c>
-      <c r="Q24" s="4">
+      <c r="Q24" s="7">
         <f t="shared" ref="Q24" si="20">SUM(Q22:Q23)</f>
         <v>29809.040729</v>
       </c>
-      <c r="R24" s="4">
+      <c r="R24" s="7">
         <f t="shared" ref="R24" si="21">SUM(R22:R23)</f>
         <v>30171.601713170003</v>
       </c>
-      <c r="S24" s="4">
+      <c r="S24" s="7">
         <f t="shared" ref="S24" si="22">SUM(S22:S23)</f>
         <v>30924.524305999301</v>
       </c>
-      <c r="T24" s="4">
+      <c r="T24" s="7">
         <f t="shared" ref="T24" si="23">SUM(T22:T23)</f>
         <v>31720.724193906102</v>
       </c>
-      <c r="U24" s="4">
+      <c r="U24" s="7">
         <f t="shared" ref="U24" si="24">SUM(U22:U23)</f>
         <v>32563.061558717931</v>
       </c>
-      <c r="V24" s="4">
+      <c r="V24" s="7">
         <f t="shared" ref="V24" si="25">SUM(V22:V23)</f>
         <v>33454.606285357011</v>
       </c>
-      <c r="W24" s="4">
+      <c r="W24" s="7">
         <f t="shared" ref="W24" si="26">SUM(W22:W23)</f>
         <v>34398.65441058483</v>
       </c>
-      <c r="X24" s="4">
+      <c r="X24" s="7">
         <f t="shared" ref="X24" si="27">SUM(X22:X23)</f>
         <v>35398.745916828877</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B25" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="2">
+      <c r="B25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="5">
         <v>1552</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="5">
         <v>1540</v>
       </c>
-      <c r="L25" s="2">
+      <c r="L25" s="5">
         <v>5657</v>
       </c>
-      <c r="M25" s="2">
+      <c r="M25" s="5">
         <v>6498</v>
       </c>
-      <c r="N25" s="2">
+      <c r="N25" s="5">
         <v>6251</v>
       </c>
-      <c r="O25" s="2">
+      <c r="O25" s="5">
         <f t="shared" ref="O25:X25" si="28">O24*(1-O43)</f>
         <v>6281.8975999999993</v>
       </c>
-      <c r="P25" s="2">
+      <c r="P25" s="5">
         <f t="shared" si="28"/>
         <v>6486.6133420000006</v>
       </c>
-      <c r="Q25" s="2">
+      <c r="Q25" s="5">
         <f t="shared" si="28"/>
         <v>6557.9889603799993</v>
       </c>
-      <c r="R25" s="2">
+      <c r="R25" s="5">
         <f t="shared" si="28"/>
         <v>6637.7523768973997</v>
       </c>
-      <c r="S25" s="2">
+      <c r="S25" s="5">
         <f t="shared" si="28"/>
         <v>6803.3953473198453</v>
       </c>
-      <c r="T25" s="2">
+      <c r="T25" s="5">
         <f t="shared" si="28"/>
         <v>6978.5593226593419</v>
       </c>
-      <c r="U25" s="2">
+      <c r="U25" s="5">
         <f t="shared" si="28"/>
         <v>7163.8735429179442</v>
       </c>
-      <c r="V25" s="2">
+      <c r="V25" s="5">
         <f t="shared" si="28"/>
         <v>7360.0133827785412</v>
       </c>
-      <c r="W25" s="2">
+      <c r="W25" s="5">
         <f t="shared" si="28"/>
         <v>7567.7039703286619</v>
       </c>
-      <c r="X25" s="2">
+      <c r="X25" s="5">
         <f t="shared" si="28"/>
         <v>7787.7241017023516</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="2">
+      <c r="B26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="5">
         <f>C24-C25</f>
         <v>5134</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="5">
         <f t="shared" ref="D26:L26" si="29">D24-D25</f>
         <v>0</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="5">
         <f t="shared" si="29"/>
         <v>5127</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J26" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="L26" s="2">
+      <c r="L26" s="5">
         <f t="shared" si="29"/>
         <v>21624</v>
       </c>
-      <c r="M26" s="2">
+      <c r="M26" s="5">
         <f t="shared" ref="M26" si="30">M24-M25</f>
         <v>20618</v>
       </c>
-      <c r="N26" s="2">
+      <c r="N26" s="5">
         <f t="shared" ref="N26" si="31">N24-N25</f>
         <v>22502</v>
       </c>
-      <c r="O26" s="2">
+      <c r="O26" s="5">
         <f t="shared" ref="O26:X26" si="32">O24-O25</f>
         <v>22272.182400000002</v>
       </c>
-      <c r="P26" s="2">
+      <c r="P26" s="5">
         <f t="shared" si="32"/>
         <v>22997.992758000004</v>
       </c>
-      <c r="Q26" s="2">
+      <c r="Q26" s="5">
         <f t="shared" si="32"/>
         <v>23251.05176862</v>
       </c>
-      <c r="R26" s="2">
+      <c r="R26" s="5">
         <f t="shared" si="32"/>
         <v>23533.849336272604</v>
       </c>
-      <c r="S26" s="2">
+      <c r="S26" s="5">
         <f t="shared" si="32"/>
         <v>24121.128958679456</v>
       </c>
-      <c r="T26" s="2">
+      <c r="T26" s="5">
         <f t="shared" si="32"/>
         <v>24742.164871246761</v>
       </c>
-      <c r="U26" s="2">
+      <c r="U26" s="5">
         <f t="shared" si="32"/>
         <v>25399.188015799988</v>
       </c>
-      <c r="V26" s="2">
+      <c r="V26" s="5">
         <f t="shared" si="32"/>
         <v>26094.592902578472</v>
       </c>
-      <c r="W26" s="2">
+      <c r="W26" s="5">
         <f t="shared" si="32"/>
         <v>26830.950440256169</v>
       </c>
-      <c r="X26" s="2">
+      <c r="X26" s="5">
         <f t="shared" si="32"/>
         <v>27611.021815126525</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="5">
+        <v>4131</v>
+      </c>
+      <c r="G27" s="5">
+        <v>1379</v>
+      </c>
+      <c r="L27" s="5">
+        <v>4977</v>
+      </c>
+      <c r="M27" s="5">
+        <v>5718</v>
+      </c>
+      <c r="N27" s="5">
+        <v>5907</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B28" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="2">
-        <v>4131</v>
-      </c>
-      <c r="G27" s="2">
-        <v>1379</v>
-      </c>
-      <c r="L27" s="2">
-        <v>4977</v>
-      </c>
-      <c r="M27" s="2">
-        <v>5718</v>
-      </c>
-      <c r="N27" s="2">
-        <v>5907</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="5">
+        <v>2430</v>
+      </c>
+      <c r="G28" s="5">
+        <v>253</v>
+      </c>
+      <c r="L28" s="5">
+        <v>944</v>
+      </c>
+      <c r="M28" s="5">
+        <v>1155</v>
+      </c>
+      <c r="N28" s="5">
+        <v>4663</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B29" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="2">
-        <v>2430</v>
-      </c>
-      <c r="G28" s="2">
-        <v>253</v>
-      </c>
-      <c r="L28" s="2">
-        <v>944</v>
-      </c>
-      <c r="M28" s="2">
-        <v>1155</v>
-      </c>
-      <c r="N28" s="2">
-        <v>4663</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="5">
+        <v>1375</v>
+      </c>
+      <c r="G29" s="5">
+        <v>1258</v>
+      </c>
+      <c r="L29" s="5">
+        <v>5673</v>
+      </c>
+      <c r="M29" s="5">
+        <v>6090</v>
+      </c>
+      <c r="N29" s="5">
+        <v>6091</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B30" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="2">
-        <v>1375</v>
-      </c>
-      <c r="G29" s="2">
-        <v>1258</v>
-      </c>
-      <c r="L29" s="2">
-        <v>5673</v>
-      </c>
-      <c r="M29" s="2">
-        <v>6090</v>
-      </c>
-      <c r="N29" s="2">
-        <v>6091</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B30" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="2">
+      <c r="C30" s="5">
         <f>SUM(C27:C29)</f>
         <v>7936</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="5">
         <f t="shared" ref="D30:L30" si="33">SUM(D27:D29)</f>
         <v>0</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="5">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="5">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="5">
         <f t="shared" si="33"/>
         <v>2890</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="5">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I30" s="5">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="J30" s="2">
+      <c r="J30" s="5">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="L30" s="2">
+      <c r="L30" s="5">
         <f t="shared" si="33"/>
         <v>11594</v>
       </c>
-      <c r="M30" s="2">
+      <c r="M30" s="5">
         <f t="shared" ref="M30" si="34">SUM(M27:M29)</f>
         <v>12963</v>
       </c>
-      <c r="N30" s="2">
+      <c r="N30" s="5">
         <f t="shared" ref="N30" si="35">SUM(N27:N29)</f>
         <v>16661</v>
       </c>
-      <c r="O30" s="2">
+      <c r="O30" s="5">
         <f t="shared" ref="O30:X30" si="36">O24*O45</f>
         <v>15552.991175432127</v>
       </c>
-      <c r="P30" s="2">
+      <c r="P30" s="5">
         <f t="shared" si="36"/>
         <v>15096.245068141883</v>
       </c>
-      <c r="Q30" s="2">
+      <c r="Q30" s="5">
         <f t="shared" si="36"/>
         <v>14346.615573261271</v>
       </c>
-      <c r="R30" s="2">
+      <c r="R30" s="5">
         <f t="shared" si="36"/>
         <v>13649.843765420188</v>
       </c>
-      <c r="S30" s="2">
+      <c r="S30" s="5">
         <f t="shared" si="36"/>
         <v>13916.035937699686</v>
       </c>
-      <c r="T30" s="2">
+      <c r="T30" s="5">
         <f t="shared" si="36"/>
         <v>14274.325887257746</v>
       </c>
-      <c r="U30" s="2">
+      <c r="U30" s="5">
         <f t="shared" si="36"/>
         <v>14653.377701423069</v>
       </c>
-      <c r="V30" s="2">
+      <c r="V30" s="5">
         <f t="shared" si="36"/>
         <v>15054.572828410655</v>
       </c>
-      <c r="W30" s="2">
+      <c r="W30" s="5">
         <f t="shared" si="36"/>
         <v>15479.394484763174</v>
       </c>
-      <c r="X30" s="2">
+      <c r="X30" s="5">
         <f t="shared" si="36"/>
         <v>15929.435662572994</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B31" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="2">
+      <c r="B31" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="5">
         <f>C26-C30</f>
         <v>-2802</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="5">
         <f t="shared" ref="D31:L31" si="37">D26-D30</f>
         <v>0</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="5">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="5">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="5">
         <f t="shared" si="37"/>
         <v>2237</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="5">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I31" s="5">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="J31" s="2">
+      <c r="J31" s="5">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="L31" s="2">
+      <c r="L31" s="5">
         <f t="shared" si="37"/>
         <v>10030</v>
       </c>
-      <c r="M31" s="2">
+      <c r="M31" s="5">
         <f t="shared" ref="M31" si="38">M26-M30</f>
         <v>7655</v>
       </c>
-      <c r="N31" s="2">
+      <c r="N31" s="5">
         <f t="shared" ref="N31" si="39">N26-N30</f>
         <v>5841</v>
       </c>
-      <c r="O31" s="2">
+      <c r="O31" s="5">
         <f t="shared" ref="O31" si="40">O26-O30</f>
         <v>6719.1912245678741</v>
       </c>
-      <c r="P31" s="2">
+      <c r="P31" s="5">
         <f t="shared" ref="P31" si="41">P26-P30</f>
         <v>7901.7476898581208</v>
       </c>
-      <c r="Q31" s="2">
+      <c r="Q31" s="5">
         <f t="shared" ref="Q31" si="42">Q26-Q30</f>
         <v>8904.4361953587286</v>
       </c>
-      <c r="R31" s="2">
+      <c r="R31" s="5">
         <f t="shared" ref="R31" si="43">R26-R30</f>
         <v>9884.005570852416</v>
       </c>
-      <c r="S31" s="2">
+      <c r="S31" s="5">
         <f t="shared" ref="S31" si="44">S26-S30</f>
         <v>10205.09302097977</v>
       </c>
-      <c r="T31" s="2">
+      <c r="T31" s="5">
         <f t="shared" ref="T31" si="45">T26-T30</f>
         <v>10467.838983989015</v>
       </c>
-      <c r="U31" s="2">
+      <c r="U31" s="5">
         <f t="shared" ref="U31" si="46">U26-U30</f>
         <v>10745.810314376919</v>
       </c>
-      <c r="V31" s="2">
+      <c r="V31" s="5">
         <f t="shared" ref="V31" si="47">V26-V30</f>
         <v>11040.020074167816</v>
       </c>
-      <c r="W31" s="2">
+      <c r="W31" s="5">
         <f t="shared" ref="W31" si="48">W26-W30</f>
         <v>11351.555955492995</v>
       </c>
-      <c r="X31" s="2">
+      <c r="X31" s="5">
         <f t="shared" ref="X31" si="49">X26-X30</f>
         <v>11681.586152553531</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="5">
+        <v>-254</v>
+      </c>
+      <c r="G32" s="5">
+        <v>-260</v>
+      </c>
+      <c r="L32" s="5">
+        <v>-935</v>
+      </c>
+      <c r="M32" s="5">
+        <v>-944</v>
+      </c>
+      <c r="N32" s="5">
+        <v>-977</v>
+      </c>
+      <c r="O32" s="5">
+        <f t="shared" ref="O32:X32" si="50">N47*$AA$89</f>
+        <v>-355.08</v>
+      </c>
+      <c r="P32" s="5">
+        <f t="shared" si="50"/>
+        <v>-232.88906448829678</v>
+      </c>
+      <c r="Q32" s="5">
+        <f t="shared" si="50"/>
+        <v>-100.98469613193582</v>
+      </c>
+      <c r="R32" s="5">
+        <f t="shared" si="50"/>
+        <v>50.434669654765003</v>
+      </c>
+      <c r="S32" s="5">
+        <f t="shared" si="50"/>
+        <v>211.37260155098136</v>
+      </c>
+      <c r="T32" s="5">
+        <f t="shared" si="50"/>
+        <v>380.11934463597953</v>
+      </c>
+      <c r="U32" s="5">
+        <f t="shared" si="50"/>
+        <v>551.51708622825447</v>
+      </c>
+      <c r="V32" s="5">
+        <f t="shared" si="50"/>
+        <v>730.01485915781609</v>
+      </c>
+      <c r="W32" s="5">
+        <f t="shared" si="50"/>
+        <v>915.9814111043612</v>
+      </c>
+      <c r="X32" s="5">
+        <f t="shared" si="50"/>
+        <v>1109.8085014965993</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B33" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="2">
-        <v>-254</v>
-      </c>
-      <c r="G32" s="2">
-        <v>-260</v>
-      </c>
-      <c r="L32" s="2">
-        <v>-935</v>
-      </c>
-      <c r="M32" s="2">
-        <v>-944</v>
-      </c>
-      <c r="N32" s="2">
-        <v>-977</v>
-      </c>
-      <c r="O32" s="2">
-        <f t="shared" ref="O32:X32" si="50">N47*$AA$89</f>
-        <v>-710.16</v>
-      </c>
-      <c r="P32" s="2">
-        <f t="shared" si="50"/>
-        <v>-479.41320097659366</v>
-      </c>
-      <c r="Q32" s="2">
-        <f t="shared" si="50"/>
-        <v>-224.08489455906911</v>
-      </c>
-      <c r="R32" s="2">
-        <f t="shared" si="50"/>
-        <v>74.51919018843914</v>
-      </c>
-      <c r="S32" s="2">
-        <f t="shared" si="50"/>
-        <v>397.1753924461629</v>
-      </c>
-      <c r="T32" s="2">
-        <f t="shared" si="50"/>
-        <v>740.68888904116307</v>
-      </c>
-      <c r="U32" s="2">
-        <f t="shared" si="50"/>
-        <v>1094.8783698289167</v>
-      </c>
-      <c r="V32" s="2">
-        <f t="shared" si="50"/>
-        <v>1469.0441322498209</v>
-      </c>
-      <c r="W32" s="2">
-        <f t="shared" si="50"/>
-        <v>1864.3305611726182</v>
-      </c>
-      <c r="X32" s="2">
-        <f t="shared" si="50"/>
-        <v>2281.9525750992516</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B33" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="2">
+      <c r="C33" s="5">
         <f>C31+C32</f>
         <v>-3056</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="5">
         <f t="shared" ref="D33:L33" si="51">D31+D32</f>
         <v>0</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="5">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="5">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="5">
         <f t="shared" si="51"/>
         <v>1977</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="5">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I33" s="5">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="J33" s="2">
+      <c r="J33" s="5">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="L33" s="2">
+      <c r="L33" s="5">
         <f t="shared" si="51"/>
         <v>9095</v>
       </c>
-      <c r="M33" s="2">
+      <c r="M33" s="5">
         <f t="shared" ref="M33" si="52">M31+M32</f>
         <v>6711</v>
       </c>
-      <c r="N33" s="2">
+      <c r="N33" s="5">
         <f t="shared" ref="N33" si="53">N31+N32</f>
         <v>4864</v>
       </c>
-      <c r="O33" s="2">
+      <c r="O33" s="5">
         <f t="shared" ref="O33" si="54">O31+O32</f>
-        <v>6009.0312245678742</v>
-      </c>
-      <c r="P33" s="2">
+        <v>6364.1112245678742</v>
+      </c>
+      <c r="P33" s="5">
         <f t="shared" ref="P33" si="55">P31+P32</f>
-        <v>7422.3344888815272</v>
-      </c>
-      <c r="Q33" s="2">
+        <v>7668.858625369824</v>
+      </c>
+      <c r="Q33" s="5">
         <f t="shared" ref="Q33" si="56">Q31+Q32</f>
-        <v>8680.3513007996589</v>
-      </c>
-      <c r="R33" s="2">
+        <v>8803.4514992267923</v>
+      </c>
+      <c r="R33" s="5">
         <f t="shared" ref="R33" si="57">R31+R32</f>
-        <v>9958.5247610408551</v>
-      </c>
-      <c r="S33" s="2">
+        <v>9934.4402405071814</v>
+      </c>
+      <c r="S33" s="5">
         <f t="shared" ref="S33" si="58">S31+S32</f>
-        <v>10602.268413425933</v>
-      </c>
-      <c r="T33" s="2">
+        <v>10416.465622530752</v>
+      </c>
+      <c r="T33" s="5">
         <f t="shared" ref="T33" si="59">T31+T32</f>
-        <v>11208.527873030178</v>
-      </c>
-      <c r="U33" s="2">
+        <v>10847.958328624994</v>
+      </c>
+      <c r="U33" s="5">
         <f t="shared" ref="U33" si="60">U31+U32</f>
-        <v>11840.688684205836</v>
-      </c>
-      <c r="V33" s="2">
+        <v>11297.327400605172</v>
+      </c>
+      <c r="V33" s="5">
         <f t="shared" ref="V33" si="61">V31+V32</f>
-        <v>12509.064206417637</v>
-      </c>
-      <c r="W33" s="2">
+        <v>11770.034933325633</v>
+      </c>
+      <c r="W33" s="5">
         <f t="shared" ref="W33" si="62">W31+W32</f>
-        <v>13215.886516665614</v>
-      </c>
-      <c r="X33" s="2">
+        <v>12267.537366597357</v>
+      </c>
+      <c r="X33" s="5">
         <f t="shared" ref="X33" si="63">X31+X32</f>
-        <v>13963.538727652784</v>
+        <v>12791.394654050131</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="5">
+        <v>-315</v>
+      </c>
+      <c r="G34" s="5">
+        <v>334</v>
+      </c>
+      <c r="L34" s="5">
+        <v>1248</v>
+      </c>
+      <c r="M34" s="5">
+        <v>1247</v>
+      </c>
+      <c r="N34" s="5">
+        <v>211</v>
+      </c>
+      <c r="O34" s="5">
+        <f>O33*O41</f>
+        <v>254.56444898271496</v>
+      </c>
+      <c r="P34" s="5">
+        <f t="shared" ref="P34:S34" si="64">P33*P41</f>
+        <v>1073.6402075517756</v>
+      </c>
+      <c r="Q34" s="5">
+        <f t="shared" si="64"/>
+        <v>1232.4832098917511</v>
+      </c>
+      <c r="R34" s="5">
+        <f t="shared" si="64"/>
+        <v>1887.5436456963646</v>
+      </c>
+      <c r="S34" s="5">
+        <f t="shared" si="64"/>
+        <v>1979.1284682808428</v>
+      </c>
+      <c r="T34" s="5">
+        <f t="shared" ref="T34" si="65">T33*T41</f>
+        <v>2278.0712490112487</v>
+      </c>
+      <c r="U34" s="5">
+        <f t="shared" ref="U34" si="66">U33*U41</f>
+        <v>2372.4387541270862</v>
+      </c>
+      <c r="V34" s="5">
+        <f t="shared" ref="V34" si="67">V33*V41</f>
+        <v>2471.7073359983829</v>
+      </c>
+      <c r="W34" s="5">
+        <f t="shared" ref="W34" si="68">W33*W41</f>
+        <v>2576.1828469854449</v>
+      </c>
+      <c r="X34" s="5">
+        <f t="shared" ref="X34" si="69">X33*X41</f>
+        <v>2686.1928773505274</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="5"/>
+      <c r="B35" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="2">
-        <v>-315</v>
-      </c>
-      <c r="G34" s="2">
-        <v>334</v>
-      </c>
-      <c r="L34" s="2">
-        <v>1248</v>
-      </c>
-      <c r="M34" s="2">
-        <v>1247</v>
-      </c>
-      <c r="N34" s="2">
-        <v>211</v>
-      </c>
-      <c r="O34" s="2">
-        <f>O33*O41</f>
-        <v>240.36124898271498</v>
-      </c>
-      <c r="P34" s="2">
-        <f t="shared" ref="P34:S34" si="64">P33*P41</f>
-        <v>1039.1268284434138</v>
-      </c>
-      <c r="Q34" s="2">
-        <f t="shared" si="64"/>
-        <v>1215.2491821119525</v>
-      </c>
-      <c r="R34" s="2">
-        <f t="shared" si="64"/>
-        <v>1892.1197045977624</v>
-      </c>
-      <c r="S34" s="2">
-        <f t="shared" si="64"/>
-        <v>2014.4309985509271</v>
-      </c>
-      <c r="T34" s="2">
-        <f t="shared" ref="T34" si="65">T33*T41</f>
-        <v>2353.7908533363375</v>
-      </c>
-      <c r="U34" s="2">
-        <f t="shared" ref="U34" si="66">U33*U41</f>
-        <v>2486.5446236832254</v>
-      </c>
-      <c r="V34" s="2">
-        <f t="shared" ref="V34" si="67">V33*V41</f>
-        <v>2626.9034833477035</v>
-      </c>
-      <c r="W34" s="2">
-        <f t="shared" ref="W34" si="68">W33*W41</f>
-        <v>2775.336168499779</v>
-      </c>
-      <c r="X34" s="2">
-        <f t="shared" ref="X34" si="69">X33*X41</f>
-        <v>2932.3431328070847</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" s="4">
+      <c r="C35" s="7">
         <f>C33-C34</f>
         <v>-2741</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="7">
         <f t="shared" ref="D35:L35" si="70">D33-D34</f>
         <v>0</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="7">
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="7">
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="7">
         <f t="shared" si="70"/>
         <v>1643</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H35" s="7">
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="I35" s="4">
+      <c r="I35" s="7">
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="J35" s="4">
+      <c r="J35" s="7">
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="L35" s="4">
+      <c r="L35" s="7">
         <f t="shared" si="70"/>
         <v>7847</v>
       </c>
-      <c r="M35" s="4">
+      <c r="M35" s="7">
         <f t="shared" ref="M35" si="71">M33-M34</f>
         <v>5464</v>
       </c>
-      <c r="N35" s="4">
+      <c r="N35" s="7">
         <f t="shared" ref="N35" si="72">N33-N34</f>
         <v>4653</v>
       </c>
-      <c r="O35" s="4">
+      <c r="O35" s="7">
         <f t="shared" ref="O35" si="73">O33-O34</f>
-        <v>5768.6699755851596</v>
-      </c>
-      <c r="P35" s="4">
+        <v>6109.5467755851596</v>
+      </c>
+      <c r="P35" s="7">
         <f t="shared" ref="P35" si="74">P33-P34</f>
-        <v>6383.2076604381136</v>
-      </c>
-      <c r="Q35" s="4">
+        <v>6595.2184178180487</v>
+      </c>
+      <c r="Q35" s="7">
         <f t="shared" ref="Q35" si="75">Q33-Q34</f>
-        <v>7465.102118687706</v>
-      </c>
-      <c r="R35" s="4">
+        <v>7570.9682893350409</v>
+      </c>
+      <c r="R35" s="7">
         <f t="shared" ref="R35" si="76">R33-R34</f>
-        <v>8066.4050564430927</v>
-      </c>
-      <c r="S35" s="4">
+        <v>8046.8965948108171</v>
+      </c>
+      <c r="S35" s="7">
         <f t="shared" ref="S35" si="77">S33-S34</f>
-        <v>8587.8374148750045</v>
-      </c>
-      <c r="T35" s="4">
+        <v>8437.3371542499081</v>
+      </c>
+      <c r="T35" s="7">
         <f t="shared" ref="T35" si="78">T33-T34</f>
-        <v>8854.7370196938409</v>
-      </c>
-      <c r="U35" s="4">
+        <v>8569.8870796137453</v>
+      </c>
+      <c r="U35" s="7">
         <f t="shared" ref="U35" si="79">U33-U34</f>
-        <v>9354.1440605226107</v>
-      </c>
-      <c r="V35" s="4">
+        <v>8924.8886464780862</v>
+      </c>
+      <c r="V35" s="7">
         <f t="shared" ref="V35" si="80">V33-V34</f>
-        <v>9882.1607230699337</v>
-      </c>
-      <c r="W35" s="4">
+        <v>9298.3275973272503</v>
+      </c>
+      <c r="W35" s="7">
         <f t="shared" ref="W35" si="81">W33-W34</f>
-        <v>10440.550348165834</v>
-      </c>
-      <c r="X35" s="4">
+        <v>9691.3545196119121</v>
+      </c>
+      <c r="X35" s="7">
         <f t="shared" ref="X35" si="82">X33-X34</f>
-        <v>11031.1955948457</v>
+        <v>10105.201776699603</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B36" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="6">
+      <c r="B36" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="11">
         <f>C35/C37</f>
         <v>-2.1980753809141942</v>
       </c>
-      <c r="D36" s="6" t="e">
+      <c r="D36" s="11" t="e">
         <f t="shared" ref="D36:L36" si="83">D35/D37</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E36" s="6" t="e">
+      <c r="E36" s="11" t="e">
         <f t="shared" si="83"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F36" s="6" t="e">
+      <c r="F36" s="11" t="e">
         <f t="shared" si="83"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G36" s="11">
         <f t="shared" si="83"/>
         <v>1.3050039714058776</v>
       </c>
-      <c r="H36" s="6" t="e">
+      <c r="H36" s="11" t="e">
         <f t="shared" si="83"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I36" s="6" t="e">
+      <c r="I36" s="11" t="e">
         <f t="shared" si="83"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J36" s="6" t="e">
+      <c r="J36" s="11" t="e">
         <f t="shared" si="83"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L36" s="6">
+      <c r="L36" s="11">
         <f t="shared" si="83"/>
         <v>6.2179080824088748</v>
       </c>
-      <c r="M36" s="6">
+      <c r="M36" s="11">
         <f t="shared" ref="M36" si="84">M35/M37</f>
         <v>4.3434022257551668</v>
       </c>
-      <c r="N36" s="6">
+      <c r="N36" s="11">
         <f t="shared" ref="N36" si="85">N35/N37</f>
         <v>3.7075697211155378</v>
       </c>
-      <c r="O36" s="6">
+      <c r="O36" s="11">
         <f t="shared" ref="O36" si="86">O35/O37</f>
-        <v>4.5965497813427563</v>
-      </c>
-      <c r="P36" s="6">
+        <v>4.8681647614224381</v>
+      </c>
+      <c r="P36" s="11">
         <f t="shared" ref="P36" si="87">P35/P37</f>
-        <v>5.0862212433769827</v>
-      </c>
-      <c r="Q36" s="6">
+        <v>5.2551541177833059</v>
+      </c>
+      <c r="Q36" s="11">
         <f t="shared" ref="Q36" si="88">Q35/Q37</f>
-        <v>5.9482885407870167</v>
-      </c>
-      <c r="R36" s="6">
+        <v>6.0326440552470446</v>
+      </c>
+      <c r="R36" s="11">
         <f t="shared" ref="R36" si="89">R35/R37</f>
-        <v>6.4274143876040579</v>
-      </c>
-      <c r="S36" s="6">
+        <v>6.411869796662006</v>
+      </c>
+      <c r="S36" s="11">
         <f t="shared" ref="S36" si="90">S35/S37</f>
-        <v>6.8428983385458206</v>
-      </c>
-      <c r="T36" s="6">
+        <v>6.7229778121513215</v>
+      </c>
+      <c r="T36" s="11">
         <f t="shared" ref="T36" si="91">T35/T37</f>
-        <v>7.0555673463695943</v>
-      </c>
-      <c r="U36" s="6">
+        <v>6.8285952825607534</v>
+      </c>
+      <c r="U36" s="11">
         <f t="shared" ref="U36" si="92">U35/U37</f>
-        <v>7.4535012434443111</v>
-      </c>
-      <c r="V36" s="6">
+        <v>7.1114650569546507</v>
+      </c>
+      <c r="V36" s="11">
         <f t="shared" ref="V36" si="93">V35/V37</f>
-        <v>7.8742316518485529</v>
-      </c>
-      <c r="W36" s="6">
+        <v>7.4090259739659361</v>
+      </c>
+      <c r="W36" s="11">
         <f t="shared" ref="W36" si="94">W35/W37</f>
-        <v>8.3191636240365217</v>
-      </c>
-      <c r="X36" s="6">
+        <v>7.722194836344153</v>
+      </c>
+      <c r="X36" s="11">
         <f t="shared" ref="X36" si="95">X35/X37</f>
-        <v>8.789797286729641</v>
+        <v>8.0519536069319546</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B37" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C37" s="2">
+      <c r="B37" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="5">
         <v>1247</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37" s="5">
         <v>1259</v>
       </c>
-      <c r="L37" s="2">
+      <c r="L37" s="5">
         <v>1262</v>
       </c>
-      <c r="M37" s="2">
+      <c r="M37" s="5">
         <v>1258</v>
       </c>
-      <c r="N37" s="2">
+      <c r="N37" s="5">
         <v>1255</v>
       </c>
-      <c r="O37" s="2">
+      <c r="O37" s="5">
         <v>1255</v>
       </c>
-      <c r="P37" s="2">
+      <c r="P37" s="5">
         <v>1255</v>
       </c>
-      <c r="Q37" s="2">
+      <c r="Q37" s="5">
         <v>1255</v>
       </c>
-      <c r="R37" s="2">
+      <c r="R37" s="5">
         <v>1255</v>
       </c>
-      <c r="S37" s="2">
+      <c r="S37" s="5">
         <v>1255</v>
       </c>
-      <c r="T37" s="2">
+      <c r="T37" s="5">
         <v>1255</v>
       </c>
-      <c r="U37" s="2">
+      <c r="U37" s="5">
         <v>1255</v>
       </c>
-      <c r="V37" s="2">
+      <c r="V37" s="5">
         <v>1255</v>
       </c>
-      <c r="W37" s="2">
+      <c r="W37" s="5">
         <v>1255</v>
       </c>
-      <c r="X37" s="2">
+      <c r="X37" s="5">
         <v>1255</v>
       </c>
     </row>
-    <row r="39" spans="1:24" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G39" s="7">
+    <row r="39" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="5"/>
+      <c r="B39" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G39" s="8">
         <f>G22/C22-1</f>
         <v>-5.1150895140664732E-3</v>
       </c>
-      <c r="H39" s="7" t="e">
+      <c r="H39" s="8" t="e">
         <f t="shared" ref="H39:J39" si="96">H22/D22-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="7" t="e">
+      <c r="I39" s="8" t="e">
         <f t="shared" si="96"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J39" s="7" t="e">
+      <c r="J39" s="8" t="e">
         <f t="shared" si="96"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L39" s="7" t="e">
+      <c r="L39" s="8" t="e">
         <f t="shared" ref="L39:X39" si="97">L24/K24-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="7">
+      <c r="M39" s="8">
         <f t="shared" si="97"/>
         <v>-6.0481653898317722E-3</v>
       </c>
-      <c r="N39" s="7">
+      <c r="N39" s="8">
         <f t="shared" si="97"/>
         <v>6.037026110045729E-2</v>
       </c>
-      <c r="O39" s="7">
+      <c r="O39" s="8">
         <f t="shared" si="97"/>
         <v>-6.9182346189962107E-3</v>
       </c>
-      <c r="P39" s="7">
+      <c r="P39" s="8">
         <f t="shared" si="97"/>
         <v>3.2588201055681054E-2</v>
       </c>
-      <c r="Q39" s="7">
+      <c r="Q39" s="8">
         <f t="shared" si="97"/>
         <v>1.100352597215104E-2</v>
       </c>
-      <c r="R39" s="7">
+      <c r="R39" s="8">
         <f t="shared" si="97"/>
         <v>1.2162786030792461E-2</v>
       </c>
-      <c r="S39" s="7">
+      <c r="S39" s="8">
         <f t="shared" si="97"/>
         <v>2.4954677580164564E-2</v>
       </c>
-      <c r="T39" s="7">
+      <c r="T39" s="8">
         <f t="shared" si="97"/>
         <v>2.5746552478168372E-2</v>
       </c>
-      <c r="U39" s="7">
+      <c r="U39" s="8">
         <f t="shared" si="97"/>
         <v>2.6554796153539506E-2</v>
       </c>
-      <c r="V39" s="7">
+      <c r="V39" s="8">
         <f t="shared" si="97"/>
         <v>2.7379020398049514E-2</v>
       </c>
-      <c r="W39" s="7">
+      <c r="W39" s="8">
         <f t="shared" si="97"/>
         <v>2.8218778519627286E-2</v>
       </c>
-      <c r="X39" s="7">
+      <c r="X39" s="8">
         <f t="shared" si="97"/>
         <v>2.9073564747820635E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:24" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D40" s="7">
+    <row r="40" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="8">
         <f>D24/C24-1</f>
         <v>-1</v>
       </c>
-      <c r="E40" s="7" t="e">
+      <c r="E40" s="8" t="e">
         <f t="shared" ref="E40:J40" si="98">E24/D24-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F40" s="7" t="e">
+      <c r="F40" s="8" t="e">
         <f t="shared" si="98"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G40" s="7" t="e">
+      <c r="G40" s="8" t="e">
         <f t="shared" si="98"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H40" s="7">
+      <c r="H40" s="8">
         <f t="shared" si="98"/>
         <v>-1</v>
       </c>
-      <c r="I40" s="7" t="e">
+      <c r="I40" s="8" t="e">
         <f t="shared" si="98"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J40" s="7" t="e">
+      <c r="J40" s="8" t="e">
         <f t="shared" si="98"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L40" s="7"/>
-      <c r="N40" s="7"/>
-      <c r="O40" s="7"/>
-      <c r="P40" s="7"/>
-      <c r="Q40" s="7"/>
-      <c r="R40" s="7"/>
-      <c r="S40" s="7"/>
-      <c r="T40" s="7"/>
-      <c r="U40" s="7"/>
-      <c r="V40" s="7"/>
-      <c r="W40" s="7"/>
-      <c r="X40" s="7"/>
+      <c r="L40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="8"/>
+      <c r="V40" s="8"/>
+      <c r="W40" s="8"/>
+      <c r="X40" s="8"/>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B41" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C41" s="8">
+      <c r="B41" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="9">
         <f>C34/C33</f>
         <v>0.10307591623036649</v>
       </c>
-      <c r="D41" s="8" t="e">
+      <c r="D41" s="9" t="e">
         <f t="shared" ref="D41:J41" si="99">D34/D33</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="8" t="e">
+      <c r="E41" s="9" t="e">
         <f t="shared" si="99"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F41" s="8" t="e">
+      <c r="F41" s="9" t="e">
         <f t="shared" si="99"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G41" s="8">
+      <c r="G41" s="9">
         <f t="shared" si="99"/>
         <v>0.16894284269094587</v>
       </c>
-      <c r="H41" s="8" t="e">
+      <c r="H41" s="9" t="e">
         <f t="shared" si="99"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="8" t="e">
+      <c r="I41" s="9" t="e">
         <f t="shared" si="99"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J41" s="8" t="e">
+      <c r="J41" s="9" t="e">
         <f t="shared" si="99"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L41" s="8">
+      <c r="L41" s="9">
         <f t="shared" ref="L41:N41" si="100">L34/L33</f>
         <v>0.137218251786696</v>
       </c>
-      <c r="M41" s="8">
+      <c r="M41" s="9">
         <f t="shared" si="100"/>
         <v>0.18581433467441513</v>
       </c>
-      <c r="N41" s="8">
+      <c r="N41" s="9">
         <f t="shared" si="100"/>
         <v>4.3379934210526314E-2</v>
       </c>
-      <c r="O41" s="8">
+      <c r="O41" s="9">
         <v>0.04</v>
       </c>
-      <c r="P41" s="8">
+      <c r="P41" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="Q41" s="8">
+      <c r="Q41" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="R41" s="8">
+      <c r="R41" s="9">
         <v>0.19</v>
       </c>
-      <c r="S41" s="8">
+      <c r="S41" s="9">
         <v>0.19</v>
       </c>
-      <c r="T41" s="8">
+      <c r="T41" s="9">
         <v>0.21</v>
       </c>
-      <c r="U41" s="8">
+      <c r="U41" s="9">
         <v>0.21</v>
       </c>
-      <c r="V41" s="8">
+      <c r="V41" s="9">
         <v>0.21</v>
       </c>
-      <c r="W41" s="8">
+      <c r="W41" s="9">
         <v>0.21</v>
       </c>
-      <c r="X41" s="8">
+      <c r="X41" s="9">
         <v>0.21</v>
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B43" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C43" s="8">
+      <c r="B43" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" s="9">
         <f>C26/C24</f>
         <v>0.76787316781334136</v>
       </c>
-      <c r="D43" s="8" t="e">
+      <c r="D43" s="9" t="e">
         <f t="shared" ref="D43:J43" si="101">D26/D24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E43" s="8" t="e">
+      <c r="E43" s="9" t="e">
         <f t="shared" si="101"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F43" s="8" t="e">
+      <c r="F43" s="9" t="e">
         <f t="shared" si="101"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G43" s="8">
+      <c r="G43" s="9">
         <f t="shared" si="101"/>
         <v>0.76901154942252892</v>
       </c>
-      <c r="H43" s="8" t="e">
+      <c r="H43" s="9" t="e">
         <f t="shared" si="101"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I43" s="8" t="e">
+      <c r="I43" s="9" t="e">
         <f t="shared" si="101"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J43" s="8" t="e">
+      <c r="J43" s="9" t="e">
         <f t="shared" si="101"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L43" s="8">
+      <c r="L43" s="9">
         <f t="shared" ref="L43:N43" si="102">L26/L24</f>
         <v>0.79263956599831387</v>
       </c>
-      <c r="M43" s="8">
+      <c r="M43" s="9">
         <f t="shared" si="102"/>
         <v>0.76036288538132468</v>
       </c>
-      <c r="N43" s="8">
+      <c r="N43" s="9">
         <f t="shared" si="102"/>
         <v>0.78259659861579656</v>
       </c>
-      <c r="O43" s="8">
+      <c r="O43" s="9">
         <v>0.78</v>
       </c>
-      <c r="P43" s="8">
+      <c r="P43" s="9">
         <v>0.78</v>
       </c>
-      <c r="Q43" s="8">
+      <c r="Q43" s="9">
         <v>0.78</v>
       </c>
-      <c r="R43" s="8">
+      <c r="R43" s="9">
         <v>0.78</v>
       </c>
-      <c r="S43" s="8">
+      <c r="S43" s="9">
         <v>0.78</v>
       </c>
-      <c r="T43" s="8">
+      <c r="T43" s="9">
         <v>0.78</v>
       </c>
-      <c r="U43" s="8">
+      <c r="U43" s="9">
         <v>0.78</v>
       </c>
-      <c r="V43" s="8">
+      <c r="V43" s="9">
         <v>0.78</v>
       </c>
-      <c r="W43" s="8">
+      <c r="W43" s="9">
         <v>0.78</v>
       </c>
-      <c r="X43" s="8">
+      <c r="X43" s="9">
         <v>0.78</v>
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B44" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C44" s="8">
+      <c r="B44" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" s="9">
         <f>C31/C24</f>
         <v>-0.41908465450194438</v>
       </c>
-      <c r="D44" s="8" t="e">
+      <c r="D44" s="9" t="e">
         <f t="shared" ref="D44:J44" si="103">D31/D24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E44" s="8" t="e">
+      <c r="E44" s="9" t="e">
         <f t="shared" si="103"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F44" s="8" t="e">
+      <c r="F44" s="9" t="e">
         <f t="shared" si="103"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G44" s="8">
+      <c r="G44" s="9">
         <f t="shared" si="103"/>
         <v>0.33553322333883306</v>
       </c>
-      <c r="H44" s="8" t="e">
+      <c r="H44" s="9" t="e">
         <f t="shared" si="103"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I44" s="8" t="e">
+      <c r="I44" s="9" t="e">
         <f t="shared" si="103"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J44" s="8" t="e">
+      <c r="J44" s="9" t="e">
         <f t="shared" si="103"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L44" s="8">
+      <c r="L44" s="9">
         <f t="shared" ref="L44:N44" si="104">L31/L24</f>
         <v>0.36765514460613613</v>
       </c>
-      <c r="M44" s="8">
+      <c r="M44" s="9">
         <f t="shared" si="104"/>
         <v>0.2823056498008556</v>
       </c>
-      <c r="N44" s="8">
+      <c r="N44" s="9">
         <f t="shared" si="104"/>
         <v>0.20314401975446039</v>
       </c>
-      <c r="O44" s="8">
+      <c r="O44" s="9">
         <f t="shared" ref="O44:X44" si="105">O31/O24</f>
         <v>0.23531457587034404</v>
       </c>
-      <c r="P44" s="8">
+      <c r="P44" s="9">
         <f t="shared" si="105"/>
         <v>0.26799570131812339</v>
       </c>
-      <c r="Q44" s="8">
+      <c r="Q44" s="9">
         <f t="shared" si="105"/>
         <v>0.29871595923903604</v>
       </c>
-      <c r="R44" s="8">
+      <c r="R44" s="9">
         <f t="shared" si="105"/>
         <v>0.32759300168469396</v>
       </c>
-      <c r="S44" s="8">
+      <c r="S44" s="9">
         <f t="shared" si="105"/>
         <v>0.33</v>
       </c>
-      <c r="T44" s="8">
+      <c r="T44" s="9">
         <f t="shared" si="105"/>
         <v>0.33</v>
       </c>
-      <c r="U44" s="8">
+      <c r="U44" s="9">
         <f t="shared" si="105"/>
         <v>0.33</v>
       </c>
-      <c r="V44" s="8">
+      <c r="V44" s="9">
         <f t="shared" si="105"/>
         <v>0.33000000000000007</v>
       </c>
-      <c r="W44" s="8">
+      <c r="W44" s="9">
         <f t="shared" si="105"/>
         <v>0.33</v>
       </c>
-      <c r="X44" s="8">
+      <c r="X44" s="9">
         <f t="shared" si="105"/>
         <v>0.33000000000000007</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B45" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="L45" s="8">
+      <c r="B45" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="L45" s="9">
         <f>L30/L24</f>
         <v>0.42498442139217768</v>
       </c>
-      <c r="M45" s="8">
+      <c r="M45" s="9">
         <f t="shared" ref="M45:N45" si="106">M30/M24</f>
         <v>0.47805723558046909</v>
       </c>
-      <c r="N45" s="8">
+      <c r="N45" s="9">
         <f t="shared" si="106"/>
         <v>0.57945257886133616</v>
       </c>
-      <c r="O45" s="8">
+      <c r="O45" s="9">
         <f>N45*0.94</f>
         <v>0.54468542412965593</v>
       </c>
-      <c r="P45" s="8">
+      <c r="P45" s="9">
         <f t="shared" ref="P45:R45" si="107">O45*0.94</f>
         <v>0.51200429868187658</v>
       </c>
-      <c r="Q45" s="8">
+      <c r="Q45" s="9">
         <f t="shared" si="107"/>
         <v>0.48128404076096398</v>
       </c>
-      <c r="R45" s="8">
+      <c r="R45" s="9">
         <f t="shared" si="107"/>
         <v>0.45240699831530612</v>
       </c>
-      <c r="S45" s="8">
+      <c r="S45" s="9">
         <v>0.45</v>
       </c>
-      <c r="T45" s="8">
+      <c r="T45" s="9">
         <v>0.45</v>
       </c>
-      <c r="U45" s="8">
+      <c r="U45" s="9">
         <v>0.45</v>
       </c>
-      <c r="V45" s="8">
+      <c r="V45" s="9">
         <v>0.45</v>
       </c>
-      <c r="W45" s="8">
+      <c r="W45" s="9">
         <v>0.45</v>
       </c>
-      <c r="X45" s="8">
+      <c r="X45" s="9">
         <v>0.45</v>
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B47" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G47" s="2">
+      <c r="B47" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G47" s="5">
         <f>G48-G49</f>
         <v>-17085</v>
       </c>
-      <c r="H47" s="2">
+      <c r="H47" s="5">
         <f>G47+H35</f>
         <v>-17085</v>
       </c>
-      <c r="I47" s="2">
+      <c r="I47" s="5">
         <f>H47+I35</f>
         <v>-17085</v>
       </c>
-      <c r="J47" s="2">
+      <c r="J47" s="5">
         <f>I47+J35</f>
         <v>-17085</v>
       </c>
-      <c r="L47" s="8"/>
-      <c r="M47" s="2">
+      <c r="L47" s="9"/>
+      <c r="M47" s="5">
         <f>M48-M49</f>
         <v>-20832</v>
       </c>
-      <c r="N47" s="2">
+      <c r="N47" s="5">
         <f>N48-N49</f>
         <v>-17754</v>
       </c>
-      <c r="O47" s="2">
+      <c r="O47" s="5">
         <f t="shared" ref="O47:X47" si="108">N47+O35</f>
-        <v>-11985.330024414841</v>
-      </c>
-      <c r="P47" s="2">
+        <v>-11644.453224414839</v>
+      </c>
+      <c r="P47" s="5">
         <f t="shared" si="108"/>
-        <v>-5602.1223639767277</v>
-      </c>
-      <c r="Q47" s="2">
+        <v>-5049.2348065967908</v>
+      </c>
+      <c r="Q47" s="5">
         <f t="shared" si="108"/>
-        <v>1862.9797547109783</v>
-      </c>
-      <c r="R47" s="2">
+        <v>2521.7334827382501</v>
+      </c>
+      <c r="R47" s="5">
         <f t="shared" si="108"/>
-        <v>9929.3848111540719</v>
-      </c>
-      <c r="S47" s="2">
+        <v>10568.630077549067</v>
+      </c>
+      <c r="S47" s="5">
         <f t="shared" si="108"/>
-        <v>18517.222226029076</v>
-      </c>
-      <c r="T47" s="2">
+        <v>19005.967231798975</v>
+      </c>
+      <c r="T47" s="5">
         <f t="shared" si="108"/>
-        <v>27371.959245722916</v>
-      </c>
-      <c r="U47" s="2">
+        <v>27575.854311412721</v>
+      </c>
+      <c r="U47" s="5">
         <f t="shared" si="108"/>
-        <v>36726.103306245524</v>
-      </c>
-      <c r="V47" s="2">
+        <v>36500.742957890805</v>
+      </c>
+      <c r="V47" s="5">
         <f t="shared" si="108"/>
-        <v>46608.264029315455</v>
-      </c>
-      <c r="W47" s="2">
+        <v>45799.070555218059</v>
+      </c>
+      <c r="W47" s="5">
         <f t="shared" si="108"/>
-        <v>57048.814377481292</v>
-      </c>
-      <c r="X47" s="2">
+        <v>55490.425074829967</v>
+      </c>
+      <c r="X47" s="5">
         <f t="shared" si="108"/>
-        <v>68080.009972326996</v>
+        <v>65595.626851529567</v>
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B48" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G48" s="2">
+      <c r="B48" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" s="5">
         <v>7926</v>
       </c>
-      <c r="M48" s="2">
+      <c r="M48" s="5">
         <f>M51+M52</f>
         <v>7264</v>
       </c>
-      <c r="N48" s="2">
+      <c r="N48" s="5">
         <f>N51+N52</f>
         <v>9991</v>
       </c>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B49" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G49" s="2">
+      <c r="B49" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="5">
         <f>22146+819+709+1337</f>
         <v>25011</v>
       </c>
-      <c r="M49" s="2">
+      <c r="M49" s="5">
         <f>SUM(M67:M70)</f>
         <v>28096</v>
       </c>
-      <c r="N49" s="2">
+      <c r="N49" s="5">
         <f>SUM(N67:N70)</f>
         <v>27745</v>
       </c>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B51" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M51" s="2">
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="M51" s="5">
         <v>6085</v>
       </c>
-      <c r="N51" s="2">
+      <c r="N51" s="5">
         <v>9991</v>
       </c>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M52" s="5">
+        <v>1179</v>
+      </c>
+      <c r="N52" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B53" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="M52" s="2">
-        <v>1179</v>
-      </c>
-      <c r="N52" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B53" s="2" t="s">
+      <c r="M53" s="5">
+        <v>4660</v>
+      </c>
+      <c r="N53" s="5">
+        <v>4420</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B54" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="M53" s="2">
-        <v>4660</v>
-      </c>
-      <c r="N53" s="2">
-        <v>4420</v>
-      </c>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B54" s="2" t="s">
+      <c r="M54" s="5">
+        <v>1787</v>
+      </c>
+      <c r="N54" s="5">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B55" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="M54" s="2">
-        <v>1787</v>
-      </c>
-      <c r="N54" s="2">
-        <v>1710</v>
-      </c>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B55" s="2" t="s">
+      <c r="M55" s="5">
+        <v>2374</v>
+      </c>
+      <c r="N55" s="5">
+        <v>3052</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B56" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="M55" s="2">
-        <v>2374</v>
-      </c>
-      <c r="N55" s="2">
-        <v>3052</v>
-      </c>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B56" s="2" t="s">
+      <c r="M56" s="5">
+        <v>5317</v>
+      </c>
+      <c r="N56" s="5">
+        <v>5414</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B57" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="M56" s="2">
-        <v>5317</v>
-      </c>
-      <c r="N56" s="2">
-        <v>5414</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B57" s="2" t="s">
+      <c r="M57" s="5">
+        <v>1163</v>
+      </c>
+      <c r="N57" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B58" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="M57" s="2">
-        <v>1163</v>
-      </c>
-      <c r="N57" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B58" s="2" t="s">
+      <c r="M58" s="5">
+        <v>26454</v>
+      </c>
+      <c r="N58" s="5">
+        <v>19948</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B59" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="M58" s="2">
-        <v>26454</v>
-      </c>
-      <c r="N58" s="2">
-        <v>19948</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B59" s="2" t="s">
+      <c r="M59" s="5">
+        <v>8314</v>
+      </c>
+      <c r="N59" s="5">
+        <v>8314</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B60" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="M59" s="2">
-        <v>8314</v>
-      </c>
-      <c r="N59" s="2">
-        <v>8314</v>
-      </c>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B60" s="2" t="s">
+      <c r="M60" s="5">
+        <v>4792</v>
+      </c>
+      <c r="N60" s="5">
+        <v>6146</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B61" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="M60" s="2">
-        <v>4792</v>
-      </c>
-      <c r="N60" s="2">
-        <v>6146</v>
-      </c>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B61" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M61" s="2">
+      <c r="M61" s="5">
         <f>SUM(M51:M60)</f>
         <v>62125</v>
       </c>
-      <c r="N61" s="2">
+      <c r="N61" s="5">
         <f>SUM(N51:N60)</f>
         <v>58995</v>
       </c>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M63" s="5">
+        <v>550</v>
+      </c>
+      <c r="N63" s="5">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B64" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="M63" s="2">
-        <v>550</v>
-      </c>
-      <c r="N63" s="2">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B64" s="2" t="s">
+      <c r="M64" s="5">
+        <v>3802</v>
+      </c>
+      <c r="N64" s="5">
+        <v>3892</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B65" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="M64" s="2">
-        <v>3802</v>
-      </c>
-      <c r="N64" s="2">
-        <v>3892</v>
-      </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B65" s="2" t="s">
+      <c r="M65" s="5">
+        <v>1798</v>
+      </c>
+      <c r="N65" s="5">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B66" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="M65" s="2">
-        <v>1798</v>
-      </c>
-      <c r="N65" s="2">
-        <v>1815</v>
-      </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B66" s="2" t="s">
+      <c r="M66" s="5">
+        <v>5130</v>
+      </c>
+      <c r="N66" s="5">
+        <v>5464</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B67" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M67" s="5">
+        <v>23189</v>
+      </c>
+      <c r="N67" s="5">
+        <v>24896</v>
+      </c>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B68" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M68" s="5">
+        <v>2039</v>
+      </c>
+      <c r="N68" s="5">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B69" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="M66" s="2">
-        <v>5130</v>
-      </c>
-      <c r="N66" s="2">
-        <v>5464</v>
-      </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B67" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="M67" s="2">
-        <v>23189</v>
-      </c>
-      <c r="N67" s="2">
-        <v>24896</v>
-      </c>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B68" s="2" t="s">
+      <c r="M69" s="5">
+        <v>1588</v>
+      </c>
+      <c r="N69" s="5">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B70" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="M68" s="2">
-        <v>2039</v>
-      </c>
-      <c r="N68" s="2">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B69" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="M69" s="2">
-        <v>1588</v>
-      </c>
-      <c r="N69" s="2">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B70" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="M70" s="2">
+      <c r="M70" s="5">
         <v>1280</v>
       </c>
-      <c r="N70" s="2">
+      <c r="N70" s="5">
         <v>1295</v>
       </c>
     </row>
     <row r="71" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B71" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="M71" s="2">
+      <c r="B71" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="M71" s="5">
         <f>SUM(M63:M70)</f>
         <v>39376</v>
       </c>
-      <c r="N71" s="2">
+      <c r="N71" s="5">
         <f>SUM(N63:N70)</f>
         <v>39749</v>
       </c>
     </row>
     <row r="72" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B72" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="M72" s="2">
+      <c r="B72" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M72" s="5">
         <f>M61-M71</f>
         <v>22749</v>
       </c>
-      <c r="N72" s="2">
+      <c r="N72" s="5">
         <f>N61-N71</f>
         <v>19246</v>
       </c>
     </row>
     <row r="73" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B73" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="M73" s="2">
+      <c r="B73" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M73" s="5">
         <f>SUM(M71:M72)</f>
         <v>62125</v>
       </c>
-      <c r="N73" s="2">
+      <c r="N73" s="5">
         <f>SUM(N71:N72)</f>
         <v>58995</v>
       </c>
     </row>
     <row r="75" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B75" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="M75" s="2">
+      <c r="B75" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="M75" s="5">
         <f>M53/M24*360</f>
         <v>61.867532084378226</v>
       </c>
-      <c r="N75" s="2">
+      <c r="N75" s="5">
         <f>N53/N24*360</f>
         <v>55.340312315236666</v>
       </c>
     </row>
     <row r="77" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B77" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="L77" s="2">
+      <c r="B77" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="L77" s="5">
         <f>L35</f>
         <v>7847</v>
       </c>
-      <c r="M77" s="2">
+      <c r="M77" s="5">
         <f>M35</f>
         <v>5464</v>
       </c>
-      <c r="N77" s="2">
+      <c r="N77" s="5">
         <f>N35</f>
         <v>4653</v>
       </c>
-      <c r="O77" s="2">
+      <c r="O77" s="5">
         <f>O35</f>
-        <v>5768.6699755851596</v>
-      </c>
-      <c r="P77" s="2">
+        <v>6109.5467755851596</v>
+      </c>
+      <c r="P77" s="5">
         <f t="shared" ref="P77:X77" si="109">P35</f>
-        <v>6383.2076604381136</v>
-      </c>
-      <c r="Q77" s="2">
+        <v>6595.2184178180487</v>
+      </c>
+      <c r="Q77" s="5">
         <f t="shared" si="109"/>
-        <v>7465.102118687706</v>
-      </c>
-      <c r="R77" s="2">
+        <v>7570.9682893350409</v>
+      </c>
+      <c r="R77" s="5">
         <f t="shared" si="109"/>
-        <v>8066.4050564430927</v>
-      </c>
-      <c r="S77" s="2">
+        <v>8046.8965948108171</v>
+      </c>
+      <c r="S77" s="5">
         <f t="shared" si="109"/>
-        <v>8587.8374148750045</v>
-      </c>
-      <c r="T77" s="2">
+        <v>8437.3371542499081</v>
+      </c>
+      <c r="T77" s="5">
         <f t="shared" si="109"/>
-        <v>8854.7370196938409</v>
-      </c>
-      <c r="U77" s="2">
+        <v>8569.8870796137453</v>
+      </c>
+      <c r="U77" s="5">
         <f t="shared" si="109"/>
-        <v>9354.1440605226107</v>
-      </c>
-      <c r="V77" s="2">
+        <v>8924.8886464780862</v>
+      </c>
+      <c r="V77" s="5">
         <f t="shared" si="109"/>
-        <v>9882.1607230699337</v>
-      </c>
-      <c r="W77" s="2">
+        <v>9298.3275973272503</v>
+      </c>
+      <c r="W77" s="5">
         <f t="shared" si="109"/>
-        <v>10440.550348165834</v>
-      </c>
-      <c r="X77" s="2">
+        <v>9691.3545196119121</v>
+      </c>
+      <c r="X77" s="5">
         <f t="shared" si="109"/>
-        <v>11031.1955948457</v>
+        <v>10105.201776699603</v>
       </c>
     </row>
     <row r="78" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="L78" s="5">
+        <v>4566</v>
+      </c>
+      <c r="M78" s="5">
+        <v>5613</v>
+      </c>
+      <c r="N78" s="5">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B79" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="L78" s="2">
-        <v>4566</v>
-      </c>
-      <c r="M78" s="2">
-        <v>5613</v>
-      </c>
-      <c r="N78" s="2">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B79" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="L79" s="2">
+      <c r="L79" s="5">
         <f>323+1780</f>
         <v>2103</v>
       </c>
-      <c r="M79" s="2">
+      <c r="M79" s="5">
         <f>354+2339</f>
         <v>2693</v>
       </c>
-      <c r="N79" s="2">
+      <c r="N79" s="5">
         <f>381+2386</f>
         <v>2767</v>
       </c>
-      <c r="O79" s="2">
+      <c r="O79" s="5">
         <f>N79*(1+O39)</f>
         <v>2747.8572448092373</v>
       </c>
-      <c r="P79" s="2">
+      <c r="P79" s="5">
         <f t="shared" ref="P79:X79" si="110">O79*(1+P39)</f>
         <v>2837.4049691753903</v>
       </c>
-      <c r="Q79" s="2">
+      <c r="Q79" s="5">
         <f t="shared" si="110"/>
         <v>2868.6264284472222</v>
       </c>
-      <c r="R79" s="2">
+      <c r="R79" s="5">
         <f t="shared" si="110"/>
         <v>2903.5169178987021</v>
       </c>
-      <c r="S79" s="2">
+      <c r="S79" s="5">
         <f t="shared" si="110"/>
         <v>2975.9732464334174</v>
       </c>
-      <c r="T79" s="2">
+      <c r="T79" s="5">
         <f t="shared" si="110"/>
         <v>3052.5942977963405</v>
       </c>
-      <c r="U79" s="2">
+      <c r="U79" s="5">
         <f t="shared" si="110"/>
         <v>3133.6553171137793</v>
       </c>
-      <c r="V79" s="2">
+      <c r="V79" s="5">
         <f t="shared" si="110"/>
         <v>3219.451729961494</v>
       </c>
-      <c r="W79" s="2">
+      <c r="W79" s="5">
         <f t="shared" si="110"/>
         <v>3310.3007252839084</v>
       </c>
-      <c r="X79" s="2">
+      <c r="X79" s="5">
         <f t="shared" si="110"/>
         <v>3406.5429677552079</v>
       </c>
     </row>
     <row r="80" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B80" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="L80" s="2">
+      <c r="B80" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L80" s="5">
         <v>637</v>
       </c>
-      <c r="M80" s="2">
+      <c r="M80" s="5">
         <v>766</v>
       </c>
-      <c r="N80" s="2">
+      <c r="N80" s="5">
         <v>835</v>
       </c>
-      <c r="O80" s="2">
+      <c r="O80" s="5">
         <f>N80*1.08</f>
         <v>901.80000000000007</v>
       </c>
-      <c r="P80" s="2">
+      <c r="P80" s="5">
         <f t="shared" ref="P80:X80" si="111">O80*1.08</f>
         <v>973.94400000000019</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="Q80" s="5">
         <f t="shared" si="111"/>
         <v>1051.8595200000002</v>
       </c>
-      <c r="R80" s="2">
+      <c r="R80" s="5">
         <f t="shared" si="111"/>
         <v>1136.0082816000004</v>
       </c>
-      <c r="S80" s="2">
+      <c r="S80" s="5">
         <f t="shared" si="111"/>
         <v>1226.8889441280005</v>
       </c>
-      <c r="T80" s="2">
+      <c r="T80" s="5">
         <f t="shared" si="111"/>
         <v>1325.0400596582406</v>
       </c>
-      <c r="U80" s="2">
+      <c r="U80" s="5">
         <f t="shared" si="111"/>
         <v>1431.0432644308999</v>
       </c>
-      <c r="V80" s="2">
+      <c r="V80" s="5">
         <f t="shared" si="111"/>
         <v>1545.5267255853719</v>
       </c>
-      <c r="W80" s="2">
+      <c r="W80" s="5">
         <f t="shared" si="111"/>
         <v>1669.1688636322017</v>
       </c>
-      <c r="X80" s="2">
+      <c r="X80" s="5">
         <f t="shared" si="111"/>
         <v>1802.7023727227779</v>
       </c>
     </row>
     <row r="81" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B81" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="L81" s="2">
+      <c r="B81" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="L81" s="5">
         <v>-1552</v>
       </c>
-      <c r="M81" s="2">
+      <c r="M81" s="5">
         <v>-962</v>
       </c>
-      <c r="N81" s="2">
+      <c r="N81" s="5">
         <v>-1844</v>
       </c>
-      <c r="O81" s="2">
+      <c r="O81" s="5">
         <f>N81*0.9</f>
         <v>-1659.6000000000001</v>
       </c>
-      <c r="P81" s="2">
+      <c r="P81" s="5">
         <f t="shared" ref="P81:X81" si="112">O81*0.9</f>
         <v>-1493.64</v>
       </c>
-      <c r="Q81" s="2">
+      <c r="Q81" s="5">
         <f t="shared" si="112"/>
         <v>-1344.2760000000001</v>
       </c>
-      <c r="R81" s="2">
+      <c r="R81" s="5">
         <f t="shared" si="112"/>
         <v>-1209.8484000000001</v>
       </c>
-      <c r="S81" s="2">
+      <c r="S81" s="5">
         <f t="shared" si="112"/>
         <v>-1088.86356</v>
       </c>
-      <c r="T81" s="2">
+      <c r="T81" s="5">
         <f t="shared" si="112"/>
         <v>-979.97720400000003</v>
       </c>
-      <c r="U81" s="2">
+      <c r="U81" s="5">
         <f t="shared" si="112"/>
         <v>-881.97948360000009</v>
       </c>
-      <c r="V81" s="2">
+      <c r="V81" s="5">
         <f t="shared" si="112"/>
         <v>-793.78153524000015</v>
       </c>
-      <c r="W81" s="2">
+      <c r="W81" s="5">
         <f t="shared" si="112"/>
         <v>-714.40338171600013</v>
       </c>
-      <c r="X81" s="2">
+      <c r="X81" s="5">
         <f t="shared" si="112"/>
         <v>-642.96304354440008</v>
       </c>
     </row>
     <row r="82" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B82" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="L82" s="2">
+      <c r="B82" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="L82" s="5">
         <v>657</v>
       </c>
-      <c r="M82" s="2">
+      <c r="M82" s="5">
         <v>167</v>
       </c>
-      <c r="N82" s="2">
+      <c r="N82" s="5">
         <v>274</v>
       </c>
-      <c r="O82" s="2">
+      <c r="O82" s="5">
         <f>N82*(1+O39)</f>
         <v>272.10440371439506</v>
       </c>
-      <c r="P82" s="2">
+      <c r="P82" s="5">
         <f t="shared" ref="P82:X82" si="113">O82*(1+P39)</f>
         <v>280.97179673077596</v>
       </c>
-      <c r="Q82" s="2">
+      <c r="Q82" s="5">
         <f t="shared" si="113"/>
         <v>284.063477193545</v>
       </c>
-      <c r="R82" s="2">
+      <c r="R82" s="5">
         <f t="shared" si="113"/>
         <v>287.51848048581297</v>
       </c>
-      <c r="S82" s="2">
+      <c r="S82" s="5">
         <f t="shared" si="113"/>
         <v>294.69341146467525</v>
       </c>
-      <c r="T82" s="2">
+      <c r="T82" s="5">
         <f t="shared" si="113"/>
         <v>302.28075084792096</v>
       </c>
-      <c r="U82" s="2">
+      <c r="U82" s="5">
         <f t="shared" si="113"/>
         <v>310.30775456782635</v>
       </c>
-      <c r="V82" s="2">
+      <c r="V82" s="5">
         <f t="shared" si="113"/>
         <v>318.80367690981183</v>
       </c>
-      <c r="W82" s="2">
+      <c r="W82" s="5">
         <f t="shared" si="113"/>
         <v>327.79992725977263</v>
       </c>
-      <c r="X82" s="2">
+      <c r="X82" s="5">
         <f t="shared" si="113"/>
         <v>337.33023966929051</v>
       </c>
     </row>
     <row r="83" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B83" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L83" s="2">
+      <c r="B83" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L83" s="5">
         <v>944</v>
       </c>
-      <c r="M83" s="2">
+      <c r="M83" s="5">
         <v>1155</v>
       </c>
-      <c r="N83" s="2">
+      <c r="N83" s="5">
         <v>4663</v>
       </c>
-      <c r="O83" s="2">
+      <c r="O83" s="5">
         <v>2500</v>
       </c>
-      <c r="P83" s="2">
+      <c r="P83" s="5">
         <f>O83*(1+P39)</f>
         <v>2581.4705026392026</v>
       </c>
-      <c r="Q83" s="2">
+      <c r="Q83" s="5">
         <f t="shared" ref="Q83:X83" si="114">P83*(1+Q39)</f>
         <v>2609.8757803613348</v>
       </c>
-      <c r="R83" s="2">
+      <c r="R83" s="5">
         <f t="shared" si="114"/>
         <v>2641.6191410448173</v>
       </c>
-      <c r="S83" s="2">
+      <c r="S83" s="5">
         <f t="shared" si="114"/>
         <v>2707.5398949991818</v>
       </c>
-      <c r="T83" s="2">
+      <c r="T83" s="5">
         <f t="shared" si="114"/>
         <v>2777.2497129925127</v>
       </c>
-      <c r="U83" s="2">
+      <c r="U83" s="5">
         <f t="shared" si="114"/>
         <v>2850.999012988505</v>
       </c>
-      <c r="V83" s="2">
+      <c r="V83" s="5">
         <f t="shared" si="114"/>
         <v>2929.0565731199363</v>
       </c>
-      <c r="W83" s="2">
+      <c r="W83" s="5">
         <f t="shared" si="114"/>
         <v>3011.7109718282663</v>
       </c>
-      <c r="X83" s="2">
+      <c r="X83" s="5">
         <f t="shared" si="114"/>
         <v>3099.2721457694374</v>
       </c>
     </row>
     <row r="84" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B84" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="L84" s="2">
+      <c r="B84" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="L84" s="5">
         <v>2700</v>
       </c>
-      <c r="M84" s="2">
+      <c r="M84" s="5">
         <v>50</v>
       </c>
-      <c r="N84" s="2">
+      <c r="N84" s="5">
         <v>4180</v>
       </c>
-      <c r="O84" s="2">
+      <c r="O84" s="5">
         <v>1200</v>
       </c>
-      <c r="P84" s="2">
+      <c r="P84" s="5">
         <f>O84*(1+P39)</f>
         <v>1239.1058412668172</v>
       </c>
-      <c r="Q84" s="2">
+      <c r="Q84" s="5">
         <f t="shared" ref="Q84:X84" si="115">P84*(1+Q39)</f>
         <v>1252.7403745734407</v>
       </c>
-      <c r="R84" s="2">
+      <c r="R84" s="5">
         <f t="shared" si="115"/>
         <v>1267.9771877015123</v>
       </c>
-      <c r="S84" s="2">
+      <c r="S84" s="5">
         <f t="shared" si="115"/>
         <v>1299.6191495996075</v>
       </c>
-      <c r="T84" s="2">
+      <c r="T84" s="5">
         <f t="shared" si="115"/>
         <v>1333.0798622364064</v>
       </c>
-      <c r="U84" s="2">
+      <c r="U84" s="5">
         <f t="shared" si="115"/>
         <v>1368.4795262344826</v>
       </c>
-      <c r="V84" s="2">
+      <c r="V84" s="5">
         <f t="shared" si="115"/>
         <v>1405.9471550975695</v>
       </c>
-      <c r="W84" s="2">
+      <c r="W84" s="5">
         <f t="shared" si="115"/>
         <v>1445.6212664775678</v>
       </c>
-      <c r="X84" s="2">
+      <c r="X84" s="5">
         <f t="shared" si="115"/>
         <v>1487.6506299693299</v>
       </c>
     </row>
     <row r="85" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B85" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L85" s="2">
+      <c r="B85" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L85" s="5">
         <v>780</v>
       </c>
-      <c r="M85" s="2">
+      <c r="M85" s="5">
         <v>826</v>
       </c>
-      <c r="N85" s="2">
+      <c r="N85" s="5">
         <v>353</v>
       </c>
-      <c r="O85" s="2">
+      <c r="O85" s="5">
         <f>N85*(1+O39)</f>
         <v>350.55786317949435</v>
       </c>
-      <c r="P85" s="2">
+      <c r="P85" s="5">
         <f t="shared" ref="P85:X85" si="116">O85*(1+P39)</f>
         <v>361.98191330643766</v>
       </c>
-      <c r="Q85" s="2">
+      <c r="Q85" s="5">
         <f t="shared" si="116"/>
         <v>365.96499069095398</v>
       </c>
-      <c r="R85" s="2">
+      <c r="R85" s="5">
         <f t="shared" si="116"/>
         <v>370.41614456748903</v>
       </c>
-      <c r="S85" s="2">
+      <c r="S85" s="5">
         <f t="shared" si="116"/>
         <v>379.65976002565833</v>
       </c>
-      <c r="T85" s="2">
+      <c r="T85" s="5">
         <f t="shared" si="116"/>
         <v>389.43468996100773</v>
       </c>
-      <c r="U85" s="2">
+      <c r="U85" s="5">
         <f t="shared" si="116"/>
         <v>399.77604876803917</v>
       </c>
-      <c r="V85" s="2">
+      <c r="V85" s="5">
         <f t="shared" si="116"/>
         <v>410.72152536191095</v>
       </c>
-      <c r="W85" s="2">
+      <c r="W85" s="5">
         <f t="shared" si="116"/>
         <v>422.31158511934217</v>
       </c>
-      <c r="X85" s="2">
+      <c r="X85" s="5">
         <f t="shared" si="116"/>
         <v>434.58968833306415</v>
       </c>
     </row>
     <row r="86" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B86" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="L86" s="2">
+      <c r="B86" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="L86" s="5">
         <v>-406</v>
       </c>
-      <c r="M86" s="2">
+      <c r="M86" s="5">
         <v>157</v>
       </c>
-      <c r="N86" s="2">
+      <c r="N86" s="5">
         <v>139</v>
       </c>
-      <c r="O86" s="2">
+      <c r="O86" s="5">
         <f>N86*(1+O39)</f>
         <v>138.03836538795952</v>
       </c>
-      <c r="P86" s="2">
+      <c r="P86" s="5">
         <f t="shared" ref="P86:X86" si="117">O86*(1+P39)</f>
         <v>142.53678739261991</v>
       </c>
-      <c r="Q86" s="2">
+      <c r="Q86" s="5">
         <f t="shared" si="117"/>
         <v>144.10519463468157</v>
       </c>
-      <c r="R86" s="2">
+      <c r="R86" s="5">
         <f t="shared" si="117"/>
         <v>145.85791528294891</v>
       </c>
-      <c r="S86" s="2">
+      <c r="S86" s="5">
         <f t="shared" si="117"/>
         <v>149.49775253134985</v>
       </c>
-      <c r="T86" s="2">
+      <c r="T86" s="5">
         <f t="shared" si="117"/>
         <v>153.34680426226646</v>
       </c>
-      <c r="U86" s="2">
+      <c r="U86" s="5">
         <f t="shared" si="117"/>
         <v>157.41889739024768</v>
       </c>
-      <c r="V86" s="2">
+      <c r="V86" s="5">
         <f t="shared" si="117"/>
         <v>161.72887259293373</v>
       </c>
-      <c r="W86" s="2">
+      <c r="W86" s="5">
         <f t="shared" si="117"/>
         <v>166.29266382886274</v>
       </c>
-      <c r="X86" s="2">
+      <c r="X86" s="5">
         <f t="shared" si="117"/>
         <v>171.12738435777877</v>
       </c>
     </row>
     <row r="87" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B87" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L87" s="2">
+      <c r="B87" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="L87" s="5">
         <v>-310</v>
       </c>
-      <c r="M87" s="2">
+      <c r="M87" s="5">
         <v>-842</v>
       </c>
-      <c r="N87" s="2">
+      <c r="N87" s="5">
         <v>-426</v>
       </c>
-      <c r="O87" s="2">
+      <c r="O87" s="5">
         <f>N87*(1+O39)</f>
         <v>-423.05283205230762</v>
       </c>
-      <c r="P87" s="2">
+      <c r="P87" s="5">
         <f t="shared" ref="P87:X87" si="118">O87*(1+P39)</f>
         <v>-436.83936280040348</v>
       </c>
-      <c r="Q87" s="2">
+      <c r="Q87" s="5">
         <f t="shared" si="118"/>
         <v>-441.64613607463565</v>
       </c>
-      <c r="R87" s="2">
+      <c r="R87" s="5">
         <f t="shared" si="118"/>
         <v>-447.01778352903767</v>
       </c>
-      <c r="S87" s="2">
+      <c r="S87" s="5">
         <f t="shared" si="118"/>
         <v>-458.1729681896046</v>
       </c>
-      <c r="T87" s="2">
+      <c r="T87" s="5">
         <f t="shared" si="118"/>
         <v>-469.96934255917643</v>
       </c>
-      <c r="U87" s="2">
+      <c r="U87" s="5">
         <f t="shared" si="118"/>
         <v>-482.44928264924835</v>
       </c>
-      <c r="V87" s="2">
+      <c r="V87" s="5">
         <f t="shared" si="118"/>
         <v>-495.65827139992649</v>
       </c>
-      <c r="W87" s="2">
+      <c r="W87" s="5">
         <f t="shared" si="118"/>
         <v>-509.64514238198234</v>
       </c>
-      <c r="X87" s="2">
+      <c r="X87" s="5">
         <f t="shared" si="118"/>
         <v>-524.46234342743719</v>
       </c>
     </row>
     <row r="88" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B88" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L88" s="2">
+      <c r="B88" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="L88" s="5">
         <v>-134</v>
       </c>
-      <c r="M88" s="2">
+      <c r="M88" s="5">
         <v>39</v>
       </c>
-      <c r="N88" s="2">
+      <c r="N88" s="5">
         <v>-259</v>
       </c>
-      <c r="O88" s="2">
+      <c r="O88" s="5">
         <f>N88*(1+O39)</f>
         <v>-257.20817723367998</v>
       </c>
-      <c r="P88" s="2">
+      <c r="P88" s="5">
         <f t="shared" ref="P88:X88" si="119">O88*(1+P39)</f>
         <v>-265.59012902653637</v>
       </c>
-      <c r="Q88" s="2">
+      <c r="Q88" s="5">
         <f t="shared" si="119"/>
         <v>-268.51255690922682</v>
       </c>
-      <c r="R88" s="2">
+      <c r="R88" s="5">
         <f t="shared" si="119"/>
         <v>-271.77841768549473</v>
       </c>
-      <c r="S88" s="2">
+      <c r="S88" s="5">
         <f t="shared" si="119"/>
         <v>-278.56056047208352</v>
       </c>
-      <c r="T88" s="2">
+      <c r="T88" s="5">
         <f t="shared" si="119"/>
         <v>-285.73253456062599</v>
       </c>
-      <c r="U88" s="2">
+      <c r="U88" s="5">
         <f t="shared" si="119"/>
         <v>-293.32010377031759</v>
       </c>
-      <c r="V88" s="2">
+      <c r="V88" s="5">
         <f t="shared" si="119"/>
         <v>-301.3509208746031</v>
       </c>
-      <c r="W88" s="2">
+      <c r="W88" s="5">
         <f t="shared" si="119"/>
         <v>-309.85467576744924</v>
       </c>
-      <c r="X88" s="2">
+      <c r="X88" s="5">
         <f t="shared" si="119"/>
         <v>-318.86325574578916</v>
       </c>
     </row>
     <row r="89" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B89" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L89" s="2">
+      <c r="B89" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L89" s="5">
         <v>226</v>
       </c>
-      <c r="M89" s="2">
+      <c r="M89" s="5">
         <v>-347</v>
       </c>
-      <c r="N89" s="2">
+      <c r="N89" s="5">
         <v>290</v>
       </c>
-      <c r="O89" s="2">
+      <c r="O89" s="5">
         <f>N89*(1+O39)</f>
         <v>287.99371196049111</v>
       </c>
-      <c r="P89" s="2">
+      <c r="P89" s="5">
         <f t="shared" ref="P89:X89" si="120">O89*(1+P39)</f>
         <v>297.37890894863148</v>
       </c>
-      <c r="Q89" s="2">
+      <c r="Q89" s="5">
         <f t="shared" si="120"/>
         <v>300.65112549681766</v>
       </c>
-      <c r="R89" s="2">
+      <c r="R89" s="5">
         <f t="shared" si="120"/>
         <v>304.30788080615235</v>
       </c>
-      <c r="S89" s="2">
+      <c r="S89" s="5">
         <f t="shared" si="120"/>
         <v>311.90178585677302</v>
       </c>
-      <c r="T89" s="2">
+      <c r="T89" s="5">
         <f t="shared" si="120"/>
         <v>319.93218155436887</v>
       </c>
-      <c r="U89" s="2">
+      <c r="U89" s="5">
         <f t="shared" si="120"/>
         <v>328.42791541850232</v>
       </c>
-      <c r="V89" s="2">
+      <c r="V89" s="5">
         <f t="shared" si="120"/>
         <v>337.41995001403438</v>
       </c>
-      <c r="W89" s="2">
+      <c r="W89" s="5">
         <f t="shared" si="120"/>
         <v>346.94152885158411</v>
       </c>
-      <c r="X89" s="2">
+      <c r="X89" s="5">
         <f t="shared" si="120"/>
         <v>357.02835585435849</v>
       </c>
-      <c r="Z89" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA89" s="9">
-        <v>0.04</v>
+      <c r="Z89" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA89" s="12">
+        <v>0.02</v>
       </c>
     </row>
     <row r="90" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B90" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="L90" s="2">
+      <c r="B90" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="L90" s="5">
         <v>-364</v>
       </c>
-      <c r="M90" s="2">
+      <c r="M90" s="5">
         <v>-1768</v>
       </c>
-      <c r="N90" s="2">
+      <c r="N90" s="5">
         <v>-732</v>
       </c>
-      <c r="O90" s="2">
+      <c r="O90" s="5">
         <f>N90*(1+O39)</f>
         <v>-726.93585225889478</v>
       </c>
-      <c r="P90" s="2">
+      <c r="P90" s="5">
         <f t="shared" ref="P90:X90" si="121">O90*(1+P39)</f>
         <v>-750.62538396689047</v>
       </c>
-      <c r="Q90" s="2">
+      <c r="Q90" s="5">
         <f t="shared" si="121"/>
         <v>-758.88490987472596</v>
       </c>
-      <c r="R90" s="2">
+      <c r="R90" s="5">
         <f t="shared" si="121"/>
         <v>-768.11506465552952</v>
       </c>
-      <c r="S90" s="2">
+      <c r="S90" s="5">
         <f t="shared" si="121"/>
         <v>-787.2831284384755</v>
       </c>
-      <c r="T90" s="2">
+      <c r="T90" s="5">
         <f t="shared" si="121"/>
         <v>-807.55295481999326</v>
       </c>
-      <c r="U90" s="2">
+      <c r="U90" s="5">
         <f t="shared" si="121"/>
         <v>-828.9973589184267</v>
       </c>
-      <c r="V90" s="2">
+      <c r="V90" s="5">
         <f t="shared" si="121"/>
         <v>-851.69449451818343</v>
       </c>
-      <c r="W90" s="2">
+      <c r="W90" s="5">
         <f t="shared" si="121"/>
         <v>-875.72827282537799</v>
       </c>
-      <c r="X90" s="2">
+      <c r="X90" s="5">
         <f t="shared" si="121"/>
         <v>-901.18881546686373</v>
       </c>
-      <c r="Z90" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA90" s="9">
+      <c r="Z90" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA90" s="12">
         <v>-0.01</v>
       </c>
     </row>
     <row r="91" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B91" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="L91" s="2">
+      <c r="B91" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="L91" s="5">
         <v>-775</v>
       </c>
-      <c r="M91" s="2">
+      <c r="M91" s="5">
         <v>458</v>
       </c>
-      <c r="N91" s="2">
+      <c r="N91" s="5">
         <v>108</v>
       </c>
-      <c r="O91" s="2">
+      <c r="O91" s="5">
         <f>N91*(1+O39)</f>
         <v>107.25283066114841</v>
       </c>
-      <c r="P91" s="2">
+      <c r="P91" s="5">
         <f t="shared" ref="P91:X91" si="122">O91*(1+P39)</f>
         <v>110.74800747052483</v>
       </c>
-      <c r="Q91" s="2">
+      <c r="Q91" s="5">
         <f t="shared" si="122"/>
         <v>111.96662604709073</v>
       </c>
-      <c r="R91" s="2">
+      <c r="R91" s="5">
         <f t="shared" si="122"/>
         <v>113.32845216229124</v>
       </c>
-      <c r="S91" s="2">
+      <c r="S91" s="5">
         <f t="shared" si="122"/>
         <v>116.15652714666032</v>
       </c>
-      <c r="T91" s="2">
+      <c r="T91" s="5">
         <f t="shared" si="122"/>
         <v>119.1471572685236</v>
       </c>
-      <c r="U91" s="2">
+      <c r="U91" s="5">
         <f t="shared" si="122"/>
         <v>122.31108574206296</v>
       </c>
-      <c r="V91" s="2">
+      <c r="V91" s="5">
         <f t="shared" si="122"/>
         <v>125.65984345350248</v>
       </c>
-      <c r="W91" s="2">
+      <c r="W91" s="5">
         <f t="shared" si="122"/>
         <v>129.2058107447279</v>
       </c>
-      <c r="X91" s="2">
+      <c r="X91" s="5">
         <f t="shared" si="122"/>
         <v>132.9622842492094</v>
       </c>
-      <c r="Z91" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA91" s="9">
+      <c r="Z91" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA91" s="12">
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:27" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A92" s="2"/>
-      <c r="B92" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L92" s="4">
+    <row r="92" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="5"/>
+      <c r="B92" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L92" s="7">
         <f>SUM(L78:L91)</f>
         <v>9072</v>
       </c>
-      <c r="M92" s="4">
+      <c r="M92" s="7">
         <f t="shared" ref="M92:N92" si="123">SUM(M78:M91)</f>
         <v>8005</v>
       </c>
-      <c r="N92" s="4">
+      <c r="N92" s="7">
         <f t="shared" si="123"/>
         <v>10828</v>
       </c>
-      <c r="O92" s="4">
+      <c r="O92" s="7">
         <f>SUM(O77:O91)</f>
-        <v>11207.477533752999</v>
-      </c>
-      <c r="P92" s="4">
+        <v>11548.354333752999</v>
+      </c>
+      <c r="P92" s="7">
         <f t="shared" ref="P92:X92" si="124">SUM(P77:P91)</f>
-        <v>12262.055511574685</v>
-      </c>
-      <c r="Q92" s="4">
+        <v>12474.066268954619</v>
+      </c>
+      <c r="Q92" s="7">
         <f t="shared" si="124"/>
-        <v>13641.636033274204</v>
-      </c>
-      <c r="R92" s="4">
+        <v>13747.50220392154</v>
+      </c>
+      <c r="R92" s="7">
         <f t="shared" si="124"/>
-        <v>14540.195792122759</v>
-      </c>
-      <c r="S92" s="4">
+        <v>14520.687330490484</v>
+      </c>
+      <c r="S92" s="7">
         <f t="shared" si="124"/>
-        <v>15436.887669960166</v>
-      </c>
-      <c r="T92" s="4">
+        <v>15286.38740933507</v>
+      </c>
+      <c r="T92" s="7">
         <f t="shared" si="124"/>
-        <v>16083.610500331633</v>
-      </c>
-      <c r="U92" s="4">
+        <v>15798.760560251536</v>
+      </c>
+      <c r="U92" s="7">
         <f t="shared" si="124"/>
-        <v>16969.816654238963</v>
-      </c>
-      <c r="V92" s="4">
+        <v>16540.561240194438</v>
+      </c>
+      <c r="V92" s="7">
         <f t="shared" si="124"/>
-        <v>17893.991553133783</v>
-      </c>
-      <c r="W92" s="4">
+        <v>17310.158427391099</v>
+      </c>
+      <c r="W92" s="7">
         <f t="shared" si="124"/>
-        <v>18860.272218501261</v>
-      </c>
-      <c r="X92" s="4">
+        <v>18111.076389947339</v>
+      </c>
+      <c r="X92" s="7">
         <f t="shared" si="124"/>
-        <v>19872.924205341667</v>
-      </c>
-      <c r="Z92" s="2" t="s">
+        <v>18946.930387195571</v>
+      </c>
+      <c r="Z92" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA92" s="7">
+        <f>NPV(AA91,O100:DR100)</f>
+        <v>176064.0466126643</v>
+      </c>
+    </row>
+    <row r="93" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B93" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="L93" s="5">
+        <v>-1770</v>
+      </c>
+      <c r="M93" s="5">
+        <v>-1930</v>
+      </c>
+      <c r="N93" s="5">
+        <v>-244</v>
+      </c>
+      <c r="Z93" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="11">
+        <f>AA92/Main!M3</f>
+        <v>141.53866226502018</v>
+      </c>
+    </row>
+    <row r="94" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B94" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="L94" s="5">
+        <v>412</v>
+      </c>
+      <c r="M94" s="5">
+        <v>510</v>
+      </c>
+      <c r="N94" s="5">
+        <v>2265</v>
+      </c>
+      <c r="Z94" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AA92" s="4">
-        <f>NPV(AA91,O100:DR100)</f>
-        <v>181358.66190130977</v>
-      </c>
-    </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B93" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="L93" s="2">
-        <v>-1770</v>
-      </c>
-      <c r="M93" s="2">
-        <v>-1930</v>
-      </c>
-      <c r="N93" s="2">
-        <v>-244</v>
-      </c>
-      <c r="Z93" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA93" s="6">
-        <f>AA92/main!D3</f>
-        <v>145.79502680724522</v>
-      </c>
-    </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B94" s="2" t="s">
+      <c r="AA94" s="9">
+        <f>AA93/Main!M2-1</f>
+        <v>0.29851983729376319</v>
+      </c>
+    </row>
+    <row r="95" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B95" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="L94" s="2">
-        <v>412</v>
-      </c>
-      <c r="M94" s="2">
-        <v>510</v>
-      </c>
-      <c r="N94" s="2">
-        <v>2265</v>
-      </c>
-      <c r="Z94" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA94" s="8">
-        <f>AA93/main!D2-1</f>
-        <v>0.4018752577619733</v>
-      </c>
-    </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B95" s="2" t="s">
+      <c r="L95" s="5">
+        <v>1590</v>
+      </c>
+      <c r="M95" s="5">
+        <v>1334</v>
+      </c>
+      <c r="N95" s="5">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="96" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B96" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="L95" s="2">
-        <v>1590</v>
-      </c>
-      <c r="M95" s="2">
-        <v>1334</v>
-      </c>
-      <c r="N95" s="2">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B96" s="2" t="s">
+      <c r="L96" s="5">
+        <v>-1797</v>
+      </c>
+      <c r="M96" s="5">
+        <v>-1152</v>
+      </c>
+      <c r="N96" s="5">
+        <v>-4840</v>
+      </c>
+    </row>
+    <row r="97" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="B97" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="L96" s="2">
-        <v>-1797</v>
-      </c>
-      <c r="M96" s="2">
-        <v>-1152</v>
-      </c>
-      <c r="N96" s="2">
-        <v>-4840</v>
-      </c>
-    </row>
-    <row r="97" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="B97" s="2" t="s">
+      <c r="L97" s="5">
+        <v>-172</v>
+      </c>
+      <c r="M97" s="5">
+        <v>-442</v>
+      </c>
+      <c r="N97" s="5">
+        <v>-492</v>
+      </c>
+    </row>
+    <row r="98" spans="1:122" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="5"/>
+      <c r="B98" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="L97" s="2">
-        <v>-172</v>
-      </c>
-      <c r="M97" s="2">
-        <v>-442</v>
-      </c>
-      <c r="N97" s="2">
-        <v>-492</v>
-      </c>
-    </row>
-    <row r="98" spans="1:122" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A98" s="2"/>
-      <c r="B98" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="L98" s="4">
+      <c r="L98" s="7">
         <v>-728</v>
       </c>
-      <c r="M98" s="4">
+      <c r="M98" s="7">
         <v>-585</v>
       </c>
-      <c r="N98" s="4">
+      <c r="N98" s="7">
         <v>-523</v>
       </c>
-      <c r="O98" s="4">
+      <c r="O98" s="7">
         <v>-700</v>
       </c>
-      <c r="P98" s="4">
+      <c r="P98" s="7">
         <f>O98*(1+P39)</f>
         <v>-722.81174073897671</v>
       </c>
-      <c r="Q98" s="4">
+      <c r="Q98" s="7">
         <f t="shared" ref="Q98:X98" si="125">P98*(1+Q39)</f>
         <v>-730.76521850117376</v>
       </c>
-      <c r="R98" s="4">
+      <c r="R98" s="7">
         <f t="shared" si="125"/>
         <v>-739.65335949254882</v>
       </c>
-      <c r="S98" s="4">
+      <c r="S98" s="7">
         <f t="shared" si="125"/>
         <v>-758.11117059977096</v>
       </c>
-      <c r="T98" s="4">
+      <c r="T98" s="7">
         <f t="shared" si="125"/>
         <v>-777.62991963790364</v>
       </c>
-      <c r="U98" s="4">
+      <c r="U98" s="7">
         <f t="shared" si="125"/>
         <v>-798.27972363678145</v>
       </c>
-      <c r="V98" s="4">
+      <c r="V98" s="7">
         <f t="shared" si="125"/>
         <v>-820.13584047358222</v>
       </c>
-      <c r="W98" s="4">
+      <c r="W98" s="7">
         <f t="shared" si="125"/>
         <v>-843.27907211191462</v>
       </c>
-      <c r="X98" s="4">
+      <c r="X98" s="7">
         <f t="shared" si="125"/>
         <v>-867.79620081544249</v>
       </c>
     </row>
     <row r="99" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="B99" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L99" s="2">
+      <c r="B99" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L99" s="5">
         <v>-1</v>
       </c>
-      <c r="M99" s="2">
+      <c r="M99" s="5">
         <v>-1</v>
       </c>
-      <c r="N99" s="2">
+      <c r="N99" s="5">
         <v>58</v>
       </c>
     </row>
-    <row r="100" spans="1:122" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A100" s="2"/>
-      <c r="B100" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L100" s="4">
+    <row r="100" spans="1:122" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="5"/>
+      <c r="B100" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L100" s="7">
         <f>L92+L98</f>
         <v>8344</v>
       </c>
-      <c r="M100" s="4">
+      <c r="M100" s="7">
         <f t="shared" ref="M100:X100" si="126">M92+M98</f>
         <v>7420</v>
       </c>
-      <c r="N100" s="4">
+      <c r="N100" s="7">
         <f t="shared" si="126"/>
         <v>10305</v>
       </c>
-      <c r="O100" s="4">
+      <c r="O100" s="7">
         <f t="shared" si="126"/>
-        <v>10507.477533752999</v>
-      </c>
-      <c r="P100" s="4">
+        <v>10848.354333752999</v>
+      </c>
+      <c r="P100" s="7">
         <f t="shared" si="126"/>
-        <v>11539.243770835708</v>
-      </c>
-      <c r="Q100" s="4">
+        <v>11751.254528215642</v>
+      </c>
+      <c r="Q100" s="7">
         <f t="shared" si="126"/>
-        <v>12910.87081477303</v>
-      </c>
-      <c r="R100" s="4">
+        <v>13016.736985420366</v>
+      </c>
+      <c r="R100" s="7">
         <f t="shared" si="126"/>
-        <v>13800.542432630209</v>
-      </c>
-      <c r="S100" s="4">
+        <v>13781.033970997934</v>
+      </c>
+      <c r="S100" s="7">
         <f t="shared" si="126"/>
-        <v>14678.776499360396</v>
-      </c>
-      <c r="T100" s="4">
+        <v>14528.2762387353</v>
+      </c>
+      <c r="T100" s="7">
         <f t="shared" si="126"/>
-        <v>15305.980580693729</v>
-      </c>
-      <c r="U100" s="4">
+        <v>15021.130640613632</v>
+      </c>
+      <c r="U100" s="7">
         <f t="shared" si="126"/>
-        <v>16171.536930602182</v>
-      </c>
-      <c r="V100" s="4">
+        <v>15742.281516557658</v>
+      </c>
+      <c r="V100" s="7">
         <f t="shared" si="126"/>
-        <v>17073.855712660199</v>
-      </c>
-      <c r="W100" s="4">
+        <v>16490.022586917516</v>
+      </c>
+      <c r="W100" s="7">
         <f t="shared" si="126"/>
-        <v>18016.993146389344</v>
-      </c>
-      <c r="X100" s="4">
+        <v>17267.797317835422</v>
+      </c>
+      <c r="X100" s="7">
         <f t="shared" si="126"/>
-        <v>19005.128004526225</v>
-      </c>
-      <c r="Y100" s="4">
+        <v>18079.134186380128</v>
+      </c>
+      <c r="Y100" s="7">
         <f>X100*(1+$AA$90)</f>
-        <v>18815.076724480961</v>
-      </c>
-      <c r="Z100" s="4">
+        <v>17898.342844516326</v>
+      </c>
+      <c r="Z100" s="7">
         <f t="shared" ref="Z100:CK100" si="127">Y100*(1+$AA$90)</f>
-        <v>18626.925957236152</v>
-      </c>
-      <c r="AA100" s="4">
-        <f t="shared" si="127"/>
-        <v>18440.656697663791</v>
-      </c>
-      <c r="AB100" s="4">
-        <f t="shared" si="127"/>
-        <v>18256.250130687153</v>
-      </c>
-      <c r="AC100" s="4">
-        <f t="shared" si="127"/>
-        <v>18073.687629380282</v>
-      </c>
-      <c r="AD100" s="4">
-        <f t="shared" si="127"/>
-        <v>17892.950753086479</v>
-      </c>
-      <c r="AE100" s="4">
-        <f t="shared" si="127"/>
-        <v>17714.021245555614</v>
-      </c>
-      <c r="AF100" s="4">
-        <f t="shared" si="127"/>
-        <v>17536.881033100057</v>
-      </c>
-      <c r="AG100" s="4">
-        <f t="shared" si="127"/>
-        <v>17361.512222769055</v>
-      </c>
-      <c r="AH100" s="4">
-        <f t="shared" si="127"/>
-        <v>17187.897100541366</v>
-      </c>
-      <c r="AI100" s="4">
-        <f t="shared" si="127"/>
-        <v>17016.018129535951</v>
-      </c>
-      <c r="AJ100" s="4">
-        <f t="shared" si="127"/>
-        <v>16845.857948240591</v>
-      </c>
-      <c r="AK100" s="4">
-        <f t="shared" si="127"/>
-        <v>16677.399368758186</v>
-      </c>
-      <c r="AL100" s="4">
-        <f t="shared" si="127"/>
-        <v>16510.625375070606</v>
-      </c>
-      <c r="AM100" s="4">
-        <f t="shared" si="127"/>
-        <v>16345.5191213199</v>
-      </c>
-      <c r="AN100" s="4">
-        <f t="shared" si="127"/>
-        <v>16182.0639301067</v>
-      </c>
-      <c r="AO100" s="4">
-        <f t="shared" si="127"/>
-        <v>16020.243290805633</v>
-      </c>
-      <c r="AP100" s="4">
-        <f t="shared" si="127"/>
-        <v>15860.040857897577</v>
-      </c>
-      <c r="AQ100" s="4">
-        <f t="shared" si="127"/>
-        <v>15701.440449318601</v>
-      </c>
-      <c r="AR100" s="4">
-        <f t="shared" si="127"/>
-        <v>15544.426044825415</v>
-      </c>
-      <c r="AS100" s="4">
-        <f t="shared" si="127"/>
-        <v>15388.981784377162</v>
-      </c>
-      <c r="AT100" s="4">
-        <f t="shared" si="127"/>
-        <v>15235.091966533389</v>
-      </c>
-      <c r="AU100" s="4">
-        <f t="shared" si="127"/>
-        <v>15082.741046868055</v>
-      </c>
-      <c r="AV100" s="4">
-        <f t="shared" si="127"/>
-        <v>14931.913636399375</v>
-      </c>
-      <c r="AW100" s="4">
-        <f t="shared" si="127"/>
-        <v>14782.59450003538</v>
-      </c>
-      <c r="AX100" s="4">
-        <f t="shared" si="127"/>
-        <v>14634.768555035027</v>
-      </c>
-      <c r="AY100" s="4">
-        <f t="shared" si="127"/>
-        <v>14488.420869484677</v>
-      </c>
-      <c r="AZ100" s="4">
-        <f t="shared" si="127"/>
-        <v>14343.53666078983</v>
-      </c>
-      <c r="BA100" s="4">
-        <f t="shared" si="127"/>
-        <v>14200.101294181932</v>
-      </c>
-      <c r="BB100" s="4">
-        <f t="shared" si="127"/>
-        <v>14058.100281240113</v>
-      </c>
-      <c r="BC100" s="4">
-        <f t="shared" si="127"/>
-        <v>13917.519278427711</v>
-      </c>
-      <c r="BD100" s="4">
-        <f t="shared" si="127"/>
-        <v>13778.344085643434</v>
-      </c>
-      <c r="BE100" s="4">
-        <f t="shared" si="127"/>
-        <v>13640.560644787</v>
-      </c>
-      <c r="BF100" s="4">
-        <f t="shared" si="127"/>
-        <v>13504.15503833913</v>
-      </c>
-      <c r="BG100" s="4">
-        <f t="shared" si="127"/>
-        <v>13369.113487955738</v>
-      </c>
-      <c r="BH100" s="4">
-        <f t="shared" si="127"/>
-        <v>13235.422353076179</v>
-      </c>
-      <c r="BI100" s="4">
-        <f t="shared" si="127"/>
-        <v>13103.068129545418</v>
-      </c>
-      <c r="BJ100" s="4">
-        <f t="shared" si="127"/>
-        <v>12972.037448249963</v>
-      </c>
-      <c r="BK100" s="4">
-        <f t="shared" si="127"/>
-        <v>12842.317073767463</v>
-      </c>
-      <c r="BL100" s="4">
-        <f t="shared" si="127"/>
-        <v>12713.893903029788</v>
-      </c>
-      <c r="BM100" s="4">
-        <f t="shared" si="127"/>
-        <v>12586.75496399949</v>
-      </c>
-      <c r="BN100" s="4">
-        <f t="shared" si="127"/>
-        <v>12460.887414359495</v>
-      </c>
-      <c r="BO100" s="4">
-        <f t="shared" si="127"/>
-        <v>12336.278540215901</v>
-      </c>
-      <c r="BP100" s="4">
-        <f t="shared" si="127"/>
-        <v>12212.915754813741</v>
-      </c>
-      <c r="BQ100" s="4">
-        <f t="shared" si="127"/>
-        <v>12090.786597265604</v>
-      </c>
-      <c r="BR100" s="4">
-        <f t="shared" si="127"/>
-        <v>11969.878731292947</v>
-      </c>
-      <c r="BS100" s="4">
-        <f t="shared" si="127"/>
-        <v>11850.179943980018</v>
-      </c>
-      <c r="BT100" s="4">
-        <f t="shared" si="127"/>
-        <v>11731.678144540218</v>
-      </c>
-      <c r="BU100" s="4">
-        <f t="shared" si="127"/>
-        <v>11614.361363094815</v>
-      </c>
-      <c r="BV100" s="4">
-        <f t="shared" si="127"/>
-        <v>11498.217749463867</v>
-      </c>
-      <c r="BW100" s="4">
-        <f t="shared" si="127"/>
-        <v>11383.235571969228</v>
-      </c>
-      <c r="BX100" s="4">
-        <f t="shared" si="127"/>
-        <v>11269.403216249535</v>
-      </c>
-      <c r="BY100" s="4">
-        <f t="shared" si="127"/>
-        <v>11156.70918408704</v>
-      </c>
-      <c r="BZ100" s="4">
-        <f t="shared" si="127"/>
-        <v>11045.142092246169</v>
-      </c>
-      <c r="CA100" s="4">
-        <f t="shared" si="127"/>
-        <v>10934.690671323708</v>
-      </c>
-      <c r="CB100" s="4">
-        <f t="shared" si="127"/>
-        <v>10825.34376461047</v>
-      </c>
-      <c r="CC100" s="4">
-        <f t="shared" si="127"/>
-        <v>10717.090326964366</v>
-      </c>
-      <c r="CD100" s="4">
-        <f t="shared" si="127"/>
-        <v>10609.919423694722</v>
-      </c>
-      <c r="CE100" s="4">
-        <f t="shared" si="127"/>
-        <v>10503.820229457775</v>
-      </c>
-      <c r="CF100" s="4">
-        <f t="shared" si="127"/>
-        <v>10398.782027163197</v>
-      </c>
-      <c r="CG100" s="4">
-        <f t="shared" si="127"/>
-        <v>10294.794206891565</v>
-      </c>
-      <c r="CH100" s="4">
-        <f t="shared" si="127"/>
-        <v>10191.84626482265</v>
-      </c>
-      <c r="CI100" s="4">
-        <f t="shared" si="127"/>
-        <v>10089.927802174423</v>
-      </c>
-      <c r="CJ100" s="4">
-        <f t="shared" si="127"/>
-        <v>9989.0285241526781</v>
-      </c>
-      <c r="CK100" s="4">
-        <f t="shared" si="127"/>
-        <v>9889.1382389111513</v>
-      </c>
-      <c r="CL100" s="4">
+        <v>17719.359416071162</v>
+      </c>
+      <c r="AA100" s="7">
+        <f t="shared" si="127"/>
+        <v>17542.16582191045</v>
+      </c>
+      <c r="AB100" s="7">
+        <f t="shared" si="127"/>
+        <v>17366.744163691346</v>
+      </c>
+      <c r="AC100" s="7">
+        <f t="shared" si="127"/>
+        <v>17193.076722054433</v>
+      </c>
+      <c r="AD100" s="7">
+        <f t="shared" si="127"/>
+        <v>17021.14595483389</v>
+      </c>
+      <c r="AE100" s="7">
+        <f t="shared" si="127"/>
+        <v>16850.93449528555</v>
+      </c>
+      <c r="AF100" s="7">
+        <f t="shared" si="127"/>
+        <v>16682.425150332696</v>
+      </c>
+      <c r="AG100" s="7">
+        <f t="shared" si="127"/>
+        <v>16515.600898829369</v>
+      </c>
+      <c r="AH100" s="7">
+        <f t="shared" si="127"/>
+        <v>16350.444889841076</v>
+      </c>
+      <c r="AI100" s="7">
+        <f t="shared" si="127"/>
+        <v>16186.940440942664</v>
+      </c>
+      <c r="AJ100" s="7">
+        <f t="shared" si="127"/>
+        <v>16025.071036533238</v>
+      </c>
+      <c r="AK100" s="7">
+        <f t="shared" si="127"/>
+        <v>15864.820326167905</v>
+      </c>
+      <c r="AL100" s="7">
+        <f t="shared" si="127"/>
+        <v>15706.172122906226</v>
+      </c>
+      <c r="AM100" s="7">
+        <f t="shared" si="127"/>
+        <v>15549.110401677164</v>
+      </c>
+      <c r="AN100" s="7">
+        <f t="shared" si="127"/>
+        <v>15393.619297660392</v>
+      </c>
+      <c r="AO100" s="7">
+        <f t="shared" si="127"/>
+        <v>15239.683104683789</v>
+      </c>
+      <c r="AP100" s="7">
+        <f t="shared" si="127"/>
+        <v>15087.286273636952</v>
+      </c>
+      <c r="AQ100" s="7">
+        <f t="shared" si="127"/>
+        <v>14936.413410900583</v>
+      </c>
+      <c r="AR100" s="7">
+        <f t="shared" si="127"/>
+        <v>14787.049276791577</v>
+      </c>
+      <c r="AS100" s="7">
+        <f t="shared" si="127"/>
+        <v>14639.178784023661</v>
+      </c>
+      <c r="AT100" s="7">
+        <f t="shared" si="127"/>
+        <v>14492.786996183424</v>
+      </c>
+      <c r="AU100" s="7">
+        <f t="shared" si="127"/>
+        <v>14347.85912622159</v>
+      </c>
+      <c r="AV100" s="7">
+        <f t="shared" si="127"/>
+        <v>14204.380534959375</v>
+      </c>
+      <c r="AW100" s="7">
+        <f t="shared" si="127"/>
+        <v>14062.33672960978</v>
+      </c>
+      <c r="AX100" s="7">
+        <f t="shared" si="127"/>
+        <v>13921.713362313683</v>
+      </c>
+      <c r="AY100" s="7">
+        <f t="shared" si="127"/>
+        <v>13782.496228690547</v>
+      </c>
+      <c r="AZ100" s="7">
+        <f t="shared" si="127"/>
+        <v>13644.67126640364</v>
+      </c>
+      <c r="BA100" s="7">
+        <f t="shared" si="127"/>
+        <v>13508.224553739605</v>
+      </c>
+      <c r="BB100" s="7">
+        <f t="shared" si="127"/>
+        <v>13373.142308202208</v>
+      </c>
+      <c r="BC100" s="7">
+        <f t="shared" si="127"/>
+        <v>13239.410885120185</v>
+      </c>
+      <c r="BD100" s="7">
+        <f t="shared" si="127"/>
+        <v>13107.016776268983</v>
+      </c>
+      <c r="BE100" s="7">
+        <f t="shared" si="127"/>
+        <v>12975.946608506294</v>
+      </c>
+      <c r="BF100" s="7">
+        <f t="shared" si="127"/>
+        <v>12846.187142421231</v>
+      </c>
+      <c r="BG100" s="7">
+        <f t="shared" si="127"/>
+        <v>12717.725270997018</v>
+      </c>
+      <c r="BH100" s="7">
+        <f t="shared" si="127"/>
+        <v>12590.548018287047</v>
+      </c>
+      <c r="BI100" s="7">
+        <f t="shared" si="127"/>
+        <v>12464.642538104177</v>
+      </c>
+      <c r="BJ100" s="7">
+        <f t="shared" si="127"/>
+        <v>12339.996112723135</v>
+      </c>
+      <c r="BK100" s="7">
+        <f t="shared" si="127"/>
+        <v>12216.596151595902</v>
+      </c>
+      <c r="BL100" s="7">
+        <f t="shared" si="127"/>
+        <v>12094.430190079944</v>
+      </c>
+      <c r="BM100" s="7">
+        <f t="shared" si="127"/>
+        <v>11973.485888179144</v>
+      </c>
+      <c r="BN100" s="7">
+        <f t="shared" si="127"/>
+        <v>11853.751029297353</v>
+      </c>
+      <c r="BO100" s="7">
+        <f t="shared" si="127"/>
+        <v>11735.213519004379</v>
+      </c>
+      <c r="BP100" s="7">
+        <f t="shared" si="127"/>
+        <v>11617.861383814336</v>
+      </c>
+      <c r="BQ100" s="7">
+        <f t="shared" si="127"/>
+        <v>11501.682769976193</v>
+      </c>
+      <c r="BR100" s="7">
+        <f t="shared" si="127"/>
+        <v>11386.66594227643</v>
+      </c>
+      <c r="BS100" s="7">
+        <f t="shared" si="127"/>
+        <v>11272.799282853664</v>
+      </c>
+      <c r="BT100" s="7">
+        <f t="shared" si="127"/>
+        <v>11160.071290025127</v>
+      </c>
+      <c r="BU100" s="7">
+        <f t="shared" si="127"/>
+        <v>11048.470577124875</v>
+      </c>
+      <c r="BV100" s="7">
+        <f t="shared" si="127"/>
+        <v>10937.985871353627</v>
+      </c>
+      <c r="BW100" s="7">
+        <f t="shared" si="127"/>
+        <v>10828.60601264009</v>
+      </c>
+      <c r="BX100" s="7">
+        <f t="shared" si="127"/>
+        <v>10720.31995251369</v>
+      </c>
+      <c r="BY100" s="7">
+        <f t="shared" si="127"/>
+        <v>10613.116752988553</v>
+      </c>
+      <c r="BZ100" s="7">
+        <f t="shared" si="127"/>
+        <v>10506.985585458668</v>
+      </c>
+      <c r="CA100" s="7">
+        <f t="shared" si="127"/>
+        <v>10401.915729604081</v>
+      </c>
+      <c r="CB100" s="7">
+        <f t="shared" si="127"/>
+        <v>10297.89657230804</v>
+      </c>
+      <c r="CC100" s="7">
+        <f t="shared" si="127"/>
+        <v>10194.917606584959</v>
+      </c>
+      <c r="CD100" s="7">
+        <f t="shared" si="127"/>
+        <v>10092.968430519109</v>
+      </c>
+      <c r="CE100" s="7">
+        <f t="shared" si="127"/>
+        <v>9992.0387462139188</v>
+      </c>
+      <c r="CF100" s="7">
+        <f t="shared" si="127"/>
+        <v>9892.1183587517789</v>
+      </c>
+      <c r="CG100" s="7">
+        <f t="shared" si="127"/>
+        <v>9793.1971751642614</v>
+      </c>
+      <c r="CH100" s="7">
+        <f t="shared" si="127"/>
+        <v>9695.2652034126186</v>
+      </c>
+      <c r="CI100" s="7">
+        <f t="shared" si="127"/>
+        <v>9598.3125513784926</v>
+      </c>
+      <c r="CJ100" s="7">
+        <f t="shared" si="127"/>
+        <v>9502.3294258647074</v>
+      </c>
+      <c r="CK100" s="7">
+        <f t="shared" si="127"/>
+        <v>9407.3061316060612</v>
+      </c>
+      <c r="CL100" s="7">
         <f t="shared" ref="CL100:DR100" si="128">CK100*(1+$AA$90)</f>
-        <v>9790.2468565220406</v>
-      </c>
-      <c r="CM100" s="4">
+        <v>9313.2330702899999</v>
+      </c>
+      <c r="CM100" s="7">
         <f t="shared" si="128"/>
-        <v>9692.3443879568204</v>
-      </c>
-      <c r="CN100" s="4">
+        <v>9220.1007395871002</v>
+      </c>
+      <c r="CN100" s="7">
         <f t="shared" si="128"/>
-        <v>9595.420944077252</v>
-      </c>
-      <c r="CO100" s="4">
+        <v>9127.8997321912284</v>
+      </c>
+      <c r="CO100" s="7">
         <f t="shared" si="128"/>
-        <v>9499.4667346364786</v>
-      </c>
-      <c r="CP100" s="4">
+        <v>9036.6207348693151</v>
+      </c>
+      <c r="CP100" s="7">
         <f t="shared" si="128"/>
-        <v>9404.472067290113</v>
-      </c>
-      <c r="CQ100" s="4">
+        <v>8946.2545275206212</v>
+      </c>
+      <c r="CQ100" s="7">
         <f t="shared" si="128"/>
-        <v>9310.4273466172126</v>
-      </c>
-      <c r="CR100" s="4">
+        <v>8856.7919822454151</v>
+      </c>
+      <c r="CR100" s="7">
         <f t="shared" si="128"/>
-        <v>9217.3230731510412</v>
-      </c>
-      <c r="CS100" s="4">
+        <v>8768.2240624229617</v>
+      </c>
+      <c r="CS100" s="7">
         <f t="shared" si="128"/>
-        <v>9125.1498424195306</v>
-      </c>
-      <c r="CT100" s="4">
+        <v>8680.5418217987317</v>
+      </c>
+      <c r="CT100" s="7">
         <f t="shared" si="128"/>
-        <v>9033.8983439953354</v>
-      </c>
-      <c r="CU100" s="4">
+        <v>8593.7364035807441</v>
+      </c>
+      <c r="CU100" s="7">
         <f t="shared" si="128"/>
-        <v>8943.5593605553822</v>
-      </c>
-      <c r="CV100" s="4">
+        <v>8507.799039544936</v>
+      </c>
+      <c r="CV100" s="7">
         <f t="shared" si="128"/>
-        <v>8854.1237669498278</v>
-      </c>
-      <c r="CW100" s="4">
+        <v>8422.7210491494861</v>
+      </c>
+      <c r="CW100" s="7">
         <f t="shared" si="128"/>
-        <v>8765.5825292803293</v>
-      </c>
-      <c r="CX100" s="4">
+        <v>8338.4938386579906</v>
+      </c>
+      <c r="CX100" s="7">
         <f t="shared" si="128"/>
-        <v>8677.9267039875267</v>
-      </c>
-      <c r="CY100" s="4">
+        <v>8255.1089002714107</v>
+      </c>
+      <c r="CY100" s="7">
         <f t="shared" si="128"/>
-        <v>8591.1474369476509</v>
-      </c>
-      <c r="CZ100" s="4">
+        <v>8172.5578112686962</v>
+      </c>
+      <c r="CZ100" s="7">
         <f t="shared" si="128"/>
-        <v>8505.2359625781737</v>
-      </c>
-      <c r="DA100" s="4">
+        <v>8090.8322331560094</v>
+      </c>
+      <c r="DA100" s="7">
         <f t="shared" si="128"/>
-        <v>8420.1836029523911</v>
-      </c>
-      <c r="DB100" s="4">
+        <v>8009.9239108244492</v>
+      </c>
+      <c r="DB100" s="7">
         <f t="shared" si="128"/>
-        <v>8335.9817669228669</v>
-      </c>
-      <c r="DC100" s="4">
+        <v>7929.8246717162046</v>
+      </c>
+      <c r="DC100" s="7">
         <f t="shared" si="128"/>
-        <v>8252.6219492536384</v>
-      </c>
-      <c r="DD100" s="4">
+        <v>7850.5264249990423</v>
+      </c>
+      <c r="DD100" s="7">
         <f t="shared" si="128"/>
-        <v>8170.0957297611021</v>
-      </c>
-      <c r="DE100" s="4">
+        <v>7772.0211607490519</v>
+      </c>
+      <c r="DE100" s="7">
         <f t="shared" si="128"/>
-        <v>8088.3947724634909</v>
-      </c>
-      <c r="DF100" s="4">
+        <v>7694.3009491415614</v>
+      </c>
+      <c r="DF100" s="7">
         <f t="shared" si="128"/>
-        <v>8007.5108247388562</v>
-      </c>
-      <c r="DG100" s="4">
+        <v>7617.3579396501455</v>
+      </c>
+      <c r="DG100" s="7">
         <f t="shared" si="128"/>
-        <v>7927.4357164914672</v>
-      </c>
-      <c r="DH100" s="4">
+        <v>7541.1843602536437</v>
+      </c>
+      <c r="DH100" s="7">
         <f t="shared" si="128"/>
-        <v>7848.1613593265529</v>
-      </c>
-      <c r="DI100" s="4">
+        <v>7465.7725166511073</v>
+      </c>
+      <c r="DI100" s="7">
         <f t="shared" si="128"/>
-        <v>7769.6797457332868</v>
-      </c>
-      <c r="DJ100" s="4">
+        <v>7391.114791484596</v>
+      </c>
+      <c r="DJ100" s="7">
         <f t="shared" si="128"/>
-        <v>7691.9829482759542</v>
-      </c>
-      <c r="DK100" s="4">
+        <v>7317.2036435697501</v>
+      </c>
+      <c r="DK100" s="7">
         <f t="shared" si="128"/>
-        <v>7615.0631187931949</v>
-      </c>
-      <c r="DL100" s="4">
+        <v>7244.0316071340521</v>
+      </c>
+      <c r="DL100" s="7">
         <f t="shared" si="128"/>
-        <v>7538.9124876052629</v>
-      </c>
-      <c r="DM100" s="4">
+        <v>7171.5912910627112</v>
+      </c>
+      <c r="DM100" s="7">
         <f t="shared" si="128"/>
-        <v>7463.52336272921</v>
-      </c>
-      <c r="DN100" s="4">
+        <v>7099.8753781520836</v>
+      </c>
+      <c r="DN100" s="7">
         <f t="shared" si="128"/>
-        <v>7388.8881291019179</v>
-      </c>
-      <c r="DO100" s="4">
+        <v>7028.8766243705631</v>
+      </c>
+      <c r="DO100" s="7">
         <f t="shared" si="128"/>
-        <v>7314.9992478108989</v>
-      </c>
-      <c r="DP100" s="4">
+        <v>6958.5878581268571</v>
+      </c>
+      <c r="DP100" s="7">
         <f t="shared" si="128"/>
-        <v>7241.8492553327897</v>
-      </c>
-      <c r="DQ100" s="4">
+        <v>6889.0019795455883</v>
+      </c>
+      <c r="DQ100" s="7">
         <f t="shared" si="128"/>
-        <v>7169.4307627794615</v>
-      </c>
-      <c r="DR100" s="4">
+        <v>6820.111959750132</v>
+      </c>
+      <c r="DR100" s="7">
         <f t="shared" si="128"/>
-        <v>7097.7364551516666</v>
+        <v>6751.910840152631</v>
       </c>
     </row>
   </sheetData>
@@ -5237,39 +5257,4 @@
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22310629-1DEB-43C9-8FF3-025097537BB3}">
-  <dimension ref="A2:A5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/GILD.xlsx
+++ b/GILD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81300FED-E1E3-4F58-9A27-DC86B2782960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF4A289-5BC3-4353-9A31-650D969D526A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1695" yWindow="375" windowWidth="22125" windowHeight="14250" activeTab="1" xr2:uid="{EE5219A3-BA1B-4D6E-A979-2CD5C8786A6D}"/>
+    <workbookView xWindow="1770" yWindow="1530" windowWidth="23565" windowHeight="13935" activeTab="1" xr2:uid="{EE5219A3-BA1B-4D6E-A979-2CD5C8786A6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1009,10 +1009,10 @@
   <dimension ref="A1:DR100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="S82" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA93" sqref="AA93"/>
+      <selection pane="bottomRight" activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/GILD.xlsx
+++ b/GILD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF4A289-5BC3-4353-9A31-650D969D526A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DEB2C6-D596-4E00-A080-61B356E1A6CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="1530" windowWidth="23565" windowHeight="13935" activeTab="1" xr2:uid="{EE5219A3-BA1B-4D6E-A979-2CD5C8786A6D}"/>
+    <workbookView xWindow="1260" yWindow="1080" windowWidth="22335" windowHeight="13875" activeTab="1" xr2:uid="{EE5219A3-BA1B-4D6E-A979-2CD5C8786A6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -924,7 +924,7 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -963,7 +963,7 @@
       </c>
       <c r="M4" s="2">
         <f>M3*M2</f>
-        <v>135588.261</v>
+        <v>140563.97700000001</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -995,7 +995,7 @@
       </c>
       <c r="M7" s="2">
         <f>M4+M6-M5</f>
-        <v>152673.261</v>
+        <v>157648.97700000001</v>
       </c>
     </row>
   </sheetData>
@@ -1009,10 +1009,10 @@
   <dimension ref="A1:DR100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="V77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V17" sqref="V17"/>
+      <selection pane="bottomRight" activeCell="Z85" sqref="Z85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1138,39 +1138,39 @@
       </c>
       <c r="P2" s="8">
         <f t="shared" si="1"/>
-        <v>2.8710766250810149E-3</v>
+        <v>4.0000000000000036E-2</v>
       </c>
       <c r="Q2" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.0000000000000036E-2</v>
       </c>
       <c r="R2" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.0000000000000036E-2</v>
       </c>
       <c r="S2" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.0000000000000036E-2</v>
       </c>
       <c r="T2" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.0000000000000036E-2</v>
       </c>
       <c r="U2" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.0000000000000036E-2</v>
       </c>
       <c r="V2" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.0000000000000036E-2</v>
       </c>
       <c r="W2" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.0000000000000036E-2</v>
       </c>
       <c r="X2" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
@@ -1209,39 +1209,39 @@
       </c>
       <c r="P3" s="9">
         <f t="shared" si="2"/>
-        <v>1.4587928897535463E-2</v>
+        <v>4.0000000000000036E-2</v>
       </c>
       <c r="Q3" s="9">
         <f t="shared" si="2"/>
-        <v>1.2939045431786145E-2</v>
+        <v>3.9999999999999813E-2</v>
       </c>
       <c r="R3" s="9">
         <f t="shared" si="2"/>
-        <v>1.3284715708951067E-2</v>
+        <v>4.0000000000000258E-2</v>
       </c>
       <c r="S3" s="9">
         <f t="shared" si="2"/>
-        <v>1.3634967668137321E-2</v>
+        <v>4.0000000000000036E-2</v>
       </c>
       <c r="T3" s="9">
         <f t="shared" si="2"/>
-        <v>1.3989618380554125E-2</v>
+        <v>4.0000000000000036E-2</v>
       </c>
       <c r="U3" s="9">
         <f t="shared" si="2"/>
-        <v>1.4348473447896914E-2</v>
+        <v>4.0000000000000036E-2</v>
       </c>
       <c r="V3" s="9">
         <f t="shared" si="2"/>
-        <v>1.471132729671254E-2</v>
+        <v>4.0000000000000036E-2</v>
       </c>
       <c r="W3" s="9">
         <f t="shared" si="2"/>
-        <v>1.5077963532092564E-2</v>
+        <v>4.0000000000000036E-2</v>
       </c>
       <c r="X3" s="9">
         <f t="shared" si="2"/>
-        <v>1.5448155350365367E-2</v>
+        <v>-0.67180501733632469</v>
       </c>
     </row>
     <row r="4" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -1571,31 +1571,39 @@
         <v>13959.92</v>
       </c>
       <c r="P15" s="7">
-        <v>14000</v>
+        <f>O15*1.04</f>
+        <v>14518.316800000001</v>
       </c>
       <c r="Q15" s="7">
-        <v>14000</v>
+        <f t="shared" ref="Q15:W15" si="8">P15*1.04</f>
+        <v>15099.049472000001</v>
       </c>
       <c r="R15" s="7">
-        <v>14000</v>
+        <f t="shared" si="8"/>
+        <v>15703.011450880002</v>
       </c>
       <c r="S15" s="7">
-        <v>14000</v>
+        <f t="shared" si="8"/>
+        <v>16331.131908915202</v>
       </c>
       <c r="T15" s="7">
-        <v>14000</v>
+        <f t="shared" si="8"/>
+        <v>16984.377185271809</v>
       </c>
       <c r="U15" s="7">
-        <v>14000</v>
+        <f t="shared" si="8"/>
+        <v>17663.752272682683</v>
       </c>
       <c r="V15" s="7">
-        <v>14000</v>
+        <f t="shared" si="8"/>
+        <v>18370.302363589992</v>
       </c>
       <c r="W15" s="7">
-        <v>14000</v>
+        <f t="shared" si="8"/>
+        <v>19105.11445813359</v>
       </c>
       <c r="X15" s="7">
-        <v>14000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
@@ -1628,39 +1636,39 @@
         <v>6436.56</v>
       </c>
       <c r="P16" s="5">
-        <f t="shared" ref="P16:X16" si="8">O16*1.04</f>
+        <f t="shared" ref="P16:X16" si="9">O16*1.04</f>
         <v>6694.0224000000007</v>
       </c>
       <c r="Q16" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6961.7832960000014</v>
       </c>
       <c r="R16" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7240.2546278400014</v>
       </c>
       <c r="S16" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7529.8648129536014</v>
       </c>
       <c r="T16" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7831.0594054717458</v>
       </c>
       <c r="U16" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8144.3017816906158</v>
       </c>
       <c r="V16" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8470.0738529582413</v>
       </c>
       <c r="W16" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8808.8768070765709</v>
       </c>
       <c r="X16" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9161.2318793596332</v>
       </c>
     </row>
@@ -1689,39 +1697,39 @@
         <v>3111.63</v>
       </c>
       <c r="P17" s="5">
-        <f t="shared" ref="P17:X17" si="9">O17*1.03</f>
+        <f t="shared" ref="P17:X17" si="10">O17*1.03</f>
         <v>3204.9789000000001</v>
       </c>
       <c r="Q17" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3301.1282670000001</v>
       </c>
       <c r="R17" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3400.16211501</v>
       </c>
       <c r="S17" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3502.1669784603</v>
       </c>
       <c r="T17" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3607.2319878141093</v>
       </c>
       <c r="U17" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3715.4489474485326</v>
       </c>
       <c r="V17" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3826.9124158719887</v>
       </c>
       <c r="W17" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3941.7197883481485</v>
       </c>
       <c r="X17" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4059.9713819985932</v>
       </c>
     </row>
@@ -1805,39 +1813,39 @@
         <v>2111.11</v>
       </c>
       <c r="P19" s="5">
-        <f t="shared" ref="P19:X19" si="10">O19*1.07</f>
+        <f t="shared" ref="P19:X19" si="11">O19*1.07</f>
         <v>2258.8877000000002</v>
       </c>
       <c r="Q19" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2417.0098390000003</v>
       </c>
       <c r="R19" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2586.2005277300004</v>
       </c>
       <c r="S19" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2767.2345646711005</v>
       </c>
       <c r="T19" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2960.9409841980778</v>
       </c>
       <c r="U19" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3168.2068530919432</v>
       </c>
       <c r="V19" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3389.9813328083796</v>
       </c>
       <c r="W19" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3627.2800261049665</v>
       </c>
       <c r="X19" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3881.1896279323146</v>
       </c>
     </row>
@@ -1866,39 +1874,39 @@
         <v>1433.3500000000001</v>
       </c>
       <c r="P20" s="5">
-        <f t="shared" ref="P20:X20" si="11">O20*1.09</f>
+        <f t="shared" ref="P20:X20" si="12">O20*1.09</f>
         <v>1562.3515000000002</v>
       </c>
       <c r="Q20" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1702.9631350000004</v>
       </c>
       <c r="R20" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1856.2298171500006</v>
       </c>
       <c r="S20" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2023.2905006935007</v>
       </c>
       <c r="T20" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2205.3866457559161</v>
       </c>
       <c r="U20" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2403.8714438739489</v>
       </c>
       <c r="V20" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2620.2198738226043</v>
       </c>
       <c r="W20" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2856.0396624666391</v>
       </c>
       <c r="X20" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3113.083232088637</v>
       </c>
     </row>
@@ -1982,40 +1990,40 @@
         <v>28400</v>
       </c>
       <c r="P22" s="7">
-        <f t="shared" ref="P22:X22" si="12">SUM(P15:P21)</f>
-        <v>29319.740500000004</v>
+        <f t="shared" ref="P22:X22" si="13">SUM(P15:P21)</f>
+        <v>29838.057300000004</v>
       </c>
       <c r="Q22" s="7">
-        <f t="shared" si="12"/>
-        <v>29632.634537000002</v>
+        <f t="shared" si="13"/>
+        <v>30731.684009000001</v>
       </c>
       <c r="R22" s="7">
-        <f t="shared" si="12"/>
-        <v>29982.847087730002</v>
+        <f t="shared" si="13"/>
+        <v>31685.858538610006</v>
       </c>
       <c r="S22" s="7">
-        <f t="shared" si="12"/>
-        <v>30722.556856778501</v>
+        <f t="shared" si="13"/>
+        <v>33053.688765693703</v>
       </c>
       <c r="T22" s="7">
-        <f t="shared" si="12"/>
-        <v>31504.619023239848</v>
+        <f t="shared" si="13"/>
+        <v>34488.996208511657</v>
       </c>
       <c r="U22" s="7">
-        <f t="shared" si="12"/>
-        <v>32331.829026105035</v>
+        <f t="shared" si="13"/>
+        <v>35995.581298787722</v>
       </c>
       <c r="V22" s="7">
-        <f t="shared" si="12"/>
-        <v>33207.187475461214</v>
+        <f t="shared" si="13"/>
+        <v>37577.48983905121</v>
       </c>
       <c r="W22" s="7">
-        <f t="shared" si="12"/>
-        <v>34133.916283996325</v>
+        <f t="shared" si="13"/>
+        <v>39239.030742129915</v>
       </c>
       <c r="X22" s="7">
-        <f t="shared" si="12"/>
-        <v>35115.476121379179</v>
+        <f t="shared" si="13"/>
+        <v>21115.476121379179</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
@@ -2042,39 +2050,39 @@
         <v>154.08000000000001</v>
       </c>
       <c r="P23" s="5">
-        <f t="shared" ref="P23:S23" si="13">O23*1.07</f>
+        <f t="shared" ref="P23:S23" si="14">O23*1.07</f>
         <v>164.86560000000003</v>
       </c>
       <c r="Q23" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>176.40619200000003</v>
       </c>
       <c r="R23" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>188.75462544000004</v>
       </c>
       <c r="S23" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>201.96744922080006</v>
       </c>
       <c r="T23" s="5">
-        <f t="shared" ref="T23:X23" si="14">S23*1.07</f>
+        <f t="shared" ref="T23:X23" si="15">S23*1.07</f>
         <v>216.10517066625607</v>
       </c>
       <c r="U23" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>231.232532612894</v>
       </c>
       <c r="V23" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>247.41880989579661</v>
       </c>
       <c r="W23" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>264.73812658850238</v>
       </c>
       <c r="X23" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>283.26979544969754</v>
       </c>
     </row>
@@ -2087,84 +2095,84 @@
         <v>6686</v>
       </c>
       <c r="D24" s="7">
-        <f t="shared" ref="D24:L24" si="15">SUM(D22:D23)</f>
+        <f t="shared" ref="D24:L24" si="16">SUM(D22:D23)</f>
         <v>0</v>
       </c>
       <c r="E24" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F24" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G24" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>6667</v>
       </c>
       <c r="H24" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I24" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J24" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L24" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>27281</v>
       </c>
       <c r="M24" s="7">
-        <f t="shared" ref="M24" si="16">SUM(M22:M23)</f>
+        <f t="shared" ref="M24" si="17">SUM(M22:M23)</f>
         <v>27116</v>
       </c>
       <c r="N24" s="7">
-        <f t="shared" ref="N24" si="17">SUM(N22:N23)</f>
+        <f t="shared" ref="N24" si="18">SUM(N22:N23)</f>
         <v>28753</v>
       </c>
       <c r="O24" s="7">
-        <f t="shared" ref="O24" si="18">SUM(O22:O23)</f>
+        <f t="shared" ref="O24" si="19">SUM(O22:O23)</f>
         <v>28554.080000000002</v>
       </c>
       <c r="P24" s="7">
-        <f t="shared" ref="P24" si="19">SUM(P22:P23)</f>
-        <v>29484.606100000005</v>
+        <f t="shared" ref="P24" si="20">SUM(P22:P23)</f>
+        <v>30002.922900000005</v>
       </c>
       <c r="Q24" s="7">
-        <f t="shared" ref="Q24" si="20">SUM(Q22:Q23)</f>
-        <v>29809.040729</v>
+        <f t="shared" ref="Q24" si="21">SUM(Q22:Q23)</f>
+        <v>30908.090200999999</v>
       </c>
       <c r="R24" s="7">
-        <f t="shared" ref="R24" si="21">SUM(R22:R23)</f>
-        <v>30171.601713170003</v>
+        <f t="shared" ref="R24" si="22">SUM(R22:R23)</f>
+        <v>31874.613164050006</v>
       </c>
       <c r="S24" s="7">
-        <f t="shared" ref="S24" si="22">SUM(S22:S23)</f>
-        <v>30924.524305999301</v>
+        <f t="shared" ref="S24" si="23">SUM(S22:S23)</f>
+        <v>33255.656214914503</v>
       </c>
       <c r="T24" s="7">
-        <f t="shared" ref="T24" si="23">SUM(T22:T23)</f>
-        <v>31720.724193906102</v>
+        <f t="shared" ref="T24" si="24">SUM(T22:T23)</f>
+        <v>34705.101379177911</v>
       </c>
       <c r="U24" s="7">
-        <f t="shared" ref="U24" si="24">SUM(U22:U23)</f>
-        <v>32563.061558717931</v>
+        <f t="shared" ref="U24" si="25">SUM(U22:U23)</f>
+        <v>36226.813831400614</v>
       </c>
       <c r="V24" s="7">
-        <f t="shared" ref="V24" si="25">SUM(V22:V23)</f>
-        <v>33454.606285357011</v>
+        <f t="shared" ref="V24" si="26">SUM(V22:V23)</f>
+        <v>37824.908648947006</v>
       </c>
       <c r="W24" s="7">
-        <f t="shared" ref="W24" si="26">SUM(W22:W23)</f>
-        <v>34398.65441058483</v>
+        <f t="shared" ref="W24" si="27">SUM(W22:W23)</f>
+        <v>39503.76886871842</v>
       </c>
       <c r="X24" s="7">
-        <f t="shared" ref="X24" si="27">SUM(X22:X23)</f>
-        <v>35398.745916828877</v>
+        <f t="shared" ref="X24" si="28">SUM(X22:X23)</f>
+        <v>21398.745916828877</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
@@ -2187,44 +2195,44 @@
         <v>6251</v>
       </c>
       <c r="O25" s="5">
-        <f t="shared" ref="O25:X25" si="28">O24*(1-O43)</f>
+        <f t="shared" ref="O25:X25" si="29">O24*(1-O43)</f>
         <v>6281.8975999999993</v>
       </c>
       <c r="P25" s="5">
-        <f t="shared" si="28"/>
-        <v>6486.6133420000006</v>
+        <f t="shared" si="29"/>
+        <v>6600.6430380000002</v>
       </c>
       <c r="Q25" s="5">
-        <f t="shared" si="28"/>
-        <v>6557.9889603799993</v>
+        <f t="shared" si="29"/>
+        <v>6799.7798442199992</v>
       </c>
       <c r="R25" s="5">
-        <f t="shared" si="28"/>
-        <v>6637.7523768973997</v>
+        <f t="shared" si="29"/>
+        <v>7012.4148960910006</v>
       </c>
       <c r="S25" s="5">
-        <f t="shared" si="28"/>
-        <v>6803.3953473198453</v>
+        <f t="shared" si="29"/>
+        <v>7316.2443672811896</v>
       </c>
       <c r="T25" s="5">
-        <f t="shared" si="28"/>
-        <v>6978.5593226593419</v>
+        <f t="shared" si="29"/>
+        <v>7635.1223034191398</v>
       </c>
       <c r="U25" s="5">
-        <f t="shared" si="28"/>
-        <v>7163.8735429179442</v>
+        <f t="shared" si="29"/>
+        <v>7969.8990429081341</v>
       </c>
       <c r="V25" s="5">
-        <f t="shared" si="28"/>
-        <v>7360.0133827785412</v>
+        <f t="shared" si="29"/>
+        <v>8321.4799027683403</v>
       </c>
       <c r="W25" s="5">
-        <f t="shared" si="28"/>
-        <v>7567.7039703286619</v>
+        <f t="shared" si="29"/>
+        <v>8690.8291511180505</v>
       </c>
       <c r="X25" s="5">
-        <f t="shared" si="28"/>
-        <v>7787.7241017023516</v>
+        <f t="shared" si="29"/>
+        <v>4707.7241017023525</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
@@ -2236,84 +2244,84 @@
         <v>5134</v>
       </c>
       <c r="D26" s="5">
-        <f t="shared" ref="D26:L26" si="29">D24-D25</f>
+        <f t="shared" ref="D26:L26" si="30">D24-D25</f>
         <v>0</v>
       </c>
       <c r="E26" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="F26" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="G26" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>5127</v>
       </c>
       <c r="H26" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="I26" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="J26" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="L26" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>21624</v>
       </c>
       <c r="M26" s="5">
-        <f t="shared" ref="M26" si="30">M24-M25</f>
+        <f t="shared" ref="M26" si="31">M24-M25</f>
         <v>20618</v>
       </c>
       <c r="N26" s="5">
-        <f t="shared" ref="N26" si="31">N24-N25</f>
+        <f t="shared" ref="N26" si="32">N24-N25</f>
         <v>22502</v>
       </c>
       <c r="O26" s="5">
-        <f t="shared" ref="O26:X26" si="32">O24-O25</f>
+        <f t="shared" ref="O26:X26" si="33">O24-O25</f>
         <v>22272.182400000002</v>
       </c>
       <c r="P26" s="5">
-        <f t="shared" si="32"/>
-        <v>22997.992758000004</v>
+        <f t="shared" si="33"/>
+        <v>23402.279862000003</v>
       </c>
       <c r="Q26" s="5">
-        <f t="shared" si="32"/>
-        <v>23251.05176862</v>
+        <f t="shared" si="33"/>
+        <v>24108.310356779999</v>
       </c>
       <c r="R26" s="5">
-        <f t="shared" si="32"/>
-        <v>23533.849336272604</v>
+        <f t="shared" si="33"/>
+        <v>24862.198267959007</v>
       </c>
       <c r="S26" s="5">
-        <f t="shared" si="32"/>
-        <v>24121.128958679456</v>
+        <f t="shared" si="33"/>
+        <v>25939.411847633313</v>
       </c>
       <c r="T26" s="5">
-        <f t="shared" si="32"/>
-        <v>24742.164871246761</v>
+        <f t="shared" si="33"/>
+        <v>27069.979075758773</v>
       </c>
       <c r="U26" s="5">
-        <f t="shared" si="32"/>
-        <v>25399.188015799988</v>
+        <f t="shared" si="33"/>
+        <v>28256.914788492479</v>
       </c>
       <c r="V26" s="5">
-        <f t="shared" si="32"/>
-        <v>26094.592902578472</v>
+        <f t="shared" si="33"/>
+        <v>29503.428746178666</v>
       </c>
       <c r="W26" s="5">
-        <f t="shared" si="32"/>
-        <v>26830.950440256169</v>
+        <f t="shared" si="33"/>
+        <v>30812.939717600369</v>
       </c>
       <c r="X26" s="5">
-        <f t="shared" si="32"/>
-        <v>27611.021815126525</v>
+        <f t="shared" si="33"/>
+        <v>16691.021815126525</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.2">
@@ -2385,84 +2393,84 @@
         <v>7936</v>
       </c>
       <c r="D30" s="5">
-        <f t="shared" ref="D30:L30" si="33">SUM(D27:D29)</f>
+        <f t="shared" ref="D30:L30" si="34">SUM(D27:D29)</f>
         <v>0</v>
       </c>
       <c r="E30" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="F30" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="G30" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>2890</v>
       </c>
       <c r="H30" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="I30" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J30" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="L30" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>11594</v>
       </c>
       <c r="M30" s="5">
-        <f t="shared" ref="M30" si="34">SUM(M27:M29)</f>
+        <f t="shared" ref="M30" si="35">SUM(M27:M29)</f>
         <v>12963</v>
       </c>
       <c r="N30" s="5">
-        <f t="shared" ref="N30" si="35">SUM(N27:N29)</f>
+        <f t="shared" ref="N30" si="36">SUM(N27:N29)</f>
         <v>16661</v>
       </c>
       <c r="O30" s="5">
-        <f t="shared" ref="O30:X30" si="36">O24*O45</f>
+        <f t="shared" ref="O30:X30" si="37">O24*O45</f>
         <v>15552.991175432127</v>
       </c>
       <c r="P30" s="5">
-        <f t="shared" si="36"/>
-        <v>15096.245068141883</v>
+        <f t="shared" si="37"/>
+        <v>15361.625497820918</v>
       </c>
       <c r="Q30" s="5">
-        <f t="shared" si="36"/>
-        <v>14346.615573261271</v>
+        <f t="shared" si="37"/>
+        <v>14875.570544141636</v>
       </c>
       <c r="R30" s="5">
-        <f t="shared" si="36"/>
-        <v>13649.843765420188</v>
+        <f t="shared" si="37"/>
+        <v>14420.298064009405</v>
       </c>
       <c r="S30" s="5">
-        <f t="shared" si="36"/>
-        <v>13916.035937699686</v>
+        <f t="shared" si="37"/>
+        <v>14965.045296711527</v>
       </c>
       <c r="T30" s="5">
-        <f t="shared" si="36"/>
-        <v>14274.325887257746</v>
+        <f t="shared" si="37"/>
+        <v>15617.295620630061</v>
       </c>
       <c r="U30" s="5">
-        <f t="shared" si="36"/>
-        <v>14653.377701423069</v>
+        <f t="shared" si="37"/>
+        <v>16302.066224130276</v>
       </c>
       <c r="V30" s="5">
-        <f t="shared" si="36"/>
-        <v>15054.572828410655</v>
+        <f t="shared" si="37"/>
+        <v>17021.208892026152</v>
       </c>
       <c r="W30" s="5">
-        <f t="shared" si="36"/>
-        <v>15479.394484763174</v>
+        <f t="shared" si="37"/>
+        <v>17776.69599092329</v>
       </c>
       <c r="X30" s="5">
-        <f t="shared" si="36"/>
-        <v>15929.435662572994</v>
+        <f t="shared" si="37"/>
+        <v>9629.4356625729943</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.2">
@@ -2474,84 +2482,84 @@
         <v>-2802</v>
       </c>
       <c r="D31" s="5">
-        <f t="shared" ref="D31:L31" si="37">D26-D30</f>
+        <f t="shared" ref="D31:L31" si="38">D26-D30</f>
         <v>0</v>
       </c>
       <c r="E31" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="F31" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="G31" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>2237</v>
       </c>
       <c r="H31" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="I31" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="J31" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="L31" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>10030</v>
       </c>
       <c r="M31" s="5">
-        <f t="shared" ref="M31" si="38">M26-M30</f>
+        <f t="shared" ref="M31" si="39">M26-M30</f>
         <v>7655</v>
       </c>
       <c r="N31" s="5">
-        <f t="shared" ref="N31" si="39">N26-N30</f>
+        <f t="shared" ref="N31" si="40">N26-N30</f>
         <v>5841</v>
       </c>
       <c r="O31" s="5">
-        <f t="shared" ref="O31" si="40">O26-O30</f>
+        <f t="shared" ref="O31" si="41">O26-O30</f>
         <v>6719.1912245678741</v>
       </c>
       <c r="P31" s="5">
-        <f t="shared" ref="P31" si="41">P26-P30</f>
-        <v>7901.7476898581208</v>
+        <f t="shared" ref="P31" si="42">P26-P30</f>
+        <v>8040.654364179085</v>
       </c>
       <c r="Q31" s="5">
-        <f t="shared" ref="Q31" si="42">Q26-Q30</f>
-        <v>8904.4361953587286</v>
+        <f t="shared" ref="Q31" si="43">Q26-Q30</f>
+        <v>9232.7398126383632</v>
       </c>
       <c r="R31" s="5">
-        <f t="shared" ref="R31" si="43">R26-R30</f>
-        <v>9884.005570852416</v>
+        <f t="shared" ref="R31" si="44">R26-R30</f>
+        <v>10441.900203949603</v>
       </c>
       <c r="S31" s="5">
-        <f t="shared" ref="S31" si="44">S26-S30</f>
-        <v>10205.09302097977</v>
+        <f t="shared" ref="S31" si="45">S26-S30</f>
+        <v>10974.366550921786</v>
       </c>
       <c r="T31" s="5">
-        <f t="shared" ref="T31" si="45">T26-T30</f>
-        <v>10467.838983989015</v>
+        <f t="shared" ref="T31" si="46">T26-T30</f>
+        <v>11452.683455128712</v>
       </c>
       <c r="U31" s="5">
-        <f t="shared" ref="U31" si="46">U26-U30</f>
-        <v>10745.810314376919</v>
+        <f t="shared" ref="U31" si="47">U26-U30</f>
+        <v>11954.848564362203</v>
       </c>
       <c r="V31" s="5">
-        <f t="shared" ref="V31" si="47">V26-V30</f>
-        <v>11040.020074167816</v>
+        <f t="shared" ref="V31" si="48">V26-V30</f>
+        <v>12482.219854152514</v>
       </c>
       <c r="W31" s="5">
-        <f t="shared" ref="W31" si="48">W26-W30</f>
-        <v>11351.555955492995</v>
+        <f t="shared" ref="W31" si="49">W26-W30</f>
+        <v>13036.243726677079</v>
       </c>
       <c r="X31" s="5">
-        <f t="shared" ref="X31" si="49">X26-X30</f>
-        <v>11681.586152553531</v>
+        <f t="shared" ref="X31" si="50">X26-X30</f>
+        <v>7061.5861525535311</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.2">
@@ -2574,44 +2582,44 @@
         <v>-977</v>
       </c>
       <c r="O32" s="5">
-        <f t="shared" ref="O32:X32" si="50">N47*$AA$89</f>
+        <f t="shared" ref="O32:X32" si="51">N47*$AA$89</f>
         <v>-355.08</v>
       </c>
       <c r="P32" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>-232.88906448829678</v>
       </c>
       <c r="Q32" s="5">
-        <f t="shared" si="50"/>
-        <v>-100.98469613193582</v>
+        <f t="shared" si="51"/>
+        <v>-98.595501333615232</v>
       </c>
       <c r="R32" s="5">
-        <f t="shared" si="50"/>
-        <v>50.434669654765003</v>
+        <f t="shared" si="51"/>
+        <v>58.511780820826445</v>
       </c>
       <c r="S32" s="5">
-        <f t="shared" si="50"/>
-        <v>211.37260155098136</v>
+        <f t="shared" si="51"/>
+        <v>228.61845497410738</v>
       </c>
       <c r="T32" s="5">
-        <f t="shared" si="50"/>
-        <v>380.11934463597953</v>
+        <f t="shared" si="51"/>
+        <v>410.10681206962079</v>
       </c>
       <c r="U32" s="5">
-        <f t="shared" si="50"/>
-        <v>551.51708622825447</v>
+        <f t="shared" si="51"/>
+        <v>597.53889829135449</v>
       </c>
       <c r="V32" s="5">
-        <f t="shared" si="50"/>
-        <v>730.01485915781609</v>
+        <f t="shared" si="51"/>
+        <v>795.86662020128063</v>
       </c>
       <c r="W32" s="5">
-        <f t="shared" si="50"/>
-        <v>915.9814111043612</v>
+        <f t="shared" si="51"/>
+        <v>1005.6603864960706</v>
       </c>
       <c r="X32" s="5">
-        <f t="shared" si="50"/>
-        <v>1109.8085014965993</v>
+        <f t="shared" si="51"/>
+        <v>1227.5224714842063</v>
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.2">
@@ -2623,84 +2631,84 @@
         <v>-3056</v>
       </c>
       <c r="D33" s="5">
-        <f t="shared" ref="D33:L33" si="51">D31+D32</f>
+        <f t="shared" ref="D33:L33" si="52">D31+D32</f>
         <v>0</v>
       </c>
       <c r="E33" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="F33" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="G33" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1977</v>
       </c>
       <c r="H33" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I33" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="J33" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="L33" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>9095</v>
       </c>
       <c r="M33" s="5">
-        <f t="shared" ref="M33" si="52">M31+M32</f>
+        <f t="shared" ref="M33" si="53">M31+M32</f>
         <v>6711</v>
       </c>
       <c r="N33" s="5">
-        <f t="shared" ref="N33" si="53">N31+N32</f>
+        <f t="shared" ref="N33" si="54">N31+N32</f>
         <v>4864</v>
       </c>
       <c r="O33" s="5">
-        <f t="shared" ref="O33" si="54">O31+O32</f>
+        <f t="shared" ref="O33" si="55">O31+O32</f>
         <v>6364.1112245678742</v>
       </c>
       <c r="P33" s="5">
-        <f t="shared" ref="P33" si="55">P31+P32</f>
-        <v>7668.858625369824</v>
+        <f t="shared" ref="P33" si="56">P31+P32</f>
+        <v>7807.7652996907882</v>
       </c>
       <c r="Q33" s="5">
-        <f t="shared" ref="Q33" si="56">Q31+Q32</f>
-        <v>8803.4514992267923</v>
+        <f t="shared" ref="Q33" si="57">Q31+Q32</f>
+        <v>9134.144311304748</v>
       </c>
       <c r="R33" s="5">
-        <f t="shared" ref="R33" si="57">R31+R32</f>
-        <v>9934.4402405071814</v>
+        <f t="shared" ref="R33" si="58">R31+R32</f>
+        <v>10500.41198477043</v>
       </c>
       <c r="S33" s="5">
-        <f t="shared" ref="S33" si="58">S31+S32</f>
-        <v>10416.465622530752</v>
+        <f t="shared" ref="S33" si="59">S31+S32</f>
+        <v>11202.985005895893</v>
       </c>
       <c r="T33" s="5">
-        <f t="shared" ref="T33" si="59">T31+T32</f>
-        <v>10847.958328624994</v>
+        <f t="shared" ref="T33" si="60">T31+T32</f>
+        <v>11862.790267198332</v>
       </c>
       <c r="U33" s="5">
-        <f t="shared" ref="U33" si="60">U31+U32</f>
-        <v>11297.327400605172</v>
+        <f t="shared" ref="U33" si="61">U31+U32</f>
+        <v>12552.387462653556</v>
       </c>
       <c r="V33" s="5">
-        <f t="shared" ref="V33" si="61">V31+V32</f>
-        <v>11770.034933325633</v>
+        <f t="shared" ref="V33" si="62">V31+V32</f>
+        <v>13278.086474353795</v>
       </c>
       <c r="W33" s="5">
-        <f t="shared" ref="W33" si="62">W31+W32</f>
-        <v>12267.537366597357</v>
+        <f t="shared" ref="W33" si="63">W31+W32</f>
+        <v>14041.90411317315</v>
       </c>
       <c r="X33" s="5">
-        <f t="shared" ref="X33" si="63">X31+X32</f>
-        <v>12791.394654050131</v>
+        <f t="shared" ref="X33" si="64">X31+X32</f>
+        <v>8289.1086240377372</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.2">
@@ -2727,40 +2735,40 @@
         <v>254.56444898271496</v>
       </c>
       <c r="P34" s="5">
-        <f t="shared" ref="P34:S34" si="64">P33*P41</f>
-        <v>1073.6402075517756</v>
+        <f t="shared" ref="P34:S34" si="65">P33*P41</f>
+        <v>1093.0871419567104</v>
       </c>
       <c r="Q34" s="5">
-        <f t="shared" si="64"/>
-        <v>1232.4832098917511</v>
+        <f t="shared" si="65"/>
+        <v>1278.7802035826649</v>
       </c>
       <c r="R34" s="5">
-        <f t="shared" si="64"/>
-        <v>1887.5436456963646</v>
+        <f t="shared" si="65"/>
+        <v>1995.0782771063816</v>
       </c>
       <c r="S34" s="5">
-        <f t="shared" si="64"/>
-        <v>1979.1284682808428</v>
+        <f t="shared" si="65"/>
+        <v>2128.5671511202195</v>
       </c>
       <c r="T34" s="5">
-        <f t="shared" ref="T34" si="65">T33*T41</f>
-        <v>2278.0712490112487</v>
+        <f t="shared" ref="T34" si="66">T33*T41</f>
+        <v>2491.1859561116498</v>
       </c>
       <c r="U34" s="5">
-        <f t="shared" ref="U34" si="66">U33*U41</f>
-        <v>2372.4387541270862</v>
+        <f t="shared" ref="U34" si="67">U33*U41</f>
+        <v>2636.0013671572469</v>
       </c>
       <c r="V34" s="5">
-        <f t="shared" ref="V34" si="67">V33*V41</f>
-        <v>2471.7073359983829</v>
+        <f t="shared" ref="V34" si="68">V33*V41</f>
+        <v>2788.3981596142967</v>
       </c>
       <c r="W34" s="5">
-        <f t="shared" ref="W34" si="68">W33*W41</f>
-        <v>2576.1828469854449</v>
+        <f t="shared" ref="W34" si="69">W33*W41</f>
+        <v>2948.7998637663613</v>
       </c>
       <c r="X34" s="5">
-        <f t="shared" ref="X34" si="69">X33*X41</f>
-        <v>2686.1928773505274</v>
+        <f t="shared" ref="X34" si="70">X33*X41</f>
+        <v>1740.7128110479248</v>
       </c>
     </row>
     <row r="35" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2773,84 +2781,84 @@
         <v>-2741</v>
       </c>
       <c r="D35" s="7">
-        <f t="shared" ref="D35:L35" si="70">D33-D34</f>
+        <f t="shared" ref="D35:L35" si="71">D33-D34</f>
         <v>0</v>
       </c>
       <c r="E35" s="7">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="F35" s="7">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="G35" s="7">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>1643</v>
       </c>
       <c r="H35" s="7">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="I35" s="7">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="J35" s="7">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="L35" s="7">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>7847</v>
       </c>
       <c r="M35" s="7">
-        <f t="shared" ref="M35" si="71">M33-M34</f>
+        <f t="shared" ref="M35" si="72">M33-M34</f>
         <v>5464</v>
       </c>
       <c r="N35" s="7">
-        <f t="shared" ref="N35" si="72">N33-N34</f>
+        <f t="shared" ref="N35" si="73">N33-N34</f>
         <v>4653</v>
       </c>
       <c r="O35" s="7">
-        <f t="shared" ref="O35" si="73">O33-O34</f>
+        <f t="shared" ref="O35" si="74">O33-O34</f>
         <v>6109.5467755851596</v>
       </c>
       <c r="P35" s="7">
-        <f t="shared" ref="P35" si="74">P33-P34</f>
-        <v>6595.2184178180487</v>
+        <f t="shared" ref="P35" si="75">P33-P34</f>
+        <v>6714.678157734078</v>
       </c>
       <c r="Q35" s="7">
-        <f t="shared" ref="Q35" si="75">Q33-Q34</f>
-        <v>7570.9682893350409</v>
+        <f t="shared" ref="Q35" si="76">Q33-Q34</f>
+        <v>7855.3641077220836</v>
       </c>
       <c r="R35" s="7">
-        <f t="shared" ref="R35" si="76">R33-R34</f>
-        <v>8046.8965948108171</v>
+        <f t="shared" ref="R35" si="77">R33-R34</f>
+        <v>8505.3337076640473</v>
       </c>
       <c r="S35" s="7">
-        <f t="shared" ref="S35" si="77">S33-S34</f>
-        <v>8437.3371542499081</v>
+        <f t="shared" ref="S35" si="78">S33-S34</f>
+        <v>9074.4178547756728</v>
       </c>
       <c r="T35" s="7">
-        <f t="shared" ref="T35" si="78">T33-T34</f>
-        <v>8569.8870796137453</v>
+        <f t="shared" ref="T35" si="79">T33-T34</f>
+        <v>9371.6043110866813</v>
       </c>
       <c r="U35" s="7">
-        <f t="shared" ref="U35" si="79">U33-U34</f>
-        <v>8924.8886464780862</v>
+        <f t="shared" ref="U35" si="80">U33-U34</f>
+        <v>9916.3860954963093</v>
       </c>
       <c r="V35" s="7">
-        <f t="shared" ref="V35" si="80">V33-V34</f>
-        <v>9298.3275973272503</v>
+        <f t="shared" ref="V35" si="81">V33-V34</f>
+        <v>10489.688314739498</v>
       </c>
       <c r="W35" s="7">
-        <f t="shared" ref="W35" si="81">W33-W34</f>
-        <v>9691.3545196119121</v>
+        <f t="shared" ref="W35" si="82">W33-W34</f>
+        <v>11093.104249406788</v>
       </c>
       <c r="X35" s="7">
-        <f t="shared" ref="X35" si="82">X33-X34</f>
-        <v>10105.201776699603</v>
+        <f t="shared" ref="X35" si="83">X33-X34</f>
+        <v>6548.3958129898128</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.2">
@@ -2862,84 +2870,84 @@
         <v>-2.1980753809141942</v>
       </c>
       <c r="D36" s="11" t="e">
-        <f t="shared" ref="D36:L36" si="83">D35/D37</f>
+        <f t="shared" ref="D36:L36" si="84">D35/D37</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E36" s="11" t="e">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F36" s="11" t="e">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G36" s="11">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>1.3050039714058776</v>
       </c>
       <c r="H36" s="11" t="e">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I36" s="11" t="e">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J36" s="11" t="e">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L36" s="11">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>6.2179080824088748</v>
       </c>
       <c r="M36" s="11">
-        <f t="shared" ref="M36" si="84">M35/M37</f>
+        <f t="shared" ref="M36" si="85">M35/M37</f>
         <v>4.3434022257551668</v>
       </c>
       <c r="N36" s="11">
-        <f t="shared" ref="N36" si="85">N35/N37</f>
+        <f t="shared" ref="N36" si="86">N35/N37</f>
         <v>3.7075697211155378</v>
       </c>
       <c r="O36" s="11">
-        <f t="shared" ref="O36" si="86">O35/O37</f>
+        <f t="shared" ref="O36" si="87">O35/O37</f>
         <v>4.8681647614224381</v>
       </c>
       <c r="P36" s="11">
-        <f t="shared" ref="P36" si="87">P35/P37</f>
-        <v>5.2551541177833059</v>
+        <f t="shared" ref="P36" si="88">P35/P37</f>
+        <v>5.3503411615410981</v>
       </c>
       <c r="Q36" s="11">
-        <f t="shared" ref="Q36" si="88">Q35/Q37</f>
-        <v>6.0326440552470446</v>
+        <f t="shared" ref="Q36" si="89">Q35/Q37</f>
+        <v>6.2592542691012616</v>
       </c>
       <c r="R36" s="11">
-        <f t="shared" ref="R36" si="89">R35/R37</f>
-        <v>6.411869796662006</v>
+        <f t="shared" ref="R36" si="90">R35/R37</f>
+        <v>6.7771583328000373</v>
       </c>
       <c r="S36" s="11">
-        <f t="shared" ref="S36" si="90">S35/S37</f>
-        <v>6.7229778121513215</v>
+        <f t="shared" ref="S36" si="91">S35/S37</f>
+        <v>7.2306118364746395</v>
       </c>
       <c r="T36" s="11">
-        <f t="shared" ref="T36" si="91">T35/T37</f>
-        <v>6.8285952825607534</v>
+        <f t="shared" ref="T36" si="92">T35/T37</f>
+        <v>7.4674137936945666</v>
       </c>
       <c r="U36" s="11">
-        <f t="shared" ref="U36" si="92">U35/U37</f>
-        <v>7.1114650569546507</v>
+        <f t="shared" ref="U36" si="93">U35/U37</f>
+        <v>7.9015028649372985</v>
       </c>
       <c r="V36" s="11">
-        <f t="shared" ref="V36" si="93">V35/V37</f>
-        <v>7.4090259739659361</v>
+        <f t="shared" ref="V36" si="94">V35/V37</f>
+        <v>8.3583173822625483</v>
       </c>
       <c r="W36" s="11">
-        <f t="shared" ref="W36" si="94">W35/W37</f>
-        <v>7.722194836344153</v>
+        <f t="shared" ref="W36" si="95">W35/W37</f>
+        <v>8.8391268919575996</v>
       </c>
       <c r="X36" s="11">
-        <f t="shared" ref="X36" si="95">X35/X37</f>
-        <v>8.0519536069319546</v>
+        <f t="shared" ref="X36" si="96">X35/X37</f>
+        <v>5.2178452693145916</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.2">
@@ -3002,68 +3010,68 @@
         <v>-5.1150895140664732E-3</v>
       </c>
       <c r="H39" s="8" t="e">
-        <f t="shared" ref="H39:J39" si="96">H22/D22-1</f>
+        <f t="shared" ref="H39:J39" si="97">H22/D22-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I39" s="8" t="e">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J39" s="8" t="e">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L39" s="8" t="e">
-        <f t="shared" ref="L39:X39" si="97">L24/K24-1</f>
+        <f t="shared" ref="L39:X39" si="98">L24/K24-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M39" s="8">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>-6.0481653898317722E-3</v>
       </c>
       <c r="N39" s="8">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>6.037026110045729E-2</v>
       </c>
       <c r="O39" s="8">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>-6.9182346189962107E-3</v>
       </c>
       <c r="P39" s="8">
-        <f t="shared" si="97"/>
-        <v>3.2588201055681054E-2</v>
+        <f t="shared" si="98"/>
+        <v>5.0740311016849615E-2</v>
       </c>
       <c r="Q39" s="8">
-        <f t="shared" si="97"/>
-        <v>1.100352597215104E-2</v>
+        <f t="shared" si="98"/>
+        <v>3.0169303971380623E-2</v>
       </c>
       <c r="R39" s="8">
-        <f t="shared" si="97"/>
-        <v>1.2162786030792461E-2</v>
+        <f t="shared" si="98"/>
+        <v>3.1270872990358134E-2</v>
       </c>
       <c r="S39" s="8">
-        <f t="shared" si="97"/>
-        <v>2.4954677580164564E-2</v>
+        <f t="shared" si="98"/>
+        <v>4.3327366633648001E-2</v>
       </c>
       <c r="T39" s="8">
-        <f t="shared" si="97"/>
-        <v>2.5746552478168372E-2</v>
+        <f t="shared" si="98"/>
+        <v>4.3584921461070403E-2</v>
       </c>
       <c r="U39" s="8">
-        <f t="shared" si="97"/>
-        <v>2.6554796153539506E-2</v>
+        <f t="shared" si="98"/>
+        <v>4.3846938684803494E-2</v>
       </c>
       <c r="V39" s="8">
-        <f t="shared" si="97"/>
-        <v>2.7379020398049514E-2</v>
+        <f t="shared" si="98"/>
+        <v>4.4113590143033843E-2</v>
       </c>
       <c r="W39" s="8">
-        <f t="shared" si="97"/>
-        <v>2.8218778519627286E-2</v>
+        <f t="shared" si="98"/>
+        <v>4.4385043605866148E-2</v>
       </c>
       <c r="X39" s="8">
-        <f t="shared" si="97"/>
-        <v>2.9073564747820635E-2</v>
+        <f t="shared" si="98"/>
+        <v>-0.45831128194520809</v>
       </c>
     </row>
     <row r="40" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3076,27 +3084,27 @@
         <v>-1</v>
       </c>
       <c r="E40" s="8" t="e">
-        <f t="shared" ref="E40:J40" si="98">E24/D24-1</f>
+        <f t="shared" ref="E40:J40" si="99">E24/D24-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F40" s="8" t="e">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G40" s="8" t="e">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H40" s="8">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>-1</v>
       </c>
       <c r="I40" s="8" t="e">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J40" s="8" t="e">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L40" s="8"/>
@@ -3121,43 +3129,43 @@
         <v>0.10307591623036649</v>
       </c>
       <c r="D41" s="9" t="e">
-        <f t="shared" ref="D41:J41" si="99">D34/D33</f>
+        <f t="shared" ref="D41:J41" si="100">D34/D33</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E41" s="9" t="e">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F41" s="9" t="e">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G41" s="9">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>0.16894284269094587</v>
       </c>
       <c r="H41" s="9" t="e">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I41" s="9" t="e">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J41" s="9" t="e">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L41" s="9">
-        <f t="shared" ref="L41:N41" si="100">L34/L33</f>
+        <f t="shared" ref="L41:N41" si="101">L34/L33</f>
         <v>0.137218251786696</v>
       </c>
       <c r="M41" s="9">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>0.18581433467441513</v>
       </c>
       <c r="N41" s="9">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>4.3379934210526314E-2</v>
       </c>
       <c r="O41" s="9">
@@ -3200,43 +3208,43 @@
         <v>0.76787316781334136</v>
       </c>
       <c r="D43" s="9" t="e">
-        <f t="shared" ref="D43:J43" si="101">D26/D24</f>
+        <f t="shared" ref="D43:J43" si="102">D26/D24</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E43" s="9" t="e">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F43" s="9" t="e">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G43" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>0.76901154942252892</v>
       </c>
       <c r="H43" s="9" t="e">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I43" s="9" t="e">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J43" s="9" t="e">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L43" s="9">
-        <f t="shared" ref="L43:N43" si="102">L26/L24</f>
+        <f t="shared" ref="L43:N43" si="103">L26/L24</f>
         <v>0.79263956599831387</v>
       </c>
       <c r="M43" s="9">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>0.76036288538132468</v>
       </c>
       <c r="N43" s="9">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>0.78259659861579656</v>
       </c>
       <c r="O43" s="9">
@@ -3279,83 +3287,83 @@
         <v>-0.41908465450194438</v>
       </c>
       <c r="D44" s="9" t="e">
-        <f t="shared" ref="D44:J44" si="103">D31/D24</f>
+        <f t="shared" ref="D44:J44" si="104">D31/D24</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E44" s="9" t="e">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F44" s="9" t="e">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G44" s="9">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>0.33553322333883306</v>
       </c>
       <c r="H44" s="9" t="e">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I44" s="9" t="e">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J44" s="9" t="e">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L44" s="9">
-        <f t="shared" ref="L44:N44" si="104">L31/L24</f>
+        <f t="shared" ref="L44:N44" si="105">L31/L24</f>
         <v>0.36765514460613613</v>
       </c>
       <c r="M44" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>0.2823056498008556</v>
       </c>
       <c r="N44" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>0.20314401975446039</v>
       </c>
       <c r="O44" s="9">
-        <f t="shared" ref="O44:X44" si="105">O31/O24</f>
+        <f t="shared" ref="O44:X44" si="106">O31/O24</f>
         <v>0.23531457587034404</v>
       </c>
       <c r="P44" s="9">
-        <f t="shared" si="105"/>
-        <v>0.26799570131812339</v>
+        <f t="shared" si="106"/>
+        <v>0.26799570131812334</v>
       </c>
       <c r="Q44" s="9">
-        <f t="shared" si="105"/>
-        <v>0.29871595923903604</v>
+        <f t="shared" si="106"/>
+        <v>0.29871595923903599</v>
       </c>
       <c r="R44" s="9">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>0.32759300168469396</v>
       </c>
       <c r="S44" s="9">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>0.33</v>
       </c>
       <c r="T44" s="9">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>0.33</v>
       </c>
       <c r="U44" s="9">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>0.33</v>
       </c>
       <c r="V44" s="9">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>0.33000000000000007</v>
       </c>
       <c r="W44" s="9">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>0.33</v>
       </c>
       <c r="X44" s="9">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>0.33000000000000007</v>
       </c>
     </row>
@@ -3376,11 +3384,11 @@
         <v>0.42498442139217768</v>
       </c>
       <c r="M45" s="9">
-        <f t="shared" ref="M45:N45" si="106">M30/M24</f>
+        <f t="shared" ref="M45:N45" si="107">M30/M24</f>
         <v>0.47805723558046909</v>
       </c>
       <c r="N45" s="9">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>0.57945257886133616</v>
       </c>
       <c r="O45" s="9">
@@ -3388,15 +3396,15 @@
         <v>0.54468542412965593</v>
       </c>
       <c r="P45" s="9">
-        <f t="shared" ref="P45:R45" si="107">O45*0.94</f>
+        <f t="shared" ref="P45:R45" si="108">O45*0.94</f>
         <v>0.51200429868187658</v>
       </c>
       <c r="Q45" s="9">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>0.48128404076096398</v>
       </c>
       <c r="R45" s="9">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>0.45240699831530612</v>
       </c>
       <c r="S45" s="9">
@@ -3454,44 +3462,44 @@
         <v>-17754</v>
       </c>
       <c r="O47" s="5">
-        <f t="shared" ref="O47:X47" si="108">N47+O35</f>
+        <f t="shared" ref="O47:X47" si="109">N47+O35</f>
         <v>-11644.453224414839</v>
       </c>
       <c r="P47" s="5">
-        <f t="shared" si="108"/>
-        <v>-5049.2348065967908</v>
+        <f t="shared" si="109"/>
+        <v>-4929.7750666807615</v>
       </c>
       <c r="Q47" s="5">
-        <f t="shared" si="108"/>
-        <v>2521.7334827382501</v>
+        <f t="shared" si="109"/>
+        <v>2925.5890410413222</v>
       </c>
       <c r="R47" s="5">
-        <f t="shared" si="108"/>
-        <v>10568.630077549067</v>
+        <f t="shared" si="109"/>
+        <v>11430.922748705369</v>
       </c>
       <c r="S47" s="5">
-        <f t="shared" si="108"/>
-        <v>19005.967231798975</v>
+        <f t="shared" si="109"/>
+        <v>20505.34060348104</v>
       </c>
       <c r="T47" s="5">
-        <f t="shared" si="108"/>
-        <v>27575.854311412721</v>
+        <f t="shared" si="109"/>
+        <v>29876.944914567721</v>
       </c>
       <c r="U47" s="5">
-        <f t="shared" si="108"/>
-        <v>36500.742957890805</v>
+        <f t="shared" si="109"/>
+        <v>39793.33101006403</v>
       </c>
       <c r="V47" s="5">
-        <f t="shared" si="108"/>
-        <v>45799.070555218059</v>
+        <f t="shared" si="109"/>
+        <v>50283.019324803528</v>
       </c>
       <c r="W47" s="5">
-        <f t="shared" si="108"/>
-        <v>55490.425074829967</v>
+        <f t="shared" si="109"/>
+        <v>61376.123574210316</v>
       </c>
       <c r="X47" s="5">
-        <f t="shared" si="108"/>
-        <v>65595.626851529567</v>
+        <f t="shared" si="109"/>
+        <v>67924.519387200125</v>
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.2">
@@ -3811,40 +3819,40 @@
         <v>6109.5467755851596</v>
       </c>
       <c r="P77" s="5">
-        <f t="shared" ref="P77:X77" si="109">P35</f>
-        <v>6595.2184178180487</v>
+        <f t="shared" ref="P77:X77" si="110">P35</f>
+        <v>6714.678157734078</v>
       </c>
       <c r="Q77" s="5">
-        <f t="shared" si="109"/>
-        <v>7570.9682893350409</v>
+        <f t="shared" si="110"/>
+        <v>7855.3641077220836</v>
       </c>
       <c r="R77" s="5">
-        <f t="shared" si="109"/>
-        <v>8046.8965948108171</v>
+        <f t="shared" si="110"/>
+        <v>8505.3337076640473</v>
       </c>
       <c r="S77" s="5">
-        <f t="shared" si="109"/>
-        <v>8437.3371542499081</v>
+        <f t="shared" si="110"/>
+        <v>9074.4178547756728</v>
       </c>
       <c r="T77" s="5">
-        <f t="shared" si="109"/>
-        <v>8569.8870796137453</v>
+        <f t="shared" si="110"/>
+        <v>9371.6043110866813</v>
       </c>
       <c r="U77" s="5">
-        <f t="shared" si="109"/>
-        <v>8924.8886464780862</v>
+        <f t="shared" si="110"/>
+        <v>9916.3860954963093</v>
       </c>
       <c r="V77" s="5">
-        <f t="shared" si="109"/>
-        <v>9298.3275973272503</v>
+        <f t="shared" si="110"/>
+        <v>10489.688314739498</v>
       </c>
       <c r="W77" s="5">
-        <f t="shared" si="109"/>
-        <v>9691.3545196119121</v>
+        <f t="shared" si="110"/>
+        <v>11093.104249406788</v>
       </c>
       <c r="X77" s="5">
-        <f t="shared" si="109"/>
-        <v>10105.201776699603</v>
+        <f t="shared" si="110"/>
+        <v>6548.3958129898128</v>
       </c>
     </row>
     <row r="78" spans="2:24" x14ac:dyDescent="0.2">
@@ -3882,40 +3890,40 @@
         <v>2747.8572448092373</v>
       </c>
       <c r="P79" s="5">
-        <f t="shared" ref="P79:X79" si="110">O79*(1+P39)</f>
-        <v>2837.4049691753903</v>
+        <f t="shared" ref="P79:X79" si="111">O79*(1+P39)</f>
+        <v>2887.2843760407613</v>
       </c>
       <c r="Q79" s="5">
-        <f t="shared" si="110"/>
-        <v>2868.6264284472222</v>
+        <f t="shared" si="111"/>
+        <v>2974.391736033353</v>
       </c>
       <c r="R79" s="5">
-        <f t="shared" si="110"/>
-        <v>2903.5169178987021</v>
+        <f t="shared" si="111"/>
+        <v>3067.4035622344227</v>
       </c>
       <c r="S79" s="5">
-        <f t="shared" si="110"/>
-        <v>2975.9732464334174</v>
+        <f t="shared" si="111"/>
+        <v>3200.3060809887115</v>
       </c>
       <c r="T79" s="5">
-        <f t="shared" si="110"/>
-        <v>3052.5942977963405</v>
+        <f t="shared" si="111"/>
+        <v>3339.7911701799903</v>
       </c>
       <c r="U79" s="5">
-        <f t="shared" si="110"/>
-        <v>3133.6553171137793</v>
+        <f t="shared" si="111"/>
+        <v>3486.2307888389205</v>
       </c>
       <c r="V79" s="5">
-        <f t="shared" si="110"/>
-        <v>3219.451729961494</v>
+        <f t="shared" si="111"/>
+        <v>3640.020945001786</v>
       </c>
       <c r="W79" s="5">
-        <f t="shared" si="110"/>
-        <v>3310.3007252839084</v>
+        <f t="shared" si="111"/>
+        <v>3801.5834333719563</v>
       </c>
       <c r="X79" s="5">
-        <f t="shared" si="110"/>
-        <v>3406.5429677552079</v>
+        <f t="shared" si="111"/>
+        <v>2059.2748566015894</v>
       </c>
     </row>
     <row r="80" spans="2:24" x14ac:dyDescent="0.2">
@@ -3936,39 +3944,39 @@
         <v>901.80000000000007</v>
       </c>
       <c r="P80" s="5">
-        <f t="shared" ref="P80:X80" si="111">O80*1.08</f>
+        <f t="shared" ref="P80:X80" si="112">O80*1.08</f>
         <v>973.94400000000019</v>
       </c>
       <c r="Q80" s="5">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>1051.8595200000002</v>
       </c>
       <c r="R80" s="5">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>1136.0082816000004</v>
       </c>
       <c r="S80" s="5">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>1226.8889441280005</v>
       </c>
       <c r="T80" s="5">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>1325.0400596582406</v>
       </c>
       <c r="U80" s="5">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>1431.0432644308999</v>
       </c>
       <c r="V80" s="5">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>1545.5267255853719</v>
       </c>
       <c r="W80" s="5">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>1669.1688636322017</v>
       </c>
       <c r="X80" s="5">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>1802.7023727227779</v>
       </c>
     </row>
@@ -3990,39 +3998,39 @@
         <v>-1659.6000000000001</v>
       </c>
       <c r="P81" s="5">
-        <f t="shared" ref="P81:X81" si="112">O81*0.9</f>
+        <f t="shared" ref="P81:X81" si="113">O81*0.9</f>
         <v>-1493.64</v>
       </c>
       <c r="Q81" s="5">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>-1344.2760000000001</v>
       </c>
       <c r="R81" s="5">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>-1209.8484000000001</v>
       </c>
       <c r="S81" s="5">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>-1088.86356</v>
       </c>
       <c r="T81" s="5">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>-979.97720400000003</v>
       </c>
       <c r="U81" s="5">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>-881.97948360000009</v>
       </c>
       <c r="V81" s="5">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>-793.78153524000015</v>
       </c>
       <c r="W81" s="5">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>-714.40338171600013</v>
       </c>
       <c r="X81" s="5">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>-642.96304354440008</v>
       </c>
     </row>
@@ -4044,40 +4052,40 @@
         <v>272.10440371439506</v>
       </c>
       <c r="P82" s="5">
-        <f t="shared" ref="P82:X82" si="113">O82*(1+P39)</f>
-        <v>280.97179673077596</v>
+        <f t="shared" ref="P82:X82" si="114">O82*(1+P39)</f>
+        <v>285.91106578791789</v>
       </c>
       <c r="Q82" s="5">
-        <f t="shared" si="113"/>
-        <v>284.063477193545</v>
+        <f t="shared" si="114"/>
+        <v>294.53680364045499</v>
       </c>
       <c r="R82" s="5">
-        <f t="shared" si="113"/>
-        <v>287.51848048581297</v>
+        <f t="shared" si="114"/>
+        <v>303.7472266180817</v>
       </c>
       <c r="S82" s="5">
-        <f t="shared" si="113"/>
-        <v>294.69341146467525</v>
+        <f t="shared" si="114"/>
+        <v>316.90779406971711</v>
       </c>
       <c r="T82" s="5">
-        <f t="shared" si="113"/>
-        <v>302.28075084792096</v>
+        <f t="shared" si="114"/>
+        <v>330.72019538464679</v>
       </c>
       <c r="U82" s="5">
-        <f t="shared" si="113"/>
-        <v>310.30775456782635</v>
+        <f t="shared" si="114"/>
+        <v>345.22126351350363</v>
       </c>
       <c r="V82" s="5">
-        <f t="shared" si="113"/>
-        <v>318.80367690981183</v>
+        <f t="shared" si="114"/>
+        <v>360.4502128407986</v>
       </c>
       <c r="W82" s="5">
-        <f t="shared" si="113"/>
-        <v>327.79992725977263</v>
+        <f t="shared" si="114"/>
+        <v>376.44881125548119</v>
       </c>
       <c r="X82" s="5">
-        <f t="shared" si="113"/>
-        <v>337.33023966929051</v>
+        <f t="shared" si="114"/>
+        <v>203.91807398223193</v>
       </c>
     </row>
     <row r="83" spans="1:27" x14ac:dyDescent="0.2">
@@ -4098,39 +4106,39 @@
       </c>
       <c r="P83" s="5">
         <f>O83*(1+P39)</f>
-        <v>2581.4705026392026</v>
+        <v>2626.850777542124</v>
       </c>
       <c r="Q83" s="5">
-        <f t="shared" ref="Q83:X83" si="114">P83*(1+Q39)</f>
-        <v>2609.8757803613348</v>
+        <f t="shared" ref="Q83:X83" si="115">P83*(1+Q39)</f>
+        <v>2706.1010371372499</v>
       </c>
       <c r="R83" s="5">
-        <f t="shared" si="114"/>
-        <v>2641.6191410448173</v>
+        <f t="shared" si="115"/>
+        <v>2790.7231789686452</v>
       </c>
       <c r="S83" s="5">
-        <f t="shared" si="114"/>
-        <v>2707.5398949991818</v>
+        <f t="shared" si="115"/>
+        <v>2911.6378653168395</v>
       </c>
       <c r="T83" s="5">
-        <f t="shared" si="114"/>
-        <v>2777.2497129925127</v>
+        <f t="shared" si="115"/>
+        <v>3038.5413729997526</v>
       </c>
       <c r="U83" s="5">
-        <f t="shared" si="114"/>
-        <v>2850.999012988505</v>
+        <f t="shared" si="115"/>
+        <v>3171.7721102729115</v>
       </c>
       <c r="V83" s="5">
-        <f t="shared" si="114"/>
-        <v>2929.0565731199363</v>
+        <f t="shared" si="115"/>
+        <v>3311.6903651725961</v>
       </c>
       <c r="W83" s="5">
-        <f t="shared" si="114"/>
-        <v>3011.7109718282663</v>
+        <f t="shared" si="115"/>
+        <v>3458.6798864399084</v>
       </c>
       <c r="X83" s="5">
-        <f t="shared" si="114"/>
-        <v>3099.2721457694374</v>
+        <f t="shared" si="115"/>
+        <v>1873.5278738475272</v>
       </c>
     </row>
     <row r="84" spans="1:27" x14ac:dyDescent="0.2">
@@ -4151,39 +4159,39 @@
       </c>
       <c r="P84" s="5">
         <f>O84*(1+P39)</f>
-        <v>1239.1058412668172</v>
+        <v>1260.8883732202196</v>
       </c>
       <c r="Q84" s="5">
-        <f t="shared" ref="Q84:X84" si="115">P84*(1+Q39)</f>
-        <v>1252.7403745734407</v>
+        <f t="shared" ref="Q84:X84" si="116">P84*(1+Q39)</f>
+        <v>1298.92849782588</v>
       </c>
       <c r="R84" s="5">
-        <f t="shared" si="115"/>
-        <v>1267.9771877015123</v>
+        <f t="shared" si="116"/>
+        <v>1339.5471259049498</v>
       </c>
       <c r="S84" s="5">
-        <f t="shared" si="115"/>
-        <v>1299.6191495996075</v>
+        <f t="shared" si="116"/>
+        <v>1397.586175352083</v>
       </c>
       <c r="T84" s="5">
-        <f t="shared" si="115"/>
-        <v>1333.0798622364064</v>
+        <f t="shared" si="116"/>
+        <v>1458.4998590398814</v>
       </c>
       <c r="U84" s="5">
-        <f t="shared" si="115"/>
-        <v>1368.4795262344826</v>
+        <f t="shared" si="116"/>
+        <v>1522.4506129309975</v>
       </c>
       <c r="V84" s="5">
-        <f t="shared" si="115"/>
-        <v>1405.9471550975695</v>
+        <f t="shared" si="116"/>
+        <v>1589.6113752828462</v>
       </c>
       <c r="W84" s="5">
-        <f t="shared" si="115"/>
-        <v>1445.6212664775678</v>
+        <f t="shared" si="116"/>
+        <v>1660.1663454911561</v>
       </c>
       <c r="X84" s="5">
-        <f t="shared" si="115"/>
-        <v>1487.6506299693299</v>
+        <f t="shared" si="116"/>
+        <v>899.29337944681311</v>
       </c>
     </row>
     <row r="85" spans="1:27" x14ac:dyDescent="0.2">
@@ -4204,40 +4212,40 @@
         <v>350.55786317949435</v>
       </c>
       <c r="P85" s="5">
-        <f t="shared" ref="P85:X85" si="116">O85*(1+P39)</f>
-        <v>361.98191330643766</v>
+        <f t="shared" ref="P85:X85" si="117">O85*(1+P39)</f>
+        <v>368.34527818662411</v>
       </c>
       <c r="Q85" s="5">
-        <f t="shared" si="116"/>
-        <v>365.96499069095398</v>
+        <f t="shared" si="117"/>
+        <v>379.45799885065912</v>
       </c>
       <c r="R85" s="5">
-        <f t="shared" si="116"/>
-        <v>370.41614456748903</v>
+        <f t="shared" si="117"/>
+        <v>391.32398173789358</v>
       </c>
       <c r="S85" s="5">
-        <f t="shared" si="116"/>
-        <v>379.65976002565833</v>
+        <f t="shared" si="117"/>
+        <v>408.27901936719024</v>
       </c>
       <c r="T85" s="5">
-        <f t="shared" si="116"/>
-        <v>389.43468996100773</v>
+        <f t="shared" si="117"/>
+        <v>426.0738283605121</v>
       </c>
       <c r="U85" s="5">
-        <f t="shared" si="116"/>
-        <v>399.77604876803917</v>
+        <f t="shared" si="117"/>
+        <v>444.75586138783495</v>
       </c>
       <c r="V85" s="5">
-        <f t="shared" si="116"/>
-        <v>410.72152536191095</v>
+        <f t="shared" si="117"/>
+        <v>464.3756391708099</v>
       </c>
       <c r="W85" s="5">
-        <f t="shared" si="116"/>
-        <v>422.31158511934217</v>
+        <f t="shared" si="117"/>
+        <v>484.98697216490825</v>
       </c>
       <c r="X85" s="5">
-        <f t="shared" si="116"/>
-        <v>434.58968833306415</v>
+        <f t="shared" si="117"/>
+        <v>262.71197122528417</v>
       </c>
     </row>
     <row r="86" spans="1:27" x14ac:dyDescent="0.2">
@@ -4258,40 +4266,40 @@
         <v>138.03836538795952</v>
       </c>
       <c r="P86" s="5">
-        <f t="shared" ref="P86:X86" si="117">O86*(1+P39)</f>
-        <v>142.53678739261991</v>
+        <f t="shared" ref="P86:X86" si="118">O86*(1+P39)</f>
+        <v>145.04247498000211</v>
       </c>
       <c r="Q86" s="5">
-        <f t="shared" si="117"/>
-        <v>144.10519463468157</v>
+        <f t="shared" si="118"/>
+        <v>149.41830549643515</v>
       </c>
       <c r="R86" s="5">
-        <f t="shared" si="117"/>
-        <v>145.85791528294891</v>
+        <f t="shared" si="118"/>
+        <v>154.0907463500487</v>
       </c>
       <c r="S86" s="5">
-        <f t="shared" si="117"/>
-        <v>149.49775253134985</v>
+        <f t="shared" si="118"/>
+        <v>160.76709261200972</v>
       </c>
       <c r="T86" s="5">
-        <f t="shared" si="117"/>
-        <v>153.34680426226646</v>
+        <f t="shared" si="118"/>
+        <v>167.7741137170288</v>
       </c>
       <c r="U86" s="5">
-        <f t="shared" si="117"/>
-        <v>157.41889739024768</v>
+        <f t="shared" si="118"/>
+        <v>175.1304949940766</v>
       </c>
       <c r="V86" s="5">
-        <f t="shared" si="117"/>
-        <v>161.72887259293373</v>
+        <f t="shared" si="118"/>
+        <v>182.85612987179192</v>
       </c>
       <c r="W86" s="5">
-        <f t="shared" si="117"/>
-        <v>166.29266382886274</v>
+        <f t="shared" si="118"/>
+        <v>190.97220716975133</v>
       </c>
       <c r="X86" s="5">
-        <f t="shared" si="117"/>
-        <v>171.12738435777877</v>
+        <f t="shared" si="118"/>
+        <v>103.44749008587674</v>
       </c>
     </row>
     <row r="87" spans="1:27" x14ac:dyDescent="0.2">
@@ -4312,40 +4320,40 @@
         <v>-423.05283205230762</v>
       </c>
       <c r="P87" s="5">
-        <f t="shared" ref="P87:X87" si="118">O87*(1+P39)</f>
-        <v>-436.83936280040348</v>
+        <f t="shared" ref="P87:X87" si="119">O87*(1+P39)</f>
+        <v>-444.51866432720078</v>
       </c>
       <c r="Q87" s="5">
-        <f t="shared" si="118"/>
-        <v>-441.64613607463565</v>
+        <f t="shared" si="119"/>
+        <v>-457.92948303224023</v>
       </c>
       <c r="R87" s="5">
-        <f t="shared" si="118"/>
-        <v>-447.01778352903767</v>
+        <f t="shared" si="119"/>
+        <v>-472.24933773468177</v>
       </c>
       <c r="S87" s="5">
-        <f t="shared" si="118"/>
-        <v>-458.1729681896046</v>
+        <f t="shared" si="119"/>
+        <v>-492.7106579332098</v>
       </c>
       <c r="T87" s="5">
-        <f t="shared" si="118"/>
-        <v>-469.96934255917643</v>
+        <f t="shared" si="119"/>
+        <v>-514.18541326226102</v>
       </c>
       <c r="U87" s="5">
-        <f t="shared" si="118"/>
-        <v>-482.44928264924835</v>
+        <f t="shared" si="119"/>
+        <v>-536.73086955019176</v>
       </c>
       <c r="V87" s="5">
-        <f t="shared" si="118"/>
-        <v>-495.65827139992649</v>
+        <f t="shared" si="119"/>
+        <v>-560.40799514664309</v>
       </c>
       <c r="W87" s="5">
-        <f t="shared" si="118"/>
-        <v>-509.64514238198234</v>
+        <f t="shared" si="119"/>
+        <v>-585.28172844830283</v>
       </c>
       <c r="X87" s="5">
-        <f t="shared" si="118"/>
-        <v>-524.46234342743719</v>
+        <f t="shared" si="119"/>
+        <v>-317.04050918405397</v>
       </c>
     </row>
     <row r="88" spans="1:27" x14ac:dyDescent="0.2">
@@ -4366,40 +4374,40 @@
         <v>-257.20817723367998</v>
       </c>
       <c r="P88" s="5">
-        <f t="shared" ref="P88:X88" si="119">O88*(1+P39)</f>
-        <v>-265.59012902653637</v>
+        <f t="shared" ref="P88:X88" si="120">O88*(1+P39)</f>
+        <v>-270.25900014259389</v>
       </c>
       <c r="Q88" s="5">
-        <f t="shared" si="119"/>
-        <v>-268.51255690922682</v>
+        <f t="shared" si="120"/>
+        <v>-278.41252606889719</v>
       </c>
       <c r="R88" s="5">
-        <f t="shared" si="119"/>
-        <v>-271.77841768549473</v>
+        <f t="shared" si="120"/>
+        <v>-287.11872881052244</v>
       </c>
       <c r="S88" s="5">
-        <f t="shared" si="119"/>
-        <v>-278.56056047208352</v>
+        <f t="shared" si="120"/>
+        <v>-299.55882724108289</v>
       </c>
       <c r="T88" s="5">
-        <f t="shared" si="119"/>
-        <v>-285.73253456062599</v>
+        <f t="shared" si="120"/>
+        <v>-312.61507519935583</v>
       </c>
       <c r="U88" s="5">
-        <f t="shared" si="119"/>
-        <v>-293.32010377031759</v>
+        <f t="shared" si="120"/>
+        <v>-326.32228923356723</v>
       </c>
       <c r="V88" s="5">
-        <f t="shared" si="119"/>
-        <v>-301.3509208746031</v>
+        <f t="shared" si="120"/>
+        <v>-340.71753695535335</v>
       </c>
       <c r="W88" s="5">
-        <f t="shared" si="119"/>
-        <v>-309.85467576744924</v>
+        <f t="shared" si="120"/>
+        <v>-355.8402996904</v>
       </c>
       <c r="X88" s="5">
-        <f t="shared" si="119"/>
-        <v>-318.86325574578916</v>
+        <f t="shared" si="120"/>
+        <v>-192.75467577152574</v>
       </c>
     </row>
     <row r="89" spans="1:27" x14ac:dyDescent="0.2">
@@ -4420,40 +4428,40 @@
         <v>287.99371196049111</v>
       </c>
       <c r="P89" s="5">
-        <f t="shared" ref="P89:X89" si="120">O89*(1+P39)</f>
-        <v>297.37890894863148</v>
+        <f t="shared" ref="P89:X89" si="121">O89*(1+P39)</f>
+        <v>302.60660247626345</v>
       </c>
       <c r="Q89" s="5">
-        <f t="shared" si="120"/>
-        <v>300.65112549681766</v>
+        <f t="shared" si="121"/>
+        <v>311.73603305011659</v>
       </c>
       <c r="R89" s="5">
-        <f t="shared" si="120"/>
-        <v>304.30788080615235</v>
+        <f t="shared" si="121"/>
+        <v>321.48429094614488</v>
       </c>
       <c r="S89" s="5">
-        <f t="shared" si="120"/>
-        <v>311.90178585677302</v>
+        <f t="shared" si="121"/>
+        <v>335.41335868692687</v>
       </c>
       <c r="T89" s="5">
-        <f t="shared" si="120"/>
-        <v>319.93218155436887</v>
+        <f t="shared" si="121"/>
+        <v>350.03232358229042</v>
       </c>
       <c r="U89" s="5">
-        <f t="shared" si="120"/>
-        <v>328.42791541850232</v>
+        <f t="shared" si="121"/>
+        <v>365.38016941210242</v>
       </c>
       <c r="V89" s="5">
-        <f t="shared" si="120"/>
-        <v>337.41995001403438</v>
+        <f t="shared" si="121"/>
+        <v>381.4984004519402</v>
       </c>
       <c r="W89" s="5">
-        <f t="shared" si="120"/>
-        <v>346.94152885158411</v>
+        <f t="shared" si="121"/>
+        <v>398.43122359156774</v>
       </c>
       <c r="X89" s="5">
-        <f t="shared" si="120"/>
-        <v>357.02835585435849</v>
+        <f t="shared" si="121"/>
+        <v>215.8256987403185</v>
       </c>
       <c r="Z89" s="5" t="s">
         <v>51</v>
@@ -4480,40 +4488,40 @@
         <v>-726.93585225889478</v>
       </c>
       <c r="P90" s="5">
-        <f t="shared" ref="P90:X90" si="121">O90*(1+P39)</f>
-        <v>-750.62538396689047</v>
+        <f t="shared" ref="P90:X90" si="122">O90*(1+P39)</f>
+        <v>-763.82080349180978</v>
       </c>
       <c r="Q90" s="5">
-        <f t="shared" si="121"/>
-        <v>-758.88490987472596</v>
+        <f t="shared" si="122"/>
+        <v>-786.86474549201841</v>
       </c>
       <c r="R90" s="5">
-        <f t="shared" si="121"/>
-        <v>-768.11506465552952</v>
+        <f t="shared" si="122"/>
+        <v>-811.47069300888984</v>
       </c>
       <c r="S90" s="5">
-        <f t="shared" si="121"/>
-        <v>-787.2831284384755</v>
+        <f t="shared" si="122"/>
+        <v>-846.62958123734643</v>
       </c>
       <c r="T90" s="5">
-        <f t="shared" si="121"/>
-        <v>-807.55295481999326</v>
+        <f t="shared" si="122"/>
+        <v>-883.52986504219507</v>
       </c>
       <c r="U90" s="5">
-        <f t="shared" si="121"/>
-        <v>-828.9973589184267</v>
+        <f t="shared" si="122"/>
+        <v>-922.26994486089291</v>
       </c>
       <c r="V90" s="5">
-        <f t="shared" si="121"/>
-        <v>-851.69449451818343</v>
+        <f t="shared" si="122"/>
+        <v>-962.95458320972477</v>
       </c>
       <c r="W90" s="5">
-        <f t="shared" si="121"/>
-        <v>-875.72827282537799</v>
+        <f t="shared" si="122"/>
+        <v>-1005.6953643759571</v>
       </c>
       <c r="X90" s="5">
-        <f t="shared" si="121"/>
-        <v>-901.18881546686373</v>
+        <f t="shared" si="122"/>
+        <v>-544.77383268245899</v>
       </c>
       <c r="Z90" s="5" t="s">
         <v>52</v>
@@ -4540,40 +4548,40 @@
         <v>107.25283066114841</v>
       </c>
       <c r="P91" s="5">
-        <f t="shared" ref="P91:X91" si="122">O91*(1+P39)</f>
-        <v>110.74800747052483</v>
+        <f t="shared" ref="P91:X91" si="123">O91*(1+P39)</f>
+        <v>112.69487264633258</v>
       </c>
       <c r="Q91" s="5">
-        <f t="shared" si="122"/>
-        <v>111.96662604709073</v>
+        <f t="shared" si="123"/>
+        <v>116.09479851521581</v>
       </c>
       <c r="R91" s="5">
-        <f t="shared" si="122"/>
-        <v>113.32845216229124</v>
+        <f t="shared" si="123"/>
+        <v>119.72518421442635</v>
       </c>
       <c r="S91" s="5">
-        <f t="shared" si="122"/>
-        <v>116.15652714666032</v>
+        <f t="shared" si="123"/>
+        <v>124.91256116616584</v>
       </c>
       <c r="T91" s="5">
-        <f t="shared" si="122"/>
-        <v>119.1471572685236</v>
+        <f t="shared" si="123"/>
+        <v>130.35686533409432</v>
       </c>
       <c r="U91" s="5">
-        <f t="shared" si="122"/>
-        <v>122.31108574206296</v>
+        <f t="shared" si="123"/>
+        <v>136.07261481554156</v>
       </c>
       <c r="V91" s="5">
-        <f t="shared" si="122"/>
-        <v>125.65984345350248</v>
+        <f t="shared" si="123"/>
+        <v>142.07526637520527</v>
       </c>
       <c r="W91" s="5">
-        <f t="shared" si="122"/>
-        <v>129.2058107447279</v>
+        <f t="shared" si="123"/>
+        <v>148.38128326858381</v>
       </c>
       <c r="X91" s="5">
-        <f t="shared" si="122"/>
-        <v>132.9622842492094</v>
+        <f t="shared" si="123"/>
+        <v>80.376467117084104</v>
       </c>
       <c r="Z91" s="5" t="s">
         <v>53</v>
@@ -4592,11 +4600,11 @@
         <v>9072</v>
       </c>
       <c r="M92" s="7">
-        <f t="shared" ref="M92:N92" si="123">SUM(M78:M91)</f>
+        <f t="shared" ref="M92:N92" si="124">SUM(M78:M91)</f>
         <v>8005</v>
       </c>
       <c r="N92" s="7">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>10828</v>
       </c>
       <c r="O92" s="7">
@@ -4604,47 +4612,47 @@
         <v>11548.354333752999</v>
       </c>
       <c r="P92" s="7">
-        <f t="shared" ref="P92:X92" si="124">SUM(P77:P91)</f>
-        <v>12474.066268954619</v>
+        <f t="shared" ref="P92:X92" si="125">SUM(P77:P91)</f>
+        <v>12706.007510652718</v>
       </c>
       <c r="Q92" s="7">
-        <f t="shared" si="124"/>
-        <v>13747.50220392154</v>
+        <f t="shared" si="125"/>
+        <v>14270.406083678292</v>
       </c>
       <c r="R92" s="7">
-        <f t="shared" si="124"/>
-        <v>14520.687330490484</v>
+        <f t="shared" si="125"/>
+        <v>15348.700126684564</v>
       </c>
       <c r="S92" s="7">
-        <f t="shared" si="124"/>
-        <v>15286.38740933507</v>
+        <f t="shared" si="125"/>
+        <v>16429.354120051677</v>
       </c>
       <c r="T92" s="7">
-        <f t="shared" si="124"/>
-        <v>15798.760560251536</v>
+        <f t="shared" si="125"/>
+        <v>17248.126541839312</v>
       </c>
       <c r="U92" s="7">
-        <f t="shared" si="124"/>
-        <v>16540.561240194438</v>
+        <f t="shared" si="125"/>
+        <v>18327.140688848438</v>
       </c>
       <c r="V92" s="7">
-        <f t="shared" si="124"/>
-        <v>17310.158427391099</v>
+        <f t="shared" si="125"/>
+        <v>19449.931723940921</v>
       </c>
       <c r="W92" s="7">
-        <f t="shared" si="124"/>
-        <v>18111.076389947339</v>
+        <f t="shared" si="125"/>
+        <v>20620.702501561642</v>
       </c>
       <c r="X92" s="7">
-        <f t="shared" si="124"/>
-        <v>18946.930387195571</v>
+        <f t="shared" si="125"/>
+        <v>12351.941935576877</v>
       </c>
       <c r="Z92" s="5" t="s">
         <v>54</v>
       </c>
       <c r="AA92" s="7">
         <f>NPV(AA91,O100:DR100)</f>
-        <v>176064.0466126643</v>
+        <v>150356.31716833118</v>
       </c>
     </row>
     <row r="93" spans="1:27" x14ac:dyDescent="0.2">
@@ -4665,7 +4673,7 @@
       </c>
       <c r="AA93" s="11">
         <f>AA92/Main!M3</f>
-        <v>141.53866226502018</v>
+        <v>120.87210537605536</v>
       </c>
     </row>
     <row r="94" spans="1:27" x14ac:dyDescent="0.2">
@@ -4686,7 +4694,7 @@
       </c>
       <c r="AA94" s="9">
         <f>AA93/Main!M2-1</f>
-        <v>0.29851983729376319</v>
+        <v>6.9664649345622554E-2</v>
       </c>
     </row>
     <row r="95" spans="1:27" x14ac:dyDescent="0.2">
@@ -4750,39 +4758,39 @@
       </c>
       <c r="P98" s="7">
         <f>O98*(1+P39)</f>
-        <v>-722.81174073897671</v>
+        <v>-735.5182177117947</v>
       </c>
       <c r="Q98" s="7">
-        <f t="shared" ref="Q98:X98" si="125">P98*(1+Q39)</f>
-        <v>-730.76521850117376</v>
+        <f t="shared" ref="Q98:X98" si="126">P98*(1+Q39)</f>
+        <v>-757.70829039842999</v>
       </c>
       <c r="R98" s="7">
-        <f t="shared" si="125"/>
-        <v>-739.65335949254882</v>
+        <f t="shared" si="126"/>
+        <v>-781.40249011122069</v>
       </c>
       <c r="S98" s="7">
-        <f t="shared" si="125"/>
-        <v>-758.11117059977096</v>
+        <f t="shared" si="126"/>
+        <v>-815.258602288715</v>
       </c>
       <c r="T98" s="7">
-        <f t="shared" si="125"/>
-        <v>-777.62991963790364</v>
+        <f t="shared" si="126"/>
+        <v>-850.79158443993072</v>
       </c>
       <c r="U98" s="7">
-        <f t="shared" si="125"/>
-        <v>-798.27972363678145</v>
+        <f t="shared" si="126"/>
+        <v>-888.09619087641522</v>
       </c>
       <c r="V98" s="7">
-        <f t="shared" si="125"/>
-        <v>-820.13584047358222</v>
+        <f t="shared" si="126"/>
+        <v>-927.2733022483269</v>
       </c>
       <c r="W98" s="7">
-        <f t="shared" si="125"/>
-        <v>-843.27907211191462</v>
+        <f t="shared" si="126"/>
+        <v>-968.43036820317434</v>
       </c>
       <c r="X98" s="7">
-        <f t="shared" si="125"/>
-        <v>-867.79620081544249</v>
+        <f t="shared" si="126"/>
+        <v>-524.58780467730764</v>
       </c>
     </row>
     <row r="99" spans="1:122" x14ac:dyDescent="0.2">
@@ -4809,444 +4817,444 @@
         <v>8344</v>
       </c>
       <c r="M100" s="7">
-        <f t="shared" ref="M100:X100" si="126">M92+M98</f>
+        <f t="shared" ref="M100:X100" si="127">M92+M98</f>
         <v>7420</v>
       </c>
       <c r="N100" s="7">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>10305</v>
       </c>
       <c r="O100" s="7">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>10848.354333752999</v>
       </c>
       <c r="P100" s="7">
-        <f t="shared" si="126"/>
-        <v>11751.254528215642</v>
+        <f t="shared" si="127"/>
+        <v>11970.489292940923</v>
       </c>
       <c r="Q100" s="7">
-        <f t="shared" si="126"/>
-        <v>13016.736985420366</v>
+        <f t="shared" si="127"/>
+        <v>13512.697793279862</v>
       </c>
       <c r="R100" s="7">
-        <f t="shared" si="126"/>
-        <v>13781.033970997934</v>
+        <f t="shared" si="127"/>
+        <v>14567.297636573343</v>
       </c>
       <c r="S100" s="7">
-        <f t="shared" si="126"/>
-        <v>14528.2762387353</v>
+        <f t="shared" si="127"/>
+        <v>15614.095517762962</v>
       </c>
       <c r="T100" s="7">
-        <f t="shared" si="126"/>
-        <v>15021.130640613632</v>
+        <f t="shared" si="127"/>
+        <v>16397.33495739938</v>
       </c>
       <c r="U100" s="7">
-        <f t="shared" si="126"/>
-        <v>15742.281516557658</v>
+        <f t="shared" si="127"/>
+        <v>17439.044497972023</v>
       </c>
       <c r="V100" s="7">
-        <f t="shared" si="126"/>
-        <v>16490.022586917516</v>
+        <f t="shared" si="127"/>
+        <v>18522.658421692595</v>
       </c>
       <c r="W100" s="7">
-        <f t="shared" si="126"/>
-        <v>17267.797317835422</v>
+        <f t="shared" si="127"/>
+        <v>19652.272133358467</v>
       </c>
       <c r="X100" s="7">
-        <f t="shared" si="126"/>
-        <v>18079.134186380128</v>
+        <f t="shared" si="127"/>
+        <v>11827.35413089957</v>
       </c>
       <c r="Y100" s="7">
         <f>X100*(1+$AA$90)</f>
-        <v>17898.342844516326</v>
+        <v>11709.080589590574</v>
       </c>
       <c r="Z100" s="7">
-        <f t="shared" ref="Z100:CK100" si="127">Y100*(1+$AA$90)</f>
-        <v>17719.359416071162</v>
+        <f t="shared" ref="Z100:CK100" si="128">Y100*(1+$AA$90)</f>
+        <v>11591.989783694667</v>
       </c>
       <c r="AA100" s="7">
-        <f t="shared" si="127"/>
-        <v>17542.16582191045</v>
+        <f t="shared" si="128"/>
+        <v>11476.069885857722</v>
       </c>
       <c r="AB100" s="7">
-        <f t="shared" si="127"/>
-        <v>17366.744163691346</v>
+        <f t="shared" si="128"/>
+        <v>11361.309186999144</v>
       </c>
       <c r="AC100" s="7">
-        <f t="shared" si="127"/>
-        <v>17193.076722054433</v>
+        <f t="shared" si="128"/>
+        <v>11247.696095129153</v>
       </c>
       <c r="AD100" s="7">
-        <f t="shared" si="127"/>
-        <v>17021.14595483389</v>
+        <f t="shared" si="128"/>
+        <v>11135.219134177862</v>
       </c>
       <c r="AE100" s="7">
-        <f t="shared" si="127"/>
-        <v>16850.93449528555</v>
+        <f t="shared" si="128"/>
+        <v>11023.866942836083</v>
       </c>
       <c r="AF100" s="7">
-        <f t="shared" si="127"/>
-        <v>16682.425150332696</v>
+        <f t="shared" si="128"/>
+        <v>10913.628273407721</v>
       </c>
       <c r="AG100" s="7">
-        <f t="shared" si="127"/>
-        <v>16515.600898829369</v>
+        <f t="shared" si="128"/>
+        <v>10804.491990673643</v>
       </c>
       <c r="AH100" s="7">
-        <f t="shared" si="127"/>
-        <v>16350.444889841076</v>
+        <f t="shared" si="128"/>
+        <v>10696.447070766906</v>
       </c>
       <c r="AI100" s="7">
-        <f t="shared" si="127"/>
-        <v>16186.940440942664</v>
+        <f t="shared" si="128"/>
+        <v>10589.482600059237</v>
       </c>
       <c r="AJ100" s="7">
-        <f t="shared" si="127"/>
-        <v>16025.071036533238</v>
+        <f t="shared" si="128"/>
+        <v>10483.587774058644</v>
       </c>
       <c r="AK100" s="7">
-        <f t="shared" si="127"/>
-        <v>15864.820326167905</v>
+        <f t="shared" si="128"/>
+        <v>10378.751896318057</v>
       </c>
       <c r="AL100" s="7">
-        <f t="shared" si="127"/>
-        <v>15706.172122906226</v>
+        <f t="shared" si="128"/>
+        <v>10274.964377354876</v>
       </c>
       <c r="AM100" s="7">
-        <f t="shared" si="127"/>
-        <v>15549.110401677164</v>
+        <f t="shared" si="128"/>
+        <v>10172.214733581328</v>
       </c>
       <c r="AN100" s="7">
-        <f t="shared" si="127"/>
-        <v>15393.619297660392</v>
+        <f t="shared" si="128"/>
+        <v>10070.492586245515</v>
       </c>
       <c r="AO100" s="7">
-        <f t="shared" si="127"/>
-        <v>15239.683104683789</v>
+        <f t="shared" si="128"/>
+        <v>9969.7876603830591</v>
       </c>
       <c r="AP100" s="7">
-        <f t="shared" si="127"/>
-        <v>15087.286273636952</v>
+        <f t="shared" si="128"/>
+        <v>9870.089783779229</v>
       </c>
       <c r="AQ100" s="7">
-        <f t="shared" si="127"/>
-        <v>14936.413410900583</v>
+        <f t="shared" si="128"/>
+        <v>9771.3888859414365</v>
       </c>
       <c r="AR100" s="7">
-        <f t="shared" si="127"/>
-        <v>14787.049276791577</v>
+        <f t="shared" si="128"/>
+        <v>9673.6749970820219</v>
       </c>
       <c r="AS100" s="7">
-        <f t="shared" si="127"/>
-        <v>14639.178784023661</v>
+        <f t="shared" si="128"/>
+        <v>9576.9382471112021</v>
       </c>
       <c r="AT100" s="7">
-        <f t="shared" si="127"/>
-        <v>14492.786996183424</v>
+        <f t="shared" si="128"/>
+        <v>9481.1688646400908</v>
       </c>
       <c r="AU100" s="7">
-        <f t="shared" si="127"/>
-        <v>14347.85912622159</v>
+        <f t="shared" si="128"/>
+        <v>9386.3571759936895</v>
       </c>
       <c r="AV100" s="7">
-        <f t="shared" si="127"/>
-        <v>14204.380534959375</v>
+        <f t="shared" si="128"/>
+        <v>9292.4936042337522</v>
       </c>
       <c r="AW100" s="7">
-        <f t="shared" si="127"/>
-        <v>14062.33672960978</v>
+        <f t="shared" si="128"/>
+        <v>9199.568668191414</v>
       </c>
       <c r="AX100" s="7">
-        <f t="shared" si="127"/>
-        <v>13921.713362313683</v>
+        <f t="shared" si="128"/>
+        <v>9107.5729815095001</v>
       </c>
       <c r="AY100" s="7">
-        <f t="shared" si="127"/>
-        <v>13782.496228690547</v>
+        <f t="shared" si="128"/>
+        <v>9016.4972516944053</v>
       </c>
       <c r="AZ100" s="7">
-        <f t="shared" si="127"/>
-        <v>13644.67126640364</v>
+        <f t="shared" si="128"/>
+        <v>8926.3322791774608</v>
       </c>
       <c r="BA100" s="7">
-        <f t="shared" si="127"/>
-        <v>13508.224553739605</v>
+        <f t="shared" si="128"/>
+        <v>8837.0689563856868</v>
       </c>
       <c r="BB100" s="7">
-        <f t="shared" si="127"/>
-        <v>13373.142308202208</v>
+        <f t="shared" si="128"/>
+        <v>8748.6982668218297</v>
       </c>
       <c r="BC100" s="7">
-        <f t="shared" si="127"/>
-        <v>13239.410885120185</v>
+        <f t="shared" si="128"/>
+        <v>8661.2112841536109</v>
       </c>
       <c r="BD100" s="7">
-        <f t="shared" si="127"/>
-        <v>13107.016776268983</v>
+        <f t="shared" si="128"/>
+        <v>8574.5991713120748</v>
       </c>
       <c r="BE100" s="7">
-        <f t="shared" si="127"/>
-        <v>12975.946608506294</v>
+        <f t="shared" si="128"/>
+        <v>8488.8531795989547</v>
       </c>
       <c r="BF100" s="7">
-        <f t="shared" si="127"/>
-        <v>12846.187142421231</v>
+        <f t="shared" si="128"/>
+        <v>8403.9646478029645</v>
       </c>
       <c r="BG100" s="7">
-        <f t="shared" si="127"/>
-        <v>12717.725270997018</v>
+        <f t="shared" si="128"/>
+        <v>8319.9250013249348</v>
       </c>
       <c r="BH100" s="7">
-        <f t="shared" si="127"/>
-        <v>12590.548018287047</v>
+        <f t="shared" si="128"/>
+        <v>8236.7257513116856</v>
       </c>
       <c r="BI100" s="7">
-        <f t="shared" si="127"/>
-        <v>12464.642538104177</v>
+        <f t="shared" si="128"/>
+        <v>8154.3584937985688</v>
       </c>
       <c r="BJ100" s="7">
-        <f t="shared" si="127"/>
-        <v>12339.996112723135</v>
+        <f t="shared" si="128"/>
+        <v>8072.8149088605833</v>
       </c>
       <c r="BK100" s="7">
-        <f t="shared" si="127"/>
-        <v>12216.596151595902</v>
+        <f t="shared" si="128"/>
+        <v>7992.0867597719771</v>
       </c>
       <c r="BL100" s="7">
-        <f t="shared" si="127"/>
-        <v>12094.430190079944</v>
+        <f t="shared" si="128"/>
+        <v>7912.1658921742574</v>
       </c>
       <c r="BM100" s="7">
-        <f t="shared" si="127"/>
-        <v>11973.485888179144</v>
+        <f t="shared" si="128"/>
+        <v>7833.0442332525145</v>
       </c>
       <c r="BN100" s="7">
-        <f t="shared" si="127"/>
-        <v>11853.751029297353</v>
+        <f t="shared" si="128"/>
+        <v>7754.7137909199892</v>
       </c>
       <c r="BO100" s="7">
-        <f t="shared" si="127"/>
-        <v>11735.213519004379</v>
+        <f t="shared" si="128"/>
+        <v>7677.1666530107896</v>
       </c>
       <c r="BP100" s="7">
-        <f t="shared" si="127"/>
-        <v>11617.861383814336</v>
+        <f t="shared" si="128"/>
+        <v>7600.3949864806818</v>
       </c>
       <c r="BQ100" s="7">
-        <f t="shared" si="127"/>
-        <v>11501.682769976193</v>
+        <f t="shared" si="128"/>
+        <v>7524.3910366158752</v>
       </c>
       <c r="BR100" s="7">
-        <f t="shared" si="127"/>
-        <v>11386.66594227643</v>
+        <f t="shared" si="128"/>
+        <v>7449.1471262497162</v>
       </c>
       <c r="BS100" s="7">
-        <f t="shared" si="127"/>
-        <v>11272.799282853664</v>
+        <f t="shared" si="128"/>
+        <v>7374.6556549872194</v>
       </c>
       <c r="BT100" s="7">
-        <f t="shared" si="127"/>
-        <v>11160.071290025127</v>
+        <f t="shared" si="128"/>
+        <v>7300.909098437347</v>
       </c>
       <c r="BU100" s="7">
-        <f t="shared" si="127"/>
-        <v>11048.470577124875</v>
+        <f t="shared" si="128"/>
+        <v>7227.9000074529731</v>
       </c>
       <c r="BV100" s="7">
-        <f t="shared" si="127"/>
-        <v>10937.985871353627</v>
+        <f t="shared" si="128"/>
+        <v>7155.6210073784432</v>
       </c>
       <c r="BW100" s="7">
-        <f t="shared" si="127"/>
-        <v>10828.60601264009</v>
+        <f t="shared" si="128"/>
+        <v>7084.0647973046589</v>
       </c>
       <c r="BX100" s="7">
-        <f t="shared" si="127"/>
-        <v>10720.31995251369</v>
+        <f t="shared" si="128"/>
+        <v>7013.2241493316124</v>
       </c>
       <c r="BY100" s="7">
-        <f t="shared" si="127"/>
-        <v>10613.116752988553</v>
+        <f t="shared" si="128"/>
+        <v>6943.0919078382958</v>
       </c>
       <c r="BZ100" s="7">
-        <f t="shared" si="127"/>
-        <v>10506.985585458668</v>
+        <f t="shared" si="128"/>
+        <v>6873.6609887599125</v>
       </c>
       <c r="CA100" s="7">
-        <f t="shared" si="127"/>
-        <v>10401.915729604081</v>
+        <f t="shared" si="128"/>
+        <v>6804.9243788723134</v>
       </c>
       <c r="CB100" s="7">
-        <f t="shared" si="127"/>
-        <v>10297.89657230804</v>
+        <f t="shared" si="128"/>
+        <v>6736.8751350835901</v>
       </c>
       <c r="CC100" s="7">
-        <f t="shared" si="127"/>
-        <v>10194.917606584959</v>
+        <f t="shared" si="128"/>
+        <v>6669.5063837327543</v>
       </c>
       <c r="CD100" s="7">
-        <f t="shared" si="127"/>
-        <v>10092.968430519109</v>
+        <f t="shared" si="128"/>
+        <v>6602.811319895427</v>
       </c>
       <c r="CE100" s="7">
-        <f t="shared" si="127"/>
-        <v>9992.0387462139188</v>
+        <f t="shared" si="128"/>
+        <v>6536.7832066964729</v>
       </c>
       <c r="CF100" s="7">
-        <f t="shared" si="127"/>
-        <v>9892.1183587517789</v>
+        <f t="shared" si="128"/>
+        <v>6471.4153746295078</v>
       </c>
       <c r="CG100" s="7">
-        <f t="shared" si="127"/>
-        <v>9793.1971751642614</v>
+        <f t="shared" si="128"/>
+        <v>6406.701220883213</v>
       </c>
       <c r="CH100" s="7">
-        <f t="shared" si="127"/>
-        <v>9695.2652034126186</v>
+        <f t="shared" si="128"/>
+        <v>6342.6342086743807</v>
       </c>
       <c r="CI100" s="7">
-        <f t="shared" si="127"/>
-        <v>9598.3125513784926</v>
+        <f t="shared" si="128"/>
+        <v>6279.207866587637</v>
       </c>
       <c r="CJ100" s="7">
-        <f t="shared" si="127"/>
-        <v>9502.3294258647074</v>
+        <f t="shared" si="128"/>
+        <v>6216.415787921761</v>
       </c>
       <c r="CK100" s="7">
-        <f t="shared" si="127"/>
-        <v>9407.3061316060612</v>
+        <f t="shared" si="128"/>
+        <v>6154.2516300425432</v>
       </c>
       <c r="CL100" s="7">
-        <f t="shared" ref="CL100:DR100" si="128">CK100*(1+$AA$90)</f>
-        <v>9313.2330702899999</v>
+        <f t="shared" ref="CL100:DR100" si="129">CK100*(1+$AA$90)</f>
+        <v>6092.7091137421176</v>
       </c>
       <c r="CM100" s="7">
-        <f t="shared" si="128"/>
-        <v>9220.1007395871002</v>
+        <f t="shared" si="129"/>
+        <v>6031.7820226046961</v>
       </c>
       <c r="CN100" s="7">
-        <f t="shared" si="128"/>
-        <v>9127.8997321912284</v>
+        <f t="shared" si="129"/>
+        <v>5971.4642023786491</v>
       </c>
       <c r="CO100" s="7">
-        <f t="shared" si="128"/>
-        <v>9036.6207348693151</v>
+        <f t="shared" si="129"/>
+        <v>5911.7495603548623</v>
       </c>
       <c r="CP100" s="7">
-        <f t="shared" si="128"/>
-        <v>8946.2545275206212</v>
+        <f t="shared" si="129"/>
+        <v>5852.6320647513139</v>
       </c>
       <c r="CQ100" s="7">
-        <f t="shared" si="128"/>
-        <v>8856.7919822454151</v>
+        <f t="shared" si="129"/>
+        <v>5794.105744103801</v>
       </c>
       <c r="CR100" s="7">
-        <f t="shared" si="128"/>
-        <v>8768.2240624229617</v>
+        <f t="shared" si="129"/>
+        <v>5736.1646866627634</v>
       </c>
       <c r="CS100" s="7">
-        <f t="shared" si="128"/>
-        <v>8680.5418217987317</v>
+        <f t="shared" si="129"/>
+        <v>5678.8030397961356</v>
       </c>
       <c r="CT100" s="7">
-        <f t="shared" si="128"/>
-        <v>8593.7364035807441</v>
+        <f t="shared" si="129"/>
+        <v>5622.0150093981738</v>
       </c>
       <c r="CU100" s="7">
-        <f t="shared" si="128"/>
-        <v>8507.799039544936</v>
+        <f t="shared" si="129"/>
+        <v>5565.794859304192</v>
       </c>
       <c r="CV100" s="7">
-        <f t="shared" si="128"/>
-        <v>8422.7210491494861</v>
+        <f t="shared" si="129"/>
+        <v>5510.1369107111495</v>
       </c>
       <c r="CW100" s="7">
-        <f t="shared" si="128"/>
-        <v>8338.4938386579906</v>
+        <f t="shared" si="129"/>
+        <v>5455.0355416040384</v>
       </c>
       <c r="CX100" s="7">
-        <f t="shared" si="128"/>
-        <v>8255.1089002714107</v>
+        <f t="shared" si="129"/>
+        <v>5400.4851861879979</v>
       </c>
       <c r="CY100" s="7">
-        <f t="shared" si="128"/>
-        <v>8172.5578112686962</v>
+        <f t="shared" si="129"/>
+        <v>5346.4803343261183</v>
       </c>
       <c r="CZ100" s="7">
-        <f t="shared" si="128"/>
-        <v>8090.8322331560094</v>
+        <f t="shared" si="129"/>
+        <v>5293.0155309828569</v>
       </c>
       <c r="DA100" s="7">
-        <f t="shared" si="128"/>
-        <v>8009.9239108244492</v>
+        <f t="shared" si="129"/>
+        <v>5240.0853756730285</v>
       </c>
       <c r="DB100" s="7">
-        <f t="shared" si="128"/>
-        <v>7929.8246717162046</v>
+        <f t="shared" si="129"/>
+        <v>5187.6845219162979</v>
       </c>
       <c r="DC100" s="7">
-        <f t="shared" si="128"/>
-        <v>7850.5264249990423</v>
+        <f t="shared" si="129"/>
+        <v>5135.8076766971344</v>
       </c>
       <c r="DD100" s="7">
-        <f t="shared" si="128"/>
-        <v>7772.0211607490519</v>
+        <f t="shared" si="129"/>
+        <v>5084.4495999301635</v>
       </c>
       <c r="DE100" s="7">
-        <f t="shared" si="128"/>
-        <v>7694.3009491415614</v>
+        <f t="shared" si="129"/>
+        <v>5033.6051039308613</v>
       </c>
       <c r="DF100" s="7">
-        <f t="shared" si="128"/>
-        <v>7617.3579396501455</v>
+        <f t="shared" si="129"/>
+        <v>4983.2690528915527</v>
       </c>
       <c r="DG100" s="7">
-        <f t="shared" si="128"/>
-        <v>7541.1843602536437</v>
+        <f t="shared" si="129"/>
+        <v>4933.4363623626368</v>
       </c>
       <c r="DH100" s="7">
-        <f t="shared" si="128"/>
-        <v>7465.7725166511073</v>
+        <f t="shared" si="129"/>
+        <v>4884.10199873901</v>
       </c>
       <c r="DI100" s="7">
-        <f t="shared" si="128"/>
-        <v>7391.114791484596</v>
+        <f t="shared" si="129"/>
+        <v>4835.2609787516203</v>
       </c>
       <c r="DJ100" s="7">
-        <f t="shared" si="128"/>
-        <v>7317.2036435697501</v>
+        <f t="shared" si="129"/>
+        <v>4786.9083689641038</v>
       </c>
       <c r="DK100" s="7">
-        <f t="shared" si="128"/>
-        <v>7244.0316071340521</v>
+        <f t="shared" si="129"/>
+        <v>4739.0392852744626</v>
       </c>
       <c r="DL100" s="7">
-        <f t="shared" si="128"/>
-        <v>7171.5912910627112</v>
+        <f t="shared" si="129"/>
+        <v>4691.6488924217183</v>
       </c>
       <c r="DM100" s="7">
-        <f t="shared" si="128"/>
-        <v>7099.8753781520836</v>
+        <f t="shared" si="129"/>
+        <v>4644.7324034975009</v>
       </c>
       <c r="DN100" s="7">
-        <f t="shared" si="128"/>
-        <v>7028.8766243705631</v>
+        <f t="shared" si="129"/>
+        <v>4598.2850794625256</v>
       </c>
       <c r="DO100" s="7">
-        <f t="shared" si="128"/>
-        <v>6958.5878581268571</v>
+        <f t="shared" si="129"/>
+        <v>4552.3022286679006</v>
       </c>
       <c r="DP100" s="7">
-        <f t="shared" si="128"/>
-        <v>6889.0019795455883</v>
+        <f t="shared" si="129"/>
+        <v>4506.7792063812212</v>
       </c>
       <c r="DQ100" s="7">
-        <f t="shared" si="128"/>
-        <v>6820.111959750132</v>
+        <f t="shared" si="129"/>
+        <v>4461.7114143174085</v>
       </c>
       <c r="DR100" s="7">
-        <f t="shared" si="128"/>
-        <v>6751.910840152631</v>
+        <f t="shared" si="129"/>
+        <v>4417.0943001742344</v>
       </c>
     </row>
   </sheetData>

--- a/GILD.xlsx
+++ b/GILD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DEB2C6-D596-4E00-A080-61B356E1A6CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B054E3-B93E-46DE-B6DF-F4620FE6BD12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="1080" windowWidth="22335" windowHeight="13875" activeTab="1" xr2:uid="{EE5219A3-BA1B-4D6E-A979-2CD5C8786A6D}"/>
+    <workbookView xWindow="1665" yWindow="420" windowWidth="23835" windowHeight="14805" xr2:uid="{EE5219A3-BA1B-4D6E-A979-2CD5C8786A6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="101">
   <si>
     <t>Price</t>
   </si>
@@ -241,9 +241,6 @@
     <t>NPV</t>
   </si>
   <si>
-    <t>Diff</t>
-  </si>
-  <si>
     <t>Lenacapavir</t>
   </si>
   <si>
@@ -377,15 +374,24 @@
   </si>
   <si>
     <t>Livdelzi</t>
+  </si>
+  <si>
+    <t>Share</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -444,22 +450,22 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -923,8 +929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EC03042-0724-4188-A047-AF171A2F2E1F}">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1008,11 +1014,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0195CDA4-2070-45E2-99A5-CB7B98D2FA3E}">
   <dimension ref="A1:DR100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="V77" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="P67" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z85" sqref="Z85"/>
+      <selection pane="bottomRight" activeCell="Z94" sqref="Z94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1205,49 +1211,49 @@
       </c>
       <c r="O3" s="9">
         <f t="shared" ref="O3:X3" si="2">SUM(O15:O16)/SUM(N15:N16)-1</f>
-        <v>4.0000000000000036E-2</v>
+        <v>3.3688558025698478E-2</v>
       </c>
       <c r="P3" s="9">
         <f t="shared" si="2"/>
-        <v>4.0000000000000036E-2</v>
+        <v>3.3772136913188699E-2</v>
       </c>
       <c r="Q3" s="9">
         <f t="shared" si="2"/>
-        <v>3.9999999999999813E-2</v>
+        <v>3.3855105857741874E-2</v>
       </c>
       <c r="R3" s="9">
         <f t="shared" si="2"/>
-        <v>4.0000000000000258E-2</v>
+        <v>3.3937456042349989E-2</v>
       </c>
       <c r="S3" s="9">
         <f t="shared" si="2"/>
-        <v>4.0000000000000036E-2</v>
+        <v>3.4019179012555689E-2</v>
       </c>
       <c r="T3" s="9">
         <f t="shared" si="2"/>
-        <v>4.0000000000000036E-2</v>
+        <v>3.4100266676853286E-2</v>
       </c>
       <c r="U3" s="9">
         <f t="shared" si="2"/>
-        <v>4.0000000000000036E-2</v>
+        <v>3.4180711306701417E-2</v>
       </c>
       <c r="V3" s="9">
         <f t="shared" si="2"/>
-        <v>4.0000000000000036E-2</v>
+        <v>3.4260505536150898E-2</v>
       </c>
       <c r="W3" s="9">
         <f t="shared" si="2"/>
-        <v>4.0000000000000036E-2</v>
+        <v>3.4339642361097766E-2</v>
       </c>
       <c r="X3" s="9">
         <f t="shared" si="2"/>
-        <v>-0.67180501733632469</v>
+        <v>-0.71532387204696202</v>
       </c>
     </row>
     <row r="4" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
@@ -1306,7 +1312,7 @@
     <row r="5" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -1365,7 +1371,7 @@
     <row r="6" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
@@ -1492,7 +1498,7 @@
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L10" s="9">
         <f>L8/L22</f>
@@ -1510,7 +1516,7 @@
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L11" s="9">
         <f>L9/L22</f>
@@ -1534,13 +1540,13 @@
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" s="9"/>
       <c r="G14" s="9"/>
@@ -1632,44 +1638,44 @@
         <v>6189</v>
       </c>
       <c r="O16" s="5">
-        <f>N16*1.04</f>
-        <v>6436.56</v>
+        <f>N16*1.02</f>
+        <v>6312.78</v>
       </c>
       <c r="P16" s="5">
-        <f t="shared" ref="P16:X16" si="9">O16*1.04</f>
-        <v>6694.0224000000007</v>
+        <f t="shared" ref="P16:X16" si="9">O16*1.02</f>
+        <v>6439.0356000000002</v>
       </c>
       <c r="Q16" s="5">
         <f t="shared" si="9"/>
-        <v>6961.7832960000014</v>
+        <v>6567.8163119999999</v>
       </c>
       <c r="R16" s="5">
         <f t="shared" si="9"/>
-        <v>7240.2546278400014</v>
+        <v>6699.1726382400002</v>
       </c>
       <c r="S16" s="5">
         <f t="shared" si="9"/>
-        <v>7529.8648129536014</v>
+        <v>6833.1560910048001</v>
       </c>
       <c r="T16" s="5">
         <f t="shared" si="9"/>
-        <v>7831.0594054717458</v>
+        <v>6969.8192128248966</v>
       </c>
       <c r="U16" s="5">
         <f t="shared" si="9"/>
-        <v>8144.3017816906158</v>
+        <v>7109.2155970813947</v>
       </c>
       <c r="V16" s="5">
         <f t="shared" si="9"/>
-        <v>8470.0738529582413</v>
+        <v>7251.3999090230227</v>
       </c>
       <c r="W16" s="5">
         <f t="shared" si="9"/>
-        <v>8808.8768070765709</v>
+        <v>7396.4279072034833</v>
       </c>
       <c r="X16" s="5">
         <f t="shared" si="9"/>
-        <v>9161.2318793596332</v>
+        <v>7544.3564653475532</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
@@ -1991,39 +1997,39 @@
       </c>
       <c r="P22" s="7">
         <f t="shared" ref="P22:X22" si="13">SUM(P15:P21)</f>
-        <v>29838.057300000004</v>
+        <v>29583.070499999998</v>
       </c>
       <c r="Q22" s="7">
         <f t="shared" si="13"/>
-        <v>30731.684009000001</v>
+        <v>30337.717025000002</v>
       </c>
       <c r="R22" s="7">
         <f t="shared" si="13"/>
-        <v>31685.858538610006</v>
+        <v>31144.776549010003</v>
       </c>
       <c r="S22" s="7">
         <f t="shared" si="13"/>
-        <v>33053.688765693703</v>
+        <v>32356.980043744901</v>
       </c>
       <c r="T22" s="7">
         <f t="shared" si="13"/>
-        <v>34488.996208511657</v>
+        <v>33627.756015864812</v>
       </c>
       <c r="U22" s="7">
         <f t="shared" si="13"/>
-        <v>35995.581298787722</v>
+        <v>34960.495114178499</v>
       </c>
       <c r="V22" s="7">
         <f t="shared" si="13"/>
-        <v>37577.48983905121</v>
+        <v>36358.815895115993</v>
       </c>
       <c r="W22" s="7">
         <f t="shared" si="13"/>
-        <v>39239.030742129915</v>
+        <v>37826.581842256826</v>
       </c>
       <c r="X22" s="7">
         <f t="shared" si="13"/>
-        <v>21115.476121379179</v>
+        <v>19498.600707367099</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
@@ -2140,39 +2146,39 @@
       </c>
       <c r="P24" s="7">
         <f t="shared" ref="P24" si="20">SUM(P22:P23)</f>
-        <v>30002.922900000005</v>
+        <v>29747.936099999999</v>
       </c>
       <c r="Q24" s="7">
         <f t="shared" ref="Q24" si="21">SUM(Q22:Q23)</f>
-        <v>30908.090200999999</v>
+        <v>30514.123217</v>
       </c>
       <c r="R24" s="7">
         <f t="shared" ref="R24" si="22">SUM(R22:R23)</f>
-        <v>31874.613164050006</v>
+        <v>31333.531174450003</v>
       </c>
       <c r="S24" s="7">
         <f t="shared" ref="S24" si="23">SUM(S22:S23)</f>
-        <v>33255.656214914503</v>
+        <v>32558.947492965701</v>
       </c>
       <c r="T24" s="7">
         <f t="shared" ref="T24" si="24">SUM(T22:T23)</f>
-        <v>34705.101379177911</v>
+        <v>33843.861186531067</v>
       </c>
       <c r="U24" s="7">
         <f t="shared" ref="U24" si="25">SUM(U22:U23)</f>
-        <v>36226.813831400614</v>
+        <v>35191.727646791391</v>
       </c>
       <c r="V24" s="7">
         <f t="shared" ref="V24" si="26">SUM(V22:V23)</f>
-        <v>37824.908648947006</v>
+        <v>36606.23470501179</v>
       </c>
       <c r="W24" s="7">
         <f t="shared" ref="W24" si="27">SUM(W22:W23)</f>
-        <v>39503.76886871842</v>
+        <v>38091.319968845331</v>
       </c>
       <c r="X24" s="7">
         <f t="shared" ref="X24" si="28">SUM(X22:X23)</f>
-        <v>21398.745916828877</v>
+        <v>19781.870502816797</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
@@ -2200,39 +2206,39 @@
       </c>
       <c r="P25" s="5">
         <f t="shared" si="29"/>
-        <v>6600.6430380000002</v>
+        <v>6544.5459419999988</v>
       </c>
       <c r="Q25" s="5">
         <f t="shared" si="29"/>
-        <v>6799.7798442199992</v>
+        <v>6713.1071077399993</v>
       </c>
       <c r="R25" s="5">
         <f t="shared" si="29"/>
-        <v>7012.4148960910006</v>
+        <v>6893.3768583789997</v>
       </c>
       <c r="S25" s="5">
         <f t="shared" si="29"/>
-        <v>7316.2443672811896</v>
+        <v>7162.9684484524532</v>
       </c>
       <c r="T25" s="5">
         <f t="shared" si="29"/>
-        <v>7635.1223034191398</v>
+        <v>7445.6494610368336</v>
       </c>
       <c r="U25" s="5">
         <f t="shared" si="29"/>
-        <v>7969.8990429081341</v>
+        <v>7742.180082294105</v>
       </c>
       <c r="V25" s="5">
         <f t="shared" si="29"/>
-        <v>8321.4799027683403</v>
+        <v>8053.3716351025923</v>
       </c>
       <c r="W25" s="5">
         <f t="shared" si="29"/>
-        <v>8690.8291511180505</v>
+        <v>8380.0903931459725</v>
       </c>
       <c r="X25" s="5">
         <f t="shared" si="29"/>
-        <v>4707.7241017023525</v>
+        <v>4352.0115106196945</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
@@ -2289,39 +2295,39 @@
       </c>
       <c r="P26" s="5">
         <f t="shared" si="33"/>
-        <v>23402.279862000003</v>
+        <v>23203.390158000002</v>
       </c>
       <c r="Q26" s="5">
         <f t="shared" si="33"/>
-        <v>24108.310356779999</v>
+        <v>23801.016109260003</v>
       </c>
       <c r="R26" s="5">
         <f t="shared" si="33"/>
-        <v>24862.198267959007</v>
+        <v>24440.154316071003</v>
       </c>
       <c r="S26" s="5">
         <f t="shared" si="33"/>
-        <v>25939.411847633313</v>
+        <v>25395.979044513246</v>
       </c>
       <c r="T26" s="5">
         <f t="shared" si="33"/>
-        <v>27069.979075758773</v>
+        <v>26398.211725494235</v>
       </c>
       <c r="U26" s="5">
         <f t="shared" si="33"/>
-        <v>28256.914788492479</v>
+        <v>27449.547564497287</v>
       </c>
       <c r="V26" s="5">
         <f t="shared" si="33"/>
-        <v>29503.428746178666</v>
+        <v>28552.863069909195</v>
       </c>
       <c r="W26" s="5">
         <f t="shared" si="33"/>
-        <v>30812.939717600369</v>
+        <v>29711.229575699359</v>
       </c>
       <c r="X26" s="5">
         <f t="shared" si="33"/>
-        <v>16691.021815126525</v>
+        <v>15429.858992197103</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.2">
@@ -2438,39 +2444,39 @@
       </c>
       <c r="P30" s="5">
         <f t="shared" si="37"/>
-        <v>15361.625497820918</v>
+        <v>15231.071160113777</v>
       </c>
       <c r="Q30" s="5">
         <f t="shared" si="37"/>
-        <v>14875.570544141636</v>
+        <v>14685.960522155705</v>
       </c>
       <c r="R30" s="5">
         <f t="shared" si="37"/>
-        <v>14420.298064009405</v>
+        <v>14175.508785251994</v>
       </c>
       <c r="S30" s="5">
         <f t="shared" si="37"/>
-        <v>14965.045296711527</v>
+        <v>14651.526371834565</v>
       </c>
       <c r="T30" s="5">
         <f t="shared" si="37"/>
-        <v>15617.295620630061</v>
+        <v>15229.73753393898</v>
       </c>
       <c r="U30" s="5">
         <f t="shared" si="37"/>
-        <v>16302.066224130276</v>
+        <v>15836.277441056127</v>
       </c>
       <c r="V30" s="5">
         <f t="shared" si="37"/>
-        <v>17021.208892026152</v>
+        <v>16472.805617255304</v>
       </c>
       <c r="W30" s="5">
         <f t="shared" si="37"/>
-        <v>17776.69599092329</v>
+        <v>17141.093985980398</v>
       </c>
       <c r="X30" s="5">
         <f t="shared" si="37"/>
-        <v>9629.4356625729943</v>
+        <v>8901.8417262675594</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.2">
@@ -2527,39 +2533,39 @@
       </c>
       <c r="P31" s="5">
         <f t="shared" ref="P31" si="42">P26-P30</f>
-        <v>8040.654364179085</v>
+        <v>7972.3189978862247</v>
       </c>
       <c r="Q31" s="5">
         <f t="shared" ref="Q31" si="43">Q26-Q30</f>
-        <v>9232.7398126383632</v>
+        <v>9115.055587104298</v>
       </c>
       <c r="R31" s="5">
         <f t="shared" ref="R31" si="44">R26-R30</f>
-        <v>10441.900203949603</v>
+        <v>10264.645530819009</v>
       </c>
       <c r="S31" s="5">
         <f t="shared" ref="S31" si="45">S26-S30</f>
-        <v>10974.366550921786</v>
+        <v>10744.452672678681</v>
       </c>
       <c r="T31" s="5">
         <f t="shared" ref="T31" si="46">T26-T30</f>
-        <v>11452.683455128712</v>
+        <v>11168.474191555255</v>
       </c>
       <c r="U31" s="5">
         <f t="shared" ref="U31" si="47">U26-U30</f>
-        <v>11954.848564362203</v>
+        <v>11613.27012344116</v>
       </c>
       <c r="V31" s="5">
         <f t="shared" ref="V31" si="48">V26-V30</f>
-        <v>12482.219854152514</v>
+        <v>12080.057452653891</v>
       </c>
       <c r="W31" s="5">
         <f t="shared" ref="W31" si="49">W26-W30</f>
-        <v>13036.243726677079</v>
+        <v>12570.135589718961</v>
       </c>
       <c r="X31" s="5">
         <f t="shared" ref="X31" si="50">X26-X30</f>
-        <v>7061.5861525535311</v>
+        <v>6528.017265929544</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.2">
@@ -2591,35 +2597,35 @@
       </c>
       <c r="Q32" s="5">
         <f t="shared" si="51"/>
-        <v>-98.595501333615232</v>
+        <v>-99.770869633852442</v>
       </c>
       <c r="R32" s="5">
         <f t="shared" si="51"/>
-        <v>58.511780820826445</v>
+        <v>55.292027506639222</v>
       </c>
       <c r="S32" s="5">
         <f t="shared" si="51"/>
-        <v>228.61845497410738</v>
+        <v>222.47501595151473</v>
       </c>
       <c r="T32" s="5">
         <f t="shared" si="51"/>
-        <v>410.10681206962079</v>
+        <v>400.13924450732389</v>
       </c>
       <c r="U32" s="5">
         <f t="shared" si="51"/>
-        <v>597.53889829135449</v>
+        <v>582.92333679711271</v>
       </c>
       <c r="V32" s="5">
         <f t="shared" si="51"/>
-        <v>795.86662020128063</v>
+        <v>775.62319346887728</v>
       </c>
       <c r="W32" s="5">
         <f t="shared" si="51"/>
-        <v>1005.6603864960706</v>
+        <v>978.74294767761705</v>
       </c>
       <c r="X32" s="5">
         <f t="shared" si="51"/>
-        <v>1227.5224714842063</v>
+        <v>1192.815228568483</v>
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.2">
@@ -2676,39 +2682,39 @@
       </c>
       <c r="P33" s="5">
         <f t="shared" ref="P33" si="56">P31+P32</f>
-        <v>7807.7652996907882</v>
+        <v>7739.4299333979279</v>
       </c>
       <c r="Q33" s="5">
         <f t="shared" ref="Q33" si="57">Q31+Q32</f>
-        <v>9134.144311304748</v>
+        <v>9015.2847174704457</v>
       </c>
       <c r="R33" s="5">
         <f t="shared" ref="R33" si="58">R31+R32</f>
-        <v>10500.41198477043</v>
+        <v>10319.937558325648</v>
       </c>
       <c r="S33" s="5">
         <f t="shared" ref="S33" si="59">S31+S32</f>
-        <v>11202.985005895893</v>
+        <v>10966.927688630196</v>
       </c>
       <c r="T33" s="5">
         <f t="shared" ref="T33" si="60">T31+T32</f>
-        <v>11862.790267198332</v>
+        <v>11568.613436062578</v>
       </c>
       <c r="U33" s="5">
         <f t="shared" ref="U33" si="61">U31+U32</f>
-        <v>12552.387462653556</v>
+        <v>12196.193460238272</v>
       </c>
       <c r="V33" s="5">
         <f t="shared" ref="V33" si="62">V31+V32</f>
-        <v>13278.086474353795</v>
+        <v>12855.680646122768</v>
       </c>
       <c r="W33" s="5">
         <f t="shared" ref="W33" si="63">W31+W32</f>
-        <v>14041.90411317315</v>
+        <v>13548.878537396578</v>
       </c>
       <c r="X33" s="5">
         <f t="shared" ref="X33" si="64">X31+X32</f>
-        <v>8289.1086240377372</v>
+        <v>7720.8324944980268</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.2">
@@ -2736,39 +2742,39 @@
       </c>
       <c r="P34" s="5">
         <f t="shared" ref="P34:S34" si="65">P33*P41</f>
-        <v>1093.0871419567104</v>
+        <v>1083.52019067571</v>
       </c>
       <c r="Q34" s="5">
         <f t="shared" si="65"/>
-        <v>1278.7802035826649</v>
+        <v>1262.1398604458625</v>
       </c>
       <c r="R34" s="5">
         <f t="shared" si="65"/>
-        <v>1995.0782771063816</v>
+        <v>1960.7881360818731</v>
       </c>
       <c r="S34" s="5">
         <f t="shared" si="65"/>
-        <v>2128.5671511202195</v>
+        <v>2083.7162608397371</v>
       </c>
       <c r="T34" s="5">
         <f t="shared" ref="T34" si="66">T33*T41</f>
-        <v>2491.1859561116498</v>
+        <v>2429.4088215731413</v>
       </c>
       <c r="U34" s="5">
         <f t="shared" ref="U34" si="67">U33*U41</f>
-        <v>2636.0013671572469</v>
+        <v>2561.2006266500371</v>
       </c>
       <c r="V34" s="5">
         <f t="shared" ref="V34" si="68">V33*V41</f>
-        <v>2788.3981596142967</v>
+        <v>2699.6929356857813</v>
       </c>
       <c r="W34" s="5">
         <f t="shared" ref="W34" si="69">W33*W41</f>
-        <v>2948.7998637663613</v>
+        <v>2845.2644928532814</v>
       </c>
       <c r="X34" s="5">
         <f t="shared" ref="X34" si="70">X33*X41</f>
-        <v>1740.7128110479248</v>
+        <v>1621.3748238445855</v>
       </c>
     </row>
     <row r="35" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2826,39 +2832,39 @@
       </c>
       <c r="P35" s="7">
         <f t="shared" ref="P35" si="75">P33-P34</f>
-        <v>6714.678157734078</v>
+        <v>6655.9097427222177</v>
       </c>
       <c r="Q35" s="7">
         <f t="shared" ref="Q35" si="76">Q33-Q34</f>
-        <v>7855.3641077220836</v>
+        <v>7753.144857024583</v>
       </c>
       <c r="R35" s="7">
         <f t="shared" ref="R35" si="77">R33-R34</f>
-        <v>8505.3337076640473</v>
+        <v>8359.1494222437741</v>
       </c>
       <c r="S35" s="7">
         <f t="shared" ref="S35" si="78">S33-S34</f>
-        <v>9074.4178547756728</v>
+        <v>8883.2114277904584</v>
       </c>
       <c r="T35" s="7">
         <f t="shared" ref="T35" si="79">T33-T34</f>
-        <v>9371.6043110866813</v>
+        <v>9139.2046144894375</v>
       </c>
       <c r="U35" s="7">
         <f t="shared" ref="U35" si="80">U33-U34</f>
-        <v>9916.3860954963093</v>
+        <v>9634.9928335882341</v>
       </c>
       <c r="V35" s="7">
         <f t="shared" ref="V35" si="81">V33-V34</f>
-        <v>10489.688314739498</v>
+        <v>10155.987710436986</v>
       </c>
       <c r="W35" s="7">
         <f t="shared" ref="W35" si="82">W33-W34</f>
-        <v>11093.104249406788</v>
+        <v>10703.614044543297</v>
       </c>
       <c r="X35" s="7">
         <f t="shared" ref="X35" si="83">X33-X34</f>
-        <v>6548.3958129898128</v>
+        <v>6099.4576706534408</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.2">
@@ -2915,39 +2921,39 @@
       </c>
       <c r="P36" s="11">
         <f t="shared" ref="P36" si="88">P35/P37</f>
-        <v>5.3503411615410981</v>
+        <v>5.3035137392208904</v>
       </c>
       <c r="Q36" s="11">
         <f t="shared" ref="Q36" si="89">Q35/Q37</f>
-        <v>6.2592542691012616</v>
+        <v>6.1778046669518591</v>
       </c>
       <c r="R36" s="11">
         <f t="shared" ref="R36" si="90">R35/R37</f>
-        <v>6.7771583328000373</v>
+        <v>6.6606768304731272</v>
       </c>
       <c r="S36" s="11">
         <f t="shared" ref="S36" si="91">S35/S37</f>
-        <v>7.2306118364746395</v>
+        <v>7.0782561177613212</v>
       </c>
       <c r="T36" s="11">
         <f t="shared" ref="T36" si="92">T35/T37</f>
-        <v>7.4674137936945666</v>
+        <v>7.2822347525812248</v>
       </c>
       <c r="U36" s="11">
         <f t="shared" ref="U36" si="93">U35/U37</f>
-        <v>7.9015028649372985</v>
+        <v>7.6772851263651267</v>
       </c>
       <c r="V36" s="11">
         <f t="shared" ref="V36" si="94">V35/V37</f>
-        <v>8.3583173822625483</v>
+        <v>8.0924204864039737</v>
       </c>
       <c r="W36" s="11">
         <f t="shared" ref="W36" si="95">W35/W37</f>
-        <v>8.8391268919575996</v>
+        <v>8.5287761311101971</v>
       </c>
       <c r="X36" s="11">
         <f t="shared" ref="X36" si="96">X35/X37</f>
-        <v>5.2178452693145916</v>
+        <v>4.8601256339868053</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.2">
@@ -3039,39 +3045,39 @@
       </c>
       <c r="P39" s="8">
         <f t="shared" si="98"/>
-        <v>5.0740311016849615E-2</v>
+        <v>4.1810350744972302E-2</v>
       </c>
       <c r="Q39" s="8">
         <f t="shared" si="98"/>
-        <v>3.0169303971380623E-2</v>
+        <v>2.5755975622120619E-2</v>
       </c>
       <c r="R39" s="8">
         <f t="shared" si="98"/>
-        <v>3.1270872990358134E-2</v>
+        <v>2.6853400034561492E-2</v>
       </c>
       <c r="S39" s="8">
         <f t="shared" si="98"/>
-        <v>4.3327366633648001E-2</v>
+        <v>3.9108784506066918E-2</v>
       </c>
       <c r="T39" s="8">
         <f t="shared" si="98"/>
-        <v>4.3584921461070403E-2</v>
+        <v>3.9464226963815907E-2</v>
       </c>
       <c r="U39" s="8">
         <f t="shared" si="98"/>
-        <v>4.3846938684803494E-2</v>
+        <v>3.9826024957126949E-2</v>
       </c>
       <c r="V39" s="8">
         <f t="shared" si="98"/>
-        <v>4.4113590143033843E-2</v>
+        <v>4.0194305673690423E-2</v>
       </c>
       <c r="W39" s="8">
         <f t="shared" si="98"/>
-        <v>4.4385043605866148E-2</v>
+        <v>4.056918925972508E-2</v>
       </c>
       <c r="X39" s="8">
         <f t="shared" si="98"/>
-        <v>-0.45831128194520809</v>
+        <v>-0.48067248604153723</v>
       </c>
     </row>
     <row r="40" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3332,23 +3338,23 @@
       </c>
       <c r="P44" s="9">
         <f t="shared" si="106"/>
-        <v>0.26799570131812334</v>
+        <v>0.26799570131812356</v>
       </c>
       <c r="Q44" s="9">
         <f t="shared" si="106"/>
-        <v>0.29871595923903599</v>
+        <v>0.2987159592390361</v>
       </c>
       <c r="R44" s="9">
         <f t="shared" si="106"/>
-        <v>0.32759300168469396</v>
+        <v>0.32759300168469391</v>
       </c>
       <c r="S44" s="9">
         <f t="shared" si="106"/>
-        <v>0.33</v>
+        <v>0.32999999999999996</v>
       </c>
       <c r="T44" s="9">
         <f t="shared" si="106"/>
-        <v>0.33</v>
+        <v>0.33000000000000007</v>
       </c>
       <c r="U44" s="9">
         <f t="shared" si="106"/>
@@ -3356,7 +3362,7 @@
       </c>
       <c r="V44" s="9">
         <f t="shared" si="106"/>
-        <v>0.33000000000000007</v>
+        <v>0.33</v>
       </c>
       <c r="W44" s="9">
         <f t="shared" si="106"/>
@@ -3467,39 +3473,39 @@
       </c>
       <c r="P47" s="5">
         <f t="shared" si="109"/>
-        <v>-4929.7750666807615</v>
+        <v>-4988.5434816926218</v>
       </c>
       <c r="Q47" s="5">
         <f t="shared" si="109"/>
-        <v>2925.5890410413222</v>
+        <v>2764.6013753319612</v>
       </c>
       <c r="R47" s="5">
         <f t="shared" si="109"/>
-        <v>11430.922748705369</v>
+        <v>11123.750797575736</v>
       </c>
       <c r="S47" s="5">
         <f t="shared" si="109"/>
-        <v>20505.34060348104</v>
+        <v>20006.962225366195</v>
       </c>
       <c r="T47" s="5">
         <f t="shared" si="109"/>
-        <v>29876.944914567721</v>
+        <v>29146.166839855632</v>
       </c>
       <c r="U47" s="5">
         <f t="shared" si="109"/>
-        <v>39793.33101006403</v>
+        <v>38781.159673443864</v>
       </c>
       <c r="V47" s="5">
         <f t="shared" si="109"/>
-        <v>50283.019324803528</v>
+        <v>48937.147383880852</v>
       </c>
       <c r="W47" s="5">
         <f t="shared" si="109"/>
-        <v>61376.123574210316</v>
+        <v>59640.76142842415</v>
       </c>
       <c r="X47" s="5">
         <f t="shared" si="109"/>
-        <v>67924.519387200125</v>
+        <v>65740.219099077585</v>
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.2">
@@ -3548,7 +3554,7 @@
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B52" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M52" s="5">
         <v>1179</v>
@@ -3559,7 +3565,7 @@
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B53" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M53" s="5">
         <v>4660</v>
@@ -3570,7 +3576,7 @@
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B54" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M54" s="5">
         <v>1787</v>
@@ -3581,7 +3587,7 @@
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B55" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M55" s="5">
         <v>2374</v>
@@ -3592,7 +3598,7 @@
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B56" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M56" s="5">
         <v>5317</v>
@@ -3603,7 +3609,7 @@
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B57" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M57" s="5">
         <v>1163</v>
@@ -3614,7 +3620,7 @@
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B58" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M58" s="5">
         <v>26454</v>
@@ -3625,7 +3631,7 @@
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B59" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M59" s="5">
         <v>8314</v>
@@ -3636,7 +3642,7 @@
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B60" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M60" s="5">
         <v>4792</v>
@@ -3647,7 +3653,7 @@
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B61" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M61" s="5">
         <f>SUM(M51:M60)</f>
@@ -3660,7 +3666,7 @@
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B63" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M63" s="5">
         <v>550</v>
@@ -3671,7 +3677,7 @@
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B64" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M64" s="5">
         <v>3802</v>
@@ -3682,7 +3688,7 @@
     </row>
     <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B65" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M65" s="5">
         <v>1798</v>
@@ -3693,7 +3699,7 @@
     </row>
     <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B66" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M66" s="5">
         <v>5130</v>
@@ -3704,7 +3710,7 @@
     </row>
     <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B67" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M67" s="5">
         <v>23189</v>
@@ -3715,7 +3721,7 @@
     </row>
     <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B68" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M68" s="5">
         <v>2039</v>
@@ -3726,7 +3732,7 @@
     </row>
     <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B69" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M69" s="5">
         <v>1588</v>
@@ -3737,7 +3743,7 @@
     </row>
     <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B70" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M70" s="5">
         <v>1280</v>
@@ -3748,7 +3754,7 @@
     </row>
     <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B71" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M71" s="5">
         <f>SUM(M63:M70)</f>
@@ -3761,7 +3767,7 @@
     </row>
     <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B72" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M72" s="5">
         <f>M61-M71</f>
@@ -3774,7 +3780,7 @@
     </row>
     <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B73" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M73" s="5">
         <f>SUM(M71:M72)</f>
@@ -3787,7 +3793,7 @@
     </row>
     <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B75" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M75" s="5">
         <f>M53/M24*360</f>
@@ -3800,7 +3806,7 @@
     </row>
     <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B77" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L77" s="5">
         <f>L35</f>
@@ -3820,44 +3826,44 @@
       </c>
       <c r="P77" s="5">
         <f t="shared" ref="P77:X77" si="110">P35</f>
-        <v>6714.678157734078</v>
+        <v>6655.9097427222177</v>
       </c>
       <c r="Q77" s="5">
         <f t="shared" si="110"/>
-        <v>7855.3641077220836</v>
+        <v>7753.144857024583</v>
       </c>
       <c r="R77" s="5">
         <f t="shared" si="110"/>
-        <v>8505.3337076640473</v>
+        <v>8359.1494222437741</v>
       </c>
       <c r="S77" s="5">
         <f t="shared" si="110"/>
-        <v>9074.4178547756728</v>
+        <v>8883.2114277904584</v>
       </c>
       <c r="T77" s="5">
         <f t="shared" si="110"/>
-        <v>9371.6043110866813</v>
+        <v>9139.2046144894375</v>
       </c>
       <c r="U77" s="5">
         <f t="shared" si="110"/>
-        <v>9916.3860954963093</v>
+        <v>9634.9928335882341</v>
       </c>
       <c r="V77" s="5">
         <f t="shared" si="110"/>
-        <v>10489.688314739498</v>
+        <v>10155.987710436986</v>
       </c>
       <c r="W77" s="5">
         <f t="shared" si="110"/>
-        <v>11093.104249406788</v>
+        <v>10703.614044543297</v>
       </c>
       <c r="X77" s="5">
         <f t="shared" si="110"/>
-        <v>6548.3958129898128</v>
+        <v>6099.4576706534408</v>
       </c>
     </row>
     <row r="78" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B78" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L78" s="5">
         <v>4566</v>
@@ -3871,7 +3877,7 @@
     </row>
     <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L79" s="5">
         <f>323+1780</f>
@@ -3891,44 +3897,44 @@
       </c>
       <c r="P79" s="5">
         <f t="shared" ref="P79:X79" si="111">O79*(1+P39)</f>
-        <v>2887.2843760407613</v>
+        <v>2862.7461200118246</v>
       </c>
       <c r="Q79" s="5">
         <f t="shared" si="111"/>
-        <v>2974.391736033353</v>
+        <v>2936.4789392911694</v>
       </c>
       <c r="R79" s="5">
         <f t="shared" si="111"/>
-        <v>3067.4035622344227</v>
+        <v>3015.3333829410199</v>
       </c>
       <c r="S79" s="5">
         <f t="shared" si="111"/>
-        <v>3200.3060809887115</v>
+        <v>3133.2594064284099</v>
       </c>
       <c r="T79" s="5">
         <f t="shared" si="111"/>
-        <v>3339.7911701799903</v>
+        <v>3256.911066780212</v>
       </c>
       <c r="U79" s="5">
         <f t="shared" si="111"/>
-        <v>3486.2307888389205</v>
+        <v>3386.6208882089436</v>
       </c>
       <c r="V79" s="5">
         <f t="shared" si="111"/>
-        <v>3640.020945001786</v>
+        <v>3522.7437633905188</v>
       </c>
       <c r="W79" s="5">
         <f t="shared" si="111"/>
-        <v>3801.5834333719563</v>
+        <v>3665.6586218410248</v>
       </c>
       <c r="X79" s="5">
         <f t="shared" si="111"/>
-        <v>2059.2748566015894</v>
+        <v>1903.6773791011042</v>
       </c>
     </row>
     <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B80" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L80" s="5">
         <v>637</v>
@@ -3982,7 +3988,7 @@
     </row>
     <row r="81" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B81" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L81" s="5">
         <v>-1552</v>
@@ -4036,7 +4042,7 @@
     </row>
     <row r="82" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B82" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L82" s="5">
         <v>657</v>
@@ -4053,39 +4059,39 @@
       </c>
       <c r="P82" s="5">
         <f t="shared" ref="P82:X82" si="114">O82*(1+P39)</f>
-        <v>285.91106578791789</v>
+        <v>283.48118427294548</v>
       </c>
       <c r="Q82" s="5">
         <f t="shared" si="114"/>
-        <v>294.53680364045499</v>
+        <v>290.78251874440934</v>
       </c>
       <c r="R82" s="5">
         <f t="shared" si="114"/>
-        <v>303.7472266180817</v>
+        <v>298.59101804331033</v>
       </c>
       <c r="S82" s="5">
         <f t="shared" si="114"/>
-        <v>316.90779406971711</v>
+        <v>310.26854982341331</v>
       </c>
       <c r="T82" s="5">
         <f t="shared" si="114"/>
-        <v>330.72019538464679</v>
+        <v>322.51305829337849</v>
       </c>
       <c r="U82" s="5">
         <f t="shared" si="114"/>
-        <v>345.22126351350363</v>
+        <v>335.35747140196992</v>
       </c>
       <c r="V82" s="5">
         <f t="shared" si="114"/>
-        <v>360.4502128407986</v>
+        <v>348.83693211745657</v>
       </c>
       <c r="W82" s="5">
         <f t="shared" si="114"/>
-        <v>376.44881125548119</v>
+        <v>362.98896363731154</v>
       </c>
       <c r="X82" s="5">
         <f t="shared" si="114"/>
-        <v>203.91807398223193</v>
+        <v>188.51015608012383</v>
       </c>
     </row>
     <row r="83" spans="1:27" x14ac:dyDescent="0.2">
@@ -4106,44 +4112,44 @@
       </c>
       <c r="P83" s="5">
         <f>O83*(1+P39)</f>
-        <v>2626.850777542124</v>
+        <v>2604.5258768624308</v>
       </c>
       <c r="Q83" s="5">
         <f t="shared" ref="Q83:X83" si="115">P83*(1+Q39)</f>
-        <v>2706.1010371372499</v>
+        <v>2671.607981854082</v>
       </c>
       <c r="R83" s="5">
         <f t="shared" si="115"/>
-        <v>2790.7231789686452</v>
+        <v>2743.3497397263372</v>
       </c>
       <c r="S83" s="5">
         <f t="shared" si="115"/>
-        <v>2911.6378653168395</v>
+        <v>2850.6388135220695</v>
       </c>
       <c r="T83" s="5">
         <f t="shared" si="115"/>
-        <v>3038.5413729997526</v>
+        <v>2963.1370706507673</v>
       </c>
       <c r="U83" s="5">
         <f t="shared" si="115"/>
-        <v>3171.7721102729115</v>
+        <v>3081.1470415778927</v>
       </c>
       <c r="V83" s="5">
         <f t="shared" si="115"/>
-        <v>3311.6903651725961</v>
+        <v>3204.9916075926612</v>
       </c>
       <c r="W83" s="5">
         <f t="shared" si="115"/>
-        <v>3458.6798864399084</v>
+        <v>3335.0155186969187</v>
       </c>
       <c r="X83" s="5">
         <f t="shared" si="115"/>
-        <v>1873.5278738475272</v>
+        <v>1731.9653183377641</v>
       </c>
     </row>
     <row r="84" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B84" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L84" s="5">
         <v>2700</v>
@@ -4159,39 +4165,39 @@
       </c>
       <c r="P84" s="5">
         <f>O84*(1+P39)</f>
-        <v>1260.8883732202196</v>
+        <v>1250.1724208939668</v>
       </c>
       <c r="Q84" s="5">
         <f t="shared" ref="Q84:X84" si="116">P84*(1+Q39)</f>
-        <v>1298.92849782588</v>
+        <v>1282.3718312899593</v>
       </c>
       <c r="R84" s="5">
         <f t="shared" si="116"/>
-        <v>1339.5471259049498</v>
+        <v>1316.8078750686418</v>
       </c>
       <c r="S84" s="5">
         <f t="shared" si="116"/>
-        <v>1397.586175352083</v>
+        <v>1368.3066304905933</v>
       </c>
       <c r="T84" s="5">
         <f t="shared" si="116"/>
-        <v>1458.4998590398814</v>
+        <v>1422.3057939123682</v>
       </c>
       <c r="U84" s="5">
         <f t="shared" si="116"/>
-        <v>1522.4506129309975</v>
+        <v>1478.9505799573885</v>
       </c>
       <c r="V84" s="5">
         <f t="shared" si="116"/>
-        <v>1589.6113752828462</v>
+        <v>1538.3959716444776</v>
       </c>
       <c r="W84" s="5">
         <f t="shared" si="116"/>
-        <v>1660.1663454911561</v>
+        <v>1600.8074489745211</v>
       </c>
       <c r="X84" s="5">
         <f t="shared" si="116"/>
-        <v>899.29337944681311</v>
+        <v>831.34335280212679</v>
       </c>
     </row>
     <row r="85" spans="1:27" x14ac:dyDescent="0.2">
@@ -4213,44 +4219,44 @@
       </c>
       <c r="P85" s="5">
         <f t="shared" ref="P85:X85" si="117">O85*(1+P39)</f>
-        <v>368.34527818662411</v>
+        <v>365.21481039543704</v>
       </c>
       <c r="Q85" s="5">
         <f t="shared" si="117"/>
-        <v>379.45799885065912</v>
+        <v>374.62127414881934</v>
       </c>
       <c r="R85" s="5">
         <f t="shared" si="117"/>
-        <v>391.32398173789358</v>
+        <v>384.68112908499472</v>
       </c>
       <c r="S85" s="5">
         <f t="shared" si="117"/>
-        <v>408.27901936719024</v>
+        <v>399.72554046593029</v>
       </c>
       <c r="T85" s="5">
         <f t="shared" si="117"/>
-        <v>426.0738283605121</v>
+        <v>415.50039991811173</v>
       </c>
       <c r="U85" s="5">
         <f t="shared" si="117"/>
-        <v>444.75586138783495</v>
+        <v>432.0481292149467</v>
       </c>
       <c r="V85" s="5">
         <f t="shared" si="117"/>
-        <v>464.3756391708099</v>
+        <v>449.41400378635836</v>
       </c>
       <c r="W85" s="5">
         <f t="shared" si="117"/>
-        <v>484.98697216490825</v>
+        <v>467.64636556193796</v>
       </c>
       <c r="X85" s="5">
         <f t="shared" si="117"/>
-        <v>262.71197122528417</v>
+        <v>242.86162443899173</v>
       </c>
     </row>
     <row r="86" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B86" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L86" s="5">
         <v>-406</v>
@@ -4267,44 +4273,44 @@
       </c>
       <c r="P86" s="5">
         <f t="shared" ref="P86:X86" si="118">O86*(1+P39)</f>
-        <v>145.04247498000211</v>
+        <v>143.80979786109276</v>
       </c>
       <c r="Q86" s="5">
         <f t="shared" si="118"/>
-        <v>149.41830549643515</v>
+        <v>147.51375950902516</v>
       </c>
       <c r="R86" s="5">
         <f t="shared" si="118"/>
-        <v>154.0907463500487</v>
+        <v>151.47500550372311</v>
       </c>
       <c r="S86" s="5">
         <f t="shared" si="118"/>
-        <v>160.76709261200972</v>
+        <v>157.39900885202351</v>
       </c>
       <c r="T86" s="5">
         <f t="shared" si="118"/>
-        <v>167.7741137170288</v>
+        <v>163.61063906123943</v>
       </c>
       <c r="U86" s="5">
         <f t="shared" si="118"/>
-        <v>175.1304949940766</v>
+        <v>170.12660045574384</v>
       </c>
       <c r="V86" s="5">
         <f t="shared" si="118"/>
-        <v>182.85612987179192</v>
+        <v>176.96472103768781</v>
       </c>
       <c r="W86" s="5">
         <f t="shared" si="118"/>
-        <v>190.97220716975133</v>
+        <v>184.14403629776021</v>
       </c>
       <c r="X86" s="5">
         <f t="shared" si="118"/>
-        <v>103.44749008587674</v>
+        <v>95.631064580792739</v>
       </c>
     </row>
     <row r="87" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B87" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L87" s="5">
         <v>-310</v>
@@ -4321,44 +4327,44 @@
       </c>
       <c r="P87" s="5">
         <f t="shared" ref="P87:X87" si="119">O87*(1+P39)</f>
-        <v>-444.51866432720078</v>
+        <v>-440.74081934406848</v>
       </c>
       <c r="Q87" s="5">
         <f t="shared" si="119"/>
-        <v>-457.92948303224023</v>
+        <v>-452.09252914276777</v>
       </c>
       <c r="R87" s="5">
         <f t="shared" si="119"/>
-        <v>-472.24933773468177</v>
+        <v>-464.23275068047519</v>
       </c>
       <c r="S87" s="5">
         <f t="shared" si="119"/>
-        <v>-492.7106579332098</v>
+        <v>-482.38832928749656</v>
       </c>
       <c r="T87" s="5">
         <f t="shared" si="119"/>
-        <v>-514.18541326226102</v>
+        <v>-501.42541179919431</v>
       </c>
       <c r="U87" s="5">
         <f t="shared" si="119"/>
-        <v>-536.73086955019176</v>
+        <v>-521.39519276364672</v>
       </c>
       <c r="V87" s="5">
         <f t="shared" si="119"/>
-        <v>-560.40799514664309</v>
+        <v>-542.3523105183815</v>
       </c>
       <c r="W87" s="5">
         <f t="shared" si="119"/>
-        <v>-585.28172844830283</v>
+        <v>-564.35510404925094</v>
       </c>
       <c r="X87" s="5">
         <f t="shared" si="119"/>
-        <v>-317.04050918405397</v>
+        <v>-293.08513317566707</v>
       </c>
     </row>
     <row r="88" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B88" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L88" s="5">
         <v>-134</v>
@@ -4375,44 +4381,44 @@
       </c>
       <c r="P88" s="5">
         <f t="shared" ref="P88:X88" si="120">O88*(1+P39)</f>
-        <v>-270.25900014259389</v>
+        <v>-267.96214133829511</v>
       </c>
       <c r="Q88" s="5">
         <f t="shared" si="120"/>
-        <v>-278.41252606889719</v>
+        <v>-274.86376771825547</v>
       </c>
       <c r="R88" s="5">
         <f t="shared" si="120"/>
-        <v>-287.11872881052244</v>
+        <v>-282.24479442780057</v>
       </c>
       <c r="S88" s="5">
         <f t="shared" si="120"/>
-        <v>-299.55882724108289</v>
+        <v>-293.2830452710366</v>
       </c>
       <c r="T88" s="5">
         <f t="shared" si="120"/>
-        <v>-312.61507519935583</v>
+        <v>-304.85723393425189</v>
       </c>
       <c r="U88" s="5">
         <f t="shared" si="120"/>
-        <v>-326.32228923356723</v>
+        <v>-316.9984857412781</v>
       </c>
       <c r="V88" s="5">
         <f t="shared" si="120"/>
-        <v>-340.71753695535335</v>
+        <v>-329.74001977526001</v>
       </c>
       <c r="W88" s="5">
         <f t="shared" si="120"/>
-        <v>-355.8402996904</v>
+        <v>-343.117305044028</v>
       </c>
       <c r="X88" s="5">
         <f t="shared" si="120"/>
-        <v>-192.75467577152574</v>
+        <v>-178.19025702464259</v>
       </c>
     </row>
     <row r="89" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B89" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L89" s="5">
         <v>226</v>
@@ -4429,50 +4435,50 @@
       </c>
       <c r="P89" s="5">
         <f t="shared" ref="P89:X89" si="121">O89*(1+P39)</f>
-        <v>302.60660247626345</v>
+        <v>300.03483006990575</v>
       </c>
       <c r="Q89" s="5">
         <f t="shared" si="121"/>
-        <v>311.73603305011659</v>
+        <v>307.76251983897333</v>
       </c>
       <c r="R89" s="5">
         <f t="shared" si="121"/>
-        <v>321.48429094614488</v>
+        <v>316.02698989985396</v>
       </c>
       <c r="S89" s="5">
         <f t="shared" si="121"/>
-        <v>335.41335868692687</v>
+        <v>328.38642134594835</v>
       </c>
       <c r="T89" s="5">
         <f t="shared" si="121"/>
-        <v>350.03232358229042</v>
+        <v>341.34593760978015</v>
       </c>
       <c r="U89" s="5">
         <f t="shared" si="121"/>
-        <v>365.38016941210242</v>
+        <v>354.94038944004114</v>
       </c>
       <c r="V89" s="5">
         <f t="shared" si="121"/>
-        <v>381.4984004519402</v>
+        <v>369.20697194913288</v>
       </c>
       <c r="W89" s="5">
         <f t="shared" si="121"/>
-        <v>398.43122359156774</v>
+        <v>384.18539947014727</v>
       </c>
       <c r="X89" s="5">
         <f t="shared" si="121"/>
-        <v>215.8256987403185</v>
+        <v>199.51804840597052</v>
       </c>
       <c r="Z89" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="AA89" s="12">
+      <c r="AA89" s="9">
         <v>0.02</v>
       </c>
     </row>
     <row r="90" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B90" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L90" s="5">
         <v>-364</v>
@@ -4489,50 +4495,50 @@
       </c>
       <c r="P90" s="5">
         <f t="shared" ref="P90:X90" si="122">O90*(1+P39)</f>
-        <v>-763.82080349180978</v>
+        <v>-757.32929521093456</v>
       </c>
       <c r="Q90" s="5">
         <f t="shared" si="122"/>
-        <v>-786.86474549201841</v>
+        <v>-776.83505007630515</v>
       </c>
       <c r="R90" s="5">
         <f t="shared" si="122"/>
-        <v>-811.47069300888984</v>
+        <v>-797.69571243687278</v>
       </c>
       <c r="S90" s="5">
         <f t="shared" si="122"/>
-        <v>-846.62958123734643</v>
+        <v>-828.89262215598001</v>
       </c>
       <c r="T90" s="5">
         <f t="shared" si="122"/>
-        <v>-883.52986504219507</v>
+        <v>-861.60422872537606</v>
       </c>
       <c r="U90" s="5">
         <f t="shared" si="122"/>
-        <v>-922.26994486089291</v>
+        <v>-895.91850024175903</v>
       </c>
       <c r="V90" s="5">
         <f t="shared" si="122"/>
-        <v>-962.95458320972477</v>
+        <v>-931.92932229919063</v>
       </c>
       <c r="W90" s="5">
         <f t="shared" si="122"/>
-        <v>-1005.6953643759571</v>
+        <v>-969.73693935223378</v>
       </c>
       <c r="X90" s="5">
         <f t="shared" si="122"/>
-        <v>-544.77383268245899</v>
+        <v>-503.61107390748413</v>
       </c>
       <c r="Z90" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="AA90" s="12">
+      <c r="AA90" s="9">
         <v>-0.01</v>
       </c>
     </row>
     <row r="91" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B91" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L91" s="5">
         <v>-775</v>
@@ -4549,45 +4555,45 @@
       </c>
       <c r="P91" s="5">
         <f t="shared" ref="P91:X91" si="123">O91*(1+P39)</f>
-        <v>112.69487264633258</v>
+        <v>111.73710912948215</v>
       </c>
       <c r="Q91" s="5">
         <f t="shared" si="123"/>
-        <v>116.09479851521581</v>
+        <v>114.61500738830732</v>
       </c>
       <c r="R91" s="5">
         <f t="shared" si="123"/>
-        <v>119.72518421442635</v>
+        <v>117.69281003166975</v>
       </c>
       <c r="S91" s="5">
         <f t="shared" si="123"/>
-        <v>124.91256116616584</v>
+        <v>122.29563277711179</v>
       </c>
       <c r="T91" s="5">
         <f t="shared" si="123"/>
-        <v>130.35686533409432</v>
+        <v>127.12193538571121</v>
       </c>
       <c r="U91" s="5">
         <f t="shared" si="123"/>
-        <v>136.07261481554156</v>
+        <v>132.18469675698083</v>
       </c>
       <c r="V91" s="5">
         <f t="shared" si="123"/>
-        <v>142.07526637520527</v>
+        <v>137.497768863815</v>
       </c>
       <c r="W91" s="5">
         <f t="shared" si="123"/>
-        <v>148.38128326858381</v>
+        <v>143.07594187164105</v>
       </c>
       <c r="X91" s="5">
         <f t="shared" si="123"/>
-        <v>80.376467117084104</v>
+        <v>74.303273199464869</v>
       </c>
       <c r="Z91" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="AA91" s="12">
-        <v>8.5000000000000006E-2</v>
+      <c r="AA91" s="9">
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="92" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -4613,51 +4619,51 @@
       </c>
       <c r="P92" s="7">
         <f t="shared" ref="P92:X92" si="125">SUM(P77:P91)</f>
-        <v>12706.007510652718</v>
+        <v>12591.903636326006</v>
       </c>
       <c r="Q92" s="7">
         <f t="shared" si="125"/>
-        <v>14270.406083678292</v>
+        <v>14082.690862152002</v>
       </c>
       <c r="R92" s="7">
         <f t="shared" si="125"/>
-        <v>15348.700126684564</v>
+        <v>15085.093996598176</v>
       </c>
       <c r="S92" s="7">
         <f t="shared" si="125"/>
-        <v>16429.354120051677</v>
+        <v>16086.952818909445</v>
       </c>
       <c r="T92" s="7">
         <f t="shared" si="125"/>
-        <v>17248.126541839312</v>
+        <v>16828.826497300422</v>
       </c>
       <c r="U92" s="7">
         <f t="shared" si="125"/>
-        <v>18327.140688848438</v>
+        <v>17821.120232686357</v>
       </c>
       <c r="V92" s="7">
         <f t="shared" si="125"/>
-        <v>19449.931723940921</v>
+        <v>18851.762988571631</v>
       </c>
       <c r="W92" s="7">
         <f t="shared" si="125"/>
-        <v>20620.702501561642</v>
+        <v>19924.692474365249</v>
       </c>
       <c r="X92" s="7">
         <f t="shared" si="125"/>
-        <v>12351.941935576877</v>
+        <v>11552.120752670364</v>
       </c>
       <c r="Z92" s="5" t="s">
         <v>54</v>
       </c>
       <c r="AA92" s="7">
         <f>NPV(AA91,O100:DR100)</f>
-        <v>150356.31716833118</v>
+        <v>170422.41718793675</v>
       </c>
     </row>
     <row r="93" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B93" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L93" s="5">
         <v>-1770</v>
@@ -4668,17 +4674,17 @@
       <c r="N93" s="5">
         <v>-244</v>
       </c>
-      <c r="Z93" s="5" t="s">
-        <v>0</v>
+      <c r="Z93" s="12" t="s">
+        <v>100</v>
       </c>
       <c r="AA93" s="11">
         <f>AA92/Main!M3</f>
-        <v>120.87210537605536</v>
+        <v>137.00333153092882</v>
       </c>
     </row>
     <row r="94" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B94" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L94" s="5">
         <v>412</v>
@@ -4689,17 +4695,14 @@
       <c r="N94" s="5">
         <v>2265</v>
       </c>
-      <c r="Z94" s="5" t="s">
-        <v>55</v>
-      </c>
       <c r="AA94" s="9">
         <f>AA93/Main!M2-1</f>
-        <v>6.9664649345622554E-2</v>
+        <v>0.21241886310556479</v>
       </c>
     </row>
     <row r="95" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B95" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L95" s="5">
         <v>1590</v>
@@ -4713,7 +4716,7 @@
     </row>
     <row r="96" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B96" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L96" s="5">
         <v>-1797</v>
@@ -4727,7 +4730,7 @@
     </row>
     <row r="97" spans="1:122" x14ac:dyDescent="0.2">
       <c r="B97" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L97" s="5">
         <v>-172</v>
@@ -4742,7 +4745,7 @@
     <row r="98" spans="1:122" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="5"/>
       <c r="B98" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L98" s="7">
         <v>-728</v>
@@ -4758,39 +4761,39 @@
       </c>
       <c r="P98" s="7">
         <f>O98*(1+P39)</f>
-        <v>-735.5182177117947</v>
+        <v>-729.26724552148062</v>
       </c>
       <c r="Q98" s="7">
         <f t="shared" ref="Q98:X98" si="126">P98*(1+Q39)</f>
-        <v>-757.70829039842999</v>
+        <v>-748.05023491914289</v>
       </c>
       <c r="R98" s="7">
         <f t="shared" si="126"/>
-        <v>-781.40249011122069</v>
+        <v>-768.13792712337431</v>
       </c>
       <c r="S98" s="7">
         <f t="shared" si="126"/>
-        <v>-815.258602288715</v>
+        <v>-798.17886778617924</v>
       </c>
       <c r="T98" s="7">
         <f t="shared" si="126"/>
-        <v>-850.79158443993072</v>
+        <v>-829.67837978221462</v>
       </c>
       <c r="U98" s="7">
         <f t="shared" si="126"/>
-        <v>-888.09619087641522</v>
+        <v>-862.72117164180975</v>
       </c>
       <c r="V98" s="7">
         <f t="shared" si="126"/>
-        <v>-927.2733022483269</v>
+        <v>-897.39765012594501</v>
       </c>
       <c r="W98" s="7">
         <f t="shared" si="126"/>
-        <v>-968.43036820317434</v>
+        <v>-933.80434523513702</v>
       </c>
       <c r="X98" s="7">
         <f t="shared" si="126"/>
-        <v>-524.58780467730764</v>
+        <v>-484.95028913457384</v>
       </c>
     </row>
     <row r="99" spans="1:122" x14ac:dyDescent="0.2">
@@ -4830,431 +4833,431 @@
       </c>
       <c r="P100" s="7">
         <f t="shared" si="127"/>
-        <v>11970.489292940923</v>
+        <v>11862.636390804524</v>
       </c>
       <c r="Q100" s="7">
         <f t="shared" si="127"/>
-        <v>13512.697793279862</v>
+        <v>13334.640627232859</v>
       </c>
       <c r="R100" s="7">
         <f t="shared" si="127"/>
-        <v>14567.297636573343</v>
+        <v>14316.956069474802</v>
       </c>
       <c r="S100" s="7">
         <f t="shared" si="127"/>
-        <v>15614.095517762962</v>
+        <v>15288.773951123267</v>
       </c>
       <c r="T100" s="7">
         <f t="shared" si="127"/>
-        <v>16397.33495739938</v>
+        <v>15999.148117518207</v>
       </c>
       <c r="U100" s="7">
         <f t="shared" si="127"/>
-        <v>17439.044497972023</v>
+        <v>16958.399061044547</v>
       </c>
       <c r="V100" s="7">
         <f t="shared" si="127"/>
-        <v>18522.658421692595</v>
+        <v>17954.365338445685</v>
       </c>
       <c r="W100" s="7">
         <f t="shared" si="127"/>
-        <v>19652.272133358467</v>
+        <v>18990.888129130111</v>
       </c>
       <c r="X100" s="7">
         <f t="shared" si="127"/>
-        <v>11827.35413089957</v>
+        <v>11067.170463535789</v>
       </c>
       <c r="Y100" s="7">
         <f>X100*(1+$AA$90)</f>
-        <v>11709.080589590574</v>
+        <v>10956.49875890043</v>
       </c>
       <c r="Z100" s="7">
         <f t="shared" ref="Z100:CK100" si="128">Y100*(1+$AA$90)</f>
-        <v>11591.989783694667</v>
+        <v>10846.933771311426</v>
       </c>
       <c r="AA100" s="7">
         <f t="shared" si="128"/>
-        <v>11476.069885857722</v>
+        <v>10738.46443359831</v>
       </c>
       <c r="AB100" s="7">
         <f t="shared" si="128"/>
-        <v>11361.309186999144</v>
+        <v>10631.079789262327</v>
       </c>
       <c r="AC100" s="7">
         <f t="shared" si="128"/>
-        <v>11247.696095129153</v>
+        <v>10524.768991369703</v>
       </c>
       <c r="AD100" s="7">
         <f t="shared" si="128"/>
-        <v>11135.219134177862</v>
+        <v>10419.521301456007</v>
       </c>
       <c r="AE100" s="7">
         <f t="shared" si="128"/>
-        <v>11023.866942836083</v>
+        <v>10315.326088441447</v>
       </c>
       <c r="AF100" s="7">
         <f t="shared" si="128"/>
-        <v>10913.628273407721</v>
+        <v>10212.172827557031</v>
       </c>
       <c r="AG100" s="7">
         <f t="shared" si="128"/>
-        <v>10804.491990673643</v>
+        <v>10110.051099281462</v>
       </c>
       <c r="AH100" s="7">
         <f t="shared" si="128"/>
-        <v>10696.447070766906</v>
+        <v>10008.950588288646</v>
       </c>
       <c r="AI100" s="7">
         <f t="shared" si="128"/>
-        <v>10589.482600059237</v>
+        <v>9908.8610824057596</v>
       </c>
       <c r="AJ100" s="7">
         <f t="shared" si="128"/>
-        <v>10483.587774058644</v>
+        <v>9809.7724715817021</v>
       </c>
       <c r="AK100" s="7">
         <f t="shared" si="128"/>
-        <v>10378.751896318057</v>
+        <v>9711.674746865885</v>
       </c>
       <c r="AL100" s="7">
         <f t="shared" si="128"/>
-        <v>10274.964377354876</v>
+        <v>9614.557999397226</v>
       </c>
       <c r="AM100" s="7">
         <f t="shared" si="128"/>
-        <v>10172.214733581328</v>
+        <v>9518.4124194032538</v>
       </c>
       <c r="AN100" s="7">
         <f t="shared" si="128"/>
-        <v>10070.492586245515</v>
+        <v>9423.228295209221</v>
       </c>
       <c r="AO100" s="7">
         <f t="shared" si="128"/>
-        <v>9969.7876603830591</v>
+        <v>9328.9960122571283</v>
       </c>
       <c r="AP100" s="7">
         <f t="shared" si="128"/>
-        <v>9870.089783779229</v>
+        <v>9235.7060521345575</v>
       </c>
       <c r="AQ100" s="7">
         <f t="shared" si="128"/>
-        <v>9771.3888859414365</v>
+        <v>9143.3489916132112</v>
       </c>
       <c r="AR100" s="7">
         <f t="shared" si="128"/>
-        <v>9673.6749970820219</v>
+        <v>9051.9155016970799</v>
       </c>
       <c r="AS100" s="7">
         <f t="shared" si="128"/>
-        <v>9576.9382471112021</v>
+        <v>8961.3963466801088</v>
       </c>
       <c r="AT100" s="7">
         <f t="shared" si="128"/>
-        <v>9481.1688646400908</v>
+        <v>8871.7823832133072</v>
       </c>
       <c r="AU100" s="7">
         <f t="shared" si="128"/>
-        <v>9386.3571759936895</v>
+        <v>8783.0645593811732</v>
       </c>
       <c r="AV100" s="7">
         <f t="shared" si="128"/>
-        <v>9292.4936042337522</v>
+        <v>8695.2339137873623</v>
       </c>
       <c r="AW100" s="7">
         <f t="shared" si="128"/>
-        <v>9199.568668191414</v>
+        <v>8608.2815746494889</v>
       </c>
       <c r="AX100" s="7">
         <f t="shared" si="128"/>
-        <v>9107.5729815095001</v>
+        <v>8522.1987589029941</v>
       </c>
       <c r="AY100" s="7">
         <f t="shared" si="128"/>
-        <v>9016.4972516944053</v>
+        <v>8436.9767713139645</v>
       </c>
       <c r="AZ100" s="7">
         <f t="shared" si="128"/>
-        <v>8926.3322791774608</v>
+        <v>8352.6070036008241</v>
       </c>
       <c r="BA100" s="7">
         <f t="shared" si="128"/>
-        <v>8837.0689563856868</v>
+        <v>8269.0809335648155</v>
       </c>
       <c r="BB100" s="7">
         <f t="shared" si="128"/>
-        <v>8748.6982668218297</v>
+        <v>8186.3901242291677</v>
       </c>
       <c r="BC100" s="7">
         <f t="shared" si="128"/>
-        <v>8661.2112841536109</v>
+        <v>8104.5262229868758</v>
       </c>
       <c r="BD100" s="7">
         <f t="shared" si="128"/>
-        <v>8574.5991713120748</v>
+        <v>8023.4809607570069</v>
       </c>
       <c r="BE100" s="7">
         <f t="shared" si="128"/>
-        <v>8488.8531795989547</v>
+        <v>7943.2461511494366</v>
       </c>
       <c r="BF100" s="7">
         <f t="shared" si="128"/>
-        <v>8403.9646478029645</v>
+        <v>7863.8136896379419</v>
       </c>
       <c r="BG100" s="7">
         <f t="shared" si="128"/>
-        <v>8319.9250013249348</v>
+        <v>7785.1755527415626</v>
       </c>
       <c r="BH100" s="7">
         <f t="shared" si="128"/>
-        <v>8236.7257513116856</v>
+        <v>7707.3237972141469</v>
       </c>
       <c r="BI100" s="7">
         <f t="shared" si="128"/>
-        <v>8154.3584937985688</v>
+        <v>7630.2505592420057</v>
       </c>
       <c r="BJ100" s="7">
         <f t="shared" si="128"/>
-        <v>8072.8149088605833</v>
+        <v>7553.9480536495857</v>
       </c>
       <c r="BK100" s="7">
         <f t="shared" si="128"/>
-        <v>7992.0867597719771</v>
+        <v>7478.4085731130899</v>
       </c>
       <c r="BL100" s="7">
         <f t="shared" si="128"/>
-        <v>7912.1658921742574</v>
+        <v>7403.6244873819587</v>
       </c>
       <c r="BM100" s="7">
         <f t="shared" si="128"/>
-        <v>7833.0442332525145</v>
+        <v>7329.588242508139</v>
       </c>
       <c r="BN100" s="7">
         <f t="shared" si="128"/>
-        <v>7754.7137909199892</v>
+        <v>7256.2923600830572</v>
       </c>
       <c r="BO100" s="7">
         <f t="shared" si="128"/>
-        <v>7677.1666530107896</v>
+        <v>7183.7294364822264</v>
       </c>
       <c r="BP100" s="7">
         <f t="shared" si="128"/>
-        <v>7600.3949864806818</v>
+        <v>7111.8921421174045</v>
       </c>
       <c r="BQ100" s="7">
         <f t="shared" si="128"/>
-        <v>7524.3910366158752</v>
+        <v>7040.7732206962301</v>
       </c>
       <c r="BR100" s="7">
         <f t="shared" si="128"/>
-        <v>7449.1471262497162</v>
+        <v>6970.3654884892676</v>
       </c>
       <c r="BS100" s="7">
         <f t="shared" si="128"/>
-        <v>7374.6556549872194</v>
+        <v>6900.6618336043748</v>
       </c>
       <c r="BT100" s="7">
         <f t="shared" si="128"/>
-        <v>7300.909098437347</v>
+        <v>6831.6552152683307</v>
       </c>
       <c r="BU100" s="7">
         <f t="shared" si="128"/>
-        <v>7227.9000074529731</v>
+        <v>6763.3386631156473</v>
       </c>
       <c r="BV100" s="7">
         <f t="shared" si="128"/>
-        <v>7155.6210073784432</v>
+        <v>6695.7052764844912</v>
       </c>
       <c r="BW100" s="7">
         <f t="shared" si="128"/>
-        <v>7084.0647973046589</v>
+        <v>6628.7482237196464</v>
       </c>
       <c r="BX100" s="7">
         <f t="shared" si="128"/>
-        <v>7013.2241493316124</v>
+        <v>6562.4607414824495</v>
       </c>
       <c r="BY100" s="7">
         <f t="shared" si="128"/>
-        <v>6943.0919078382958</v>
+        <v>6496.8361340676247</v>
       </c>
       <c r="BZ100" s="7">
         <f t="shared" si="128"/>
-        <v>6873.6609887599125</v>
+        <v>6431.8677727269487</v>
       </c>
       <c r="CA100" s="7">
         <f t="shared" si="128"/>
-        <v>6804.9243788723134</v>
+        <v>6367.5490949996793</v>
       </c>
       <c r="CB100" s="7">
         <f t="shared" si="128"/>
-        <v>6736.8751350835901</v>
+        <v>6303.8736040496824</v>
       </c>
       <c r="CC100" s="7">
         <f t="shared" si="128"/>
-        <v>6669.5063837327543</v>
+        <v>6240.8348680091858</v>
       </c>
       <c r="CD100" s="7">
         <f t="shared" si="128"/>
-        <v>6602.811319895427</v>
+        <v>6178.4265193290939</v>
       </c>
       <c r="CE100" s="7">
         <f t="shared" si="128"/>
-        <v>6536.7832066964729</v>
+        <v>6116.6422541358033</v>
       </c>
       <c r="CF100" s="7">
         <f t="shared" si="128"/>
-        <v>6471.4153746295078</v>
+        <v>6055.4758315944455</v>
       </c>
       <c r="CG100" s="7">
         <f t="shared" si="128"/>
-        <v>6406.701220883213</v>
+        <v>5994.9210732785014</v>
       </c>
       <c r="CH100" s="7">
         <f t="shared" si="128"/>
-        <v>6342.6342086743807</v>
+        <v>5934.9718625457162</v>
       </c>
       <c r="CI100" s="7">
         <f t="shared" si="128"/>
-        <v>6279.207866587637</v>
+        <v>5875.6221439202591</v>
       </c>
       <c r="CJ100" s="7">
         <f t="shared" si="128"/>
-        <v>6216.415787921761</v>
+        <v>5816.8659224810563</v>
       </c>
       <c r="CK100" s="7">
         <f t="shared" si="128"/>
-        <v>6154.2516300425432</v>
+        <v>5758.6972632562456</v>
       </c>
       <c r="CL100" s="7">
         <f t="shared" ref="CL100:DR100" si="129">CK100*(1+$AA$90)</f>
-        <v>6092.7091137421176</v>
+        <v>5701.1102906236829</v>
       </c>
       <c r="CM100" s="7">
         <f t="shared" si="129"/>
-        <v>6031.7820226046961</v>
+        <v>5644.0991877174456</v>
       </c>
       <c r="CN100" s="7">
         <f t="shared" si="129"/>
-        <v>5971.4642023786491</v>
+        <v>5587.6581958402712</v>
       </c>
       <c r="CO100" s="7">
         <f t="shared" si="129"/>
-        <v>5911.7495603548623</v>
+        <v>5531.7816138818689</v>
       </c>
       <c r="CP100" s="7">
         <f t="shared" si="129"/>
-        <v>5852.6320647513139</v>
+        <v>5476.4637977430502</v>
       </c>
       <c r="CQ100" s="7">
         <f t="shared" si="129"/>
-        <v>5794.105744103801</v>
+        <v>5421.6991597656197</v>
       </c>
       <c r="CR100" s="7">
         <f t="shared" si="129"/>
-        <v>5736.1646866627634</v>
+        <v>5367.4821681679632</v>
       </c>
       <c r="CS100" s="7">
         <f t="shared" si="129"/>
-        <v>5678.8030397961356</v>
+        <v>5313.8073464862837</v>
       </c>
       <c r="CT100" s="7">
         <f t="shared" si="129"/>
-        <v>5622.0150093981738</v>
+        <v>5260.6692730214208</v>
       </c>
       <c r="CU100" s="7">
         <f t="shared" si="129"/>
-        <v>5565.794859304192</v>
+        <v>5208.0625802912064</v>
       </c>
       <c r="CV100" s="7">
         <f t="shared" si="129"/>
-        <v>5510.1369107111495</v>
+        <v>5155.9819544882939</v>
       </c>
       <c r="CW100" s="7">
         <f t="shared" si="129"/>
-        <v>5455.0355416040384</v>
+        <v>5104.422134943411</v>
       </c>
       <c r="CX100" s="7">
         <f t="shared" si="129"/>
-        <v>5400.4851861879979</v>
+        <v>5053.3779135939767</v>
       </c>
       <c r="CY100" s="7">
         <f t="shared" si="129"/>
-        <v>5346.4803343261183</v>
+        <v>5002.8441344580369</v>
       </c>
       <c r="CZ100" s="7">
         <f t="shared" si="129"/>
-        <v>5293.0155309828569</v>
+        <v>4952.8156931134563</v>
       </c>
       <c r="DA100" s="7">
         <f t="shared" si="129"/>
-        <v>5240.0853756730285</v>
+        <v>4903.2875361823217</v>
       </c>
       <c r="DB100" s="7">
         <f t="shared" si="129"/>
-        <v>5187.6845219162979</v>
+        <v>4854.2546608204984</v>
       </c>
       <c r="DC100" s="7">
         <f t="shared" si="129"/>
-        <v>5135.8076766971344</v>
+        <v>4805.7121142122933</v>
       </c>
       <c r="DD100" s="7">
         <f t="shared" si="129"/>
-        <v>5084.4495999301635</v>
+        <v>4757.6549930701703</v>
       </c>
       <c r="DE100" s="7">
         <f t="shared" si="129"/>
-        <v>5033.6051039308613</v>
+        <v>4710.0784431394686</v>
       </c>
       <c r="DF100" s="7">
         <f t="shared" si="129"/>
-        <v>4983.2690528915527</v>
+        <v>4662.9776587080742</v>
       </c>
       <c r="DG100" s="7">
         <f t="shared" si="129"/>
-        <v>4933.4363623626368</v>
+        <v>4616.3478821209937</v>
       </c>
       <c r="DH100" s="7">
         <f t="shared" si="129"/>
-        <v>4884.10199873901</v>
+        <v>4570.1844032997842</v>
       </c>
       <c r="DI100" s="7">
         <f t="shared" si="129"/>
-        <v>4835.2609787516203</v>
+        <v>4524.4825592667867</v>
       </c>
       <c r="DJ100" s="7">
         <f t="shared" si="129"/>
-        <v>4786.9083689641038</v>
+        <v>4479.2377336741183</v>
       </c>
       <c r="DK100" s="7">
         <f t="shared" si="129"/>
-        <v>4739.0392852744626</v>
+        <v>4434.4453563373772</v>
       </c>
       <c r="DL100" s="7">
         <f t="shared" si="129"/>
-        <v>4691.6488924217183</v>
+        <v>4390.1009027740038</v>
       </c>
       <c r="DM100" s="7">
         <f t="shared" si="129"/>
-        <v>4644.7324034975009</v>
+        <v>4346.199893746264</v>
       </c>
       <c r="DN100" s="7">
         <f t="shared" si="129"/>
-        <v>4598.2850794625256</v>
+        <v>4302.7378948088017</v>
       </c>
       <c r="DO100" s="7">
         <f t="shared" si="129"/>
-        <v>4552.3022286679006</v>
+        <v>4259.7105158607137</v>
       </c>
       <c r="DP100" s="7">
         <f t="shared" si="129"/>
-        <v>4506.7792063812212</v>
+        <v>4217.1134107021062</v>
       </c>
       <c r="DQ100" s="7">
         <f t="shared" si="129"/>
-        <v>4461.7114143174085</v>
+        <v>4174.9422765950849</v>
       </c>
       <c r="DR100" s="7">
         <f t="shared" si="129"/>
-        <v>4417.0943001742344</v>
+        <v>4133.192853829134</v>
       </c>
     </row>
   </sheetData>
